--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -16,15 +16,106 @@
     <sheet name="AI" sheetId="2" r:id="rId2"/>
     <sheet name="技能实现" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mtong</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>辛炜</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>增益效果去除，平衡技能在考虑是对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的效果，还是对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>H,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>做属性削减即可（这样，技能时突出了倾向性，会对战斗时间有一定影响，战力平衡则不会变化）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升整体战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理攻击权重</t>
   </si>
   <si>
@@ -387,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性与AI占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,11 +502,297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升整体战力</t>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防御技能价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS（DDD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S先死丧失战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果去除，平衡技能在考虑是对A的效果，还是对H,做属性削减即可（这样，技能时突出了倾向性，会对战斗时间有一定影响，战力平衡则不会变化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招综合提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动综合提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+y=1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=4y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（需要用减益效果的权重替代增益效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff提升幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S的覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff覆盖率（团队）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升比例差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体提升期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增（只会提升防御力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间内，使用buff技能次数与概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Buff对技能覆盖暂未考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+  </si>
+  <si>
+    <t>三连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据属性克制状态分布：</t>
+  </si>
+  <si>
+    <t>状态1</t>
+  </si>
+  <si>
+    <t>状态2</t>
+  </si>
+  <si>
+    <t>状态3</t>
+  </si>
+  <si>
+    <t>效率期望</t>
+  </si>
+  <si>
+    <t>稀有度系数</t>
+  </si>
+  <si>
+    <t>投放参考值</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>中间计算过程</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>平均效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数低了是因为打断有价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,8 +837,79 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +919,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,12 +976,15 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +1013,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -575,9 +1027,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,33 +1212,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="基础系数"/>
-      <sheetName val="总属性成长"/>
-      <sheetName val="技能占比"/>
-      <sheetName val="AI"/>
-      <sheetName val="自用"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="H9">
-            <v>0.60000000000000009</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AR77"/>
+  <dimension ref="A2:AR84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1047,12 +1527,19 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
+        <f>1+D3</f>
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -1060,16 +1547,26 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
+        <f>1+D4</f>
+        <v>1.35</v>
+      </c>
+      <c r="D4" s="19">
         <v>0.35</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C5" s="4">
-        <f>(1+C3)*(1+C4)</f>
+        <f>C3*C4</f>
         <v>1.7550000000000001</v>
+      </c>
+      <c r="D5" s="12">
+        <f>C5-1</f>
+        <v>0.75500000000000012</v>
       </c>
       <c r="W5" s="3"/>
     </row>
@@ -1078,50 +1575,50 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
       <c r="AN7" s="6"/>
-      <c r="AP7" s="9" t="s">
+      <c r="AP7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
@@ -1139,7 +1636,9 @@
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1206,24 +1705,28 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <f>C9</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="17">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
+      <c r="H9" s="20">
+        <f>AVERAGE(E9:G9)*3/2</f>
+        <v>6.5</v>
       </c>
       <c r="I9" s="4">
         <f>E9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" s="4">
         <f>F9</f>
@@ -1231,14 +1734,14 @@
       </c>
       <c r="K9" s="4">
         <f>G9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="P9" s="4">
         <f>E9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" ref="Q9:R9" si="0">F9</f>
@@ -1246,7 +1749,7 @@
       </c>
       <c r="R9" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="5"/>
@@ -1258,11 +1761,11 @@
       </c>
       <c r="X9" s="4">
         <f>G9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="4">
         <f>G9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="5"/>
@@ -1278,7 +1781,7 @@
       </c>
       <c r="AF9" s="4">
         <f>G9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="4"/>
       <c r="AH9" s="5"/>
@@ -1298,15 +1801,15 @@
       <c r="AN9" s="4"/>
       <c r="AP9" s="4">
         <f>E9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AQ9" s="4">
         <f>E9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR9" s="4">
         <f>E9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.15">
@@ -1314,107 +1817,111 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*(1+C4)</f>
-        <v>2.7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
+        <f>C10*(1+D4)</f>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="E10" s="17">
         <v>1.5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="20">
+        <f>AVERAGE(E10:G10)*3/2</f>
         <v>2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" ref="I10" si="1">E10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="4">
         <f>F10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
         <f>G10</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="P10" s="4">
-        <f>E10*(1+$C$4)</f>
-        <v>4.0500000000000007</v>
+        <f>E10*(1+$D$4)</f>
+        <v>2.0250000000000004</v>
       </c>
       <c r="Q10" s="4">
-        <f>F10*(1+$C$4)</f>
+        <f>F10*(1+$D$4)</f>
+        <v>1.35</v>
+      </c>
+      <c r="R10" s="4">
+        <f>G10*(1+$D$4)</f>
         <v>2.0250000000000004</v>
-      </c>
-      <c r="R10" s="4">
-        <f>G10*(1+$C$4)</f>
-        <v>2.7</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="4">
-        <f>F10*(1+$C$4)</f>
+        <f>F10*(1+$D$4)</f>
+        <v>1.35</v>
+      </c>
+      <c r="X10" s="4">
+        <f>G10*(1+$D$4)</f>
         <v>2.0250000000000004</v>
       </c>
-      <c r="X10" s="4">
-        <f>G10*(1+$C$4)</f>
-        <v>2.7</v>
-      </c>
       <c r="Y10" s="4">
-        <f>G10*(1+$C$4)</f>
-        <v>2.7</v>
+        <f>G10*(1+$D$4)</f>
+        <v>2.0250000000000004</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="4">
-        <f>F10*(1+$C$4)</f>
+        <f>F10*(1+$D$4)</f>
+        <v>1.35</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>F10*(1+$D$4)</f>
+        <v>1.35</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>G10*(1+$D$4)</f>
         <v>2.0250000000000004</v>
-      </c>
-      <c r="AE10" s="4">
-        <f>F10*(1+$C$4)</f>
-        <v>2.0250000000000004</v>
-      </c>
-      <c r="AF10" s="4">
-        <f>G10*(1+$C$4)</f>
-        <v>2.7</v>
       </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AK10" s="4">
         <f>F10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="4">
         <f>F10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="4">
         <f>F10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="4"/>
       <c r="AP10" s="4">
         <f>E10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" s="4">
         <f>E10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR10" s="4">
         <f>E10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.15">
@@ -1425,28 +1932,32 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*C3</f>
+        <f>C11*D3</f>
         <v>0.3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>0.3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="17">
         <v>2.1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="17">
         <v>0.2</v>
       </c>
+      <c r="H11" s="20">
+        <f>AVERAGE(E11:G11)*3/2</f>
+        <v>1.3</v>
+      </c>
       <c r="I11" s="4">
-        <f>E11*(1+$C$3)</f>
+        <f>E11*(1+$D$3)</f>
         <v>0.39</v>
       </c>
       <c r="J11" s="4">
-        <f>F11*(1+$C$3)</f>
+        <f>F11*(1+$D$3)</f>
         <v>2.7300000000000004</v>
       </c>
       <c r="K11" s="4">
-        <f>G11*(1+$C$3)</f>
+        <f>G11*(1+$D$3)</f>
         <v>0.26</v>
       </c>
       <c r="L11" s="4"/>
@@ -1469,15 +1980,15 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="4">
-        <f>F11*(1+$C$3)</f>
+        <f>F11*(1+$D$3)</f>
         <v>2.7300000000000004</v>
       </c>
       <c r="X11" s="4">
-        <f>G11*(1+$C$3)</f>
+        <f>G11*(1+$D$3)</f>
         <v>0.26</v>
       </c>
       <c r="Y11" s="4">
-        <f>G11*(1+$C$3)</f>
+        <f>G11*(1+$D$3)</f>
         <v>0.26</v>
       </c>
       <c r="Z11" s="4"/>
@@ -1540,11 +2051,11 @@
       </c>
       <c r="F12" s="4">
         <f>F10*F9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4">
         <f>G10*G9</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" s="4">
         <f>I10*I9</f>
@@ -1552,11 +2063,11 @@
       </c>
       <c r="J12" s="4">
         <f>J10*J9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4">
         <f>K10*K9</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
@@ -1567,11 +2078,11 @@
       </c>
       <c r="Q12" s="4">
         <f>Q10*Q9</f>
-        <v>4.0500000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="R12" s="4">
         <f>R10*R9</f>
-        <v>5.4</v>
+        <v>6.0750000000000011</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="5"/>
@@ -1579,15 +2090,15 @@
       <c r="V12" s="5"/>
       <c r="W12" s="4">
         <f>W10*W9</f>
-        <v>4.0500000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="X12" s="4">
         <f>X10*X9</f>
-        <v>5.4</v>
+        <v>6.0750000000000011</v>
       </c>
       <c r="Y12" s="4">
         <f>Y10*Y9</f>
-        <v>5.4</v>
+        <v>6.0750000000000011</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="5"/>
@@ -1595,30 +2106,30 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="4">
         <f>AD10*AD9</f>
-        <v>4.0500000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="AE12" s="4">
         <f>AE10*AE9</f>
-        <v>4.0500000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="AF12" s="4">
         <f>AF10*AF9</f>
-        <v>5.4</v>
+        <v>6.0750000000000011</v>
       </c>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AK12" s="4">
         <f>AK10*AK9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="4">
         <f>AL10*AL9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM12" s="4">
         <f>AM10*AM9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="4"/>
       <c r="AP12" s="4">
@@ -1649,11 +2160,11 @@
       </c>
       <c r="F13" s="4">
         <f>F9*F11*F10</f>
-        <v>6.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="G13" s="4">
         <f>G9*G11*G10</f>
-        <v>0.8</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="I13" s="4">
         <f>I9*I11*I10</f>
@@ -1661,15 +2172,15 @@
       </c>
       <c r="J13" s="4">
         <f>J9*J11*J10</f>
-        <v>8.1900000000000013</v>
+        <v>5.4600000000000009</v>
       </c>
       <c r="K13" s="4">
         <f>K9*K11*K10</f>
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="L13" s="4">
         <f>SUM(I13:K13)</f>
-        <v>13.91</v>
+        <v>11.31</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1679,70 +2190,70 @@
       </c>
       <c r="Q13" s="4">
         <f>Q9*Q11*Q10</f>
-        <v>8.5050000000000026</v>
+        <v>5.6700000000000008</v>
       </c>
       <c r="R13" s="4">
         <f>R9*R11*R10</f>
-        <v>1.08</v>
+        <v>1.2150000000000003</v>
       </c>
       <c r="S13" s="4">
         <f>SUM(P13:R13)</f>
-        <v>14.445000000000002</v>
+        <v>11.745000000000001</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="W13" s="4">
         <f>W9*W11*W10</f>
-        <v>11.056500000000003</v>
+        <v>7.3710000000000013</v>
       </c>
       <c r="X13" s="4">
         <f>X9*X11*X10</f>
-        <v>1.4040000000000001</v>
+        <v>1.5795000000000003</v>
       </c>
       <c r="Y13" s="4">
         <f>Y9*Y11*Y10</f>
-        <v>1.4040000000000001</v>
+        <v>1.5795000000000003</v>
       </c>
       <c r="Z13" s="4">
         <f>SUM(W13:Y13)</f>
-        <v>13.864500000000003</v>
+        <v>10.530000000000001</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="4">
         <f>AD9*AD11*AD10</f>
-        <v>8.5050000000000026</v>
+        <v>5.6700000000000008</v>
       </c>
       <c r="AE13" s="4">
         <f>AE9*AE11*AE10</f>
-        <v>8.5050000000000026</v>
+        <v>5.6700000000000008</v>
       </c>
       <c r="AF13" s="4">
         <f>AF9*AF11*AF10</f>
-        <v>1.08</v>
+        <v>1.2150000000000003</v>
       </c>
       <c r="AG13" s="4">
         <f>SUM(AD13:AF13)</f>
-        <v>18.090000000000003</v>
+        <v>12.555000000000001</v>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AK13" s="4">
         <f>AK9*AK11*AK10</f>
-        <v>6.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="AL13" s="4">
         <f t="shared" ref="AL13:AM13" si="2">AL9*AL11*AL10</f>
-        <v>6.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" si="2"/>
-        <v>6.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="AN13" s="4">
         <f>SUM(AK13:AM13)</f>
-        <v>18.900000000000002</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="AP13" s="4">
         <f>AP9*AP10*AP11</f>
@@ -1766,34 +2277,34 @@
       <c r="G14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K14" s="4">
-        <f>(L13-$E$13-$F$13-K13)</f>
-        <v>2.9699999999999998</v>
+        <f>(L13-$E$13-$F$13)</f>
+        <v>3.5100000000000007</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="R14" s="4">
-        <f>S13-$E$13-$F$13-R13</f>
-        <v>3.4650000000000016</v>
+        <f>S13-$E$13-$F$13</f>
+        <v>3.9450000000000012</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4">
-        <f>W13-Q13+Y13-R13</f>
-        <v>2.8755000000000006</v>
+        <f>W13-Q13+Y13</f>
+        <v>3.2805000000000009</v>
       </c>
       <c r="Y14" s="4">
-        <f>W13-J13+X13-K13</f>
-        <v>3.2305000000000019</v>
+        <f>W13-J13+X13</f>
+        <v>3.4905000000000008</v>
       </c>
       <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
@@ -1801,11 +2312,11 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AF14" s="4">
-        <f>(Q13-F13)*2</f>
-        <v>4.4100000000000037</v>
+        <f>(AD13-F13)*2+AF13</f>
+        <v>4.1550000000000011</v>
       </c>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
@@ -1904,7 +2415,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>16</v>
@@ -1915,7 +2426,7 @@
       </c>
       <c r="J17" s="4">
         <f>J12/SUM(I11:K11)*3</f>
-        <v>2.6627218934911236</v>
+        <v>1.7751479289940826</v>
       </c>
       <c r="K17" s="4">
         <f>(I12/SUM(I11:K11)*3)</f>
@@ -1923,15 +2434,15 @@
       </c>
       <c r="L17" s="4">
         <f>J12/SUM(J11:K11)*2</f>
-        <v>2.0066889632107023</v>
+        <v>1.3377926421404682</v>
       </c>
       <c r="M17" s="4">
         <f>K12/SUM(K11)*1</f>
-        <v>15.384615384615383</v>
+        <v>17.307692307692307</v>
       </c>
       <c r="N17" s="4">
         <f>I17+J17+K17</f>
-        <v>23.964497041420113</v>
+        <v>23.076923076923073</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>23</v>
@@ -1942,7 +2453,7 @@
       </c>
       <c r="Q17" s="4">
         <f>Q12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="R17" s="4">
         <f>P12/SUM(I11:K11)*3</f>
@@ -1952,59 +2463,55 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4">
         <f>P17+Q17+R17</f>
-        <v>32.352071005917161</v>
+        <v>31.153846153846153</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="W17" s="4">
         <f>W12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="X17" s="4">
         <f>W12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="Y17" s="4">
         <f>W12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4">
         <f>W17+X17+Y17</f>
-        <v>10.784023668639053</v>
+        <v>7.1893491124260347</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="AD17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="AE17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="AF17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>3.5946745562130178</v>
+        <v>2.3964497041420114</v>
       </c>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4">
         <f>AD17+AE17+AF17</f>
-        <v>10.784023668639053</v>
+        <v>7.1893491124260347</v>
       </c>
       <c r="AJ17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AO17" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="AP17" s="5">
-        <f>AP12/SUM(AP11:AR11)*3+AQ12/SUM(AQ11:AR11)*2+(AR11/AR12)</f>
-        <v>80.025000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2023,7 +2530,7 @@
       </c>
       <c r="J18" s="4">
         <f>J12/SUM(P11:R11)*3</f>
-        <v>3.4615384615384612</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="K18" s="4">
         <f>(I12/SUM(P11:R11))*3</f>
@@ -2033,7 +2540,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4">
         <f>I18+J18+K18</f>
-        <v>31.153846153846153</v>
+        <v>30</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>17</v>
@@ -2044,7 +2551,7 @@
       </c>
       <c r="Q18" s="4">
         <f>+Q12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="R18" s="4">
         <f>(P12/SUM(P11:R11))*3</f>
@@ -2054,49 +2561,49 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4">
         <f t="shared" ref="U18:U20" si="4">P18+Q18+R18</f>
-        <v>42.057692307692307</v>
+        <v>40.5</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="W18" s="4">
         <f>W12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="X18" s="4">
         <f>W12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="Y18" s="4">
         <f>W12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4">
         <f t="shared" ref="AB18:AB20" si="5">W18+X18+Y18</f>
-        <v>14.01923076923077</v>
+        <v>9.3461538461538467</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="AD18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="AE18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="AF18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>4.6730769230769234</v>
+        <v>3.1153846153846159</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4">
         <f t="shared" ref="AI18:AI20" si="6">AD18+AE18+AF18</f>
-        <v>14.01923076923077</v>
+        <v>9.3461538461538467</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>37</v>
@@ -2118,7 +2625,7 @@
       </c>
       <c r="J19" s="4">
         <f>J12/SUM(W11:Y11)*3</f>
-        <v>2.7692307692307692</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="K19" s="4">
         <f>I12/SUM(W11:Y11)*3</f>
@@ -2128,7 +2635,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4">
         <f t="shared" ref="N19:N22" si="7">I19+J19+K19</f>
-        <v>24.923076923076923</v>
+        <v>24</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>51</v>
@@ -2139,7 +2646,7 @@
       </c>
       <c r="Q19" s="4">
         <f>Q12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="R19" s="4">
         <f>P12/SUM(W11:Y11)*3</f>
@@ -2149,49 +2656,49 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4">
         <f t="shared" si="4"/>
-        <v>33.646153846153851</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="W19" s="4">
         <f>W12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="X19" s="4">
         <f>W12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="Y19" s="4">
         <f>W12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4">
         <f t="shared" si="5"/>
-        <v>11.215384615384618</v>
+        <v>7.476923076923077</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>70</v>
       </c>
       <c r="AD19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="AE19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="AF19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>3.7384615384615394</v>
+        <v>2.4923076923076923</v>
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4">
         <f>AD19+AE19+AF19</f>
-        <v>11.215384615384618</v>
+        <v>7.476923076923077</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>54</v>
@@ -2210,7 +2717,7 @@
       </c>
       <c r="J20" s="4">
         <f>J12/SUM(AD11:AF11)*3</f>
-        <v>2.0454545454545454</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="K20" s="4">
         <f>I12/SUM(AD11:AF11)*3</f>
@@ -2220,7 +2727,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4">
         <f t="shared" si="7"/>
-        <v>18.409090909090907</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>52</v>
@@ -2231,7 +2738,7 @@
       </c>
       <c r="Q20" s="4">
         <f>Q12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="R20" s="4">
         <f>P12/SUM(AD11:AF11)*3</f>
@@ -2241,49 +2748,49 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4">
         <f t="shared" si="4"/>
-        <v>24.85227272727273</v>
+        <v>23.931818181818183</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W20" s="4">
         <f>W12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="X20" s="4">
         <f>W12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="Y20" s="4">
         <f>W12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4">
         <f t="shared" si="5"/>
-        <v>8.2840909090909101</v>
+        <v>5.5227272727272725</v>
       </c>
       <c r="AC20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="AD20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="AE20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="AF20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>2.7613636363636367</v>
+        <v>1.8409090909090908</v>
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4">
         <f t="shared" si="6"/>
-        <v>8.2840909090909101</v>
+        <v>5.5227272727272725</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>55</v>
@@ -2302,7 +2809,7 @@
       </c>
       <c r="J21" s="4">
         <f>J12/SUM(AK11:AM11)*3</f>
-        <v>1.4285714285714284</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="K21" s="4">
         <f>I12/SUM(AK11:AM11)*3</f>
@@ -2312,7 +2819,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4">
         <f t="shared" si="7"/>
-        <v>12.857142857142856</v>
+        <v>12.38095238095238</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>34</v>
@@ -2347,6 +2854,10 @@
       <c r="AO21" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="AP21" s="5">
+        <f>AP12/SUM(AP11:AR11)*3+AQ12/SUM(AQ11:AR11)*2+(AR11/AR12)</f>
+        <v>80.025000000000006</v>
+      </c>
     </row>
     <row r="22" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H22" s="5" t="s">
@@ -2358,7 +2869,7 @@
       </c>
       <c r="J22" s="4">
         <f>J12/SUM(AP11:AR11)*3</f>
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="K22" s="4">
         <f>I12/SUM(AP11:AR11)*3</f>
@@ -2368,7 +2879,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>86.666666666666657</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>33</v>
@@ -2405,7 +2916,7 @@
       </c>
     </row>
     <row r="23" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="W23" s="10"/>
+      <c r="W23" s="9"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -2416,17 +2927,17 @@
       <c r="B25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2434,82 +2945,82 @@
       <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <f>IF(N18&gt;U17,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f>IF(N19&gt;AI17,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <f>IF(N20&gt;AI17,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="12">
-        <f>IF(U17&gt;K18,1,0)</f>
+      <c r="G27" s="11">
+        <f>IF(U17&gt;N18,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f>IF(U19&gt;AI18,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <f>IF(U20&gt;AI18,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="11">
         <f>IF(AB17&gt;N19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>IF(AB18&gt;U19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <f>IF(AB20&gt;AI19,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="F29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="11">
         <f>IF(AI17&gt;N20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <f>IF(AI18&gt;U20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f>IF(AI19&gt;AB20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2520,349 +3031,457 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="7">
         <f>I12/(I12+J12)</f>
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="D45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="Z45" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="4">
+        <f>1/(1-J46)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="H47" s="15"/>
+      <c r="T47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C49" s="16"/>
+      <c r="F49" s="5"/>
+      <c r="H49" s="15"/>
+      <c r="Z49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AA49" s="1">
+        <f>3*Z49</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="H51" s="15"/>
+      <c r="Z51" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AA51" s="1">
+        <f>3*Z51</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C53" s="5"/>
+      <c r="H53" s="15"/>
+      <c r="Z53" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AA53" s="1">
+        <f>3*Z53</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4">
-        <f>[1]基础系数!$H$9</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="5">
-        <f>1/0.8</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C49" s="2" t="s">
+      <c r="C54" s="5"/>
+      <c r="G54" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="U54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="V54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T55" s="4">
+        <f>I56</f>
+        <v>0.48131868131868139</v>
+      </c>
+      <c r="U55" s="4">
+        <f>J56*$N$55*$Q$55</f>
+        <v>2.0724000000000005</v>
+      </c>
+      <c r="V55" s="4">
+        <f>K56*$N$55*$Q$55</f>
+        <v>0.37714285714285711</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C56" s="4">
         <f>E9</f>
-        <v>4</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" ref="D50:E50" si="8">F9</f>
-        <v>2</v>
-      </c>
-      <c r="E50" s="4">
+        <v>8</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" ref="D56:E56" si="8">F9</f>
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="4">
+        <f>D47*D67+E47*E67</f>
+        <v>0.48131868131868139</v>
+      </c>
+      <c r="J56" s="4">
+        <f>D48*D71+E46*E71</f>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="K56" s="4">
+        <f>D47*D75+E47*E75</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T56" s="4">
+        <f>I57*$N$55*$Q$55</f>
+        <v>1.8470329670329673</v>
+      </c>
+      <c r="U56" s="4">
+        <f>J57</f>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="V56" s="4">
+        <f>K57</f>
+        <v>1.0317460317460316</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
         <f>E10</f>
-        <v>3</v>
-      </c>
-      <c r="D51" s="4">
-        <f t="shared" ref="D51" si="9">F10</f>
         <v>1.5</v>
       </c>
-      <c r="E51" s="4">
-        <f t="shared" ref="E51" si="10">G10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
+      <c r="D57" s="4">
+        <f t="shared" ref="D57" si="9">F10</f>
         <v>1</v>
       </c>
-      <c r="C52" s="4">
-        <f>E11*(1-$C$46)</f>
-        <v>0.11999999999999997</v>
-      </c>
-      <c r="D52" s="4">
-        <f>F11*(1-$C$46)</f>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="E52" s="4">
-        <f>G11*(1-$C$46)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
+      <c r="E57" s="4">
+        <f t="shared" ref="E57" si="10">G10</f>
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="4">
+        <f>(I67*$H$46)+1*(1-I67)</f>
+        <v>1.3992673992673994</v>
+      </c>
+      <c r="J57" s="4">
+        <f>(I71*$H$46)+1*(1-I71)</f>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="K57" s="4">
+        <f>(I75*$H$46)+1*(1-I75)</f>
+        <v>1.0317460317460316</v>
+      </c>
+      <c r="T57" s="1">
+        <f>T55*T56</f>
+        <v>0.88901147204443931</v>
+      </c>
+      <c r="U57" s="1">
+        <f t="shared" ref="U57" si="11">U55*U56</f>
+        <v>2.1414800000000001</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" ref="V57" si="12">V55*V56</f>
+        <v>0.38911564625850331</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <f>E11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D58" s="4">
+        <f>F11</f>
+        <v>2.1</v>
+      </c>
+      <c r="E58" s="4">
+        <f>G11</f>
+        <v>0.2</v>
+      </c>
+      <c r="I58" s="1">
+        <f>I56*I57</f>
+        <v>0.67349353942760548</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" ref="J58:K58" si="13">J56*J57</f>
+        <v>1.6223333333333334</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="13"/>
+        <v>0.29478458049886619</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="4">
-        <f>C51*C50</f>
+      <c r="C59" s="4">
+        <f>C57*C56</f>
         <v>12</v>
       </c>
-      <c r="D53" s="4">
-        <f>D51*D50</f>
-        <v>3</v>
-      </c>
-      <c r="E53" s="4">
-        <f>E51*E50</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
+      <c r="D59" s="4">
+        <f>D57*D56</f>
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <f>E57*E56</f>
+        <v>4.5</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="4">
-        <f>C50*C52*C51</f>
-        <v>1.4399999999999995</v>
-      </c>
-      <c r="D54" s="4">
-        <f>D50*D52*D51</f>
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="E54" s="4">
-        <f>E50*E52*E51</f>
-        <v>0.31999999999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+      <c r="C60" s="4">
+        <f>C56*C58*C57</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D60" s="4">
+        <f>D56*D58*D57</f>
+        <v>4.2</v>
+      </c>
+      <c r="E60" s="4">
+        <f>E56*E58*E57</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C58" s="14">
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C64" s="13">
         <v>6</v>
-      </c>
-      <c r="D58" s="4">
-        <f>VLOOKUP(C58,AI!$A$2:$B$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E58" s="4">
-        <f>VLOOKUP(C58,AI!$C$2:$D$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="F58" s="4">
-        <f>VLOOKUP(C58,AI!$E$2:$F$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G58" s="4">
-        <f>VLOOKUP(C58,AI!$G$2:$H$7,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="4">
-        <f>VLOOKUP(C58,AI!$I$2:$J$7,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <f>VLOOKUP(C58,AI!$K$2:$L$7,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="J58" s="4">
-        <f>VLOOKUP(C58,AI!$M$2:$N$7,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="13">
-        <f>D58/($D$58+$E$58+$G$58+$I$58)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E59" s="13">
-        <f>E58/($D$58+$E$58+$G$58+$I$58)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13">
-        <f>G58/($D$58+$E$58+$G$58+$I$58)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13">
-        <f>I58/($D$58+$E$58+$G$58+$I$58)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="13">
-        <f>D58/($D$58+$E$58+$G$58+$J$58)</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="E60" s="13">
-        <f>E58/($D$58+$E$58+$G$58+$J$58)</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13">
-        <f>G58/($D$58+$E$58+$G$58+$J$58)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13">
-        <f>J58/($D$58+$E$58+$G$58+$J$58)</f>
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="13">
-        <f>D59*(1-$C$38)+D60*$C$38</f>
-        <v>0.16307692307692306</v>
-      </c>
-      <c r="E61" s="13">
-        <f>E59*(1-$C$38)+E60*$C$38</f>
-        <v>0.16307692307692306</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13">
-        <f>G59*(1-$C$38)+G60*$C$38</f>
-        <v>8.1538461538461532E-2</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13">
-        <f>I59*(1-$C$38)+J60*$C$38</f>
-        <v>0.59230769230769231</v>
-      </c>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C64" s="14">
-        <v>1</v>
       </c>
       <c r="D64" s="4">
         <f>VLOOKUP(C64,AI!$A$2:$B$7,2,0)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4">
         <f>VLOOKUP(C64,AI!$C$2:$D$7,2,0)</f>
@@ -2874,220 +3493,377 @@
       </c>
       <c r="G64" s="4">
         <f>VLOOKUP(C64,AI!$G$2:$H$7,2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
         <f>VLOOKUP(C64,AI!$I$2:$J$7,2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="4">
         <f>VLOOKUP(C64,AI!$K$2:$L$7,2,0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" s="4">
         <f>VLOOKUP(C64,AI!$M$2:$N$7,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="12">
+        <f>D64/($D$64+$E$64+$H$64+$I$64)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E65" s="12">
+        <f>E64/($D$64+$E$64+$H$64+$I$64)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="12">
+        <f>H64/($D$64+$E$64+$H$64+$I$64)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I65" s="12">
+        <f>I64/($D$64+$E$64+$H$64+$I$64)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="12"/>
+      <c r="N65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="12">
+        <f>D64/($D$64+$E$64+$H$64+$J$64)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E66" s="12">
+        <f>E64/($D$64+$E$64+$H$64+$J$64)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="12">
+        <f>H64/($D$64+$E$64+$H$64+$J$64)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12">
+        <f>J64/($D$64+$E$64+$H$64+$J$64)</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="12">
+        <f>D65*(1-$C$38)+D66*$C$38</f>
+        <v>0.16043956043956045</v>
+      </c>
+      <c r="E67" s="12">
+        <f>E65*(1-$C$38)+E66*$C$38</f>
+        <v>0.16043956043956045</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="12">
+        <f>H65*(1-$C$38)+H66*$C$38</f>
+        <v>8.0219780219780226E-2</v>
+      </c>
+      <c r="I67" s="12">
+        <f>I65*(1-$C$38)+J66*$C$38</f>
+        <v>0.59890109890109899</v>
+      </c>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C70" s="13">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <f>VLOOKUP(C70,AI!$A$2:$B$7,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="E70" s="4">
+        <f>VLOOKUP(C70,AI!$C$2:$D$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F70" s="4">
+        <f>VLOOKUP(C70,AI!$E$2:$F$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G70" s="4">
+        <f>VLOOKUP(C70,AI!$G$2:$H$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
+        <f>VLOOKUP(C70,AI!$I$2:$J$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I70" s="4">
+        <f>VLOOKUP(C70,AI!$K$2:$L$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <f>VLOOKUP(C70,AI!$M$2:$N$7,2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C65" s="1" t="s">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="12">
+        <f>D70/($D$70+$E$70+$G$70+$I$70)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E71" s="12">
+        <f>E70/($D$70+$E$70+$G$70+$I$70)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12">
+        <f>G70/($D$70+$E$70+$G$70+$I$70)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12">
+        <f>I70/($D$70+$E$70+$G$70+$I$70)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J71" s="12">
+        <f>J70/($D$64+$E$64+$G$64+$J$64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C74" s="13">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4">
+        <f>VLOOKUP(C74,AI!$A$2:$B$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <f>VLOOKUP(C74,AI!$C$2:$D$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F74" s="4">
+        <f>VLOOKUP(C74,AI!$E$2:$F$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G74" s="4">
+        <f>VLOOKUP(C74,AI!$G$2:$H$7,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="H74" s="4">
+        <f>VLOOKUP(C74,AI!$I$2:$J$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I74" s="4">
+        <f>VLOOKUP(C74,AI!$K$2:$L$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <f>VLOOKUP(C74,AI!$M$2:$N$7,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="12">
+        <f>D74/($D$74+$E$74+$G$74+$I$74)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E75" s="12">
+        <f>E74/($D$74+$E$74+$G$74+$I$74)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12">
+        <f>G74/($D$74+$E$74+$G$74+$I$74)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12">
+        <f>I74/($D$74+$E$74+$G$74+$I$74)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J75" s="12">
+        <f>J74/($D$64+$E$64+$G$64+$J$64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C79" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="13">
-        <f>D64/($D$64+$E$64+$G$64+$I$64)</f>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="E65" s="13">
-        <f>E64/($D$64+$E$64+$G$64+$I$64)</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13">
-        <f>G64/($D$64+$E$64+$G$64+$I$64)</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13">
-        <f>I64/($D$64+$E$64+$G$64+$I$64)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="J65" s="13">
-        <f>J64/($D$58+$E$58+$G$58+$J$58)</f>
+      <c r="D79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C68" s="14">
-        <v>4</v>
-      </c>
-      <c r="D68" s="4">
-        <f>VLOOKUP(C68,AI!$A$2:$B$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E68" s="4">
-        <f>VLOOKUP(C68,AI!$C$2:$D$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="F68" s="4">
-        <f>VLOOKUP(C68,AI!$E$2:$F$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G68" s="4">
-        <f>VLOOKUP(C68,AI!$G$2:$H$7,2,0)</f>
-        <v>16</v>
-      </c>
-      <c r="H68" s="4">
-        <f>VLOOKUP(C68,AI!$I$2:$J$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I68" s="4">
-        <f>VLOOKUP(C68,AI!$K$2:$L$7,2,0)</f>
+      <c r="C80" s="4">
+        <f>SQRT($C$83/($C$56*$C$57))*C56</f>
+        <v>5.8864392112158397</v>
+      </c>
+      <c r="D80" s="4">
+        <f>SQRT($D$83/($D$56*$D$57))*D56</f>
+        <v>1.9674775073518591</v>
+      </c>
+      <c r="E80" s="4">
+        <f>SQRT($E$83/($E$56*$E$57))*E56</f>
+        <v>2.9534855549125214</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <f>SQRT($C$83/($C$56*$C$57))*C57</f>
+        <v>1.1037073521029699</v>
+      </c>
+      <c r="D81" s="4">
+        <f>SQRT($D$83/($D$56*$D$57))*D57</f>
+        <v>0.98373875367592956</v>
+      </c>
+      <c r="E81" s="4">
+        <f>SQRT($E$83/($E$56*$E$57))*E57</f>
+        <v>1.4767427774562607</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J68" s="4">
-        <f>VLOOKUP(C68,AI!$M$2:$N$7,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="13">
-        <f>D68/($D$68+$E$68+$G$68+$I$68)</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="E69" s="13">
-        <f>E68/($D$68+$E$68+$G$68+$I$68)</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13">
-        <f>G68/($D$68+$E$68+$G$68+$I$68)</f>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13">
-        <f>I68/($D$68+$E$68+$G$68+$I$68)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="J69" s="13">
-        <f>J68/($D$58+$E$58+$G$58+$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
+      <c r="C82" s="4">
+        <f>C58/T55</f>
+        <v>0.62328767123287665</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" ref="D82:E82" si="14">D58/U55</f>
+        <v>1.0133178922987838</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="14"/>
+        <v>0.53030303030303039</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="4">
-        <f>SQRT($C$77/($C$50*$C$51))*C50</f>
-        <v>3.7331418950677748</v>
-      </c>
-      <c r="D74" s="4">
-        <f>SQRT($D$77/($D$50*$D$51))*D50</f>
-        <v>1.9882004869908336</v>
-      </c>
-      <c r="E74" s="4">
-        <f>SQRT($E$77/($E$50*$E$51))*E50</f>
-        <v>1.9882004869908336</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="4">
-        <f>SQRT($C$77/($C$50*$C$51))*C51</f>
-        <v>2.7998564213008312</v>
-      </c>
-      <c r="D75" s="4">
-        <f>SQRT($D$77/($D$50*$D$51))*D51</f>
-        <v>1.4911503652431253</v>
-      </c>
-      <c r="E75" s="4">
-        <f>SQRT($E$77/($E$50*$E$51))*E51</f>
-        <v>1.9882004869908336</v>
-      </c>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4">
-        <f>C52/D61</f>
-        <v>0.73584905660377342</v>
-      </c>
-      <c r="D76" s="4">
-        <f>D52/D65</f>
-        <v>1.1024999999999998</v>
-      </c>
-      <c r="E76" s="4">
-        <f>E52/D69</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="4">
-        <f>C53/(I61*$F$46+1*(1-I61))</f>
-        <v>10.452261306532664</v>
-      </c>
-      <c r="D77" s="4">
-        <f>D53/(I65*$F$46+1*(1-I65))</f>
-        <v>2.9647058823529413</v>
-      </c>
-      <c r="E77" s="4">
-        <f>E53/(I69*$F$46+1*(1-I69))</f>
-        <v>3.9529411764705884</v>
+      <c r="C83" s="4">
+        <f>C59/T56</f>
+        <v>6.4969062351261293</v>
+      </c>
+      <c r="D83" s="4">
+        <f>D59/U56</f>
+        <v>1.9354838709677422</v>
+      </c>
+      <c r="E83" s="4">
+        <f>E59/V56</f>
+        <v>4.361538461538462</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="4">
+        <f>C82*C83</f>
+        <v>4.0494415575101215</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" ref="D84:E84" si="15">D82*D83</f>
+        <v>1.9612604367073236</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3129370629370634</v>
       </c>
     </row>
   </sheetData>
@@ -3107,11 +3883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:N7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3127,31 +3903,31 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3180,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -3400,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>6</v>
@@ -3424,20 +4200,878 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <f>职业定位属性配比!C3</f>
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <f>职业定位属性配比!C4</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1">
+        <f>职业定位属性配比!C5</f>
+        <v>1.7550000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>VLOOKUP(C9,AI!$A$2:$B$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>VLOOKUP(C9,AI!$C$2:$D$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <f>VLOOKUP(C9,AI!$E$2:$F$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <f>VLOOKUP(C9,AI!$G$2:$H$7,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
+        <f>VLOOKUP(C9,AI!$I$2:$J$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <f>VLOOKUP(C9,AI!$K$2:$L$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f>VLOOKUP(C9,AI!$M$2:$N$7,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="12">
+        <f>D9/($D$9+$E$9+$G$9+$I$9)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <f>E9/($D$9+$E$9+$G$9+$I$9)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <f>G9/($D$9+$E$9+$G$9+$I$9)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <f>I9/($D$9+$E$9+$G$9+$I$9)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f>J9/($D$9+$E$9+$G$9+$I$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <f>($D$3-1)*职业定位属性配比!E11</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f>($D$3-1)*职业定位属性配比!F11</f>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="F15" s="1">
+        <f>($D$3-1)*职业定位属性配比!G11</f>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(D15:F15)/3</f>
+        <v>0.26000000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1">
+        <f>($D$4-1)*职业定位属性配比!E10</f>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="E16" s="1">
+        <f>($D$4-1)*职业定位属性配比!F10</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F16" s="1">
+        <f>($D$4-1)*职业定位属性配比!G10</f>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM(D16:F16)/3</f>
+        <v>0.46666666666666679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="23">
+        <f>(1-G10)^E3</f>
+        <v>1.349746247705432E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <f>COMBIN($E$3,F19)*$G$10^F19*(1-$G$10)^($E$3-F19)</f>
+        <v>0.12957563977972145</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" ref="G20:H20" si="0">COMBIN($E$3,G19)*$G$10^G19*(1-$G$10)^($E$3-G19)</f>
+        <v>0.41464204729510851</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.44228485044811566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="1">
+        <f>F20*G15*F19+G20*G15*G19+H20*G15*H19</f>
+        <v>0.59428571428571431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <f>F20*G16*F19+G20*G16*G19+H20*G16*H19</f>
+        <v>1.0666666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="7">
+        <f>职业定位属性配比!D46</f>
+        <v>1.3</v>
+      </c>
+      <c r="D27" s="7">
+        <f>职业定位属性配比!E46</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="7">
+        <f>职业定位属性配比!D47</f>
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="7">
+        <f>职业定位属性配比!E47</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="7">
+        <f>职业定位属性配比!D48</f>
+        <v>1.8</v>
+      </c>
+      <c r="D29" s="7">
+        <f>职业定位属性配比!E48</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C32" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="7">
+        <f>C27</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34:E35" si="1">C28</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D38" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <f>F40*(1-1/职业定位属性配比!$N$55)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <f>SUM($G$40:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="5">
+        <f>F41*(1-1/职业定位属性配比!$N$55)</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="H41" s="5">
+        <f>SUM($G$40:G41)</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="I41" s="25">
+        <f>H41/(1-1/职业定位属性配比!$N$55)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G42" s="5">
+        <f>(1-F41)*F42*(1-1/职业定位属性配比!$N$55)</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <f>SUM($G$40:G42)</f>
+        <v>6.7666666666666653E-2</v>
+      </c>
+      <c r="I42" s="25">
+        <f>H42/(1-1/职业定位属性配比!$N$55)</f>
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="5">
+        <f>(1-F42)*(1-F41)*F43*(1-1/职业定位属性配比!$N$55)</f>
+        <v>4.9499999999999988E-2</v>
+      </c>
+      <c r="H43" s="5">
+        <f>SUM($G$40:G43)</f>
+        <v>0.11716666666666664</v>
+      </c>
+      <c r="I43" s="25">
+        <f>H43/(1-1/职业定位属性配比!$N$55)</f>
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G44" s="5">
+        <f>(1-F42)*(1-F43)*(1-F41)*F44*(1-1/职业定位属性配比!$N$55)</f>
+        <v>3.4649999999999986E-2</v>
+      </c>
+      <c r="H44" s="5">
+        <f>SUM($G$40:G44)</f>
+        <v>0.15181666666666663</v>
+      </c>
+      <c r="I44" s="25">
+        <f>H44/(1-1/职业定位属性配比!$N$55)</f>
+        <v>0.91089999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G45" s="5">
+        <f>(1-F42)*(1-F43)*(1-F44)*(1-F41)*F45*(1-1/职业定位属性配比!$N$55)</f>
+        <v>1.0394999999999998E-2</v>
+      </c>
+      <c r="H45" s="5">
+        <f>SUM($G$40:G45)</f>
+        <v>0.16221166666666662</v>
+      </c>
+      <c r="I45" s="25">
+        <f>H45/(1-1/职业定位属性配比!$N$55)</f>
+        <v>0.97326999999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F46" s="17"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="7">
+        <f>C27*(1-$H$42)</f>
+        <v>1.2120333333333333</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" ref="E48:E49" si="2">C28*(1-$H$42)</f>
+        <v>1.3985000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6782000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B51" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C53"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C54"/>
+      <c r="D54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M54"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C55"/>
+      <c r="D55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="22">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="28"/>
+      <c r="M55"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C56"/>
+      <c r="D56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L56" s="30">
+        <v>4.8636363636363633</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N56" s="31">
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C57"/>
+      <c r="D57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L57" s="30">
+        <v>4.8636363636363633</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N57" s="31">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C58"/>
+      <c r="D58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I58" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="L58" s="30">
+        <v>5.0952380952380949</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="31">
+        <v>0.20370370370370369</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C59"/>
+      <c r="D59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I59" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="L59" s="30">
+        <v>5.0952380952380949</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="31">
+        <v>0.20370370370370369</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C60"/>
+      <c r="D60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I60" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="L60" s="30">
+        <v>5.0952380952380949</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="31">
+        <v>0.20370370370370369</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="26">
+        <f>SUM(K56:K60)/5</f>
+        <v>1.0699999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C64" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="7">
+        <f>D27/$D$62</f>
+        <v>1.2149532710280375</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" ref="E66:E67" si="3">D28/$D$62</f>
+        <v>1.4018691588785048</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6822429906542058</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
     <sheet name="AI" sheetId="2" r:id="rId2"/>
-    <sheet name="技能实现" sheetId="3" r:id="rId3"/>
+    <sheet name="技能基础价值" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="264">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,47 +185,652 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害吸引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯DVS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSSVS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯D VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防VS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯DVS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防VS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VS纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VS纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯D VS 纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防VS 纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VS纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VS纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯D VS 纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯防VS 纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要整体血量刨除aoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSSVS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSVS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS VS 纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSVS纯攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS VS 纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSVS 纯防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSVS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(纯攻击与纯防御存在明显缺陷，故之后不作考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSVSDDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VSDDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VSDDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS VS DDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示为赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示为输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T吸收伤害的途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由上表可以看出目前TDS，S为防御型辅助的阵容为最强，但是这些需要建立在T能够吸收80%伤害的基础上（非AOE的伤害与非刺杀型伤害），由于目前AI自动选择为血量最少的作为目标（小怪自动集火DPS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于目前AI自动选择为血量最少的作为目标（小怪自动集火DPS），定义为80%为玩家手动集火DPS时，T替DPS分担伤害后，T与DPS同时死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击权重</t>
+  </si>
+  <si>
+    <t>法术攻击权重</t>
+  </si>
+  <si>
+    <t>治疗法术权重，与法术攻击权重互斥</t>
+  </si>
+  <si>
+    <t>增益效果攻击权重</t>
+  </si>
+  <si>
+    <t>减益效果权重，和gainWeight互斥</t>
+  </si>
+  <si>
+    <t>防御效果权重</t>
+  </si>
+  <si>
+    <t>有自身嘲讽buff防御的权重，与防御互斥</t>
+  </si>
+  <si>
+    <t>对应AI系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上定义的TDS属性分配为总战力分配：包括了属性、技能、AI对总战力的影响，其中技能对于战力的提升定义为固定比例，则AI会决定怪物的属性强弱（属性需要凸显出不同职业的倾向，则需要与AI平衡定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性与AI占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御技能价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS（DDD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S先死丧失战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果去除，平衡技能在考虑是对A的效果，还是对H,做属性削减即可（这样，技能时突出了倾向性，会对战斗时间有一定影响，战力平衡则不会变化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S大招类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招综合提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动综合提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+y=1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=4y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（需要用减益效果的权重替代增益效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff提升幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S的覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff覆盖率（团队）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升比例差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体提升期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增（只会提升防御力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间内，使用buff技能次数与概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Buff对技能覆盖暂未考虑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+  </si>
+  <si>
+    <t>三连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据属性克制状态分布：</t>
+  </si>
+  <si>
+    <t>状态1</t>
+  </si>
+  <si>
+    <t>状态2</t>
+  </si>
+  <si>
+    <t>状态3</t>
+  </si>
+  <si>
+    <t>效率期望</t>
+  </si>
+  <si>
+    <t>稀有度系数</t>
+  </si>
+  <si>
+    <t>投放参考值</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>中间计算过程</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>平均效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数低了是因为打断有价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯D VS TDD</t>
+  </si>
+  <si>
+    <t>纯防VS TDD</t>
+  </si>
+  <si>
+    <t>DSS VS TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDDVS攻增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>防增VS防增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害吸引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增VS攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯DVS攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻增VS防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS VS DSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSSVS攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯攻</t>
+    <t>TDDVS防增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD VS TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VS TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VS TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS VS TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防增VS DSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻增VS DSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,86 +838,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻增VSDSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增VSDSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯D VS DSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防VS DSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防VS防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯DVS防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防VS攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻增VS纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增VS纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯D VS 纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防VS 纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻增VS纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增VS纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯D VS 纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯防VS 纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要整体血量刨除aoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T死还需回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T预期达到的87%嘲讽概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群嘲回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御技能能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技能：群体嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍需积攒1回合能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二：前置能量+大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技能：80能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式三：攻击防御附带嘲讽+大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一：前置被动+大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤比比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D大招价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S大招价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T大招价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,43 +978,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSSVS防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVS防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVSDSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS VS 纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVS纯攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS VS 纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVS 纯防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVS攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(纯攻击与纯防御存在明显缺陷，故之后不作考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM</t>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T被动价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D被动价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S被动价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dot覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次dot伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致死回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,104 +1022,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDSVSDDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻增VSDDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增VSDDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS VS DDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1表示为赢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示为输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T吸收伤害的途径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由上表可以看出目前TDS，S为防御型辅助的阵容为最强，但是这些需要建立在T能够吸收80%伤害的基础上（非AOE的伤害与非刺杀型伤害），由于目前AI自动选择为血量最少的作为目标（小怪自动集火DPS）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于目前AI自动选择为血量最少的作为目标（小怪自动集火DPS），定义为80%为玩家手动集火DPS时，T替DPS分担伤害后，T与DPS同时死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击权重</t>
-  </si>
-  <si>
-    <t>法术攻击权重</t>
-  </si>
-  <si>
-    <t>治疗法术权重，与法术攻击权重互斥</t>
-  </si>
-  <si>
-    <t>增益效果攻击权重</t>
-  </si>
-  <si>
-    <t>减益效果权重，和gainWeight互斥</t>
-  </si>
-  <si>
-    <t>防御效果权重</t>
-  </si>
-  <si>
-    <t>有自身嘲讽buff防御的权重，与防御互斥</t>
-  </si>
-  <si>
-    <t>对应AI系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比</t>
+    <t>不会溢出回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot溢出提升倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性相克带来的系数加成（法术技能优势）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（打断带来的削减）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余的价值靠buff、加血或驱散等对团队覆盖的提升补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（通过S对团队H/A加成，补齐S自身的匮乏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T承担伤害比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗技能价值提升比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,14 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以上定义的TDS属性分配为总战力分配：包括了属性、技能、AI对总战力的影响，其中技能对于战力的提升定义为固定比例，则AI会决定怪物的属性强弱（属性需要凸显出不同职业的倾向，则需要与AI平衡定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性与AI占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,19 +1114,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
+    <t>持续回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,221 +1122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御技能价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDS（DDD）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S先死丧失战力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益效果去除，平衡技能在考虑是对A的效果，还是对H,做属性削减即可（这样，技能时突出了倾向性，会对战斗时间有一定影响，战力平衡则不会变化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS大招类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T大招类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S大招类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招综合提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动综合提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能总值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x+y=1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x=4y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（需要用减益效果的权重替代增益效果）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能技能系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff提升幅度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S的覆盖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff覆盖率（团队）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff覆盖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升比例差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体提升期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防增（只会提升防御力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间内，使用buff技能次数与概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通技能占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Buff对技能覆盖暂未考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-  </si>
-  <si>
-    <t>三连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断概率</t>
+    <t>设计思路：眩晕避免了敌方单个目标伤害,提升了团队的H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队H增益战力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,71 +1138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据属性克制状态分布：</t>
-  </si>
-  <si>
-    <t>状态1</t>
-  </si>
-  <si>
-    <t>状态2</t>
-  </si>
-  <si>
-    <t>状态3</t>
-  </si>
-  <si>
-    <t>效率期望</t>
-  </si>
-  <si>
-    <t>稀有度系数</t>
-  </si>
-  <si>
-    <t>投放参考值</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>中间计算过程</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>绿</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>平均效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数低了是因为打断有价值</t>
+    <t>A属性占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升的H属性技能系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +1150,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000%"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +1263,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -930,7 +1292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,14 +1434,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1105,7 +1491,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="334451"/>
@@ -1160,7 +1546,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="334451"/>
@@ -1501,131 +1887,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AR84"/>
+  <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="9" style="1"/>
     <col min="15" max="15" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="35" width="9" style="1"/>
-    <col min="36" max="36" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="9" style="1"/>
-    <col min="41" max="41" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="1"/>
+    <col min="16" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="9" style="1"/>
+    <col min="29" max="29" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="42" width="9" style="1"/>
+    <col min="43" max="43" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="9" style="1"/>
+    <col min="48" max="48" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4">
         <f>1+D3</f>
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
         <f>1+D4</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="D4" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.15">
+        <v>0.8</v>
+      </c>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4">
         <f>C3*C4</f>
-        <v>1.7550000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="D5" s="12">
         <f>C5-1</f>
-        <v>0.75500000000000012</v>
-      </c>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="2:51" x14ac:dyDescent="0.15">
       <c r="I6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="I7" s="21" t="s">
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="I7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="W7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AD7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AK7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
       <c r="AN7" s="6"/>
-      <c r="AP7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AR7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="6"/>
+      <c r="AW7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
@@ -1637,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -1665,13 +2068,13 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1681,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>8</v>
@@ -1689,6 +2092,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1696,11 +2100,23 @@
         <v>4</v>
       </c>
       <c r="AM8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AR8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="2"/>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="AS8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="2"/>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="17">
         <v>2</v>
@@ -1722,11 +2138,11 @@
       </c>
       <c r="H9" s="20">
         <f>AVERAGE(E9:G9)*3/2</f>
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I9" s="4">
         <f>E9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
         <f>F9</f>
@@ -1739,9 +2155,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
+      <c r="O9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P9" s="4">
         <f>E9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" ref="Q9:R9" si="0">F9</f>
@@ -1754,30 +2173,34 @@
       <c r="S9" s="4"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="V9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W9" s="4">
+        <f>E9</f>
+        <v>5</v>
+      </c>
+      <c r="X9" s="4">
         <f>F9</f>
         <v>2</v>
       </c>
-      <c r="X9" s="4">
-        <f>G9</f>
-        <v>3</v>
-      </c>
       <c r="Y9" s="4">
-        <f>G9</f>
-        <v>3</v>
+        <f>F9</f>
+        <v>2</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD9" s="4">
         <f>F9</f>
         <v>2</v>
       </c>
       <c r="AE9" s="4">
-        <f>F9</f>
-        <v>2</v>
+        <f>G9</f>
+        <v>3</v>
       </c>
       <c r="AF9" s="4">
         <f>G9</f>
@@ -1786,6 +2209,9 @@
       <c r="AG9" s="4"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
+      <c r="AJ9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AK9" s="4">
         <f>F9</f>
         <v>2</v>
@@ -1795,24 +2221,45 @@
         <v>2</v>
       </c>
       <c r="AM9" s="4">
+        <f>G9</f>
+        <v>3</v>
+      </c>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
         <f>F9</f>
         <v>2</v>
       </c>
-      <c r="AN9" s="4"/>
-      <c r="AP9" s="4">
+      <c r="AS9" s="4">
+        <f>F9</f>
+        <v>2</v>
+      </c>
+      <c r="AT9" s="4">
+        <f>F9</f>
+        <v>2</v>
+      </c>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
         <f>E9</f>
-        <v>8</v>
-      </c>
-      <c r="AQ9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="4">
         <f>E9</f>
-        <v>8</v>
-      </c>
-      <c r="AR9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="4">
         <f>E9</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1821,24 +2268,24 @@
       </c>
       <c r="D10" s="1">
         <f>C10*(1+D4)</f>
-        <v>2.0250000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="E10" s="17">
-        <v>1.5</v>
+        <v>2.64</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
       </c>
       <c r="G10" s="17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="20">
         <f>AVERAGE(E10:G10)*3/2</f>
-        <v>2</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" ref="I10" si="1">E10</f>
-        <v>1.5</v>
+        <v>2.64</v>
       </c>
       <c r="J10" s="4">
         <f>F10</f>
@@ -1846,85 +2293,116 @@
       </c>
       <c r="K10" s="4">
         <f>G10</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
+      <c r="O10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="P10" s="4">
         <f>E10*(1+$D$4)</f>
-        <v>2.0250000000000004</v>
+        <v>4.7520000000000007</v>
       </c>
       <c r="Q10" s="4">
         <f>F10*(1+$D$4)</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="R10" s="4">
         <f>G10*(1+$D$4)</f>
-        <v>2.0250000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="V10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="W10" s="4">
-        <f>F10*(1+$D$4)</f>
-        <v>1.35</v>
+        <f t="shared" ref="W10:W11" si="2">E10</f>
+        <v>2.64</v>
       </c>
       <c r="X10" s="4">
-        <f>G10*(1+$D$4)</f>
-        <v>2.0250000000000004</v>
+        <f t="shared" ref="X10:X11" si="3">F10</f>
+        <v>1</v>
       </c>
       <c r="Y10" s="4">
-        <f>G10*(1+$D$4)</f>
-        <v>2.0250000000000004</v>
+        <f t="shared" ref="Y10:Y11" si="4">F10</f>
+        <v>1</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AC10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="AD10" s="4">
         <f>F10*(1+$D$4)</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AE10" s="4">
-        <f>F10*(1+$D$4)</f>
-        <v>1.35</v>
+        <f>G10*(1+$D$4)</f>
+        <v>1.8</v>
       </c>
       <c r="AF10" s="4">
         <f>G10*(1+$D$4)</f>
-        <v>2.0250000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
+      <c r="AJ10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="AK10" s="4">
+        <f>F10*(1+$D$4)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AL10" s="4">
+        <f>F10*(1+$D$4)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AM10" s="4">
+        <f>G10*(1+$D$4)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="4">
         <f>F10</f>
         <v>1</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AS10" s="4">
         <f>F10</f>
         <v>1</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AT10" s="4">
         <f>F10</f>
         <v>1</v>
       </c>
-      <c r="AN10" s="4"/>
-      <c r="AP10" s="4">
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="4">
         <f>E10</f>
-        <v>1.5</v>
-      </c>
-      <c r="AQ10" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="AX10" s="4">
         <f>E10</f>
-        <v>1.5</v>
-      </c>
-      <c r="AR10" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="AY10" s="4">
         <f>E10</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.15">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1933,110 +2411,141 @@
       </c>
       <c r="D11" s="1">
         <f>C11*D3</f>
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="17">
         <v>0.3</v>
       </c>
       <c r="F11" s="17">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H11" s="20">
         <f>AVERAGE(E11:G11)*3/2</f>
-        <v>1.3</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="I11" s="4">
         <f>E11*(1+$D$3)</f>
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="J11" s="4">
         <f>F11*(1+$D$3)</f>
-        <v>2.7300000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="K11" s="4">
         <f>G11*(1+$D$3)</f>
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
+      <c r="O11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="P11" s="4">
         <f>E11</f>
         <v>0.3</v>
       </c>
       <c r="Q11" s="4">
         <f>F11</f>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="4">
         <f>G11</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="V11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="W11" s="4">
-        <f>F11*(1+$D$3)</f>
-        <v>2.7300000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="X11" s="4">
-        <f>G11*(1+$D$3)</f>
-        <v>0.26</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Y11" s="4">
-        <f>G11*(1+$D$3)</f>
-        <v>0.26</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AC11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AD11" s="4">
-        <f>F11</f>
-        <v>2.1</v>
+        <f>F11*(1+$D$3)</f>
+        <v>3.6</v>
       </c>
       <c r="AE11" s="4">
-        <f>F11</f>
-        <v>2.1</v>
+        <f>G11*(1+$D$3)</f>
+        <v>0.45</v>
       </c>
       <c r="AF11" s="4">
-        <f>G11</f>
-        <v>0.2</v>
+        <f>G11*(1+$D$3)</f>
+        <v>0.45</v>
       </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
+      <c r="AJ11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AK11" s="4">
         <f>F11</f>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AL11" s="4">
         <f>F11</f>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AM11" s="4">
+        <f>G11</f>
+        <v>0.25</v>
+      </c>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="4">
         <f>F11</f>
-        <v>2.1</v>
-      </c>
-      <c r="AN11" s="4"/>
-      <c r="AP11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="4">
+        <f>F11</f>
+        <v>2</v>
+      </c>
+      <c r="AT11" s="4">
+        <f>F11</f>
+        <v>2</v>
+      </c>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="4">
         <f>E11</f>
         <v>0.3</v>
       </c>
-      <c r="AQ11" s="4">
+      <c r="AX11" s="4">
         <f>E11</f>
         <v>0.3</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AY11" s="4">
         <f>E11</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2556,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <f>E10*E9</f>
-        <v>12</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F12" s="4">
         <f>F10*F9</f>
@@ -2055,11 +2564,11 @@
       </c>
       <c r="G12" s="4">
         <f>G10*G9</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="4">
         <f>I10*I9</f>
-        <v>12</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="J12" s="4">
         <f>J10*J9</f>
@@ -2067,87 +2576,118 @@
       </c>
       <c r="K12" s="4">
         <f>K10*K9</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
+      <c r="O12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="P12" s="4">
         <f>P10*P9</f>
-        <v>16.200000000000003</v>
+        <v>23.760000000000005</v>
       </c>
       <c r="Q12" s="4">
         <f>Q10*Q9</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R12" s="4">
         <f>R10*R9</f>
-        <v>6.0750000000000011</v>
+        <v>5.4</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="V12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="W12" s="4">
         <f>W10*W9</f>
-        <v>2.7</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="X12" s="4">
         <f>X10*X9</f>
-        <v>6.0750000000000011</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="4">
         <f>Y10*Y9</f>
-        <v>6.0750000000000011</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AD12" s="4">
         <f>AD10*AD9</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AE12" s="4">
         <f>AE10*AE9</f>
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="AF12" s="4">
         <f>AF10*AF9</f>
-        <v>6.0750000000000011</v>
+        <v>5.4</v>
       </c>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
+      <c r="AJ12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AK12" s="4">
         <f>AK10*AK9</f>
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AL12" s="4">
         <f>AL10*AL9</f>
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AM12" s="4">
         <f>AM10*AM9</f>
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="AN12" s="4"/>
-      <c r="AP12" s="4">
-        <f>AP10*AP9</f>
-        <v>12</v>
-      </c>
-      <c r="AQ12" s="4">
-        <f>AQ10*AQ9</f>
-        <v>12</v>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="AR12" s="4">
         <f>AR10*AR9</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="4">
+        <f>AS10*AS9</f>
+        <v>2</v>
+      </c>
+      <c r="AT12" s="4">
+        <f>AT10*AT9</f>
+        <v>2</v>
+      </c>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW12" s="4">
+        <f>AW10*AW9</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="AX12" s="4">
+        <f>AX10*AX9</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="AY12" s="4">
+        <f>AY10*AY9</f>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <f>C9*C11*C10</f>
@@ -2156,258 +2696,346 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <f>E9*E11*E10</f>
-        <v>3.5999999999999996</v>
+        <v>3.96</v>
       </c>
       <c r="F13" s="4">
         <f>F9*F11*F10</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4">
         <f>G9*G11*G10</f>
-        <v>0.90000000000000013</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="4">
         <f>I9*I11*I10</f>
-        <v>4.68</v>
+        <v>7.128000000000001</v>
       </c>
       <c r="J13" s="4">
         <f>J9*J11*J10</f>
-        <v>5.4600000000000009</v>
+        <v>7.2</v>
       </c>
       <c r="K13" s="4">
         <f>K9*K11*K10</f>
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="L13" s="4">
         <f>SUM(I13:K13)</f>
-        <v>11.31</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
+      <c r="O13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="P13" s="4">
         <f>P9*P11*P10</f>
-        <v>4.8600000000000003</v>
+        <v>7.128000000000001</v>
       </c>
       <c r="Q13" s="4">
         <f>Q9*Q11*Q10</f>
-        <v>5.6700000000000008</v>
+        <v>7.2</v>
       </c>
       <c r="R13" s="4">
         <f>R9*R11*R10</f>
-        <v>1.2150000000000003</v>
+        <v>1.35</v>
       </c>
       <c r="S13" s="4">
         <f>SUM(P13:R13)</f>
-        <v>11.745000000000001</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
+      <c r="V13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="W13" s="4">
         <f>W9*W11*W10</f>
-        <v>7.3710000000000013</v>
+        <v>3.96</v>
       </c>
       <c r="X13" s="4">
         <f>X9*X11*X10</f>
-        <v>1.5795000000000003</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="4">
         <f>Y9*Y11*Y10</f>
-        <v>1.5795000000000003</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="4">
         <f>SUM(W13:Y13)</f>
-        <v>10.530000000000001</v>
+        <v>11.96</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="AD13" s="4">
         <f>AD9*AD11*AD10</f>
-        <v>5.6700000000000008</v>
+        <v>12.96</v>
       </c>
       <c r="AE13" s="4">
         <f>AE9*AE11*AE10</f>
-        <v>5.6700000000000008</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AF13" s="4">
         <f>AF9*AF11*AF10</f>
-        <v>1.2150000000000003</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AG13" s="4">
         <f>SUM(AD13:AF13)</f>
-        <v>12.555000000000001</v>
+        <v>17.82</v>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
+      <c r="AJ13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="AK13" s="4">
         <f>AK9*AK11*AK10</f>
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" ref="AL13:AM13" si="2">AL9*AL11*AL10</f>
-        <v>4.2</v>
+        <f>AL9*AL11*AL10</f>
+        <v>7.2</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
+        <f>AM9*AM11*AM10</f>
+        <v>1.35</v>
       </c>
       <c r="AN13" s="4">
         <f>SUM(AK13:AM13)</f>
-        <v>12.600000000000001</v>
-      </c>
-      <c r="AP13" s="4">
-        <f>AP9*AP10*AP11</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AQ13" s="4">
-        <f t="shared" ref="AQ13:AR13" si="3">AQ9*AQ10*AQ11</f>
-        <v>3.5999999999999996</v>
+        <v>15.75</v>
+      </c>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.15">
+        <f>AR9*AR11*AR10</f>
+        <v>4</v>
+      </c>
+      <c r="AS13" s="4">
+        <f t="shared" ref="AS13:AT13" si="5">AS9*AS11*AS10</f>
+        <v>4</v>
+      </c>
+      <c r="AT13" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AU13" s="4">
+        <f>SUM(AR13:AT13)</f>
+        <v>12</v>
+      </c>
+      <c r="AV13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW13" s="4">
+        <f>AW9*AW10*AW11</f>
+        <v>3.96</v>
+      </c>
+      <c r="AX13" s="4">
+        <f t="shared" ref="AX13:AY13" si="6">AX9*AX10*AX11</f>
+        <v>3.96</v>
+      </c>
+      <c r="AY13" s="4">
+        <f t="shared" si="6"/>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <f>((F13/G13)/3)-1</f>
+        <v>0.77777777777777768</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K14" s="4">
         <f>(L13-$E$13-$F$13)</f>
-        <v>3.5100000000000007</v>
+        <v>7.718</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R14" s="4">
         <f>S13-$E$13-$F$13</f>
-        <v>3.9450000000000012</v>
+        <v>7.718</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4">
-        <f>W13-Q13+Y13</f>
-        <v>3.2805000000000009</v>
-      </c>
-      <c r="Y14" s="4">
-        <f>W13-J13+X13</f>
-        <v>3.4905000000000008</v>
-      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="4" t="s">
-        <v>113</v>
+      <c r="AE14" s="4">
+        <f>AD13-Q13+AF13</f>
+        <v>8.1900000000000013</v>
       </c>
       <c r="AF14" s="4">
-        <f>(AD13-F13)*2+AF13</f>
-        <v>4.1550000000000011</v>
+        <f>AD13-J13+AE13</f>
+        <v>8.1900000000000013</v>
       </c>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
+      <c r="AL14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM14" s="4">
+        <f>(AK13-F13)*2+AM13</f>
+        <v>7.75</v>
+      </c>
       <c r="AN14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
       <c r="AR14" s="4"/>
-    </row>
-    <row r="15" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+    </row>
+    <row r="15" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="4">
+        <f>(E13-G13)/E13</f>
+        <v>0.81060606060606055</v>
+      </c>
+      <c r="K15" s="4">
+        <f>(L13-$I$13-$F$13)</f>
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="L15" s="30">
+        <f>J13+K13</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="R15" s="4">
+        <f>S13-$P$13-$F$13</f>
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="S15" s="30">
+        <f>Q13+R13</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="Z15" s="30">
+        <f>X13+Y13</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="V16" s="8"/>
       <c r="W16" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AF16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2415,106 +3043,133 @@
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="4">
         <f>I12/SUM(I11:K11)*3</f>
-        <v>10.650887573964495</v>
+        <v>8.6274509803921546</v>
       </c>
       <c r="J17" s="4">
         <f>J12/SUM(I11:K11)*3</f>
-        <v>1.7751479289940826</v>
+        <v>1.3071895424836599</v>
       </c>
       <c r="K17" s="4">
         <f>(I12/SUM(I11:K11)*3)</f>
-        <v>10.650887573964495</v>
+        <v>8.6274509803921546</v>
       </c>
       <c r="L17" s="4">
         <f>J12/SUM(J11:K11)*2</f>
-        <v>1.3377926421404682</v>
+        <v>0.98765432098765438</v>
       </c>
       <c r="M17" s="4">
         <f>K12/SUM(K11)*1</f>
-        <v>17.307692307692307</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="N17" s="4">
         <f>I17+J17+K17</f>
-        <v>23.076923076923073</v>
+        <v>18.562091503267968</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" s="4">
         <f>P12/SUM(I11:K11)*3</f>
-        <v>14.378698224852071</v>
+        <v>15.529411764705884</v>
       </c>
       <c r="Q17" s="4">
         <f>Q12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <v>2.3529411764705879</v>
       </c>
       <c r="R17" s="4">
         <f>P12/SUM(I11:K11)*3</f>
-        <v>14.378698224852071</v>
+        <v>15.529411764705884</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4">
+      <c r="U17" s="30">
         <f>P17+Q17+R17</f>
-        <v>31.153846153846153</v>
+        <v>33.411764705882355</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="W17" s="4">
         <f>W12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <v>8.6274509803921546</v>
       </c>
       <c r="X17" s="4">
-        <f>W12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <f>X12/SUM(I11:K11)*3</f>
+        <v>1.3071895424836599</v>
       </c>
       <c r="Y17" s="4">
         <f>W12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
-      </c>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4">
+        <v>8.6274509803921546</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>X12/SUM(J11:K11)*2</f>
+        <v>0.98765432098765438</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>Y12/SUM(K11)*1</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="AB17" s="30">
         <f>W17+X17+Y17</f>
-        <v>7.1893491124260347</v>
+        <v>18.562091503267968</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="AD17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <v>2.3529411764705879</v>
       </c>
       <c r="AE17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <v>2.3529411764705879</v>
       </c>
       <c r="AF17" s="4">
         <f>AD12/SUM(I11:K11)*3</f>
-        <v>2.3964497041420114</v>
+        <v>2.3529411764705879</v>
       </c>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4">
         <f>AD17+AE17+AF17</f>
-        <v>7.1893491124260347</v>
+        <v>7.0588235294117636</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="AK17" s="4">
+        <f>AK12/SUM(I11:K11)*3</f>
+        <v>2.3529411764705879</v>
+      </c>
+      <c r="AL17" s="4">
+        <f>AK12/SUM(I11:K11)*3</f>
+        <v>2.3529411764705879</v>
+      </c>
+      <c r="AM17" s="4">
+        <f>AK12/SUM(I11:K11)*3</f>
+        <v>2.3529411764705879</v>
+      </c>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4">
+        <f>AK17+AL17+AM17</f>
+        <v>7.0588235294117636</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -2522,367 +3177,480 @@
         <v>15</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4">
         <f>I12/SUM(P11:R11)*3</f>
-        <v>13.846153846153845</v>
+        <v>15.529411764705886</v>
       </c>
       <c r="J18" s="4">
         <f>J12/SUM(P11:R11)*3</f>
-        <v>2.3076923076923075</v>
+        <v>2.3529411764705888</v>
       </c>
       <c r="K18" s="4">
         <f>(I12/SUM(P11:R11))*3</f>
-        <v>13.846153846153845</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+        <v>15.529411764705886</v>
+      </c>
+      <c r="L18" s="4">
+        <f>J12/SUM(Q11:R11)*2</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="M18" s="4">
+        <f>K12/SUM(R11)*1</f>
+        <v>12</v>
+      </c>
+      <c r="N18" s="30">
         <f>I18+J18+K18</f>
-        <v>30</v>
+        <v>33.411764705882362</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="P18" s="4">
         <f>P12/SUM(P11:R11)*3</f>
-        <v>18.692307692307693</v>
+        <v>27.952941176470596</v>
       </c>
       <c r="Q18" s="4">
         <f>+Q12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="R18" s="4">
         <f>(P12/SUM(P11:R11))*3</f>
-        <v>18.692307692307693</v>
+        <v>27.952941176470596</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4">
-        <f t="shared" ref="U18:U20" si="4">P18+Q18+R18</f>
-        <v>40.5</v>
+        <f t="shared" ref="U18:U21" si="7">P18+Q18+R18</f>
+        <v>60.141176470588249</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="W18" s="4">
         <f>W12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <v>15.529411764705886</v>
       </c>
       <c r="X18" s="4">
-        <f>W12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <f>+X12/SUM(P11:R11)*3</f>
+        <v>2.3529411764705888</v>
       </c>
       <c r="Y18" s="4">
-        <f>W12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
-      </c>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4">
-        <f t="shared" ref="AB18:AB20" si="5">W18+X18+Y18</f>
-        <v>9.3461538461538467</v>
+        <f>(W12/SUM(P11:R11))*3</f>
+        <v>15.529411764705886</v>
+      </c>
+      <c r="Z18" s="4">
+        <f>X12/SUM(Q11:R11)*2</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AA18" s="4">
+        <f>Y12/SUM(R11)*1</f>
+        <v>8</v>
+      </c>
+      <c r="AB18" s="30">
+        <f t="shared" ref="AB18:AB21" si="8">W18+X18+Y18</f>
+        <v>33.411764705882362</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="AD18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="AE18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="AF18" s="4">
         <f>AD12/SUM(P11:R11)*3</f>
-        <v>3.1153846153846159</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4">
-        <f t="shared" ref="AI18:AI20" si="6">AD18+AE18+AF18</f>
-        <v>9.3461538461538467</v>
+        <f t="shared" ref="AI18:AI21" si="9">AD18+AE18+AF18</f>
+        <v>12.705882352941178</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AK18" s="4">
+        <f>AK12/SUM(P11:R11)*3</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="AL18" s="4">
+        <f>AK12/SUM(P11:R11)*3</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="AM18" s="4">
+        <f>AK12/SUM(P11:R11)*3</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4">
+        <f t="shared" ref="AP18:AP21" si="10">AK18+AL18+AM18</f>
+        <v>12.705882352941178</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H19" s="5" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="I19" s="4">
         <f>I12/SUM(W11:Y11)*3</f>
-        <v>11.076923076923077</v>
+        <v>9.2093023255813975</v>
       </c>
       <c r="J19" s="4">
-        <f>J12/SUM(W11:Y11)*3</f>
-        <v>1.8461538461538463</v>
+        <f>+J12/SUM(W11:Y11)*3</f>
+        <v>1.3953488372093024</v>
       </c>
       <c r="K19" s="4">
-        <f>I12/SUM(W11:Y11)*3</f>
-        <v>11.076923076923077</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <f t="shared" ref="N19:N22" si="7">I19+J19+K19</f>
-        <v>24</v>
+        <f>(I12/SUM(W11:Y11))*3</f>
+        <v>9.2093023255813975</v>
+      </c>
+      <c r="L19" s="4">
+        <f>J12/SUM(X11:Y11)*2</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <f>K12/SUM(Y11)*2</f>
+        <v>3</v>
+      </c>
+      <c r="N19" s="30">
+        <f>I19+J19+K19</f>
+        <v>19.8139534883721</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="P19" s="4">
         <f>P12/SUM(W11:Y11)*3</f>
-        <v>14.953846153846158</v>
+        <v>16.576744186046518</v>
       </c>
       <c r="Q19" s="4">
-        <f>Q12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <f>+Q12/SUM(W11:Y11)*3</f>
+        <v>2.5116279069767442</v>
       </c>
       <c r="R19" s="4">
-        <f>P12/SUM(W11:Y11)*3</f>
-        <v>14.953846153846158</v>
+        <f>(P12/SUM(W11:Y11))*3</f>
+        <v>16.576744186046518</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4">
-        <f t="shared" si="4"/>
-        <v>32.400000000000006</v>
+      <c r="U19" s="30">
+        <f>P19+Q19+R19</f>
+        <v>35.665116279069778</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="W19" s="4">
         <f>W12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <v>9.2093023255813975</v>
       </c>
       <c r="X19" s="4">
-        <f>W12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <f>+X12/SUM(W11:Y11)*3</f>
+        <v>1.3953488372093024</v>
       </c>
       <c r="Y19" s="4">
-        <f>W12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <f>(W12/SUM(W11:Y11))*3</f>
+        <v>9.2093023255813975</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4">
-        <f t="shared" si="5"/>
-        <v>7.476923076923077</v>
+        <f t="shared" si="8"/>
+        <v>19.8139534883721</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="AD19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <v>2.5116279069767442</v>
       </c>
       <c r="AE19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <v>2.5116279069767442</v>
       </c>
       <c r="AF19" s="4">
         <f>AD12/SUM(W11:Y11)*3</f>
-        <v>2.4923076923076923</v>
+        <v>2.5116279069767442</v>
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4">
-        <f>AD19+AE19+AF19</f>
-        <v>7.476923076923077</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>7.5348837209302326</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I20" s="4">
         <f>I12/SUM(AD11:AF11)*3</f>
-        <v>8.1818181818181817</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J20" s="4">
         <f>J12/SUM(AD11:AF11)*3</f>
-        <v>1.3636363636363635</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K20" s="4">
         <f>I12/SUM(AD11:AF11)*3</f>
-        <v>8.1818181818181817</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4">
-        <f t="shared" si="7"/>
-        <v>17.727272727272727</v>
+        <f t="shared" ref="N20:N23" si="11">I20+J20+K20</f>
+        <v>18.933333333333337</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P20" s="4">
         <f>P12/SUM(AD11:AF11)*3</f>
-        <v>11.045454545454547</v>
+        <v>15.840000000000003</v>
       </c>
       <c r="Q20" s="4">
         <f>Q12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="R20" s="4">
         <f>P12/SUM(AD11:AF11)*3</f>
-        <v>11.045454545454547</v>
+        <v>15.840000000000003</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4">
-        <f t="shared" si="4"/>
-        <v>23.931818181818183</v>
+        <f t="shared" si="7"/>
+        <v>34.080000000000005</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="W20" s="4">
         <f>W12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="X20" s="4">
-        <f>W12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <f>X12/SUM(AD11:AF11)*3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Y20" s="4">
         <f>W12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4">
-        <f t="shared" si="5"/>
-        <v>5.5227272727272725</v>
+        <f t="shared" si="8"/>
+        <v>18.933333333333337</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AD20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AE20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AF20" s="4">
         <f>AD12/SUM(AD11:AF11)*3</f>
-        <v>1.8409090909090908</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4">
-        <f t="shared" si="6"/>
-        <v>5.5227272727272725</v>
+        <f t="shared" si="9"/>
+        <v>7.2000000000000011</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="AK20" s="4">
+        <f>AK12/SUM(AD11:AF11)*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AL20" s="4">
+        <f>AK12/SUM(AD11:AF11)*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AM20" s="4">
+        <f>AK12/SUM(AD11:AF11)*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4">
+        <f>AK20+AL20+AM20</f>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H21" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I21" s="4">
         <f>I12/SUM(AK11:AM11)*3</f>
-        <v>5.7142857142857135</v>
+        <v>9.3176470588235301</v>
       </c>
       <c r="J21" s="4">
         <f>J12/SUM(AK11:AM11)*3</f>
-        <v>0.95238095238095233</v>
+        <v>1.4117647058823528</v>
       </c>
       <c r="K21" s="4">
         <f>I12/SUM(AK11:AM11)*3</f>
-        <v>5.7142857142857135</v>
+        <v>9.3176470588235301</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
-        <f t="shared" si="7"/>
-        <v>12.38095238095238</v>
+        <f t="shared" si="11"/>
+        <v>20.047058823529412</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="P21" s="4">
+        <f>P12/SUM(AK11:AM11)*3</f>
+        <v>16.771764705882354</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>Q12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="R21" s="4">
+        <f>P12/SUM(AK11:AM11)*3</f>
+        <v>16.771764705882354</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="U21" s="4">
+        <f t="shared" si="7"/>
+        <v>36.084705882352942</v>
+      </c>
       <c r="V21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="W21" s="4">
+        <f>W12/SUM(AK11:AM11)*3</f>
+        <v>9.3176470588235301</v>
+      </c>
+      <c r="X21" s="4">
+        <f>X12/SUM(AR11:AT11)*3</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>W12/SUM(AR11:AT11)*3</f>
+        <v>6.6000000000000005</v>
+      </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="4">
+        <f t="shared" si="8"/>
+        <v>16.91764705882353</v>
+      </c>
       <c r="AC21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="AD21" s="4">
+        <f>AD12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="AE21" s="4">
+        <f>AD12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="AF21" s="4">
+        <f>AD12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="AI21" s="4">
+        <f t="shared" si="9"/>
+        <v>7.6235294117647054</v>
+      </c>
       <c r="AJ21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP21" s="5">
-        <f>AP12/SUM(AP11:AR11)*3+AQ12/SUM(AQ11:AR11)*2+(AR11/AR12)</f>
-        <v>80.025000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="AK21" s="4">
+        <f>AK12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="AL21" s="4">
+        <f>AK12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="AM21" s="4">
+        <f>AK12/SUM(AK11:AM11)*3</f>
+        <v>2.5411764705882351</v>
+      </c>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4">
+        <f t="shared" si="10"/>
+        <v>7.6235294117647054</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H22" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4">
-        <f>I12/SUM(AP11:AR11)*3</f>
-        <v>40</v>
+        <f>I12/SUM(AR11:AT11)*3</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="J22" s="4">
-        <f>J12/SUM(AP11:AR11)*3</f>
-        <v>6.666666666666667</v>
+        <f>J12/SUM(AR11:AT11)*3</f>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <f>I12/SUM(AP11:AR11)*3</f>
-        <v>40</v>
+        <f>I12/SUM(AR11:AT11)*3</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
-        <f t="shared" si="7"/>
-        <v>86.666666666666657</v>
+        <f t="shared" si="11"/>
+        <v>14.200000000000001</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2891,7 +3659,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="5" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -2900,7 +3668,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -2909,808 +3677,949 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="W23" s="9"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-    </row>
-    <row r="24" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AW22" s="5">
+        <f>AW12/SUM(AW11:AY11)*3+AX12/SUM(AX11:AY11)*2+(AY11/AY12)</f>
+        <v>88.02272727272728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="4">
+        <f>I12/SUM(AW11:AY11)*3</f>
+        <v>44.000000000000007</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J12/SUM(AW11:AY11)*3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K23" s="4">
+        <f>I12/SUM(AW11:AY11)*3</f>
+        <v>44.000000000000007</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
+        <f t="shared" si="11"/>
+        <v>94.666666666666686</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+    </row>
+    <row r="25" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="11">
-        <f>IF(N18&gt;U17,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <f>IF(N19&gt;AI17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
-        <f>IF(N20&gt;AI17,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" s="5">
+        <f>(N19-AB17)</f>
+        <v>1.2518619851041315</v>
+      </c>
+      <c r="N26" s="5">
+        <f>M26/N19*I12</f>
+        <v>0.83398692810458319</v>
+      </c>
+      <c r="O26" s="5">
+        <f>(N26/SUM(X11:Y11))*2</f>
+        <v>0.4169934640522916</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S26" s="5">
+        <f>(U19-AB18)</f>
+        <v>2.2533515731874161</v>
+      </c>
+      <c r="T26" s="5">
+        <f>S26/R19*P12</f>
+        <v>3.2298039215686294</v>
+      </c>
+      <c r="U26" s="5">
+        <f>(T26/SUM(X11:Y11))*2</f>
+        <v>1.6149019607843147</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y26" s="5">
+        <f>(AB17-N19)</f>
+        <v>-1.2518619851041315</v>
+      </c>
+      <c r="Z26" s="5">
+        <f>Y26/AB17*W12</f>
+        <v>-0.89023255813954405</v>
+      </c>
+      <c r="AA26" s="5">
+        <f>(Z26/SUM(J11:K11))*2</f>
+        <v>-0.43962101636520695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="11">
-        <f>IF(U17&gt;N18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="11">
+        <f>IF(N18&gt;=U17,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I27" s="11">
-        <f>IF(U19&gt;AI18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J27" s="11">
-        <f>IF(U20&gt;AI18,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <f>IF(N19&gt;=AB17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="29">
+        <f>IF(N20&gt;AP17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="29">
+        <f>IF(N21&gt;AP17,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F28" s="11" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G28" s="11">
+        <f>IF(U17&gt;=N18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="11">
+        <f>IF(U19&gt;=AB18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="29">
+        <f>IF(U20&gt;AP18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="29">
+        <f>IF(U21&gt;AP18,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="11">
         <f>IF(AB17&gt;N19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <f>IF(AB18&gt;U19,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="I29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="29">
         <f>IF(AB20&gt;AI19,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="29">
+        <f>IF(AB20&gt;AI19,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="29">
         <f>IF(AI17&gt;N20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="29">
         <f>IF(AI18&gt;U20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <f>IF(AI19&gt;AB20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="29">
+        <f>IF(AI21&gt;AP20,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="29">
+        <f>IF(AP17&gt;N21,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="29">
+        <f>IF(AP18&gt;U21,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
+        <f>IF(AO20&gt;AH21,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="29">
+        <f>IF(AP20&gt;AI21,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
         <f>I12/(I12+J12)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="D45" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="Z45" s="1">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="D47" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="AG47" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="15" t="s">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="4">
+        <f>1/(1-J48)</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="E46" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="4">
-        <f>1/(1-J46)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C47" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="J48" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="18">
         <v>1.5</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E49" s="18">
         <v>1.5</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="H47" s="15"/>
-      <c r="T47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z47" s="1">
+      <c r="F49" s="5"/>
+      <c r="G49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="4">
+        <f>1/H48</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG49" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C48" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="18">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C50" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="18">
         <v>1.8</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E50" s="18">
         <v>1.8</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C49" s="16"/>
-      <c r="F49" s="5"/>
-      <c r="H49" s="15"/>
-      <c r="Z49" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AA49" s="1">
-        <f>3*Z49</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C50" s="5"/>
       <c r="F50" s="5"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C51" s="5"/>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C51" s="16"/>
       <c r="F51" s="5"/>
       <c r="H51" s="15"/>
-      <c r="Z51" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="AA51" s="1">
-        <f>3*Z51</f>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="AG51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH51" s="1">
+        <f>3*AG51</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C52" s="5"/>
       <c r="F52" s="5"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="H53" s="15"/>
-      <c r="Z53" s="1">
+      <c r="AG53" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AH53" s="1">
+        <f>3*AG53</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C55" s="5"/>
+      <c r="H55" s="15"/>
+      <c r="M55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG55" s="1">
         <v>0.42</v>
       </c>
-      <c r="AA53" s="1">
-        <f>3*Z53</f>
+      <c r="AH55" s="1">
+        <f>3*AG55</f>
         <v>1.26</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="G54" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T54" s="2" t="s">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="G56" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U54" s="2" t="s">
+      <c r="U56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C55" s="2" t="s">
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+    </row>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N57" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q57" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T55" s="4">
-        <f>I56</f>
-        <v>0.48131868131868139</v>
-      </c>
-      <c r="U55" s="4">
-        <f>J56*$N$55*$Q$55</f>
+      <c r="T57" s="4">
+        <f>I58</f>
+        <v>0.47975708502024295</v>
+      </c>
+      <c r="U57" s="4">
+        <f>J58*$N$57*$Q$57</f>
         <v>2.0724000000000005</v>
       </c>
-      <c r="V55" s="4">
-        <f>K56*$N$55*$Q$55</f>
+      <c r="V57" s="4">
+        <f>K58*$N$57*$Q$57</f>
         <v>0.37714285714285711</v>
       </c>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C58" s="4">
         <f>E9</f>
-        <v>8</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" ref="D56:E56" si="8">F9</f>
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" ref="D58:E58" si="12">F9</f>
+        <v>2</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="4">
-        <f>D47*D67+E47*E67</f>
-        <v>0.48131868131868139</v>
-      </c>
-      <c r="J56" s="4">
-        <f>D48*D71+E46*E71</f>
+      <c r="H58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="37">
+        <f>D49*D71+E49*E71</f>
+        <v>0.47975708502024295</v>
+      </c>
+      <c r="J58" s="31">
+        <f>D50*D75+E48*E75</f>
         <v>1.5700000000000003</v>
       </c>
-      <c r="K56" s="4">
-        <f>D47*D75+E47*E75</f>
+      <c r="K58" s="4">
+        <f>D49*D79+E49*E79</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="T56" s="4">
-        <f>I57*$N$55*$Q$55</f>
-        <v>1.8470329670329673</v>
-      </c>
-      <c r="U56" s="4">
-        <f>J57</f>
-        <v>1.0333333333333332</v>
-      </c>
-      <c r="V56" s="4">
-        <f>K57</f>
-        <v>1.0317460317460316</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="M58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T58" s="4">
+        <f>I59*$N$60*$Q$60</f>
+        <v>5.4794028340080976</v>
+      </c>
+      <c r="U58" s="4">
+        <f>J59</f>
+        <v>1.2625</v>
+      </c>
+      <c r="V58" s="4">
+        <f>K59*N57*Q57</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
         <f>E10</f>
-        <v>1.5</v>
-      </c>
-      <c r="D57" s="4">
-        <f t="shared" ref="D57" si="9">F10</f>
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" ref="E57" si="10">G10</f>
-        <v>1.5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" s="4">
-        <f>(I67*$H$46)+1*(1-I67)</f>
-        <v>1.3992673992673994</v>
-      </c>
-      <c r="J57" s="4">
-        <f>(I71*$H$46)+1*(1-I71)</f>
-        <v>1.0333333333333332</v>
-      </c>
-      <c r="K57" s="4">
-        <f>(I75*$H$46)+1*(1-I75)</f>
-        <v>1.0317460317460316</v>
-      </c>
-      <c r="T57" s="1">
-        <f>T55*T56</f>
-        <v>0.88901147204443931</v>
-      </c>
-      <c r="U57" s="1">
-        <f t="shared" ref="U57" si="11">U55*U56</f>
-        <v>2.1414800000000001</v>
-      </c>
-      <c r="V57" s="1">
-        <f t="shared" ref="V57" si="12">V55*V56</f>
-        <v>0.38911564625850331</v>
-      </c>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" ref="D59" si="13">F10</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" ref="E59" si="14">G10</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="4">
+        <f>(I71*$H$48)+1*(1-I71)</f>
+        <v>4.1510627530364372</v>
+      </c>
+      <c r="J59" s="4">
+        <f>(I75*$H$48)+1*(1-I75)</f>
+        <v>1.2625</v>
+      </c>
+      <c r="K59" s="4">
+        <f>(I79*$H$48)+1*(1-I79)</f>
+        <v>1.25</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T59" s="1">
+        <f>T57*T58</f>
+        <v>2.6287823312953829</v>
+      </c>
+      <c r="U59" s="1">
+        <f t="shared" ref="U59" si="15">U57*U58</f>
+        <v>2.6164050000000003</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" ref="V59" si="16">V57*V58</f>
+        <v>0.62228571428571433</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
         <f>E11</f>
         <v>0.3</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D60" s="4">
         <f>F11</f>
-        <v>2.1</v>
-      </c>
-      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4">
         <f>G11</f>
+        <v>0.25</v>
+      </c>
+      <c r="I60" s="1">
+        <f>I58*I59</f>
+        <v>1.9915017661328658</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" ref="J60:K60" si="17">J58*J59</f>
+        <v>1.9821250000000004</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="17"/>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4">
+        <f>C59*C58</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="D61" s="4">
+        <f>D59*D58</f>
+        <v>2</v>
+      </c>
+      <c r="E61" s="4">
+        <f>E59*E58</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="4">
+        <f>C58*C60*C59</f>
+        <v>3.96</v>
+      </c>
+      <c r="D62" s="4">
+        <f>D58*D60*D59</f>
+        <v>4</v>
+      </c>
+      <c r="E62" s="4">
+        <f>E58*E60*E59</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="8"/>
+      <c r="M63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="8"/>
+      <c r="M64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C65" s="5"/>
+      <c r="Q65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C68" s="13">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4">
+        <f>VLOOKUP(C68,AI!$A$2:$B$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
+        <f>VLOOKUP(C68,AI!$C$2:$D$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
+        <f>VLOOKUP(C68,AI!$E$2:$F$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G68" s="4">
+        <f>VLOOKUP(C68,AI!$G$2:$H$7,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <f>VLOOKUP(C68,AI!$I$2:$J$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>5</v>
+      </c>
+      <c r="J68" s="4">
+        <f>VLOOKUP(C68,AI!$M$2:$N$7,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="12">
+        <f>D68/($D$68+$E$68+$H$68+$I$68)</f>
         <v>0.2</v>
       </c>
-      <c r="I58" s="1">
-        <f>I56*I57</f>
-        <v>0.67349353942760548</v>
-      </c>
-      <c r="J58" s="1">
-        <f t="shared" ref="J58:K58" si="13">J56*J57</f>
-        <v>1.6223333333333334</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="13"/>
-        <v>0.29478458049886619</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4">
-        <f>C57*C56</f>
-        <v>12</v>
-      </c>
-      <c r="D59" s="4">
-        <f>D57*D56</f>
-        <v>2</v>
-      </c>
-      <c r="E59" s="4">
-        <f>E57*E56</f>
-        <v>4.5</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+      <c r="E69" s="12">
+        <f>E68/($D$68+$E$68+$H$68+$I$68)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="12">
+        <f>H68/($D$68+$E$68+$H$68+$I$68)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="12">
+        <f>I68/($D$68+$E$68+$H$68+$I$68)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="N69" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="4">
-        <f>C56*C58*C57</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="D60" s="4">
-        <f>D56*D58*D57</f>
-        <v>4.2</v>
-      </c>
-      <c r="E60" s="4">
-        <f>E56*E58*E57</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="1" t="s">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="12">
+        <f>D68/($D$68+$E$68+$H$68+$J$68)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E70" s="12">
+        <f>E68/($D$68+$E$68+$H$68+$J$68)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="12">
+        <f>H68/($D$68+$E$68+$H$68+$J$68)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12">
+        <f>J68/($D$68+$E$68+$H$68+$J$68)</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="12">
+        <f>D69*(1-$C$40)+D70*$C$40</f>
+        <v>0.15991902834008098</v>
+      </c>
+      <c r="E71" s="12">
+        <f>E69*(1-$C$40)+E70*$C$40</f>
+        <v>0.15991902834008098</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="12">
+        <f>H69*(1-$C$40)+H70*$C$40</f>
+        <v>7.9959514170040491E-2</v>
+      </c>
+      <c r="I71" s="12">
+        <f>I69*(1-$C$40)+J70*$C$40</f>
+        <v>0.6002024291497976</v>
+      </c>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C64" s="13">
-        <v>6</v>
-      </c>
-      <c r="D64" s="4">
-        <f>VLOOKUP(C64,AI!$A$2:$B$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E64" s="4">
-        <f>VLOOKUP(C64,AI!$C$2:$D$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="F64" s="4">
-        <f>VLOOKUP(C64,AI!$E$2:$F$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G64" s="4">
-        <f>VLOOKUP(C64,AI!$G$2:$H$7,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <f>VLOOKUP(C64,AI!$I$2:$J$7,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="4">
-        <f>VLOOKUP(C64,AI!$K$2:$L$7,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="J64" s="4">
-        <f>VLOOKUP(C64,AI!$M$2:$N$7,2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="12">
-        <f>D64/($D$64+$E$64+$H$64+$I$64)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E65" s="12">
-        <f>E64/($D$64+$E$64+$H$64+$I$64)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="12">
-        <f>H64/($D$64+$E$64+$H$64+$I$64)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I65" s="12">
-        <f>I64/($D$64+$E$64+$H$64+$I$64)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J65" s="12"/>
-      <c r="N65" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="12">
-        <f>D64/($D$64+$E$64+$H$64+$J$64)</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="E66" s="12">
-        <f>E64/($D$64+$E$64+$H$64+$J$64)</f>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="12">
-        <f>H64/($D$64+$E$64+$H$64+$J$64)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12">
-        <f>J64/($D$64+$E$64+$H$64+$J$64)</f>
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="12">
-        <f>D65*(1-$C$38)+D66*$C$38</f>
-        <v>0.16043956043956045</v>
-      </c>
-      <c r="E67" s="12">
-        <f>E65*(1-$C$38)+E66*$C$38</f>
-        <v>0.16043956043956045</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="12">
-        <f>H65*(1-$C$38)+H66*$C$38</f>
-        <v>8.0219780219780226E-2</v>
-      </c>
-      <c r="I67" s="12">
-        <f>I65*(1-$C$38)+J66*$C$38</f>
-        <v>0.59890109890109899</v>
-      </c>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C70" s="13">
-        <v>1</v>
-      </c>
-      <c r="D70" s="4">
-        <f>VLOOKUP(C70,AI!$A$2:$B$7,2,0)</f>
-        <v>16</v>
-      </c>
-      <c r="E70" s="4">
-        <f>VLOOKUP(C70,AI!$C$2:$D$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="F70" s="4">
-        <f>VLOOKUP(C70,AI!$E$2:$F$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="G70" s="4">
-        <f>VLOOKUP(C70,AI!$G$2:$H$7,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H70" s="4">
-        <f>VLOOKUP(C70,AI!$I$2:$J$7,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I70" s="4">
-        <f>VLOOKUP(C70,AI!$K$2:$L$7,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <f>VLOOKUP(C70,AI!$M$2:$N$7,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="12">
-        <f>D70/($D$70+$E$70+$G$70+$I$70)</f>
-        <v>0.8</v>
-      </c>
-      <c r="E71" s="12">
-        <f>E70/($D$70+$E$70+$G$70+$I$70)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12">
-        <f>G70/($D$70+$E$70+$G$70+$I$70)</f>
-        <v>0.05</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12">
-        <f>I70/($D$70+$E$70+$G$70+$I$70)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J71" s="12">
-        <f>J70/($D$64+$E$64+$G$64+$J$64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C74" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4">
         <f>VLOOKUP(C74,AI!$A$2:$B$7,2,0)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E74" s="4">
         <f>VLOOKUP(C74,AI!$C$2:$D$7,2,0)</f>
@@ -3722,7 +4631,7 @@
       </c>
       <c r="G74" s="4">
         <f>VLOOKUP(C74,AI!$G$2:$H$7,2,0)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4">
         <f>VLOOKUP(C74,AI!$I$2:$J$7,2,0)</f>
@@ -3737,143 +4646,417 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D75" s="12">
         <f>D74/($D$74+$E$74+$G$74+$I$74)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>0.8</v>
       </c>
       <c r="E75" s="12">
         <f>E74/($D$74+$E$74+$G$74+$I$74)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12">
         <f>G74/($D$74+$E$74+$G$74+$I$74)</f>
-        <v>0.76190476190476186</v>
+        <v>0.05</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12">
         <f>I74/($D$74+$E$74+$G$74+$I$74)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J75" s="12">
+        <f>J74/($D$68+$E$68+$G$68+$J$68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C78" s="13">
+        <v>4</v>
+      </c>
+      <c r="D78" s="4">
+        <f>VLOOKUP(C78,AI!$A$2:$B$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E78" s="4">
+        <f>VLOOKUP(C78,AI!$C$2:$D$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F78" s="4">
+        <f>VLOOKUP(C78,AI!$E$2:$F$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G78" s="4">
+        <f>VLOOKUP(C78,AI!$G$2:$H$7,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="H78" s="4">
+        <f>VLOOKUP(C78,AI!$I$2:$J$7,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <f>VLOOKUP(C78,AI!$K$2:$L$7,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <f>VLOOKUP(C78,AI!$M$2:$N$7,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="12">
+        <f>D78/($D$78+$E$78+$G$78+$I$78)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E79" s="12">
+        <f>E78/($D$78+$E$78+$G$78+$I$78)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12">
+        <f>G78/($D$78+$E$78+$G$78+$I$78)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12">
+        <f>I78/($D$78+$E$78+$G$78+$I$78)</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="J75" s="12">
-        <f>J74/($D$64+$E$64+$G$64+$J$64)</f>
+      <c r="J79" s="12">
+        <f>J78/($D$68+$E$68+$G$68+$J$68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C79" s="3" t="s">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D80" s="1">
+        <f>D78</f>
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" ref="E80:J80" si="18">E78</f>
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <f>G78*2/3</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D81" s="12">
+        <f>D80/($D$80+$E$80+$G$80+$I$80)</f>
+        <v>0.12765957446808512</v>
+      </c>
+      <c r="E81" s="12">
+        <f>E80/($D$80+$E$80+$G$80+$I$80)</f>
+        <v>0.12765957446808512</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12">
+        <f>G80/($D$80+$E$80+$G$80+$I$80)</f>
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12">
+        <f>I80/($D$78+$E$78+$G$78+$I$78)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J81" s="12">
+        <f>J80/($D$68+$E$68+$G$68+$J$68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B80" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="4">
-        <f>SQRT($C$83/($C$56*$C$57))*C56</f>
-        <v>5.8864392112158397</v>
-      </c>
-      <c r="D80" s="4">
-        <f>SQRT($D$83/($D$56*$D$57))*D56</f>
-        <v>1.9674775073518591</v>
-      </c>
-      <c r="E80" s="4">
-        <f>SQRT($E$83/($E$56*$E$57))*E56</f>
-        <v>2.9534855549125214</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="4">
-        <f>SQRT($C$83/($C$56*$C$57))*C57</f>
-        <v>1.1037073521029699</v>
-      </c>
-      <c r="D81" s="4">
-        <f>SQRT($D$83/($D$56*$D$57))*D57</f>
-        <v>0.98373875367592956</v>
-      </c>
-      <c r="E81" s="4">
-        <f>SQRT($E$83/($E$56*$E$57))*E57</f>
-        <v>1.4767427774562607</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="4">
-        <f>C58/T55</f>
-        <v>0.62328767123287665</v>
-      </c>
-      <c r="D82" s="4">
-        <f t="shared" ref="D82:E82" si="14">D58/U55</f>
-        <v>1.0133178922987838</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="14"/>
-        <v>0.53030303030303039</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="4">
-        <f>C59/T56</f>
-        <v>6.4969062351261293</v>
-      </c>
-      <c r="D83" s="4">
-        <f>D59/U56</f>
-        <v>1.9354838709677422</v>
-      </c>
-      <c r="E83" s="4">
-        <f>E59/V56</f>
-        <v>4.361538461538462</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="4">
-        <f>C82*C83</f>
-        <v>4.0494415575101215</v>
-      </c>
-      <c r="D84" s="4">
-        <f t="shared" ref="D84:E84" si="15">D82*D83</f>
-        <v>1.9612604367073236</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="15"/>
-        <v>2.3129370629370634</v>
+      <c r="C84" s="32">
+        <f>SQRT($C$87/($C$58*$C$59))*C58</f>
+        <v>2.1360105300217036</v>
+      </c>
+      <c r="D84" s="32">
+        <f>SQRT($D$87/($D$58*$D$59))*D58</f>
+        <v>1.7799766379599391</v>
+      </c>
+      <c r="E84" s="32">
+        <f>SQRT($E$87/($E$58*$E$59))*E58</f>
+        <v>2.3354968324845689</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4">
+        <f>SQRT($C$87/($C$58*$C$59))*C59</f>
+        <v>1.1278135598514596</v>
+      </c>
+      <c r="D85" s="4">
+        <f>SQRT($D$87/($D$58*$D$59))*D59</f>
+        <v>0.88998831897996955</v>
+      </c>
+      <c r="E85" s="4">
+        <f>SQRT($E$87/($E$58*$E$59))*E59</f>
+        <v>0.77849894416152299</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" ref="C86:E87" si="19">C60/T57</f>
+        <v>0.62531645569620242</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="19"/>
+        <v>0.965064659332175</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="19"/>
+        <v>0.66287878787878796</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="19"/>
+        <v>2.4090216397439805</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="19"/>
+        <v>1.5841584158415842</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="19"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="4">
+        <f>C86*C87</f>
+        <v>1.5064008734601597</v>
+      </c>
+      <c r="D88" s="4">
+        <f>D86*D87</f>
+        <v>1.5288153019123565</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" ref="E88" si="20">E86*E87</f>
+        <v>1.2052341597796143</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B91" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="4">
+        <f>ROUNDUP(I17,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="4">
+        <f>ROUNDUP(D92*C40,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="17">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" s="31">
+        <f>J70*D94+(1-J70)*D95</f>
+        <v>32.307692307692307</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="31">
+        <f>F98*G97</f>
+        <v>96.92307692307692</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="23">
+        <f>1-(1-J70)^2*3</f>
+        <v>0.55621301775147935</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E103" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E104" s="17">
+        <v>3</v>
+      </c>
+      <c r="F104" s="18">
+        <v>1</v>
+      </c>
+      <c r="G104" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="P7:R7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AR7:AT7"/>
+    <mergeCell ref="AW7:AY7"/>
+    <mergeCell ref="AK7:AM7"/>
     <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AD7:AF7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3903,31 +5086,31 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4206,37 +5389,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>职业定位属性配比!C3</f>
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -4246,23 +5434,23 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f>职业定位属性配比!C4</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="1">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4">
         <f>职业定位属性配比!C5</f>
-        <v>1.7550000000000001</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -4270,28 +5458,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -4329,7 +5517,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12">
         <f>D9/($D$9+$E$9+$G$9+$I$9)</f>
@@ -4356,17 +5544,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -4375,59 +5563,59 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <f>($D$3-1)*职业定位属性配比!E11</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="E15" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E15" s="4">
         <f>($D$3-1)*职业定位属性配比!F11</f>
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="F15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="4">
         <f>($D$3-1)*职业定位属性配比!G11</f>
-        <v>6.0000000000000012E-2</v>
-      </c>
-      <c r="G15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="4">
         <f>SUM(D15:F15)/3</f>
-        <v>0.26000000000000006</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="1">
+        <v>133</v>
+      </c>
+      <c r="D16" s="4">
         <f>($D$4-1)*职业定位属性配比!E10</f>
-        <v>0.52500000000000013</v>
-      </c>
-      <c r="E16" s="1">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="E16" s="4">
         <f>($D$4-1)*职业定位属性配比!F10</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="F16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="4">
         <f>($D$4-1)*职业定位属性配比!G10</f>
-        <v>0.52500000000000013</v>
-      </c>
-      <c r="G16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="4">
         <f>SUM(D16:F16)/3</f>
-        <v>0.46666666666666679</v>
+        <v>1.2373333333333332</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4444,162 +5632,171 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="23">
+        <v>135</v>
+      </c>
+      <c r="E20" s="12">
         <f>(1-G10)^E3</f>
         <v>1.349746247705432E-2</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="12">
         <f>COMBIN($E$3,F19)*$G$10^F19*(1-$G$10)^($E$3-F19)</f>
         <v>0.12957563977972145</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="12">
         <f t="shared" ref="G20:H20" si="0">COMBIN($E$3,G19)*$G$10^G19*(1-$G$10)^($E$3-G19)</f>
         <v>0.41464204729510851</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="12">
         <f t="shared" si="0"/>
         <v>0.44228485044811566</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="1">
+        <v>137</v>
+      </c>
+      <c r="E22" s="4">
         <f>F20*G15*F19+G20*G15*G19+H20*G15*H19</f>
-        <v>0.59428571428571431</v>
+        <v>1.5542857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <f>F20*G16*F19+G20*G16*G19+H20*G16*H19</f>
-        <v>1.0666666666666669</v>
+        <v>2.8281904761904753</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C26" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C27" s="7">
-        <f>职业定位属性配比!D46</f>
+        <f>职业定位属性配比!D48</f>
         <v>1.3</v>
       </c>
       <c r="D27" s="7">
-        <f>职业定位属性配比!E46</f>
+        <f>职业定位属性配比!E48</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7">
-        <f>职业定位属性配比!D47</f>
+        <f>职业定位属性配比!D49</f>
         <v>1.5</v>
       </c>
       <c r="D28" s="7">
-        <f>职业定位属性配比!E47</f>
+        <f>职业定位属性配比!E49</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" s="7">
-        <f>职业定位属性配比!D48</f>
+        <f>职业定位属性配比!D50</f>
         <v>1.8</v>
       </c>
       <c r="D29" s="7">
-        <f>职业定位属性配比!E48</f>
+        <f>职业定位属性配比!E50</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C32" s="25" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" s="7">
-        <f>C27</f>
-        <v>1.3</v>
+        <f>C27*$F$32</f>
+        <v>1.2675000000000001</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" ref="E34:E35" si="1">C28</f>
-        <v>1.5</v>
+        <f t="shared" ref="E34:E35" si="1">C28*$F$32</f>
+        <v>1.4624999999999999</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D35" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E39" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.15">
@@ -4609,15 +5806,15 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="5">
-        <f>F40*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G40" s="4">
+        <f>F40*(1-1/职业定位属性配比!$N$57)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <f>SUM($G$40:G40)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4628,16 +5825,16 @@
       <c r="F41" s="17">
         <v>0.1</v>
       </c>
-      <c r="G41" s="5">
-        <f>F41*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G41" s="4">
+        <f>F41*(1-1/职业定位属性配比!$N$57)</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="H41" s="5">
-        <f>SUM($G$40:G41)</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="I41" s="25">
-        <f>H41/(1-1/职业定位属性配比!$N$55)</f>
+      <c r="H41" s="4">
+        <f>SUM($G$40:G41)*职业定位属性配比!$N$57</f>
+        <v>1.9999999999999993E-2</v>
+      </c>
+      <c r="I41" s="33">
+        <f>H41/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -4648,16 +5845,16 @@
       <c r="F42" s="17">
         <v>0.34</v>
       </c>
-      <c r="G42" s="5">
-        <f>(1-F41)*F42*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G42" s="4">
+        <f>(1-F41)*F42*(1-1/职业定位属性配比!$N$57)</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H42" s="5">
-        <f>SUM($G$40:G42)</f>
-        <v>6.7666666666666653E-2</v>
-      </c>
-      <c r="I42" s="25">
-        <f>H42/(1-1/职业定位属性配比!$N$55)</f>
+      <c r="H42" s="4">
+        <f>SUM($G$40:G42)*职业定位属性配比!$N$57</f>
+        <v>8.1199999999999981E-2</v>
+      </c>
+      <c r="I42" s="33">
+        <f>H42/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.40600000000000003</v>
       </c>
     </row>
@@ -4668,17 +5865,17 @@
       <c r="F43" s="17">
         <v>0.5</v>
       </c>
-      <c r="G43" s="5">
-        <f>(1-F42)*(1-F41)*F43*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G43" s="4">
+        <f>(1-F42)*(1-F41)*F43*(1-1/职业定位属性配比!$N$57)</f>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="H43" s="5">
-        <f>SUM($G$40:G43)</f>
-        <v>0.11716666666666664</v>
-      </c>
-      <c r="I43" s="25">
-        <f>H43/(1-1/职业定位属性配比!$N$55)</f>
-        <v>0.70299999999999996</v>
+      <c r="H43" s="4">
+        <f>SUM($G$40:G43)*职业定位属性配比!$N$57</f>
+        <v>0.14059999999999997</v>
+      </c>
+      <c r="I43" s="33">
+        <f>H43/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
+        <v>0.70300000000000007</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.15">
@@ -4688,16 +5885,16 @@
       <c r="F44" s="17">
         <v>0.7</v>
       </c>
-      <c r="G44" s="5">
-        <f>(1-F42)*(1-F43)*(1-F41)*F44*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G44" s="4">
+        <f>(1-F42)*(1-F43)*(1-F41)*F44*(1-1/职业定位属性配比!$N$57)</f>
         <v>3.4649999999999986E-2</v>
       </c>
-      <c r="H44" s="5">
-        <f>SUM($G$40:G44)</f>
-        <v>0.15181666666666663</v>
-      </c>
-      <c r="I44" s="25">
-        <f>H44/(1-1/职业定位属性配比!$N$55)</f>
+      <c r="H44" s="4">
+        <f>SUM($G$40:G44)*职业定位属性配比!$N$57</f>
+        <v>0.18217999999999995</v>
+      </c>
+      <c r="I44" s="33">
+        <f>H44/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.91089999999999993</v>
       </c>
     </row>
@@ -4708,16 +5905,16 @@
       <c r="F45" s="17">
         <v>0.7</v>
       </c>
-      <c r="G45" s="5">
-        <f>(1-F42)*(1-F43)*(1-F44)*(1-F41)*F45*(1-1/职业定位属性配比!$N$55)</f>
+      <c r="G45" s="4">
+        <f>(1-F42)*(1-F43)*(1-F44)*(1-F41)*F45*(1-1/职业定位属性配比!$N$57)</f>
         <v>1.0394999999999998E-2</v>
       </c>
-      <c r="H45" s="5">
-        <f>SUM($G$40:G45)</f>
-        <v>0.16221166666666662</v>
-      </c>
-      <c r="I45" s="25">
-        <f>H45/(1-1/职业定位属性配比!$N$55)</f>
+      <c r="H45" s="4">
+        <f>SUM($G$40:G45)*职业定位属性配比!$N$57</f>
+        <v>0.19465399999999994</v>
+      </c>
+      <c r="I45" s="33">
+        <f>H45/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.97326999999999986</v>
       </c>
     </row>
@@ -4729,42 +5926,42 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D47" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E47" s="7">
         <f>C27*(1-$H$42)</f>
-        <v>1.2120333333333333</v>
+        <v>1.1944400000000002</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D48" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" ref="E48:E49" si="2">C28*(1-$H$42)</f>
-        <v>1.3985000000000001</v>
+        <v>1.3782000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="2"/>
-        <v>1.6782000000000001</v>
+        <v>1.6538400000000002</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -4782,54 +5979,54 @@
       <c r="C53"/>
       <c r="D53" s="3"/>
       <c r="E53" s="14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L53"/>
       <c r="M53" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C54"/>
       <c r="D54" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M54"/>
       <c r="N54" s="3"/>
@@ -4837,7 +6034,7 @@
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C55"/>
       <c r="D55" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E55" s="22">
         <v>1</v>
@@ -4859,7 +6056,7 @@
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C56"/>
       <c r="D56" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E56" s="22">
         <v>0.2</v>
@@ -4875,23 +6072,23 @@
       </c>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56" s="29">
+      <c r="K56" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="36">
         <v>4.8636363636363633</v>
       </c>
       <c r="M56" s="1">
         <v>0.8</v>
       </c>
-      <c r="N56" s="31">
+      <c r="N56" s="8">
         <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C57"/>
       <c r="D57" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E57" s="22">
         <v>0.2</v>
@@ -4907,23 +6104,23 @@
       </c>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57" s="29">
+      <c r="K57" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="36">
         <v>4.8636363636363633</v>
       </c>
       <c r="M57" s="1">
         <v>0.6</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="8">
         <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C58"/>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E58" s="22">
         <v>0.2</v>
@@ -4943,23 +6140,23 @@
       <c r="J58" s="1">
         <v>1</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="5">
         <v>1.05</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="36">
         <v>5.0952380952380949</v>
       </c>
       <c r="M58" s="1">
         <v>1</v>
       </c>
-      <c r="N58" s="31">
+      <c r="N58" s="8">
         <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C59"/>
       <c r="D59" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E59" s="22">
         <v>0.2</v>
@@ -4979,23 +6176,23 @@
       <c r="J59" s="1">
         <v>1</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="5">
         <v>1.05</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="36">
         <v>5.0952380952380949</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
       </c>
-      <c r="N59" s="31">
+      <c r="N59" s="8">
         <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C60"/>
       <c r="D60" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E60" s="22">
         <v>0.2</v>
@@ -5015,59 +6212,690 @@
       <c r="J60" s="1">
         <v>1</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="5">
         <v>1.05</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="36">
         <v>5.0952380952380949</v>
       </c>
       <c r="M60" s="1">
         <v>1</v>
       </c>
-      <c r="N60" s="31">
+      <c r="N60" s="8">
         <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D62" s="26">
         <f>SUM(K56:K60)/5</f>
         <v>1.0699999999999998</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C64" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E65" s="7">
         <f>D27/$D$62</f>
         <v>1.2149532710280375</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D66" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" ref="E66:E67" si="3">D28/$D$62</f>
         <v>1.4018691588785048</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="3"/>
         <v>1.6822429906542058</v>
       </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="31">
+        <f>(职业定位属性配比!T59-职业定位属性配比!I60)/职业定位属性配比!Q57</f>
+        <v>0.57934596832956098</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="31">
+        <f>(职业定位属性配比!U59-职业定位属性配比!J60)/职业定位属性配比!Q57</f>
+        <v>0.5766181818181817</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="31">
+        <f>(职业定位属性配比!V59-职业定位属性配比!K60)/职业定位属性配比!Q57</f>
+        <v>0.24103896103896111</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D76" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="17">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <f>SQRT(E70/(D76*E76))*D76</f>
+        <v>0.93221186030555392</v>
+      </c>
+      <c r="G76" s="4">
+        <f>SQRT(E70/(D76*E76))*E76</f>
+        <v>0.62147457353703595</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D81" s="17">
+        <v>1</v>
+      </c>
+      <c r="E81" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F81" s="4">
+        <f>SQRT(E71/(D81*E81))*D81</f>
+        <v>0.62000977509400701</v>
+      </c>
+      <c r="G81" s="4">
+        <f>SQRT(E71/(D81*E81))*E81</f>
+        <v>0.93001466264101051</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D86" s="17">
+        <v>1</v>
+      </c>
+      <c r="E86" s="17">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <f>SQRT(E72/(D86*E86))*D86</f>
+        <v>0.49095718860096255</v>
+      </c>
+      <c r="G86" s="4">
+        <f>SQRT(E72/(D86*E86))*E86</f>
+        <v>0.49095718860096255</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="31">
+        <f>职业定位属性配比!T59-职业定位属性配比!I60-技能基础价值!E70</f>
+        <v>5.7934596832956098E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="31">
+        <f>职业定位属性配比!U59-职业定位属性配比!J60-技能基础价值!E71</f>
+        <v>5.7661818181818258E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="31">
+        <f>职业定位属性配比!V59-职业定位属性配比!K60-技能基础价值!E72</f>
+        <v>2.4103896103896127E-2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B94" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="12">
+        <f>C27*$D$112/E96</f>
+        <v>0.70330687830687844</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="12">
+        <f>C28*$D$112/E97</f>
+        <v>0.81150793650793662</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="12">
+        <f>C29*$D$112/E98</f>
+        <v>0.9738095238095239</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C101" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C103" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="4">
+        <f>ROUNDUP(职业定位属性配比!E12/职业定位属性配比!F11,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E103" s="1">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="12">
+        <f>1/D103</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2</v>
+      </c>
+      <c r="I103" s="12">
+        <f>1/D103</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3</v>
+      </c>
+      <c r="K103" s="12">
+        <f>1/D103</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="4">
+        <f>ROUNDUP(职业定位属性配比!F12/职业定位属性配比!F11,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="35">
+        <v>1</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J104" s="1">
+        <v>3</v>
+      </c>
+      <c r="K104" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C105" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="4">
+        <f>ROUNDUP(职业定位属性配比!G12/职业定位属性配比!F11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="35">
+        <v>1</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J105" s="1">
+        <v>3</v>
+      </c>
+      <c r="K105" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="F106" s="34"/>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C108" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="4">
+        <f>F103*G103+H103*I103+J103*K103</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C109" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" s="4">
+        <f>H104*I104+J104*K104</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C110" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="4">
+        <f>F105*G105+H105*I105+J105*K105</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="4">
+        <f>SUM(D108:D110)/3</f>
+        <v>1.8690476190476193</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" s="4">
+        <f>(D111+E96)/E96</f>
+        <v>1.6230158730158732</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C115" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="7">
+        <f>职业定位属性配比!C40</f>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="31">
+        <f>D115*职业定位属性配比!E10+(1-D115)*职业定位属性配比!F10</f>
+        <v>2.4242105263157896</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C118" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="12">
+        <f>D27/$D$116</f>
+        <v>0.53625705601389495</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C119" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="12">
+        <f t="shared" ref="D119:D120" si="4">D28/$D$116</f>
+        <v>0.61875814155449416</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C120" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="12">
+        <f t="shared" si="4"/>
+        <v>0.74250976986539297</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C122" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D123" s="12">
+        <f>D119/E123</f>
+        <v>0.20625271385149804</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B125" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C126" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E127" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C128" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" s="4">
+        <f>SUM(职业定位属性配比!E11:G11)/3*E128</f>
+        <v>0.85</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B130" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D131" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C132" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D132" s="4">
+        <f>职业定位属性配比!C86</f>
+        <v>0.62531645569620242</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C133" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D133" s="4">
+        <f>职业定位属性配比!D86</f>
+        <v>0.965064659332175</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D134" s="4">
+        <f>职业定位属性配比!E86</f>
+        <v>0.66287878787878796</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D135" s="4">
+        <f>SUM(D132:D134)/3</f>
+        <v>0.75108663430238842</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C137" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D137" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C138" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="4">
+        <f>D135*D137</f>
+        <v>0.75108663430238842</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B140" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C141" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C142" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" s="4">
+        <f>C142*SUM(职业定位属性配比!E11:G11)*D142</f>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C144" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
-    <sheet name="AI" sheetId="2" r:id="rId2"/>
-    <sheet name="技能基础价值" sheetId="3" r:id="rId3"/>
+    <sheet name="属性分配" sheetId="6" r:id="rId2"/>
+    <sheet name="怪物职业定义" sheetId="4" r:id="rId3"/>
+    <sheet name="AI" sheetId="2" r:id="rId4"/>
+    <sheet name="战斗力划分" sheetId="5" r:id="rId5"/>
+    <sheet name="技能基础价值" sheetId="3" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -115,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="593">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1149,1171 @@
   </si>
   <si>
     <t>提升的H属性技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物倾向</t>
+  </si>
+  <si>
+    <t>首先通过怪物的属性区分出T（肉），dps（输出），supporter（辅助，包含healer（治疗））主要的3个大类</t>
+  </si>
+  <si>
+    <t>pvp</t>
+  </si>
+  <si>
+    <t>体现倾向之间的克制关系</t>
+  </si>
+  <si>
+    <t>再次通过技能（主要是被动）区分每个大类下的不同倾向</t>
+  </si>
+  <si>
+    <t>pve</t>
+  </si>
+  <si>
+    <t>体现玩法开启的过程与玩法程度加深的过程</t>
+  </si>
+  <si>
+    <t>定义战斗模型为5v5的团队模型</t>
+  </si>
+  <si>
+    <t>将5个怪物作为一个整体，玩家需要15回合和对面5只怪物同时战死</t>
+  </si>
+  <si>
+    <t>通过战斗时间平衡公式</t>
+  </si>
+  <si>
+    <t>假设对战双方分别为1和2，双方等级相同，进行如下定义：</t>
+  </si>
+  <si>
+    <t>A1、D1、H1分别为1的攻击力、防御力、生命</t>
+  </si>
+  <si>
+    <t>A2、D2、H2分别为1的攻击力、防御力、生命</t>
+  </si>
+  <si>
+    <t>Dr为1和2等级下对应的防御系数（即标准防御力）</t>
+  </si>
+  <si>
+    <t>T12为1将2击败需要的时间（回合数）</t>
+  </si>
+  <si>
+    <t>T21为2将1击败需要的时间（回合数）</t>
+  </si>
+  <si>
+    <t>则根据伤害公式基本结构，可得</t>
+  </si>
+  <si>
+    <t>T12=H2*(1+D2/Dr)/A1</t>
+  </si>
+  <si>
+    <t>T21=H1*(1+D1/Dr)/A2</t>
+  </si>
+  <si>
+    <t>若需要达到双方平衡，则需要</t>
+  </si>
+  <si>
+    <t>T12=T21</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>H1*(1+D1/Dr)/A2=H2*(1+D2/Dr)/A1</t>
+  </si>
+  <si>
+    <t>变化后可得</t>
+  </si>
+  <si>
+    <t>A1*H1*(1+D1/Dr)=A2*H2*(1+D2/Dr)</t>
+  </si>
+  <si>
+    <t>因此可以视为：</t>
+  </si>
+  <si>
+    <t>F=A*H*(1+D/Dr)即为一个角色的基础战力</t>
+  </si>
+  <si>
+    <t>优先考虑：攻击力与生命</t>
+  </si>
+  <si>
+    <t>即A*15=H</t>
+  </si>
+  <si>
+    <t>设H=150，则A=10，而5只怪物需要分配为150份的体力与10份的攻击力</t>
+  </si>
+  <si>
+    <t>玩家怪物倾向：</t>
+  </si>
+  <si>
+    <t>T：肉，作为我方主要承受伤害的宠物</t>
+  </si>
+  <si>
+    <t>特点为：血厚（或者防高）可以构造为2种倾向型的T，同时攻击力极低</t>
+  </si>
+  <si>
+    <t>D：DPS，作为我方主要输出伤害的宠物</t>
+  </si>
+  <si>
+    <t>特点为：血薄，攻击高（或者速度快），可以构造2种倾向型的D</t>
+  </si>
+  <si>
+    <t>需要注意：攻击高速度慢的dps需要防止溢出过量，速度快的相对好些</t>
+  </si>
+  <si>
+    <t>S（H）：辅助（治疗），作为我方主要回复血量增加战力的宠物</t>
+  </si>
+  <si>
+    <t>特点为：血薄，攻击平庸，拥有提高我方T,DPS战力或降低敌方T/DPS战力的buff或者恢复血量或者清除buff</t>
+  </si>
+  <si>
+    <t>这里还可以继续细分H的具体体现为：血量与受伤比</t>
+  </si>
+  <si>
+    <t>A的具体体现为：攻击力与速度</t>
+  </si>
+  <si>
+    <t>可以继续细分H与A，继续区分相同倾向内的差异</t>
+  </si>
+  <si>
+    <t>这个之后继续细化</t>
+  </si>
+  <si>
+    <t>技能倾向</t>
+  </si>
+  <si>
+    <t>（不考虑性格影响）</t>
+  </si>
+  <si>
+    <t>T（肉）</t>
+  </si>
+  <si>
+    <t>T的主要特征技能</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>使用技能时概率触发</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招全体</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分物理与法术T</t>
+  </si>
+  <si>
+    <t>1.吸收护盾</t>
+  </si>
+  <si>
+    <t>普通技能附带</t>
+  </si>
+  <si>
+    <t>血量低于n%附加</t>
+  </si>
+  <si>
+    <t>对局开始时</t>
+  </si>
+  <si>
+    <t>2.减免护盾</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>区分T之间的类型</t>
+  </si>
+  <si>
+    <t>3.吸血</t>
+  </si>
+  <si>
+    <t>使用技能附带</t>
+  </si>
+  <si>
+    <t>Dps</t>
+  </si>
+  <si>
+    <t>主要通过技能和属性差异直接体现法系与物理Dps的差异</t>
+  </si>
+  <si>
+    <t>目前仍可以通过被动技能，区分(考虑是否还要)</t>
+  </si>
+  <si>
+    <t>怪物是否停一轮之后行动两次（添加秒人概率）</t>
+  </si>
+  <si>
+    <t>Supporter</t>
+  </si>
+  <si>
+    <t>主要通过buff技能来区分属于benefit或者debuff</t>
+  </si>
+  <si>
+    <t>buff技能</t>
+  </si>
+  <si>
+    <t>同时通过驱散技能，击晕技能等，区分辅助的倾向是攻击还是防守（主要运用于大招）</t>
+  </si>
+  <si>
+    <t>使用buff技能时</t>
+  </si>
+  <si>
+    <t>大招</t>
+  </si>
+  <si>
+    <t>healer（supporter的子类）</t>
+  </si>
+  <si>
+    <t>可以通过healer的回血，上盾（吸收护盾/减免护盾）与他们的组合来定义不同类型的healer</t>
+  </si>
+  <si>
+    <t>区分hotter和healer</t>
+  </si>
+  <si>
+    <t>运用2种方式回血</t>
+  </si>
+  <si>
+    <t>1.通过buff回血</t>
+  </si>
+  <si>
+    <t>2.直接通过法术技能回血</t>
+  </si>
+  <si>
+    <t>触发护盾条件</t>
+  </si>
+  <si>
+    <t>使用治疗技能时</t>
+  </si>
+  <si>
+    <t>还会有特色的被动技能</t>
+  </si>
+  <si>
+    <t>1.涅槃（死后重生），运用被动技能血量置数实现</t>
+  </si>
+  <si>
+    <t>2.吸收能量（有些难平衡。。。）</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容间互克关系：</t>
+  </si>
+  <si>
+    <t>1.定义T为队伍主要的承受伤害的宠物（会嘲讽），当T倒了以后若没有更多的T作为后备补充，队伍会被瞬间瓦解</t>
+  </si>
+  <si>
+    <t>但是由于T的攻击力很弱，不能有效的消耗敌方的战斗力，所以当一个队伍中全是T时，只能是战力相加的关系，无法达到最优战斗力</t>
+  </si>
+  <si>
+    <t>团队加成:</t>
+  </si>
+  <si>
+    <t>当上场队伍中同时存在一个T与一个S（heal型）的情况时，S可以有效的恢复T的战斗力，当T受伤比较低时，敌方需要消耗更多的时间去消耗掉S补充的战斗力，所以T与S是一个战力叠乘的关系，主流阵容中一定会出现该搭配</t>
+  </si>
+  <si>
+    <t>团队克制：</t>
+  </si>
+  <si>
+    <t>当上场队伍中存在一个S（驱散和降低属性）时，可以有效的克制敌方的T（防御），所以拥有S（debuff或驱散）的队伍可以克制T的队伍</t>
+  </si>
+  <si>
+    <t>2.DPS作为团队的主要输出（同时也是战力最高的宠物），所以往往是需要被保护的对象，但是由于DPS血量很薄，存在过多很容易被瞬间干掉</t>
+  </si>
+  <si>
+    <t>当一个队伍中全是D时，只能是战力相加的关系，无法达到最优战斗力</t>
+  </si>
+  <si>
+    <t>团队加成：</t>
+  </si>
+  <si>
+    <t>当上场队伍中同时存在一个D与一个S（提升属性型）的情况时，S可以大量的提升D的战斗力，可以在一定时间内大量消耗敌方战斗，所以T与S是一个战力叠乘的关系，主流阵容中一定会出现该搭配</t>
+  </si>
+  <si>
+    <t>当上场队伍中存在一个S（降低属性）时，可以有效的削减敌方的D的输出，所以拥有S（降低属性）的队伍可以克制T的队伍</t>
+  </si>
+  <si>
+    <t>同时当上场队伍中存在T时，T由于T有嘲讽技能可以有效的吸引DPS的输出，大量降低DPS对我方战力的消耗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.S作为团队辅助是提升己方战力与降低敌方战力的有效途径，但是由于可提升buff属性有限且当仅存在S时，S的作用几乎为零</t>
+  </si>
+  <si>
+    <t>对于阵容中的D与T有较大的提升，其中S（提升属性型、降低属性型）可有效的提升本队战力或降低别队战力，S与本队的战力提升是叠乘的关系</t>
+  </si>
+  <si>
+    <t>当场上阵容的S过多或者仅存的战斗力过少，S的价值很小，所以队伍中S的个数不宜过多</t>
+  </si>
+  <si>
+    <t>同时可提升/降低属性个数有限，属性之间会带来替代或重叠，造成战力浪费</t>
+  </si>
+  <si>
+    <t>由此可见</t>
+  </si>
+  <si>
+    <t>团队中的3个倾向能够形成一个相互制约与克制的关系</t>
+  </si>
+  <si>
+    <t>同时团队中的角色的配合对比单纯的相同职业的战力叠加是战力叠乘的关系，所以会带来较大战力提升</t>
+  </si>
+  <si>
+    <t>所以队伍中同时存在这3种倾向的宠物才是最优化的</t>
+  </si>
+  <si>
+    <t>定义玩家主流的搭配阵型为：</t>
+  </si>
+  <si>
+    <t>战力</t>
+  </si>
+  <si>
+    <t>上阵</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S(H)</t>
+  </si>
+  <si>
+    <t>后备</t>
+  </si>
+  <si>
+    <t>阵容优势：爆发能力较高，辅助（提高属性/降低属性型）可在提升战力后换上Healer</t>
+  </si>
+  <si>
+    <t>阵容劣势：当T倒后，无力回天</t>
+  </si>
+  <si>
+    <t>阵容优势：续航能力较强，拥有2个t可以有效的承担团队伤害</t>
+  </si>
+  <si>
+    <t>阵容劣势：回复能力或者团队提升性较弱，无法有效克制对面的T</t>
+  </si>
+  <si>
+    <t>阵容优势：持续输出较高，不怕爆发性秒掉Dps，同时dps</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容劣势：回复能力或者团队提升性较弱，不能有效的克制对面T同时T阵亡后无力回天</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容优势：续航能力很强，能够有效回复或克制对面t</t>
+  </si>
+  <si>
+    <t>阵容劣势：输出匮乏，当唯一dps被杀无翻盘可能</t>
+  </si>
+  <si>
+    <t>倾向内属性分化</t>
+  </si>
+  <si>
+    <t>主要通过血量与受伤比区分</t>
+  </si>
+  <si>
+    <t>可以通过被动来区分T</t>
+  </si>
+  <si>
+    <t>吸血型</t>
+  </si>
+  <si>
+    <t>属于血量型的T，可通过技能有效回复自身血量，达到T的作用</t>
+  </si>
+  <si>
+    <t>减免护盾型</t>
+  </si>
+  <si>
+    <t>属于防御型的T，可通过技能或血量到达一定程度后降低自身受伤比，达到T的作用</t>
+  </si>
+  <si>
+    <t>吸收护盾型</t>
+  </si>
+  <si>
+    <t>属于血量型的T，可通过技能或血量到达一定程度后添加护盾吸收伤害，达到T的作用</t>
+  </si>
+  <si>
+    <t>主要通过速度与攻击力区分</t>
+  </si>
+  <si>
+    <t>可以通过属性和被动来区分D</t>
+  </si>
+  <si>
+    <t>速度型</t>
+  </si>
+  <si>
+    <t>速度较快，可以在相同时间内多次攻击敌人，不易溢出同时打断几率大</t>
+  </si>
+  <si>
+    <t>爆发型</t>
+  </si>
+  <si>
+    <t>攻击力高，在T嘲讽的间隙给敌方输出造成大量伤害（不给治疗的机会），但是溢出偏高</t>
+  </si>
+  <si>
+    <t>dot型</t>
+  </si>
+  <si>
+    <t>持续输出型，可置换上下场做配合</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>主要通过治疗手段区分</t>
+  </si>
+  <si>
+    <t>无溢出，但是怕驱散</t>
+  </si>
+  <si>
+    <t>hot型</t>
+  </si>
+  <si>
+    <t>溢出较高，适用于敌方输出不高的情况</t>
+  </si>
+  <si>
+    <t>普通加血</t>
+  </si>
+  <si>
+    <t>有一定溢出，但是是实打实的加上就算加上了</t>
+  </si>
+  <si>
+    <t>辅助型</t>
+  </si>
+  <si>
+    <t>主要通过效果区分</t>
+  </si>
+  <si>
+    <t>己方增益</t>
+  </si>
+  <si>
+    <t>敌方减益</t>
+  </si>
+  <si>
+    <t>效果驱散</t>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>单伤（五种属性）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体治疗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>单体属性提升/降低</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体dot</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体hot</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击：连续单体攻击</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+  </si>
+  <si>
+    <t>群体治疗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体buff（beneficial，debuff，嘲讽，dot，hot，护盾）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体驱散（beneficial，debuff，护盾）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体控制（眩晕）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>（若木有嘲讽buff的则默认为攻击概率性嘲讽）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击回复自身血量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌人时，给自己加一个抵挡一定伤害的护盾</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，物理伤害减免百分比</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，法术伤害减免百分比</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，伤害减免百分比</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，添加护盾吸收一定物理伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，添加护盾吸收一定法术伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，添加护盾吸收一定伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家添加一个护盾吸收一定伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加体力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加防御力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用防御技能时，添加护盾</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用防御技能时，回复血量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，反弹部分伤害/附加dot/v附加debuff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加力量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加智力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加命中率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加暴击率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击后一定概率眩晕</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击后一定概率眩晕</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击后一定概率提升速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击后一定概率提升速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击后附加dot/debuff/驱散</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击后附加dot/debuff/驱散</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击后一定概率提升力量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击后一定概率提升智力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，力量提升</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，智力提升</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，速度提升</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，命中率提升</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于一定程度时，暴击率提升</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加智力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定增加命中率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家增加速度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家增加力量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家增加智力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家增加防御力</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局前，给本方全体玩家增加一个护盾吸收一定伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用加血技能后，一定概率给玩家上个护盾吸收一定伤害</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用加血技能后，一定概率给玩家上个减免护盾减少受到的物理伤害，持续XX回合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用加血技能后，一定概率给玩家上个减免护盾减少受到的法术伤害，持续XX回合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用加血技能后，一定概率给玩家上个减免护盾减少受到的伤害，持续XX回合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，场上怪物回复血量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用加血技能后，一定概率添加hot</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Beneficial技能时，一定概率清除debuff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以有一些较特殊</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到致命攻击时可以HP为1的状态存活</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力总体可以划分为属性带来的提升和技能带来的提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中属性带来的提升又分为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物自身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物本身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备本身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化/进阶属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备镶嵌属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能带来的提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度对于buff的影响，速度对于大招释放的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招能量积攒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能带来战斗力提升是在属性的基础上做加成，相当于可以把属性的总量定义为1，技能提升带来的加成为150%,则技能所带来的战斗力提升为50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能在战斗过程中，只有2个作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快战斗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓战斗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中战斗时间=守方HP/攻方Ack or 攻方HP/守方Ack，技能就是通过影响守方，攻方的hp和Ack来影响战斗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响攻方Ack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升（大招频率，buff效率，攻击效率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击技能技能系数加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响守方Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低守方防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓战斗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响攻方Ack</t>
+  </si>
+  <si>
+    <t>力量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度降低（大招频率，buff效率，攻击效率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽：引导攻方怪物攻击皮厚tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕：阻碍攻方攻击，但同时自己浪费一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响守方Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加守方防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能附带吸血（回血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备属性分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红装未强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红装强化满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身属性占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化属性基本参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化为线性增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性增长率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备升阶为线性增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备品阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物自身属性成长（随等级）与宠物升星成长关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设宠物自身成长为线性成长，宠物升星成长为同装备成长曲线相同的成长曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物品级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星成长比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶成长比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,12 +2321,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,8 +2442,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,8 +2503,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1337,6 +2568,15 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1346,7 +2586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,6 +2707,141 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1483,6 +2858,2675 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2247594050743642E-2"/>
+          <c:y val="0.18611111111111112"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.7157487605715952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>属性分配!$E$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1812500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2403124999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8604687500000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9534921875000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9302382812500007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0767501953125009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6151252929687514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8458815576171892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2688223364257833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1118614416"/>
+        <c:axId val="892335168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1118614416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892335168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892335168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118614416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41666666666666674"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>属性分配!$E$22:$BL$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69444444444444453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78750000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.83125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.91874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.96249999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.0062499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.0937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.1374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.1812499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.2403125000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1.3092187500000001</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>1.378125</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1.44703125</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.5159374999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.5848437499999999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>1.6537499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1.7226562499999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>1.7915624999999997</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1.8604687499999997</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1.9534921875000004</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>2.0620195312500003</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>2.1705468750000003</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>2.2790742187500004</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>2.3876015625000004</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>2.4961289062500005</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>2.6046562500000006</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>2.7131835937500006</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>2.8217109375000007</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>2.9302382812500007</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>3.0767501953125009</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>3.2476807617187511</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>3.4186113281250012</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>3.5895418945312514</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>3.7604724609375015</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>3.9314030273437517</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>4.1023335937500018</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>4.273264160156252</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>4.4441947265625021</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>4.6151252929687523</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>4.8458815576171892</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>5.1150971997070327</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>5.3843128417968762</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>5.6535284838867197</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>5.9227441259765632</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>6.1919597680664067</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>6.4611754101562502</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>6.7303910522460937</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>6.9996066943359372</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>7.2688223364257807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="716628800"/>
+        <c:axId val="415932720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="716628800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415932720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415932720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716628800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>属性分配!$D$29:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5555000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60550000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71961000000000019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81961000000000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91961000000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1016983000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2516983000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4016983000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6016983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8737662320000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0737662320000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2737662320000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4737662320000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6737662320000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0699545436000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="415930480"/>
+        <c:axId val="415932160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415930480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415932160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415932160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415930480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1598,6 +5642,391 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27283</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1398883" y="3619499"/>
+          <a:ext cx="4544717" cy="3288723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123077</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="13916025"/>
+          <a:ext cx="5980952" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="基础系数"/>
+      <sheetName val="总属性成长"/>
+      <sheetName val="技能占比"/>
+      <sheetName val="AI"/>
+      <sheetName val="自用"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="47">
+          <cell r="E47">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>0.5</v>
+          </cell>
+          <cell r="F65">
+            <v>0.52777777777777779</v>
+          </cell>
+          <cell r="G65">
+            <v>0.55555555555555558</v>
+          </cell>
+          <cell r="H65">
+            <v>0.58333333333333337</v>
+          </cell>
+          <cell r="I65">
+            <v>0.61111111111111116</v>
+          </cell>
+          <cell r="J65">
+            <v>0.63888888888888895</v>
+          </cell>
+          <cell r="K65">
+            <v>0.66666666666666674</v>
+          </cell>
+          <cell r="L65">
+            <v>0.69444444444444453</v>
+          </cell>
+          <cell r="M65">
+            <v>0.72222222222222232</v>
+          </cell>
+          <cell r="N65">
+            <v>0.75000000000000011</v>
+          </cell>
+          <cell r="O65">
+            <v>0.78750000000000009</v>
+          </cell>
+          <cell r="P65">
+            <v>0.83125000000000004</v>
+          </cell>
+          <cell r="Q65">
+            <v>0.875</v>
+          </cell>
+          <cell r="R65">
+            <v>0.91874999999999996</v>
+          </cell>
+          <cell r="S65">
+            <v>0.96249999999999991</v>
+          </cell>
+          <cell r="T65">
+            <v>1.0062499999999999</v>
+          </cell>
+          <cell r="U65">
+            <v>1.0499999999999998</v>
+          </cell>
+          <cell r="V65">
+            <v>1.0937499999999998</v>
+          </cell>
+          <cell r="W65">
+            <v>1.1374999999999997</v>
+          </cell>
+          <cell r="X65">
+            <v>1.1812499999999997</v>
+          </cell>
+          <cell r="Y65">
+            <v>1.2403125000000002</v>
+          </cell>
+          <cell r="Z65">
+            <v>1.3092187500000001</v>
+          </cell>
+          <cell r="AA65">
+            <v>1.378125</v>
+          </cell>
+          <cell r="AB65">
+            <v>1.44703125</v>
+          </cell>
+          <cell r="AC65">
+            <v>1.5159374999999999</v>
+          </cell>
+          <cell r="AD65">
+            <v>1.5848437499999999</v>
+          </cell>
+          <cell r="AE65">
+            <v>1.6537499999999998</v>
+          </cell>
+          <cell r="AF65">
+            <v>1.7226562499999998</v>
+          </cell>
+          <cell r="AG65">
+            <v>1.7915624999999997</v>
+          </cell>
+          <cell r="AH65">
+            <v>1.8604687499999997</v>
+          </cell>
+          <cell r="AI65">
+            <v>1.9534921875000004</v>
+          </cell>
+          <cell r="AJ65">
+            <v>2.0620195312500003</v>
+          </cell>
+          <cell r="AK65">
+            <v>2.1705468750000003</v>
+          </cell>
+          <cell r="AL65">
+            <v>2.2790742187500004</v>
+          </cell>
+          <cell r="AM65">
+            <v>2.3876015625000004</v>
+          </cell>
+          <cell r="AN65">
+            <v>2.4961289062500005</v>
+          </cell>
+          <cell r="AO65">
+            <v>2.6046562500000006</v>
+          </cell>
+          <cell r="AP65">
+            <v>2.7131835937500006</v>
+          </cell>
+          <cell r="AQ65">
+            <v>2.8217109375000007</v>
+          </cell>
+          <cell r="AR65">
+            <v>2.9302382812500007</v>
+          </cell>
+          <cell r="AS65">
+            <v>3.0767501953125009</v>
+          </cell>
+          <cell r="AT65">
+            <v>3.2476807617187511</v>
+          </cell>
+          <cell r="AU65">
+            <v>3.4186113281250012</v>
+          </cell>
+          <cell r="AV65">
+            <v>3.5895418945312514</v>
+          </cell>
+          <cell r="AW65">
+            <v>3.7604724609375015</v>
+          </cell>
+          <cell r="AX65">
+            <v>3.9314030273437517</v>
+          </cell>
+          <cell r="AY65">
+            <v>4.1023335937500018</v>
+          </cell>
+          <cell r="AZ65">
+            <v>4.273264160156252</v>
+          </cell>
+          <cell r="BA65">
+            <v>4.4441947265625021</v>
+          </cell>
+          <cell r="BB65">
+            <v>4.6151252929687523</v>
+          </cell>
+          <cell r="BC65">
+            <v>4.8458815576171892</v>
+          </cell>
+          <cell r="BD65">
+            <v>5.1150971997070327</v>
+          </cell>
+          <cell r="BE65">
+            <v>5.3843128417968762</v>
+          </cell>
+          <cell r="BF65">
+            <v>5.6535284838867197</v>
+          </cell>
+          <cell r="BG65">
+            <v>5.9227441259765632</v>
+          </cell>
+          <cell r="BH65">
+            <v>6.1919597680664067</v>
+          </cell>
+          <cell r="BI65">
+            <v>6.4611754101562502</v>
+          </cell>
+          <cell r="BJ65">
+            <v>6.7303910522460937</v>
+          </cell>
+          <cell r="BK65">
+            <v>6.9996066943359372</v>
+          </cell>
+          <cell r="BL65">
+            <v>7.2688223364257807</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1889,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5066,6 +9495,3548 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BM35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1</v>
+      </c>
+      <c r="J3" s="52">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="52">
+        <v>1</v>
+      </c>
+      <c r="N3" s="52">
+        <v>1</v>
+      </c>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="54">
+        <f>E4*(1+$N$15)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="26">
+        <f>F4*(1+E19)</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="H4" s="54">
+        <f>G4*(1+$N$15)</f>
+        <v>1.1812500000000001</v>
+      </c>
+      <c r="I4" s="26">
+        <f>H4*(1+F19)</f>
+        <v>1.2403125000000002</v>
+      </c>
+      <c r="J4" s="54">
+        <f>I4*(1+$N$15)</f>
+        <v>1.8604687500000003</v>
+      </c>
+      <c r="K4" s="26">
+        <f>J4*(1+G19)</f>
+        <v>1.9534921875000004</v>
+      </c>
+      <c r="L4" s="54">
+        <f>K4*(1+$N$15)</f>
+        <v>2.9302382812500007</v>
+      </c>
+      <c r="M4" s="26">
+        <f>L4*(1+H19)</f>
+        <v>3.0767501953125009</v>
+      </c>
+      <c r="N4" s="54">
+        <f>M4*(1+$N$15)</f>
+        <v>4.6151252929687514</v>
+      </c>
+      <c r="O4" s="26">
+        <f>N4*(1+I19)</f>
+        <v>4.8458815576171892</v>
+      </c>
+      <c r="P4" s="54">
+        <f>O4*(1+$N$15)</f>
+        <v>7.2688223364257833</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:P5" si="0">E3+E4</f>
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="55">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="55">
+        <f t="shared" si="0"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H5" s="55">
+        <f t="shared" si="0"/>
+        <v>2.1812500000000004</v>
+      </c>
+      <c r="I5" s="55">
+        <f t="shared" si="0"/>
+        <v>2.2403124999999999</v>
+      </c>
+      <c r="J5" s="55">
+        <f t="shared" si="0"/>
+        <v>2.8604687500000003</v>
+      </c>
+      <c r="K5" s="55">
+        <f t="shared" si="0"/>
+        <v>2.9534921875000002</v>
+      </c>
+      <c r="L5" s="55">
+        <f t="shared" si="0"/>
+        <v>3.9302382812500007</v>
+      </c>
+      <c r="M5" s="55">
+        <f t="shared" si="0"/>
+        <v>4.0767501953125009</v>
+      </c>
+      <c r="N5" s="55">
+        <f t="shared" si="0"/>
+        <v>5.6151252929687514</v>
+      </c>
+      <c r="O5" s="55">
+        <f t="shared" si="0"/>
+        <v>5.8458815576171892</v>
+      </c>
+      <c r="P5" s="55">
+        <f t="shared" si="0"/>
+        <v>8.2688223364257833</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" ref="E6:P6" si="1">E3/E5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.55944055944055937</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.45845272206303717</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.44636629934439953</v>
+      </c>
+      <c r="J6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.34959305183809469</v>
+      </c>
+      <c r="K6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.33858223977441954</v>
+      </c>
+      <c r="L6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.25443749931669613</v>
+      </c>
+      <c r="M6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.24529342051661951</v>
+      </c>
+      <c r="N6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.17809041612164878</v>
+      </c>
+      <c r="O6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.17106059884107624</v>
+      </c>
+      <c r="P6" s="26">
+        <f t="shared" si="1"/>
+        <v>0.12093620582399067</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" ref="E7:P7" si="2">E4/E5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.44055944055944057</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.54154727793696278</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.55363370065560058</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.65040694816190536</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.66141776022558052</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.74556250068330387</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.75470657948338049</v>
+      </c>
+      <c r="N7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.82190958387835122</v>
+      </c>
+      <c r="O7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.82893940115892373</v>
+      </c>
+      <c r="P7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.87906379417600933</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C9" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="58">
+        <v>10</v>
+      </c>
+      <c r="F11" s="58">
+        <v>10</v>
+      </c>
+      <c r="G11" s="58">
+        <v>10</v>
+      </c>
+      <c r="H11" s="58">
+        <v>10</v>
+      </c>
+      <c r="I11" s="58">
+        <v>10</v>
+      </c>
+      <c r="J11" s="58">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="61" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="63" t="s">
+        <v>560</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1</v>
+      </c>
+      <c r="F14" s="64">
+        <v>2</v>
+      </c>
+      <c r="G14" s="64">
+        <v>3</v>
+      </c>
+      <c r="H14" s="64">
+        <v>4</v>
+      </c>
+      <c r="I14" s="64">
+        <v>5</v>
+      </c>
+      <c r="J14" s="64">
+        <v>6</v>
+      </c>
+      <c r="K14" s="64">
+        <v>7</v>
+      </c>
+      <c r="L14" s="64">
+        <v>8</v>
+      </c>
+      <c r="M14" s="64">
+        <v>9</v>
+      </c>
+      <c r="N14" s="64"/>
+    </row>
+    <row r="15" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="E15" s="65">
+        <f>$N$15*E14/$M$14</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" ref="F15:M15" si="3">$N$15*F14/$M$14</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M15" s="65">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D17" s="67" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D18" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="68">
+        <v>1</v>
+      </c>
+      <c r="F18" s="68">
+        <v>2</v>
+      </c>
+      <c r="G18" s="68">
+        <v>3</v>
+      </c>
+      <c r="H18" s="68">
+        <v>4</v>
+      </c>
+      <c r="I18" s="68">
+        <v>5</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+    </row>
+    <row r="19" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D19" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="E19" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="H19" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="72"/>
+    </row>
+    <row r="20" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>8</v>
+      </c>
+      <c r="N21" s="1">
+        <v>9</v>
+      </c>
+      <c r="O21" s="1">
+        <v>10</v>
+      </c>
+      <c r="P21" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>13</v>
+      </c>
+      <c r="S21" s="1">
+        <v>14</v>
+      </c>
+      <c r="T21" s="1">
+        <v>15</v>
+      </c>
+      <c r="U21" s="1">
+        <v>16</v>
+      </c>
+      <c r="V21" s="1">
+        <v>17</v>
+      </c>
+      <c r="W21" s="1">
+        <v>18</v>
+      </c>
+      <c r="X21" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>21</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>23</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>26</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>27</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>28</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>33</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>34</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>37</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>38</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>39</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>40</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>41</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>42</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>43</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>44</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>45</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>46</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>47</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>48</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>49</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>51</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>52</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>53</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>54</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>55</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>56</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>57</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>58</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="1">
+        <f>E4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="73">
+        <f>E22+$E$22*$E$15</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G22" s="73">
+        <f t="shared" ref="G22:N22" si="4">F22+$E$22*$E$15</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="K22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="M22" s="73">
+        <f>L22+$E$22*$E$15</f>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="N22" s="73">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="O22" s="73">
+        <f>G4</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="P22" s="1">
+        <f>O22+$O$22*$E$15</f>
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" ref="Q22:X22" si="5">P22+$O$22*$E$15</f>
+        <v>0.875</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96249999999999991</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0062499999999999</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0937499999999998</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1374999999999997</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1812499999999997</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>I4</f>
+        <v>1.2403125000000002</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Y22+$Y$22*$E$15</f>
+        <v>1.3092187500000001</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" ref="AA22:AH22" si="6">Z22+$Y$22*$E$15</f>
+        <v>1.378125</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.44703125</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5159374999999999</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5848437499999999</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6537499999999998</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7226562499999998</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7915624999999997</v>
+      </c>
+      <c r="AH22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8604687499999997</v>
+      </c>
+      <c r="AI22" s="1">
+        <f>K4</f>
+        <v>1.9534921875000004</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f>AI22+$AI$22*$E$15</f>
+        <v>2.0620195312500003</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" ref="AK22:AR22" si="7">AJ22+$AI$22*$E$15</f>
+        <v>2.1705468750000003</v>
+      </c>
+      <c r="AL22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2790742187500004</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3876015625000004</v>
+      </c>
+      <c r="AN22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4961289062500005</v>
+      </c>
+      <c r="AO22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.6046562500000006</v>
+      </c>
+      <c r="AP22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7131835937500006</v>
+      </c>
+      <c r="AQ22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.8217109375000007</v>
+      </c>
+      <c r="AR22" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9302382812500007</v>
+      </c>
+      <c r="AS22" s="1">
+        <f>M4</f>
+        <v>3.0767501953125009</v>
+      </c>
+      <c r="AT22" s="1">
+        <f>AS22+$AS$22*$E$15</f>
+        <v>3.2476807617187511</v>
+      </c>
+      <c r="AU22" s="1">
+        <f t="shared" ref="AU22:BB22" si="8">AT22+$AS$22*$E$15</f>
+        <v>3.4186113281250012</v>
+      </c>
+      <c r="AV22" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5895418945312514</v>
+      </c>
+      <c r="AW22" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7604724609375015</v>
+      </c>
+      <c r="AX22" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9314030273437517</v>
+      </c>
+      <c r="AY22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1023335937500018</v>
+      </c>
+      <c r="AZ22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.273264160156252</v>
+      </c>
+      <c r="BA22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.4441947265625021</v>
+      </c>
+      <c r="BB22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6151252929687523</v>
+      </c>
+      <c r="BC22" s="1">
+        <f>O4</f>
+        <v>4.8458815576171892</v>
+      </c>
+      <c r="BD22" s="1">
+        <f>BC22+$BC$22*$E$15</f>
+        <v>5.1150971997070327</v>
+      </c>
+      <c r="BE22" s="1">
+        <f t="shared" ref="BE22:BL22" si="9">BD22+$BC$22*$E$15</f>
+        <v>5.3843128417968762</v>
+      </c>
+      <c r="BF22" s="1">
+        <f t="shared" si="9"/>
+        <v>5.6535284838867197</v>
+      </c>
+      <c r="BG22" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9227441259765632</v>
+      </c>
+      <c r="BH22" s="1">
+        <f t="shared" si="9"/>
+        <v>6.1919597680664067</v>
+      </c>
+      <c r="BI22" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4611754101562502</v>
+      </c>
+      <c r="BJ22" s="1">
+        <f t="shared" si="9"/>
+        <v>6.7303910522460937</v>
+      </c>
+      <c r="BK22" s="1">
+        <f t="shared" si="9"/>
+        <v>6.9996066943359372</v>
+      </c>
+      <c r="BL22" s="1">
+        <f t="shared" si="9"/>
+        <v>7.2688223364257807</v>
+      </c>
+      <c r="BM22" s="73"/>
+    </row>
+    <row r="23" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C26" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+    </row>
+    <row r="27" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C27" s="5"/>
+      <c r="D27" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+    </row>
+    <row r="28" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C28" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>569</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="L28" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="M28" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="N28" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="P28" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q28" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="R28" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="S28" s="75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="29" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="77">
+        <f>(D29+E32)*(E35+1)</f>
+        <v>0.5555000000000001</v>
+      </c>
+      <c r="F29" s="78">
+        <f>E29+E32</f>
+        <v>0.60550000000000015</v>
+      </c>
+      <c r="G29" s="79">
+        <f>(F29+F32)*(F35+1)</f>
+        <v>0.71961000000000019</v>
+      </c>
+      <c r="H29" s="79">
+        <f>G29+F32</f>
+        <v>0.81961000000000017</v>
+      </c>
+      <c r="I29" s="79">
+        <f>H29+F32</f>
+        <v>0.91961000000000015</v>
+      </c>
+      <c r="J29" s="79">
+        <f>(I29+G32)*(G35+1)</f>
+        <v>1.1016983000000002</v>
+      </c>
+      <c r="K29" s="77">
+        <f>J29+G32</f>
+        <v>1.2516983000000002</v>
+      </c>
+      <c r="L29" s="77">
+        <f>K29+G32</f>
+        <v>1.4016983000000001</v>
+      </c>
+      <c r="M29" s="77">
+        <f>L29+H32</f>
+        <v>1.6016983</v>
+      </c>
+      <c r="N29" s="77">
+        <f>(M29+H32)*(H35+1)</f>
+        <v>1.8737662320000001</v>
+      </c>
+      <c r="O29" s="26">
+        <f>N29+H32</f>
+        <v>2.0737662320000001</v>
+      </c>
+      <c r="P29" s="26">
+        <f>O29+H32</f>
+        <v>2.2737662320000003</v>
+      </c>
+      <c r="Q29" s="26">
+        <f>P29+H32</f>
+        <v>2.4737662320000005</v>
+      </c>
+      <c r="R29" s="26">
+        <f>Q29+H32</f>
+        <v>2.6737662320000006</v>
+      </c>
+      <c r="S29" s="26">
+        <f>(R29+I32)*(I35+1)</f>
+        <v>3.0699545436000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D30" s="80"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E31" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="G31" s="71" t="s">
+        <v>588</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="82">
+        <v>0.15</v>
+      </c>
+      <c r="H32" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="82">
+        <v>0.25</v>
+      </c>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D33" s="83"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D34" s="80"/>
+      <c r="E34" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>588</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D35" s="80"/>
+      <c r="E35" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="G35" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="H35" s="84">
+        <v>0.04</v>
+      </c>
+      <c r="I35" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="41"/>
+    <col min="3" max="3" width="12" style="41" customWidth="1"/>
+    <col min="4" max="11" width="9" style="41"/>
+    <col min="12" max="12" width="10.875" style="41" customWidth="1"/>
+    <col min="13" max="16" width="9" style="41"/>
+    <col min="17" max="17" width="9.625" style="41" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+    </row>
+    <row r="5" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="L34" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C46" s="41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D47" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E48" s="41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E49" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F50" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F51" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D52" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E53" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E54" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F55" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F56" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F57" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E59" s="41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E60" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="F61" s="41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D62" s="41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E63" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="E64" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C67" s="48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D68" s="41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E69" s="41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F70" s="41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C73" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D74" s="41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E75" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F76" s="41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F77" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D78" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E79" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F80" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F81" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C83" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D84" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D85" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E86" s="41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F87" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F88" s="41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E89" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F90" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F91" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C93" s="41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D94" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D95" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="I95" s="49"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C98" s="41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D99" s="41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E100" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E101" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F102" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E104" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F105" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D108" s="41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E109" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E110" s="41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F111" s="41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E113" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F114" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F115" s="41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D117" s="41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E118" s="41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F119" s="41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E121" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F122" s="41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F123" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D125" s="41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E126" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E127" s="41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E128" s="41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C131" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K131" s="43"/>
+    </row>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G132" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H132" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I132" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J132" s="43" t="e">
+        <f>#REF!+#REF!*2+#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K132" s="43"/>
+    </row>
+    <row r="133" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G133" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H133" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+    </row>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G134" s="46"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+    </row>
+    <row r="135" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G135" s="46"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+    </row>
+    <row r="137" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G137" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H137" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J137" s="43" t="e">
+        <f>#REF!*2+#REF!*2+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K137" s="43"/>
+    </row>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G138" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H138" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+    </row>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G139" s="46"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G140" s="46"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="F142" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G142" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H142" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I142" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J142" s="43" t="e">
+        <f>#REF!+#REF!*3+#REF!*1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G143" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H143" s="43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="3:11" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G144" s="46"/>
+    </row>
+    <row r="145" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="G145" s="46"/>
+    </row>
+    <row r="146" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G147" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H147" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I147" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J147" s="43" t="e">
+        <f>#REF!*2+#REF!+#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G148" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H148" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F149" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G149" s="46"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+    </row>
+    <row r="150" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C152" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D153" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="E154" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="E155" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="F156" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="G157" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="F158" s="41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="G159" s="41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="F160" s="41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G161" s="41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D163" s="41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E164" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E165" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F166" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G167" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F168" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G169" s="41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F170" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G171" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D173" s="41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E174" s="41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F175" s="41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G176" s="41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="H177" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G178" s="41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="H179" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G180" s="41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="H181" s="41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E183" s="41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="F184" s="41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G185" s="41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G186" s="41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G187" s="41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C190" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="D190" s="43"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+      <c r="I190" s="43"/>
+      <c r="J190" s="43"/>
+      <c r="K190" s="43"/>
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C191" s="43"/>
+      <c r="D191" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+      <c r="I191" s="43"/>
+      <c r="J191" s="43"/>
+      <c r="K191" s="43"/>
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C192" s="43"/>
+      <c r="D192" s="43"/>
+      <c r="E192" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="43"/>
+      <c r="J192" s="43"/>
+      <c r="K192" s="43"/>
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C193" s="43"/>
+      <c r="D193" s="43"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="43"/>
+      <c r="J193" s="43"/>
+      <c r="K193" s="43"/>
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="43"/>
+    </row>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="43"/>
+    </row>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+      <c r="K196" s="43"/>
+    </row>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C197" s="43"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="43"/>
+    </row>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C198" s="43"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
+      <c r="I198" s="43"/>
+      <c r="J198" s="43"/>
+      <c r="K198" s="43"/>
+    </row>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
+      <c r="I199" s="43"/>
+      <c r="J199" s="43"/>
+      <c r="K199" s="43"/>
+    </row>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C200" s="43"/>
+      <c r="D200" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="43"/>
+      <c r="J200" s="43"/>
+      <c r="K200" s="43"/>
+    </row>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="43"/>
+      <c r="J201" s="43"/>
+      <c r="K201" s="43"/>
+    </row>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C202" s="43"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
+      <c r="M202" s="43"/>
+    </row>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C203" s="43"/>
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="43"/>
+      <c r="J203" s="43"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
+      <c r="M203" s="43"/>
+    </row>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C204" s="43"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
+      <c r="J204" s="43"/>
+      <c r="K204" s="43"/>
+    </row>
+    <row r="205" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C205" s="43"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+      <c r="J205" s="43"/>
+      <c r="K205" s="43"/>
+    </row>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="43"/>
+    </row>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C207" s="43"/>
+      <c r="D207" s="43"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="43"/>
+      <c r="J207" s="43"/>
+      <c r="K207" s="43"/>
+    </row>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C208" s="43"/>
+      <c r="D208" s="43"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="43"/>
+      <c r="K208" s="43"/>
+    </row>
+    <row r="209" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C209" s="43"/>
+      <c r="D209" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="43"/>
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+    </row>
+    <row r="210" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C210" s="43"/>
+      <c r="D210" s="43"/>
+      <c r="E210" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="43"/>
+      <c r="J210" s="43"/>
+      <c r="K210" s="43"/>
+    </row>
+    <row r="211" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C211" s="43"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="43"/>
+    </row>
+    <row r="212" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C212" s="43"/>
+      <c r="D212" s="43"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
+      <c r="J212" s="43"/>
+      <c r="K212" s="43"/>
+    </row>
+    <row r="213" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C213" s="43"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="43"/>
+    </row>
+    <row r="214" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+    </row>
+    <row r="215" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="43"/>
+    </row>
+    <row r="216" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
+      <c r="J216" s="43"/>
+      <c r="K216" s="43"/>
+    </row>
+    <row r="217" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="43"/>
+      <c r="K217" s="43"/>
+    </row>
+    <row r="218" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C218" s="43"/>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="43"/>
+      <c r="J218" s="43"/>
+      <c r="K218" s="43"/>
+    </row>
+    <row r="219" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C219" s="43"/>
+      <c r="D219" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="43"/>
+      <c r="J219" s="43"/>
+      <c r="K219" s="43"/>
+    </row>
+    <row r="220" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C220" s="43"/>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+    </row>
+    <row r="221" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C221" s="43"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="G221" s="43"/>
+      <c r="H221" s="43"/>
+      <c r="I221" s="43"/>
+      <c r="J221" s="43"/>
+      <c r="K221" s="43"/>
+    </row>
+    <row r="222" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C222" s="43"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="F222" s="43"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="43"/>
+      <c r="I222" s="43"/>
+      <c r="J222" s="43"/>
+      <c r="K222" s="43"/>
+    </row>
+    <row r="223" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C223" s="43"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G223" s="43"/>
+      <c r="H223" s="43"/>
+      <c r="I223" s="43"/>
+      <c r="J223" s="43"/>
+      <c r="K223" s="43"/>
+    </row>
+    <row r="224" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C224" s="43"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="G224" s="43"/>
+      <c r="H224" s="43"/>
+      <c r="I224" s="43"/>
+      <c r="J224" s="43"/>
+      <c r="K224" s="43"/>
+    </row>
+    <row r="225" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="43"/>
+      <c r="J225" s="43"/>
+      <c r="K225" s="43"/>
+    </row>
+    <row r="226" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C226" s="43"/>
+      <c r="D226" s="43"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="G226" s="43"/>
+      <c r="H226" s="43"/>
+      <c r="I226" s="43"/>
+      <c r="J226" s="43"/>
+      <c r="K226" s="43"/>
+    </row>
+    <row r="227" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="G227" s="43"/>
+      <c r="H227" s="43"/>
+      <c r="I227" s="43"/>
+      <c r="J227" s="43"/>
+      <c r="K227" s="43"/>
+    </row>
+    <row r="228" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C228" s="43"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
+      <c r="I228" s="43"/>
+      <c r="J228" s="43"/>
+      <c r="K228" s="43"/>
+    </row>
+    <row r="229" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C229" s="43"/>
+      <c r="D229" s="43"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
+      <c r="I229" s="43"/>
+      <c r="J229" s="43"/>
+      <c r="K229" s="43"/>
+    </row>
+    <row r="230" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C230" s="43"/>
+      <c r="D230" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
+      <c r="G230" s="43"/>
+      <c r="H230" s="43"/>
+      <c r="I230" s="43"/>
+      <c r="J230" s="43"/>
+      <c r="K230" s="43"/>
+    </row>
+    <row r="231" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C231" s="43"/>
+      <c r="E231" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="F231" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="I231" s="43"/>
+      <c r="J231" s="43"/>
+      <c r="K231" s="43"/>
+    </row>
+    <row r="232" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C232" s="43"/>
+      <c r="E232" s="41">
+        <v>1</v>
+      </c>
+      <c r="F232" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="I232" s="43"/>
+      <c r="J232" s="43"/>
+      <c r="K232" s="43"/>
+    </row>
+    <row r="233" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C233" s="43"/>
+      <c r="E233" s="41">
+        <v>2</v>
+      </c>
+      <c r="F233" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="I233" s="43"/>
+      <c r="J233" s="43"/>
+      <c r="K233" s="43"/>
+    </row>
+    <row r="234" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C234" s="43"/>
+      <c r="D234" s="43"/>
+      <c r="E234" s="41">
+        <v>3</v>
+      </c>
+      <c r="F234" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="G234" s="43"/>
+      <c r="H234" s="43"/>
+      <c r="I234" s="43"/>
+      <c r="J234" s="43"/>
+      <c r="K234" s="43"/>
+    </row>
+    <row r="235" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
+      <c r="E235" s="41">
+        <v>4</v>
+      </c>
+      <c r="F235" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="G235" s="43"/>
+      <c r="H235" s="43"/>
+      <c r="I235" s="43"/>
+      <c r="J235" s="43"/>
+      <c r="K235" s="43"/>
+    </row>
+    <row r="236" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E236" s="41">
+        <v>5</v>
+      </c>
+      <c r="F236" s="41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="237" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E237" s="41">
+        <v>6</v>
+      </c>
+      <c r="F237" s="41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E238" s="41">
+        <v>7</v>
+      </c>
+      <c r="F238" s="41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="239" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E239" s="41">
+        <v>8</v>
+      </c>
+      <c r="F239" s="41" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="240" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E240" s="41">
+        <v>9</v>
+      </c>
+      <c r="F240" s="41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E241" s="41">
+        <v>10</v>
+      </c>
+      <c r="F241" s="41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E242" s="41">
+        <v>11</v>
+      </c>
+      <c r="F242" s="41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="243" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E243" s="41">
+        <v>12</v>
+      </c>
+      <c r="F243" s="41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="244" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E244" s="41">
+        <v>13</v>
+      </c>
+      <c r="F244" s="41" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="245" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E245" s="41">
+        <v>14</v>
+      </c>
+      <c r="F245" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
+      <c r="I245" s="43"/>
+      <c r="J245" s="43"/>
+    </row>
+    <row r="246" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+    </row>
+    <row r="247" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+    </row>
+    <row r="248" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E248" s="41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="249" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E249" s="41">
+        <v>1</v>
+      </c>
+      <c r="F249" s="41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="250" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E250" s="41">
+        <v>2</v>
+      </c>
+      <c r="F250" s="41" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="251" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E251" s="41">
+        <v>3</v>
+      </c>
+      <c r="F251" s="41" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="252" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E252" s="41">
+        <v>4</v>
+      </c>
+      <c r="F252" s="41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="253" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E253" s="41">
+        <v>5</v>
+      </c>
+      <c r="F253" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="254" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E254" s="41">
+        <v>6</v>
+      </c>
+      <c r="F254" s="41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="255" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E255" s="41">
+        <v>7</v>
+      </c>
+      <c r="F255" s="41" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="256" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E256" s="41">
+        <v>8</v>
+      </c>
+      <c r="F256" s="41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E257" s="41">
+        <v>9</v>
+      </c>
+      <c r="F257" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E258" s="43">
+        <v>10</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G258" s="43"/>
+      <c r="H258" s="43"/>
+    </row>
+    <row r="259" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E259" s="43">
+        <v>11</v>
+      </c>
+      <c r="F259" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="G259" s="43"/>
+      <c r="H259" s="43"/>
+    </row>
+    <row r="260" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E260" s="41">
+        <v>12</v>
+      </c>
+      <c r="F260" s="41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E261" s="41">
+        <v>13</v>
+      </c>
+      <c r="F261" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E262" s="41">
+        <v>14</v>
+      </c>
+      <c r="F262" s="41" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E263" s="41">
+        <v>15</v>
+      </c>
+      <c r="F263" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E264" s="41">
+        <v>16</v>
+      </c>
+      <c r="F264" s="41" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="265" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E265" s="41">
+        <v>17</v>
+      </c>
+      <c r="F265" s="41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="266" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E266" s="41">
+        <v>18</v>
+      </c>
+      <c r="F266" s="41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E270" s="41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="271" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E271" s="43">
+        <v>1</v>
+      </c>
+      <c r="F271" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="272" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E272" s="43">
+        <v>2</v>
+      </c>
+      <c r="F272" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="273" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E273" s="43">
+        <v>3</v>
+      </c>
+      <c r="F273" s="43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="274" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E274" s="43">
+        <v>4</v>
+      </c>
+      <c r="F274" s="43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="275" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E275" s="43">
+        <v>5</v>
+      </c>
+      <c r="F275" s="43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="276" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E276" s="43">
+        <v>6</v>
+      </c>
+      <c r="F276" s="43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E277" s="43">
+        <v>7</v>
+      </c>
+      <c r="F277" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="278" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E278" s="43">
+        <v>8</v>
+      </c>
+      <c r="F278" s="43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="279" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E279" s="43">
+        <v>9</v>
+      </c>
+      <c r="F279" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="G279" s="43"/>
+      <c r="H279" s="43"/>
+      <c r="I279" s="43"/>
+      <c r="J279" s="43"/>
+      <c r="K279" s="43"/>
+      <c r="L279" s="43"/>
+      <c r="M279" s="43"/>
+    </row>
+    <row r="280" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E280" s="43">
+        <v>10</v>
+      </c>
+      <c r="F280" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G280" s="43"/>
+      <c r="H280" s="43"/>
+      <c r="I280" s="43"/>
+      <c r="J280" s="43"/>
+      <c r="K280" s="43"/>
+      <c r="L280" s="43"/>
+      <c r="M280" s="43"/>
+    </row>
+    <row r="281" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E281" s="43">
+        <v>11</v>
+      </c>
+      <c r="F281" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="G281" s="43"/>
+      <c r="H281" s="43"/>
+      <c r="I281" s="43"/>
+    </row>
+    <row r="282" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E282" s="43">
+        <v>12</v>
+      </c>
+      <c r="F282" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G282" s="43"/>
+      <c r="H282" s="43"/>
+      <c r="I282" s="43"/>
+    </row>
+    <row r="283" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E283" s="43">
+        <v>13</v>
+      </c>
+      <c r="F283" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
+      <c r="I283" s="43"/>
+    </row>
+    <row r="284" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E284" s="43">
+        <v>14</v>
+      </c>
+      <c r="F284" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
+      <c r="I284" s="43"/>
+    </row>
+    <row r="285" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E285" s="43">
+        <v>15</v>
+      </c>
+      <c r="F285" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="G285" s="43"/>
+      <c r="H285" s="43"/>
+      <c r="I285" s="43"/>
+    </row>
+    <row r="286" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E286" s="43"/>
+      <c r="F286" s="43"/>
+      <c r="G286" s="43"/>
+      <c r="H286" s="43"/>
+      <c r="I286" s="43"/>
+    </row>
+    <row r="288" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E288" s="41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="289" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F289" s="41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="290" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F290" s="41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="291" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F295" s="50"/>
+      <c r="G295" s="50"/>
+      <c r="H295" s="50"/>
+      <c r="I295" s="50"/>
+    </row>
+    <row r="296" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F320" s="51"/>
+      <c r="G320" s="51"/>
+      <c r="H320" s="51"/>
+      <c r="I320" s="51"/>
+    </row>
+    <row r="321" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F355" s="50"/>
+      <c r="G355" s="50"/>
+      <c r="H355" s="50"/>
+      <c r="I355" s="50"/>
+    </row>
+    <row r="356" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="377" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M377" s="43"/>
+      <c r="N377" s="43"/>
+      <c r="O377" s="43"/>
+      <c r="P377" s="43"/>
+      <c r="Q377" s="43"/>
+      <c r="R377" s="43"/>
+    </row>
+    <row r="378" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M378" s="43"/>
+      <c r="N378" s="43"/>
+      <c r="O378" s="43"/>
+      <c r="P378" s="43"/>
+      <c r="Q378" s="43"/>
+      <c r="R378" s="43"/>
+    </row>
+    <row r="379" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M379" s="43"/>
+      <c r="N379" s="43"/>
+      <c r="O379" s="43"/>
+      <c r="P379" s="43"/>
+      <c r="Q379" s="43"/>
+      <c r="R379" s="43"/>
+    </row>
+    <row r="380" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M380" s="43"/>
+      <c r="N380" s="43"/>
+      <c r="O380" s="43"/>
+      <c r="P380" s="43"/>
+      <c r="Q380" s="43"/>
+      <c r="R380" s="43"/>
+    </row>
+    <row r="381" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M381" s="43"/>
+      <c r="N381" s="43"/>
+      <c r="O381" s="43"/>
+      <c r="P381" s="43"/>
+      <c r="Q381" s="43"/>
+      <c r="R381" s="43"/>
+    </row>
+    <row r="382" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M382" s="43"/>
+      <c r="N382" s="43"/>
+      <c r="O382" s="43"/>
+      <c r="P382" s="43"/>
+      <c r="Q382" s="43"/>
+      <c r="R382" s="43"/>
+    </row>
+    <row r="383" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M383" s="43"/>
+      <c r="N383" s="43"/>
+      <c r="O383" s="43"/>
+      <c r="P383" s="43"/>
+      <c r="Q383" s="43"/>
+      <c r="R383" s="43"/>
+    </row>
+    <row r="384" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M384" s="43"/>
+      <c r="N384" s="43"/>
+      <c r="O384" s="43"/>
+      <c r="P384" s="43"/>
+      <c r="Q384" s="43"/>
+      <c r="R384" s="43"/>
+    </row>
+    <row r="385" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M385" s="43"/>
+      <c r="N385" s="43"/>
+      <c r="O385" s="43"/>
+      <c r="P385" s="43"/>
+      <c r="Q385" s="43"/>
+      <c r="R385" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F295:I295"/>
+    <mergeCell ref="F355:I355"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -5387,12 +13358,297 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C39" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D41" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E46" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E47" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D50" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D54" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E57" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E58" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E59" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D60" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E61" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E62" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E63" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E64" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E65" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E66" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
-    <sheet name="属性分配" sheetId="6" r:id="rId2"/>
-    <sheet name="怪物职业定义" sheetId="4" r:id="rId3"/>
-    <sheet name="AI" sheetId="2" r:id="rId4"/>
-    <sheet name="战斗力划分" sheetId="5" r:id="rId5"/>
-    <sheet name="技能基础价值" sheetId="3" r:id="rId6"/>
+    <sheet name="团队模型接口" sheetId="7" r:id="rId2"/>
+    <sheet name="属性分配" sheetId="6" r:id="rId3"/>
+    <sheet name="怪物职业定义" sheetId="4" r:id="rId4"/>
+    <sheet name="AI" sheetId="2" r:id="rId5"/>
+    <sheet name="战斗力划分" sheetId="5" r:id="rId6"/>
+    <sheet name="技能基础价值" sheetId="3" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -32,7 +28,7 @@
     <author>mtong</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="626">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2314,6 +2310,137 @@
   </si>
   <si>
     <t>升阶成长比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队模型接口（用于各玩法数据调用-战后回血数值，副本系数公式）</t>
+  </si>
+  <si>
+    <t>生命消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T吸收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍需考虑对面怪物的输出会不会直接搞死dps，不同玩法可以对应不同的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前若T不能有效的吸收伤害，小怪局玩家的一只dps会死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单回合损失血量（0的表示不损失）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局前小怪局数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局剩余血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容配比副本系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（保证职业属性分配比例不变）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于T，D的战力几乎一致，所以若副本T与D所占的比例很大，则T,D的比例分配不会影响到副本难度，同时S对T，D的加成也会相应的减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回血随等级变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家怪物战后回血恢复量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T回血的价值比D与S高（倍数为防御力所带来的价值加成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪局消耗玩家生命百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S的体力（关联职业模型1文档）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2586,7 +2713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2701,12 +2828,6 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2736,9 +2857,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2841,6 +2959,21 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2946,37 +3079,37 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>1.635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7875000000000001</c:v>
+                  <c:v>1.66675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1812500000000004</c:v>
+                  <c:v>1.8467725000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2403124999999999</c:v>
+                  <c:v>1.9314497500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8604687500000003</c:v>
+                  <c:v>2.1829411825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9534921875000002</c:v>
+                  <c:v>2.360382359875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9302382812500007</c:v>
+                  <c:v>2.7276855970412504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0767501953125009</c:v>
+                  <c:v>3.0732227164495001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6151252929687514</c:v>
+                  <c:v>3.632992849890865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8458815576171892</c:v>
+                  <c:v>4.2912410623635813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2688223364257833</c:v>
+                  <c:v>5.179876149201748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,12 +3124,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1118614416"/>
-        <c:axId val="892335168"/>
+        <c:axId val="47743360"/>
+        <c:axId val="47744896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1118614416"/>
+        <c:axId val="47743360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3172,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="892335168"/>
+        <c:crossAx val="47744896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="892335168"/>
+        <c:axId val="47744896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118614416"/>
+        <c:crossAx val="47743360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3229,181 +3363,181 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52777777777777779</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61111111111111116</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63888888888888895</c:v>
+                  <c:v>0.57500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0.59000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69444444444444453</c:v>
+                  <c:v>0.60500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72222222222222232</c:v>
+                  <c:v>0.62000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75000000000000011</c:v>
+                  <c:v>0.63500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78750000000000009</c:v>
+                  <c:v>0.66675000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.83125000000000004</c:v>
+                  <c:v>0.6867525000000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.875</c:v>
+                  <c:v>0.70675500000000013</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.91874999999999996</c:v>
+                  <c:v>0.72675750000000017</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.96249999999999991</c:v>
+                  <c:v>0.7467600000000002</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>1.0062499999999999</c:v>
+                  <c:v>0.76676250000000024</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>1.0499999999999998</c:v>
+                  <c:v>0.78676500000000027</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>1.0937499999999998</c:v>
+                  <c:v>0.8067675000000003</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>1.1374999999999997</c:v>
+                  <c:v>0.82677000000000034</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>1.1812499999999997</c:v>
+                  <c:v>0.84677250000000037</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>1.2403125000000002</c:v>
+                  <c:v>0.93144975000000008</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>1.3092187500000001</c:v>
+                  <c:v>0.95939324250000013</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>1.378125</c:v>
+                  <c:v>0.98733673500000019</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>1.44703125</c:v>
+                  <c:v>1.0152802275000001</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>1.5159374999999999</c:v>
+                  <c:v>1.0432237200000001</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>1.5848437499999999</c:v>
+                  <c:v>1.0711672125</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>1.6537499999999998</c:v>
+                  <c:v>1.099110705</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>1.7226562499999998</c:v>
+                  <c:v>1.1270541974999999</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>1.7915624999999997</c:v>
+                  <c:v>1.1549976899999999</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>1.8604687499999997</c:v>
+                  <c:v>1.1829411824999998</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>1.9534921875000004</c:v>
+                  <c:v>1.360382359875</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>2.0620195312500003</c:v>
+                  <c:v>1.4011938306712499</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>2.1705468750000003</c:v>
+                  <c:v>1.4420053014674998</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>2.2790742187500004</c:v>
+                  <c:v>1.4828167722637497</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>2.3876015625000004</c:v>
+                  <c:v>1.5236282430599997</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>2.4961289062500005</c:v>
+                  <c:v>1.5644397138562496</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>2.6046562500000006</c:v>
+                  <c:v>1.6052511846524995</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>2.7131835937500006</c:v>
+                  <c:v>1.6460626554487494</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>2.8217109375000007</c:v>
+                  <c:v>1.6868741262449993</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>2.9302382812500007</c:v>
+                  <c:v>1.7276855970412492</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>3.0767501953125009</c:v>
+                  <c:v>2.0732227164495001</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>3.2476807617187511</c:v>
+                  <c:v>2.135419397942985</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>3.4186113281250012</c:v>
+                  <c:v>2.1976160794364699</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>3.5895418945312514</c:v>
+                  <c:v>2.2598127609299548</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>3.7604724609375015</c:v>
+                  <c:v>2.3220094424234397</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>3.9314030273437517</c:v>
+                  <c:v>2.3842061239169245</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>4.1023335937500018</c:v>
+                  <c:v>2.4464028054104094</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>4.273264160156252</c:v>
+                  <c:v>2.5085994869038943</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>4.4441947265625021</c:v>
+                  <c:v>2.5707961683973792</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>4.6151252929687523</c:v>
+                  <c:v>2.6329928498908641</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>4.8458815576171892</c:v>
+                  <c:v>3.2912410623635813</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>5.1150971997070327</c:v>
+                  <c:v>3.3899782942344889</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>5.3843128417968762</c:v>
+                  <c:v>3.4887155261053966</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>5.6535284838867197</c:v>
+                  <c:v>3.5874527579763043</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>5.9227441259765632</c:v>
+                  <c:v>3.6861899898472119</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>6.1919597680664067</c:v>
+                  <c:v>3.7849272217181196</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>6.4611754101562502</c:v>
+                  <c:v>3.8836644535890272</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>6.7303910522460937</c:v>
+                  <c:v>3.9824016854599349</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>6.9996066943359372</c:v>
+                  <c:v>4.0811389173308426</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>7.2688223364257807</c:v>
+                  <c:v>4.1798761492017498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,12 +3552,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="716628800"/>
-        <c:axId val="415932720"/>
+        <c:axId val="47764992"/>
+        <c:axId val="47766528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="716628800"/>
+        <c:axId val="47764992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415932720"/>
+        <c:crossAx val="47766528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3473,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415932720"/>
+        <c:axId val="47766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="716628800"/>
+        <c:crossAx val="47764992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3706,12 +3841,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="415930480"/>
-        <c:axId val="415932160"/>
+        <c:axId val="48077440"/>
+        <c:axId val="48087424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415930480"/>
+        <c:axId val="48077440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415932160"/>
+        <c:crossAx val="48087424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415932160"/>
+        <c:axId val="48087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,7 +3948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415930480"/>
+        <c:crossAx val="48077440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5648,16 +5784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
+      <xdr:colOff>490537</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5678,16 +5814,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5824,213 +5960,284 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="基础系数"/>
-      <sheetName val="总属性成长"/>
-      <sheetName val="技能占比"/>
-      <sheetName val="AI"/>
-      <sheetName val="自用"/>
+      <sheetName val="文档说明"/>
+      <sheetName val="职业调整模型"/>
+      <sheetName val="属性拆分生成"/>
+      <sheetName val="战斗验证"/>
+      <sheetName val="属性能力生成表"/>
+      <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备拆分生成表"/>
+      <sheetName val="装备拆分分析表"/>
+      <sheetName val="镶嵌宝石"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="23">
+          <cell r="C23">
+            <v>1178</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1196</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1215</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>1233</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>1251</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>1270</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>1288</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>1306</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>1325</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>1343</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>1360</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1376</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1393</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>1409</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>1426</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>1442</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>1459</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>1475</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>1492</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>1508</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>1525</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1541</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1558</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>1574</v>
+          </cell>
+        </row>
         <row r="47">
-          <cell r="E47">
-            <v>0.5</v>
+          <cell r="C47">
+            <v>1591</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>1607</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>1624</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>1640</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>1657</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>1673</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1690</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>1706</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>1723</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>1739</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>1756</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>1772</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>1789</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>1805</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>1822</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>1838</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>1855</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>1871</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="E65">
-            <v>0.5</v>
+          <cell r="C65">
+            <v>1888</v>
           </cell>
-          <cell r="F65">
-            <v>0.52777777777777779</v>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>1904</v>
           </cell>
-          <cell r="G65">
-            <v>0.55555555555555558</v>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>1921</v>
           </cell>
-          <cell r="H65">
-            <v>0.58333333333333337</v>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>1937</v>
           </cell>
-          <cell r="I65">
-            <v>0.61111111111111116</v>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>1954</v>
           </cell>
-          <cell r="J65">
-            <v>0.63888888888888895</v>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>1970</v>
           </cell>
-          <cell r="K65">
-            <v>0.66666666666666674</v>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>1987</v>
           </cell>
-          <cell r="L65">
-            <v>0.69444444444444453</v>
-          </cell>
-          <cell r="M65">
-            <v>0.72222222222222232</v>
-          </cell>
-          <cell r="N65">
-            <v>0.75000000000000011</v>
-          </cell>
-          <cell r="O65">
-            <v>0.78750000000000009</v>
-          </cell>
-          <cell r="P65">
-            <v>0.83125000000000004</v>
-          </cell>
-          <cell r="Q65">
-            <v>0.875</v>
-          </cell>
-          <cell r="R65">
-            <v>0.91874999999999996</v>
-          </cell>
-          <cell r="S65">
-            <v>0.96249999999999991</v>
-          </cell>
-          <cell r="T65">
-            <v>1.0062499999999999</v>
-          </cell>
-          <cell r="U65">
-            <v>1.0499999999999998</v>
-          </cell>
-          <cell r="V65">
-            <v>1.0937499999999998</v>
-          </cell>
-          <cell r="W65">
-            <v>1.1374999999999997</v>
-          </cell>
-          <cell r="X65">
-            <v>1.1812499999999997</v>
-          </cell>
-          <cell r="Y65">
-            <v>1.2403125000000002</v>
-          </cell>
-          <cell r="Z65">
-            <v>1.3092187500000001</v>
-          </cell>
-          <cell r="AA65">
-            <v>1.378125</v>
-          </cell>
-          <cell r="AB65">
-            <v>1.44703125</v>
-          </cell>
-          <cell r="AC65">
-            <v>1.5159374999999999</v>
-          </cell>
-          <cell r="AD65">
-            <v>1.5848437499999999</v>
-          </cell>
-          <cell r="AE65">
-            <v>1.6537499999999998</v>
-          </cell>
-          <cell r="AF65">
-            <v>1.7226562499999998</v>
-          </cell>
-          <cell r="AG65">
-            <v>1.7915624999999997</v>
-          </cell>
-          <cell r="AH65">
-            <v>1.8604687499999997</v>
-          </cell>
-          <cell r="AI65">
-            <v>1.9534921875000004</v>
-          </cell>
-          <cell r="AJ65">
-            <v>2.0620195312500003</v>
-          </cell>
-          <cell r="AK65">
-            <v>2.1705468750000003</v>
-          </cell>
-          <cell r="AL65">
-            <v>2.2790742187500004</v>
-          </cell>
-          <cell r="AM65">
-            <v>2.3876015625000004</v>
-          </cell>
-          <cell r="AN65">
-            <v>2.4961289062500005</v>
-          </cell>
-          <cell r="AO65">
-            <v>2.6046562500000006</v>
-          </cell>
-          <cell r="AP65">
-            <v>2.7131835937500006</v>
-          </cell>
-          <cell r="AQ65">
-            <v>2.8217109375000007</v>
-          </cell>
-          <cell r="AR65">
-            <v>2.9302382812500007</v>
-          </cell>
-          <cell r="AS65">
-            <v>3.0767501953125009</v>
-          </cell>
-          <cell r="AT65">
-            <v>3.2476807617187511</v>
-          </cell>
-          <cell r="AU65">
-            <v>3.4186113281250012</v>
-          </cell>
-          <cell r="AV65">
-            <v>3.5895418945312514</v>
-          </cell>
-          <cell r="AW65">
-            <v>3.7604724609375015</v>
-          </cell>
-          <cell r="AX65">
-            <v>3.9314030273437517</v>
-          </cell>
-          <cell r="AY65">
-            <v>4.1023335937500018</v>
-          </cell>
-          <cell r="AZ65">
-            <v>4.273264160156252</v>
-          </cell>
-          <cell r="BA65">
-            <v>4.4441947265625021</v>
-          </cell>
-          <cell r="BB65">
-            <v>4.6151252929687523</v>
-          </cell>
-          <cell r="BC65">
-            <v>4.8458815576171892</v>
-          </cell>
-          <cell r="BD65">
-            <v>5.1150971997070327</v>
-          </cell>
-          <cell r="BE65">
-            <v>5.3843128417968762</v>
-          </cell>
-          <cell r="BF65">
-            <v>5.6535284838867197</v>
-          </cell>
-          <cell r="BG65">
-            <v>5.9227441259765632</v>
-          </cell>
-          <cell r="BH65">
-            <v>6.1919597680664067</v>
-          </cell>
-          <cell r="BI65">
-            <v>6.4611754101562502</v>
-          </cell>
-          <cell r="BJ65">
-            <v>6.7303910522460937</v>
-          </cell>
-          <cell r="BK65">
-            <v>6.9996066943359372</v>
-          </cell>
-          <cell r="BL65">
-            <v>7.2688223364257807</v>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>2003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6072,7 +6279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6107,7 +6314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6318,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6398,59 +6605,59 @@
       <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AD7" s="38" t="s">
+      <c r="AD7" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="38" t="s">
+      <c r="AK7" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
-      <c r="AR7" s="38" t="s">
+      <c r="AR7" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
       <c r="AU7" s="6"/>
-      <c r="AW7" s="38" t="s">
+      <c r="AW7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
@@ -9496,20 +9703,1048 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BM35"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" s="26">
+        <f>SUM(职业定位属性配比!E12:G12)*E2</f>
+        <v>3.6400000000000006</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K2" s="26">
+        <f>H2*职业定位属性配比!C40</f>
+        <v>3.161052631578948</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" s="26">
+        <f>H2-K2</f>
+        <v>0.47894736842105257</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E3" s="18"/>
+      <c r="N3" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E4" s="18"/>
+      <c r="N4" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="82">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" s="83">
+        <f>E5/职业定位属性配比!E9</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="83">
+        <f>E5/职业定位属性配比!F9</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="83">
+        <f>E5/职业定位属性配比!G9</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D11" s="26">
+        <f>K2/职业定位属性配比!E10-E5</f>
+        <v>0.89736842105263182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="26">
+        <f>IF((M2/职业定位属性配比!F10-E5)&gt;0,(M2/职业定位属性配比!F10-E5),0)</f>
+        <v>0.17894736842105258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C13" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="26">
+        <f>IF((O2/职业定位属性配比!G10-E5)&gt;0,(O2/职业定位属性配比!G10-E5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D18" s="26">
+        <f>职业定位属性配比!E9-D11*$D$15</f>
+        <v>3.2052631578947364</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="26">
+        <f>职业定位属性配比!F9-D12*$D$15</f>
+        <v>1.642105263157895</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="26">
+        <f>职业定位属性配比!G9-D13*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C24" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="26">
+        <f>职业定位属性配比!E9</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="26">
+        <f>职业定位属性配比!F9</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="26">
+        <f>职业定位属性配比!G9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="26">
+        <f>职业定位属性配比!E10</f>
+        <v>2.64</v>
+      </c>
+      <c r="D26" s="26">
+        <f>职业定位属性配比!F10</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
+        <f>职业定位属性配比!G10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" s="26">
+        <f>职业定位属性配比!E11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="26">
+        <f>职业定位属性配比!F11</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="26">
+        <f>职业定位属性配比!G11</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="26">
+        <f>职业定位属性配比!E12</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="D28" s="26">
+        <f>职业定位属性配比!F12</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="26">
+        <f>职业定位属性配比!G12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="26">
+        <f>职业定位属性配比!E13</f>
+        <v>3.96</v>
+      </c>
+      <c r="D29" s="26">
+        <f>职业定位属性配比!F13</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="26">
+        <f>职业定位属性配比!G13</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C32" s="26">
+        <f>SQRT(E2)</f>
+        <v>0.44721359549995793</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="26">
+        <f>[1]属性拆分生成!C23</f>
+        <v>1178</v>
+      </c>
+      <c r="D38" s="26">
+        <f>ROUNDDOWN(C38*$D$8,0)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="26">
+        <f>[1]属性拆分生成!C24</f>
+        <v>1196</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" ref="D39:D87" si="0">ROUNDDOWN(C39*$D$8,0)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="26">
+        <f>[1]属性拆分生成!C25</f>
+        <v>1215</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="26">
+        <f>[1]属性拆分生成!C26</f>
+        <v>1233</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="26">
+        <f>[1]属性拆分生成!C27</f>
+        <v>1251</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="26">
+        <f>[1]属性拆分生成!C28</f>
+        <v>1270</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="26">
+        <f>[1]属性拆分生成!C29</f>
+        <v>1288</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="26">
+        <f>[1]属性拆分生成!C30</f>
+        <v>1306</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="26">
+        <f>[1]属性拆分生成!C31</f>
+        <v>1325</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="26">
+        <f>[1]属性拆分生成!C32</f>
+        <v>1343</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="26">
+        <f>[1]属性拆分生成!C33</f>
+        <v>1360</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
+      <c r="C49" s="26">
+        <f>[1]属性拆分生成!C34</f>
+        <v>1376</v>
+      </c>
+      <c r="D49" s="26">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="1">
+        <v>13</v>
+      </c>
+      <c r="C50" s="26">
+        <f>[1]属性拆分生成!C35</f>
+        <v>1393</v>
+      </c>
+      <c r="D50" s="26">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="1">
+        <v>14</v>
+      </c>
+      <c r="C51" s="26">
+        <f>[1]属性拆分生成!C36</f>
+        <v>1409</v>
+      </c>
+      <c r="D51" s="26">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="26">
+        <f>[1]属性拆分生成!C37</f>
+        <v>1426</v>
+      </c>
+      <c r="D52" s="26">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
+      <c r="C53" s="26">
+        <f>[1]属性拆分生成!C38</f>
+        <v>1442</v>
+      </c>
+      <c r="D53" s="26">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B54" s="1">
+        <v>17</v>
+      </c>
+      <c r="C54" s="26">
+        <f>[1]属性拆分生成!C39</f>
+        <v>1459</v>
+      </c>
+      <c r="D54" s="26">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1">
+        <v>18</v>
+      </c>
+      <c r="C55" s="26">
+        <f>[1]属性拆分生成!C40</f>
+        <v>1475</v>
+      </c>
+      <c r="D55" s="26">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <v>19</v>
+      </c>
+      <c r="C56" s="26">
+        <f>[1]属性拆分生成!C41</f>
+        <v>1492</v>
+      </c>
+      <c r="D56" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="1">
+        <v>20</v>
+      </c>
+      <c r="C57" s="26">
+        <f>[1]属性拆分生成!C42</f>
+        <v>1508</v>
+      </c>
+      <c r="D57" s="26">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="1">
+        <v>21</v>
+      </c>
+      <c r="C58" s="26">
+        <f>[1]属性拆分生成!C43</f>
+        <v>1525</v>
+      </c>
+      <c r="D58" s="26">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="1">
+        <v>22</v>
+      </c>
+      <c r="C59" s="26">
+        <f>[1]属性拆分生成!C44</f>
+        <v>1541</v>
+      </c>
+      <c r="D59" s="26">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="1">
+        <v>23</v>
+      </c>
+      <c r="C60" s="26">
+        <f>[1]属性拆分生成!C45</f>
+        <v>1558</v>
+      </c>
+      <c r="D60" s="26">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B61" s="1">
+        <v>24</v>
+      </c>
+      <c r="C61" s="26">
+        <f>[1]属性拆分生成!C46</f>
+        <v>1574</v>
+      </c>
+      <c r="D61" s="26">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="1">
+        <v>25</v>
+      </c>
+      <c r="C62" s="26">
+        <f>[1]属性拆分生成!C47</f>
+        <v>1591</v>
+      </c>
+      <c r="D62" s="26">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B63" s="1">
+        <v>26</v>
+      </c>
+      <c r="C63" s="26">
+        <f>[1]属性拆分生成!C48</f>
+        <v>1607</v>
+      </c>
+      <c r="D63" s="26">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="1">
+        <v>27</v>
+      </c>
+      <c r="C64" s="26">
+        <f>[1]属性拆分生成!C49</f>
+        <v>1624</v>
+      </c>
+      <c r="D64" s="26">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="1">
+        <v>28</v>
+      </c>
+      <c r="C65" s="26">
+        <f>[1]属性拆分生成!C50</f>
+        <v>1640</v>
+      </c>
+      <c r="D65" s="26">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="1">
+        <v>29</v>
+      </c>
+      <c r="C66" s="26">
+        <f>[1]属性拆分生成!C51</f>
+        <v>1657</v>
+      </c>
+      <c r="D66" s="26">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="1">
+        <v>30</v>
+      </c>
+      <c r="C67" s="26">
+        <f>[1]属性拆分生成!C52</f>
+        <v>1673</v>
+      </c>
+      <c r="D67" s="26">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="1">
+        <v>31</v>
+      </c>
+      <c r="C68" s="26">
+        <f>[1]属性拆分生成!C53</f>
+        <v>1690</v>
+      </c>
+      <c r="D68" s="26">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B69" s="1">
+        <v>32</v>
+      </c>
+      <c r="C69" s="26">
+        <f>[1]属性拆分生成!C54</f>
+        <v>1706</v>
+      </c>
+      <c r="D69" s="26">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="1">
+        <v>33</v>
+      </c>
+      <c r="C70" s="26">
+        <f>[1]属性拆分生成!C55</f>
+        <v>1723</v>
+      </c>
+      <c r="D70" s="26">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="1">
+        <v>34</v>
+      </c>
+      <c r="C71" s="26">
+        <f>[1]属性拆分生成!C56</f>
+        <v>1739</v>
+      </c>
+      <c r="D71" s="26">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B72" s="1">
+        <v>35</v>
+      </c>
+      <c r="C72" s="26">
+        <f>[1]属性拆分生成!C57</f>
+        <v>1756</v>
+      </c>
+      <c r="D72" s="26">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B73" s="1">
+        <v>36</v>
+      </c>
+      <c r="C73" s="26">
+        <f>[1]属性拆分生成!C58</f>
+        <v>1772</v>
+      </c>
+      <c r="D73" s="26">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B74" s="1">
+        <v>37</v>
+      </c>
+      <c r="C74" s="26">
+        <f>[1]属性拆分生成!C59</f>
+        <v>1789</v>
+      </c>
+      <c r="D74" s="26">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B75" s="1">
+        <v>38</v>
+      </c>
+      <c r="C75" s="26">
+        <f>[1]属性拆分生成!C60</f>
+        <v>1805</v>
+      </c>
+      <c r="D75" s="26">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
+        <v>39</v>
+      </c>
+      <c r="C76" s="26">
+        <f>[1]属性拆分生成!C61</f>
+        <v>1822</v>
+      </c>
+      <c r="D76" s="26">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="1">
+        <v>40</v>
+      </c>
+      <c r="C77" s="26">
+        <f>[1]属性拆分生成!C62</f>
+        <v>1838</v>
+      </c>
+      <c r="D77" s="26">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B78" s="1">
+        <v>41</v>
+      </c>
+      <c r="C78" s="26">
+        <f>[1]属性拆分生成!C63</f>
+        <v>1855</v>
+      </c>
+      <c r="D78" s="26">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="1">
+        <v>42</v>
+      </c>
+      <c r="C79" s="26">
+        <f>[1]属性拆分生成!C64</f>
+        <v>1871</v>
+      </c>
+      <c r="D79" s="26">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B80" s="1">
+        <v>43</v>
+      </c>
+      <c r="C80" s="26">
+        <f>[1]属性拆分生成!C65</f>
+        <v>1888</v>
+      </c>
+      <c r="D80" s="26">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B81" s="1">
+        <v>44</v>
+      </c>
+      <c r="C81" s="26">
+        <f>[1]属性拆分生成!C66</f>
+        <v>1904</v>
+      </c>
+      <c r="D81" s="26">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B82" s="1">
+        <v>45</v>
+      </c>
+      <c r="C82" s="26">
+        <f>[1]属性拆分生成!C67</f>
+        <v>1921</v>
+      </c>
+      <c r="D82" s="26">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="1">
+        <v>46</v>
+      </c>
+      <c r="C83" s="26">
+        <f>[1]属性拆分生成!C68</f>
+        <v>1937</v>
+      </c>
+      <c r="D83" s="26">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B84" s="1">
+        <v>47</v>
+      </c>
+      <c r="C84" s="26">
+        <f>[1]属性拆分生成!C69</f>
+        <v>1954</v>
+      </c>
+      <c r="D84" s="26">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B85" s="1">
+        <v>48</v>
+      </c>
+      <c r="C85" s="26">
+        <f>[1]属性拆分生成!C70</f>
+        <v>1970</v>
+      </c>
+      <c r="D85" s="26">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="1">
+        <v>49</v>
+      </c>
+      <c r="C86" s="26">
+        <f>[1]属性拆分生成!C71</f>
+        <v>1987</v>
+      </c>
+      <c r="D86" s="26">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B87" s="1">
+        <v>50</v>
+      </c>
+      <c r="C87" s="26">
+        <f>[1]属性拆分生成!C72</f>
+        <v>2003</v>
+      </c>
+      <c r="D87" s="26">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BM35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E2" s="1" t="s">
         <v>534</v>
       </c>
@@ -9546,101 +10781,125 @@
       <c r="P2" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q2" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="49">
         <v>1</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="49">
         <v>1</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="49">
         <v>1</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="49">
         <v>1</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="49">
         <v>1</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="49">
         <v>1</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="49">
         <v>1</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="49">
         <v>1</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="49">
         <v>1</v>
       </c>
-      <c r="N3" s="52">
+      <c r="N3" s="49">
         <v>1</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="49">
         <v>1</v>
       </c>
-      <c r="P3" s="52">
+      <c r="P3" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="50">
         <v>0.5</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="51">
         <f>E4*(1+$N$15)</f>
-        <v>0.75</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G4" s="26">
         <f>F4*(1+E19)</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="H4" s="54">
+        <v>0.66675000000000006</v>
+      </c>
+      <c r="H4" s="51">
         <f>G4*(1+$N$15)</f>
-        <v>1.1812500000000001</v>
+        <v>0.84677250000000004</v>
       </c>
       <c r="I4" s="26">
         <f>H4*(1+F19)</f>
-        <v>1.2403125000000002</v>
-      </c>
-      <c r="J4" s="54">
+        <v>0.93144975000000008</v>
+      </c>
+      <c r="J4" s="51">
         <f>I4*(1+$N$15)</f>
-        <v>1.8604687500000003</v>
+        <v>1.1829411825</v>
       </c>
       <c r="K4" s="26">
         <f>J4*(1+G19)</f>
-        <v>1.9534921875000004</v>
-      </c>
-      <c r="L4" s="54">
+        <v>1.360382359875</v>
+      </c>
+      <c r="L4" s="51">
         <f>K4*(1+$N$15)</f>
-        <v>2.9302382812500007</v>
+        <v>1.7276855970412501</v>
       </c>
       <c r="M4" s="26">
         <f>L4*(1+H19)</f>
-        <v>3.0767501953125009</v>
-      </c>
-      <c r="N4" s="54">
+        <v>2.0732227164495001</v>
+      </c>
+      <c r="N4" s="51">
         <f>M4*(1+$N$15)</f>
-        <v>4.6151252929687514</v>
+        <v>2.632992849890865</v>
       </c>
       <c r="O4" s="26">
         <f>N4*(1+I19)</f>
-        <v>4.8458815576171892</v>
-      </c>
-      <c r="P4" s="54">
+        <v>3.2912410623635813</v>
+      </c>
+      <c r="P4" s="51">
         <f>O4*(1+$N$15)</f>
-        <v>7.2688223364257833</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>4.179876149201748</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>K4*(1+I15)</f>
+        <v>1.5644397138562498</v>
+      </c>
+      <c r="R4" s="1">
+        <f>M4*(1+G15)</f>
+        <v>2.2598127609299552</v>
+      </c>
+      <c r="S4" s="1">
+        <f>M4*(1+I15)</f>
+        <v>2.384206123916925</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>548</v>
       </c>
@@ -9648,193 +10907,229 @@
         <f t="shared" ref="E5:P5" si="0">E3+E4</f>
         <v>1.5</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="52">
         <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="G5" s="55">
+        <v>1.635</v>
+      </c>
+      <c r="G5" s="52">
         <f t="shared" si="0"/>
-        <v>1.7875000000000001</v>
-      </c>
-      <c r="H5" s="55">
+        <v>1.66675</v>
+      </c>
+      <c r="H5" s="52">
         <f t="shared" si="0"/>
-        <v>2.1812500000000004</v>
-      </c>
-      <c r="I5" s="55">
+        <v>1.8467725000000002</v>
+      </c>
+      <c r="I5" s="52">
         <f t="shared" si="0"/>
-        <v>2.2403124999999999</v>
-      </c>
-      <c r="J5" s="55">
+        <v>1.9314497500000001</v>
+      </c>
+      <c r="J5" s="52">
         <f t="shared" si="0"/>
-        <v>2.8604687500000003</v>
-      </c>
-      <c r="K5" s="55">
+        <v>2.1829411825</v>
+      </c>
+      <c r="K5" s="52">
         <f t="shared" si="0"/>
-        <v>2.9534921875000002</v>
-      </c>
-      <c r="L5" s="55">
+        <v>2.360382359875</v>
+      </c>
+      <c r="L5" s="52">
         <f t="shared" si="0"/>
-        <v>3.9302382812500007</v>
-      </c>
-      <c r="M5" s="55">
+        <v>2.7276855970412504</v>
+      </c>
+      <c r="M5" s="52">
         <f t="shared" si="0"/>
-        <v>4.0767501953125009</v>
-      </c>
-      <c r="N5" s="55">
+        <v>3.0732227164495001</v>
+      </c>
+      <c r="N5" s="52">
         <f t="shared" si="0"/>
-        <v>5.6151252929687514</v>
-      </c>
-      <c r="O5" s="55">
+        <v>3.632992849890865</v>
+      </c>
+      <c r="O5" s="52">
         <f t="shared" si="0"/>
-        <v>5.8458815576171892</v>
-      </c>
-      <c r="P5" s="55">
+        <v>4.2912410623635813</v>
+      </c>
+      <c r="P5" s="52">
         <f t="shared" si="0"/>
-        <v>8.2688223364257833</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>5.179876149201748</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" ref="Q5:R5" si="1">Q3+Q4</f>
+        <v>2.5644397138562498</v>
+      </c>
+      <c r="R5" s="52">
+        <f t="shared" si="1"/>
+        <v>3.2598127609299552</v>
+      </c>
+      <c r="S5" s="52">
+        <f t="shared" ref="S5" si="2">S3+S4</f>
+        <v>3.384206123916925</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:P6" si="1">E3/E5</f>
+        <f t="shared" ref="E6:P6" si="3">E3/E5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="3"/>
+        <v>0.6116207951070336</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.55944055944055937</v>
+        <f t="shared" si="3"/>
+        <v>0.59997000149992497</v>
       </c>
       <c r="H6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.45845272206303717</v>
+        <f t="shared" si="3"/>
+        <v>0.54148521271569716</v>
       </c>
       <c r="I6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.44636629934439953</v>
+        <f t="shared" si="3"/>
+        <v>0.51774580208467758</v>
       </c>
       <c r="J6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.34959305183809469</v>
+        <f t="shared" si="3"/>
+        <v>0.45809754656548102</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.33858223977441954</v>
+        <f t="shared" si="3"/>
+        <v>0.42366017345298135</v>
       </c>
       <c r="L6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.25443749931669613</v>
+        <f t="shared" si="3"/>
+        <v>0.3666111670218557</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.24529342051661951</v>
+        <f t="shared" si="3"/>
+        <v>0.32539132118459085</v>
       </c>
       <c r="N6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.17809041612164878</v>
+        <f t="shared" si="3"/>
+        <v>0.27525515224453029</v>
       </c>
       <c r="O6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.17106059884107624</v>
+        <f t="shared" si="3"/>
+        <v>0.23303281858726621</v>
       </c>
       <c r="P6" s="26">
-        <f t="shared" si="1"/>
-        <v>0.12093620582399067</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0.19305480887880039</v>
+      </c>
+      <c r="Q6" s="26">
+        <f t="shared" ref="Q6:R6" si="4">Q3/Q5</f>
+        <v>0.38994872626436605</v>
+      </c>
+      <c r="R6" s="26">
+        <f t="shared" si="4"/>
+        <v>0.30676608545906831</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" ref="S6" si="5">S3/S5</f>
+        <v>0.29549027552807178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" ref="E7:P7" si="2">E4/E5</f>
+        <f t="shared" ref="E7:P7" si="6">E4/E5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="6"/>
+        <v>0.38837920489296635</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.44055944055944057</v>
+        <f t="shared" si="6"/>
+        <v>0.40002999850007503</v>
       </c>
       <c r="H7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.54154727793696278</v>
+        <f t="shared" si="6"/>
+        <v>0.45851478728430273</v>
       </c>
       <c r="I7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.55363370065560058</v>
+        <f t="shared" si="6"/>
+        <v>0.48225419791532242</v>
       </c>
       <c r="J7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.65040694816190536</v>
+        <f t="shared" si="6"/>
+        <v>0.54190245343451893</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.66141776022558052</v>
+        <f t="shared" si="6"/>
+        <v>0.57633982654701865</v>
       </c>
       <c r="L7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.74556250068330387</v>
+        <f t="shared" si="6"/>
+        <v>0.63338883297814419</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.75470657948338049</v>
+        <f t="shared" si="6"/>
+        <v>0.6746086788154092</v>
       </c>
       <c r="N7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.82190958387835122</v>
+        <f t="shared" si="6"/>
+        <v>0.72474484775546977</v>
       </c>
       <c r="O7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.82893940115892373</v>
+        <f t="shared" si="6"/>
+        <v>0.76696718141273379</v>
       </c>
       <c r="P7" s="26">
-        <f t="shared" si="2"/>
-        <v>0.87906379417600933</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>0.80694519112119956</v>
+      </c>
+      <c r="Q7" s="26">
+        <f t="shared" ref="Q7:R7" si="7">Q4/Q5</f>
+        <v>0.61005127373563395</v>
+      </c>
+      <c r="R7" s="26">
+        <f t="shared" si="7"/>
+        <v>0.69323391454093175</v>
+      </c>
+      <c r="S7" s="26">
+        <f t="shared" ref="S7" si="8">S4/S5</f>
+        <v>0.70450972447192817</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C9" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56" t="s">
+    <row r="10" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="53" t="s">
         <v>557</v>
       </c>
       <c r="K10" s="1"/>
@@ -9842,195 +11137,195 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C11" s="56"/>
-      <c r="D11" s="57" t="s">
+    <row r="11" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="55">
         <v>10</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="55">
         <v>10</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="55">
         <v>10</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="55">
         <v>10</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="55">
         <v>10</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="55">
         <v>10</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="59"/>
+    <row r="12" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="58" t="s">
         <v>559</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="61">
         <v>1</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="61">
         <v>2</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="61">
         <v>3</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="61">
         <v>4</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="61">
         <v>5</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="61">
         <v>6</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="61">
         <v>7</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="61">
         <v>8</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="61">
         <v>9</v>
       </c>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="2:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N14" s="61"/>
+    </row>
+    <row r="15" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="62">
         <f>$N$15*E14/$M$14</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F15" s="65">
-        <f t="shared" ref="F15:M15" si="3">$N$15*F14/$M$14</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="I15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="J15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M15" s="65">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="66">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="F15" s="62">
+        <f t="shared" ref="F15:M15" si="9">$N$15*F14/$M$14</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="9"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="H15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="L15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="M15" s="62">
+        <f t="shared" si="9"/>
+        <v>0.27</v>
+      </c>
+      <c r="N15" s="63">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="64" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="18" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="65">
         <v>1</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="65">
         <v>2</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="65">
         <v>3</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="65">
         <v>4</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="65">
         <v>5</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="62">
         <v>0.05</v>
       </c>
-      <c r="F19" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="G19" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="H19" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="I19" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="72"/>
+      <c r="F19" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="O20" s="5"/>
@@ -10228,243 +11523,243 @@
         <f>E4</f>
         <v>0.5</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="70">
         <f>E22+$E$22*$E$15</f>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="G22" s="73">
-        <f t="shared" ref="G22:N22" si="4">F22+$E$22*$E$15</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="J22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="K22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="L22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="M22" s="73">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G22" s="70">
+        <f t="shared" ref="G22:N22" si="10">F22+$E$22*$E$15</f>
+        <v>0.53</v>
+      </c>
+      <c r="H22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="K22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="L22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="M22" s="70">
         <f>L22+$E$22*$E$15</f>
-        <v>0.72222222222222232</v>
-      </c>
-      <c r="N22" s="73">
-        <f t="shared" si="4"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="O22" s="73">
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="N22" s="70">
+        <f t="shared" si="10"/>
+        <v>0.63500000000000012</v>
+      </c>
+      <c r="O22" s="70">
         <f>G4</f>
-        <v>0.78750000000000009</v>
+        <v>0.66675000000000006</v>
       </c>
       <c r="P22" s="1">
         <f>O22+$O$22*$E$15</f>
-        <v>0.83125000000000004</v>
+        <v>0.6867525000000001</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ref="Q22:X22" si="5">P22+$O$22*$E$15</f>
-        <v>0.875</v>
+        <f t="shared" ref="Q22:X22" si="11">P22+$O$22*$E$15</f>
+        <v>0.70675500000000013</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.91874999999999996</v>
+        <f t="shared" si="11"/>
+        <v>0.72675750000000017</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.96249999999999991</v>
+        <f t="shared" si="11"/>
+        <v>0.7467600000000002</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0062499999999999</v>
+        <f t="shared" si="11"/>
+        <v>0.76676250000000024</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0499999999999998</v>
+        <f t="shared" si="11"/>
+        <v>0.78676500000000027</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0937499999999998</v>
+        <f t="shared" si="11"/>
+        <v>0.8067675000000003</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1374999999999997</v>
+        <f t="shared" si="11"/>
+        <v>0.82677000000000034</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1812499999999997</v>
+        <f t="shared" si="11"/>
+        <v>0.84677250000000037</v>
       </c>
       <c r="Y22" s="1">
         <f>I4</f>
-        <v>1.2403125000000002</v>
+        <v>0.93144975000000008</v>
       </c>
       <c r="Z22" s="1">
         <f>Y22+$Y$22*$E$15</f>
-        <v>1.3092187500000001</v>
+        <v>0.95939324250000013</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" ref="AA22:AH22" si="6">Z22+$Y$22*$E$15</f>
-        <v>1.378125</v>
+        <f t="shared" ref="AA22:AH22" si="12">Z22+$Y$22*$E$15</f>
+        <v>0.98733673500000019</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.44703125</v>
+        <f t="shared" si="12"/>
+        <v>1.0152802275000001</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5159374999999999</v>
+        <f t="shared" si="12"/>
+        <v>1.0432237200000001</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5848437499999999</v>
+        <f t="shared" si="12"/>
+        <v>1.0711672125</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6537499999999998</v>
+        <f t="shared" si="12"/>
+        <v>1.099110705</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7226562499999998</v>
+        <f t="shared" si="12"/>
+        <v>1.1270541974999999</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7915624999999997</v>
+        <f t="shared" si="12"/>
+        <v>1.1549976899999999</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.8604687499999997</v>
+        <f t="shared" si="12"/>
+        <v>1.1829411824999998</v>
       </c>
       <c r="AI22" s="1">
         <f>K4</f>
-        <v>1.9534921875000004</v>
+        <v>1.360382359875</v>
       </c>
       <c r="AJ22" s="1">
         <f>AI22+$AI$22*$E$15</f>
-        <v>2.0620195312500003</v>
+        <v>1.4011938306712499</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" ref="AK22:AR22" si="7">AJ22+$AI$22*$E$15</f>
-        <v>2.1705468750000003</v>
+        <f t="shared" ref="AK22:AR22" si="13">AJ22+$AI$22*$E$15</f>
+        <v>1.4420053014674998</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.2790742187500004</v>
+        <f t="shared" si="13"/>
+        <v>1.4828167722637497</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.3876015625000004</v>
+        <f t="shared" si="13"/>
+        <v>1.5236282430599997</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.4961289062500005</v>
+        <f t="shared" si="13"/>
+        <v>1.5644397138562496</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.6046562500000006</v>
+        <f t="shared" si="13"/>
+        <v>1.6052511846524995</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7131835937500006</v>
+        <f t="shared" si="13"/>
+        <v>1.6460626554487494</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8217109375000007</v>
+        <f t="shared" si="13"/>
+        <v>1.6868741262449993</v>
       </c>
       <c r="AR22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.9302382812500007</v>
+        <f t="shared" si="13"/>
+        <v>1.7276855970412492</v>
       </c>
       <c r="AS22" s="1">
         <f>M4</f>
-        <v>3.0767501953125009</v>
+        <v>2.0732227164495001</v>
       </c>
       <c r="AT22" s="1">
         <f>AS22+$AS$22*$E$15</f>
-        <v>3.2476807617187511</v>
+        <v>2.135419397942985</v>
       </c>
       <c r="AU22" s="1">
-        <f t="shared" ref="AU22:BB22" si="8">AT22+$AS$22*$E$15</f>
-        <v>3.4186113281250012</v>
+        <f t="shared" ref="AU22:BB22" si="14">AT22+$AS$22*$E$15</f>
+        <v>2.1976160794364699</v>
       </c>
       <c r="AV22" s="1">
-        <f t="shared" si="8"/>
-        <v>3.5895418945312514</v>
+        <f t="shared" si="14"/>
+        <v>2.2598127609299548</v>
       </c>
       <c r="AW22" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7604724609375015</v>
+        <f t="shared" si="14"/>
+        <v>2.3220094424234397</v>
       </c>
       <c r="AX22" s="1">
-        <f t="shared" si="8"/>
-        <v>3.9314030273437517</v>
+        <f t="shared" si="14"/>
+        <v>2.3842061239169245</v>
       </c>
       <c r="AY22" s="1">
-        <f t="shared" si="8"/>
-        <v>4.1023335937500018</v>
+        <f t="shared" si="14"/>
+        <v>2.4464028054104094</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" si="8"/>
-        <v>4.273264160156252</v>
+        <f t="shared" si="14"/>
+        <v>2.5085994869038943</v>
       </c>
       <c r="BA22" s="1">
-        <f t="shared" si="8"/>
-        <v>4.4441947265625021</v>
+        <f t="shared" si="14"/>
+        <v>2.5707961683973792</v>
       </c>
       <c r="BB22" s="1">
-        <f t="shared" si="8"/>
-        <v>4.6151252929687523</v>
+        <f t="shared" si="14"/>
+        <v>2.6329928498908641</v>
       </c>
       <c r="BC22" s="1">
         <f>O4</f>
-        <v>4.8458815576171892</v>
+        <v>3.2912410623635813</v>
       </c>
       <c r="BD22" s="1">
         <f>BC22+$BC$22*$E$15</f>
-        <v>5.1150971997070327</v>
+        <v>3.3899782942344889</v>
       </c>
       <c r="BE22" s="1">
-        <f t="shared" ref="BE22:BL22" si="9">BD22+$BC$22*$E$15</f>
-        <v>5.3843128417968762</v>
+        <f t="shared" ref="BE22:BL22" si="15">BD22+$BC$22*$E$15</f>
+        <v>3.4887155261053966</v>
       </c>
       <c r="BF22" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6535284838867197</v>
+        <f t="shared" si="15"/>
+        <v>3.5874527579763043</v>
       </c>
       <c r="BG22" s="1">
-        <f t="shared" si="9"/>
-        <v>5.9227441259765632</v>
+        <f t="shared" si="15"/>
+        <v>3.6861899898472119</v>
       </c>
       <c r="BH22" s="1">
-        <f t="shared" si="9"/>
-        <v>6.1919597680664067</v>
+        <f t="shared" si="15"/>
+        <v>3.7849272217181196</v>
       </c>
       <c r="BI22" s="1">
-        <f t="shared" si="9"/>
-        <v>6.4611754101562502</v>
+        <f t="shared" si="15"/>
+        <v>3.8836644535890272</v>
       </c>
       <c r="BJ22" s="1">
-        <f t="shared" si="9"/>
-        <v>6.7303910522460937</v>
+        <f t="shared" si="15"/>
+        <v>3.9824016854599349</v>
       </c>
       <c r="BK22" s="1">
-        <f t="shared" si="9"/>
-        <v>6.9996066943359372</v>
+        <f t="shared" si="15"/>
+        <v>4.0811389173308426</v>
       </c>
       <c r="BL22" s="1">
-        <f t="shared" si="9"/>
-        <v>7.2688223364257807</v>
-      </c>
-      <c r="BM22" s="73"/>
+        <f t="shared" si="15"/>
+        <v>4.1798761492017498</v>
+      </c>
+      <c r="BM22" s="70"/>
     </row>
     <row r="23" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
@@ -10477,94 +11772,94 @@
       <c r="C26" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
     </row>
     <row r="27" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C27" s="5"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="71" t="s">
         <v>567</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C28" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="71" t="s">
         <v>569</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="72" t="s">
         <v>570</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="72" t="s">
         <v>571</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="72" t="s">
         <v>572</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="72" t="s">
         <v>573</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="72" t="s">
         <v>575</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="72" t="s">
         <v>577</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="72" t="s">
         <v>578</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="72" t="s">
         <v>579</v>
       </c>
-      <c r="O28" s="75" t="s">
+      <c r="O28" s="72" t="s">
         <v>580</v>
       </c>
-      <c r="P28" s="75" t="s">
+      <c r="P28" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="Q28" s="75" t="s">
+      <c r="Q28" s="72" t="s">
         <v>582</v>
       </c>
-      <c r="R28" s="75" t="s">
+      <c r="R28" s="72" t="s">
         <v>583</v>
       </c>
-      <c r="S28" s="75" t="s">
+      <c r="S28" s="72" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10572,46 +11867,46 @@
       <c r="C29" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="73">
         <v>0.5</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="74">
         <f>(D29+E32)*(E35+1)</f>
         <v>0.5555000000000001</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="75">
         <f>E29+E32</f>
         <v>0.60550000000000015</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="76">
         <f>(F29+F32)*(F35+1)</f>
         <v>0.71961000000000019</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="76">
         <f>G29+F32</f>
         <v>0.81961000000000017</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="76">
         <f>H29+F32</f>
         <v>0.91961000000000015</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="76">
         <f>(I29+G32)*(G35+1)</f>
         <v>1.1016983000000002</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="74">
         <f>J29+G32</f>
         <v>1.2516983000000002</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="74">
         <f>K29+G32</f>
         <v>1.4016983000000001</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="74">
         <f>L29+H32</f>
         <v>1.6016983</v>
       </c>
-      <c r="N29" s="77">
+      <c r="N29" s="74">
         <f>(M29+H32)*(H35+1)</f>
         <v>1.8737662320000001</v>
       </c>
@@ -10637,42 +11932,42 @@
       </c>
     </row>
     <row r="30" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D30" s="80"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="68" t="s">
         <v>588</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="68" t="s">
         <v>589</v>
       </c>
-      <c r="I31" s="71" t="s">
+      <c r="I31" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="72"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -10681,69 +11976,69 @@
       <c r="C32" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="82">
+      <c r="D32" s="71"/>
+      <c r="E32" s="79">
         <v>0.05</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="79">
         <v>0.1</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="79">
         <v>0.15</v>
       </c>
-      <c r="H32" s="82">
+      <c r="H32" s="79">
         <v>0.2</v>
       </c>
-      <c r="I32" s="82">
+      <c r="I32" s="79">
         <v>0.25</v>
       </c>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D33" s="83"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D34" s="80"/>
-      <c r="E34" s="81" t="s">
+      <c r="D34" s="77"/>
+      <c r="E34" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="68" t="s">
         <v>588</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="68" t="s">
         <v>589</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -10752,27 +12047,27 @@
       <c r="C35" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="84">
+      <c r="D35" s="77"/>
+      <c r="E35" s="81">
         <v>0.01</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="81">
         <v>0.02</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="81">
         <v>0.03</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="81">
         <v>0.04</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="81">
         <v>0.05</v>
       </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="72"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -10784,7 +12079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S385"/>
   <sheetViews>
@@ -10794,2237 +12089,2237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="41"/>
-    <col min="3" max="3" width="12" style="41" customWidth="1"/>
-    <col min="4" max="11" width="9" style="41"/>
-    <col min="12" max="12" width="10.875" style="41" customWidth="1"/>
-    <col min="13" max="16" width="9" style="41"/>
-    <col min="17" max="17" width="9.625" style="41" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="41"/>
+    <col min="1" max="2" width="9" style="39"/>
+    <col min="3" max="3" width="12" style="39" customWidth="1"/>
+    <col min="4" max="11" width="9" style="39"/>
+    <col min="12" max="12" width="10.875" style="39" customWidth="1"/>
+    <col min="13" max="16" width="9" style="39"/>
+    <col min="17" max="17" width="9.625" style="39" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-    </row>
-    <row r="5" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+    </row>
+    <row r="5" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="43" t="s">
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="43" t="s">
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="43" t="s">
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="43" t="s">
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="43" t="s">
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="43" t="s">
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="43" t="s">
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="43" t="s">
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="43" t="s">
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="43" t="s">
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="43" t="s">
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="43" t="s">
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="43" t="s">
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="43" t="s">
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="43" t="s">
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="43" t="s">
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="43" t="s">
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="H23" s="45"/>
-    </row>
-    <row r="24" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="43" t="s">
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="46" t="s">
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="43" t="s">
+    <row r="26" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="43" t="s">
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="43" t="s">
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="43" t="s">
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="43" t="s">
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="3:8" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="43" t="s">
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="43" t="s">
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="43" t="s">
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="L34" s="43" t="s">
+      <c r="G34" s="42"/>
+      <c r="L34" s="41" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="43" t="s">
+    <row r="35" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="43" t="s">
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="43" t="s">
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="43" t="s">
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="43" t="s">
+    <row r="40" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="41" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="43" t="s">
+    <row r="41" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="41" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="39" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="39" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="49" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="50" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F50" s="41" t="s">
+      <c r="F50" s="39" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="39" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
     </row>
     <row r="53" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="39" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="54" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="55" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="39" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="56" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="39" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="57" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="39" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="39" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="60" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="61" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="39" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="62" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="39" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="63" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="64" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="E64" s="41" t="s">
+      <c r="E64" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="39" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="46" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="39" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="39" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="39" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="39" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="39" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F76" s="41" t="s">
+      <c r="F76" s="39" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F77" s="41" t="s">
+      <c r="F77" s="39" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="39" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F80" s="41" t="s">
+      <c r="F80" s="39" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="39" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="39" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="39" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="39" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="39" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F91" s="41" t="s">
+      <c r="F91" s="39" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="39" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="39" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="43" t="s">
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="I95" s="49"/>
+      <c r="I95" s="47"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="39" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="39" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="39" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="39" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="39" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="39" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="39" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="39" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E109" s="41" t="s">
+      <c r="E109" s="39" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E110" s="41" t="s">
+      <c r="E110" s="39" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="39" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E113" s="41" t="s">
+      <c r="E113" s="39" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F114" s="41" t="s">
+      <c r="F114" s="39" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F115" s="41" t="s">
+      <c r="F115" s="39" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D117" s="41" t="s">
+      <c r="D117" s="39" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="39" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F119" s="41" t="s">
+      <c r="F119" s="39" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E121" s="41" t="s">
+      <c r="E121" s="39" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F122" s="41" t="s">
+      <c r="F122" s="39" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F123" s="41" t="s">
+      <c r="F123" s="39" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D125" s="41" t="s">
+      <c r="D125" s="39" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E126" s="41" t="s">
+      <c r="E126" s="39" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E127" s="41" t="s">
+      <c r="E127" s="39" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E128" s="41" t="s">
+      <c r="E128" s="39" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="43"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="43" t="s">
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="K131" s="43"/>
+      <c r="K131" s="41"/>
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43" t="s">
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="G132" s="46" t="s">
+      <c r="G132" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H132" s="43" t="s">
+      <c r="H132" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I132" s="43" t="s">
+      <c r="I132" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="J132" s="43" t="e">
+      <c r="J132" s="41" t="e">
         <f>#REF!+#REF!*2+#REF!*2</f>
         <v>#REF!</v>
       </c>
-      <c r="K132" s="43"/>
+      <c r="K132" s="41"/>
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43" t="s">
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="G133" s="46" t="s">
+      <c r="G133" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="H133" s="43" t="s">
+      <c r="H133" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43" t="s">
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="G134" s="46"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43" t="s">
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="G135" s="46"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="43"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43" t="s">
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="G137" s="46" t="s">
+      <c r="G137" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H137" s="43" t="s">
+      <c r="H137" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I137" s="43" t="s">
+      <c r="I137" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="J137" s="43" t="e">
+      <c r="J137" s="41" t="e">
         <f>#REF!*2+#REF!*2+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K137" s="43"/>
+      <c r="K137" s="41"/>
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43" t="s">
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="G138" s="46" t="s">
+      <c r="G138" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H138" s="43" t="s">
+      <c r="H138" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-      <c r="K138" s="43"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="43" t="s">
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="G139" s="46"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="43"/>
-      <c r="K139" s="43"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="43" t="s">
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="G140" s="46"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="43"/>
-      <c r="K140" s="43"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="F142" s="43" t="s">
+      <c r="F142" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="G142" s="46" t="s">
+      <c r="G142" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H142" s="43" t="s">
+      <c r="H142" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I142" s="43" t="s">
+      <c r="I142" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="J142" s="43" t="e">
+      <c r="J142" s="41" t="e">
         <f>#REF!+#REF!*3+#REF!*1</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="3:11" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="43" t="s">
+    <row r="143" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="G143" s="46" t="s">
+      <c r="G143" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="H143" s="43" t="s">
+      <c r="H143" s="41" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="3:11" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="43" t="s">
+    <row r="144" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="G144" s="46"/>
-    </row>
-    <row r="145" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="43" t="s">
+      <c r="G144" s="44"/>
+    </row>
+    <row r="145" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="G145" s="46"/>
-    </row>
-    <row r="146" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="43" t="s">
+      <c r="G145" s="44"/>
+    </row>
+    <row r="146" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="G147" s="46" t="s">
+      <c r="G147" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H147" s="43" t="s">
+      <c r="H147" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I147" s="43" t="s">
+      <c r="I147" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="J147" s="43" t="e">
+      <c r="J147" s="41" t="e">
         <f>#REF!*2+#REF!+#REF!*2</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="43" t="s">
+    <row r="148" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="G148" s="46" t="s">
+      <c r="G148" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="H148" s="43" t="s">
+      <c r="H148" s="41" t="s">
         <v>372</v>
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="43" t="s">
+    <row r="149" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F149" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="G149" s="46"/>
+      <c r="G149" s="44"/>
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="43" t="s">
+    <row r="150" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="41" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="3:10" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="152" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="39" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="153" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D153" s="41" t="s">
+      <c r="D153" s="39" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="154" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E154" s="41" t="s">
+      <c r="E154" s="39" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="155" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E155" s="41" t="s">
+      <c r="E155" s="39" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="156" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F156" s="41" t="s">
+      <c r="F156" s="39" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="157" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G157" s="41" t="s">
+      <c r="G157" s="39" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="158" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F158" s="41" t="s">
+      <c r="F158" s="39" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="159" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G159" s="41" t="s">
+      <c r="G159" s="39" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="160" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F160" s="41" t="s">
+      <c r="F160" s="39" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G161" s="41" t="s">
+      <c r="G161" s="39" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="163" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D163" s="41" t="s">
+      <c r="D163" s="39" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E164" s="41" t="s">
+      <c r="E164" s="39" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E165" s="41" t="s">
+      <c r="E165" s="39" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F166" s="41" t="s">
+      <c r="F166" s="39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="167" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G167" s="41" t="s">
+      <c r="G167" s="39" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="168" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F168" s="41" t="s">
+      <c r="F168" s="39" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="169" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G169" s="41" t="s">
+      <c r="G169" s="39" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="170" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F170" s="41" t="s">
+      <c r="F170" s="39" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G171" s="41" t="s">
+      <c r="G171" s="39" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="173" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D173" s="41" t="s">
+      <c r="D173" s="39" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="174" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E174" s="41" t="s">
+      <c r="E174" s="39" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="175" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F175" s="41" t="s">
+      <c r="F175" s="39" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="176" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G176" s="41" t="s">
+      <c r="G176" s="39" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="177" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="H177" s="41" t="s">
+      <c r="H177" s="39" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="178" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="G178" s="41" t="s">
+      <c r="G178" s="39" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="179" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="H179" s="41" t="s">
+      <c r="H179" s="39" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="180" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="G180" s="41" t="s">
+      <c r="G180" s="39" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="181" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="H181" s="41" t="s">
+      <c r="H181" s="39" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="183" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E183" s="41" t="s">
+      <c r="E183" s="39" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="184" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="F184" s="41" t="s">
+      <c r="F184" s="39" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="185" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="G185" s="41" t="s">
+      <c r="G185" s="39" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="186" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="G186" s="41" t="s">
+      <c r="G186" s="39" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="187" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="G187" s="41" t="s">
+      <c r="G187" s="39" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="190" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C190" s="43" t="s">
+      <c r="C190" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="D190" s="43"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="43"/>
-      <c r="G190" s="43"/>
-      <c r="H190" s="43"/>
-      <c r="I190" s="43"/>
-      <c r="J190" s="43"/>
-      <c r="K190" s="43"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="41"/>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
     </row>
     <row r="191" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C191" s="43"/>
-      <c r="D191" s="43" t="s">
+      <c r="C191" s="41"/>
+      <c r="D191" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E191" s="43"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="43"/>
-      <c r="H191" s="43"/>
-      <c r="I191" s="43"/>
-      <c r="J191" s="43"/>
-      <c r="K191" s="43"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="41"/>
+      <c r="G191" s="41"/>
+      <c r="H191" s="41"/>
+      <c r="I191" s="41"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
     </row>
     <row r="192" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C192" s="43"/>
-      <c r="D192" s="43"/>
-      <c r="E192" s="43" t="s">
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F192" s="43"/>
-      <c r="G192" s="43"/>
-      <c r="H192" s="43"/>
-      <c r="I192" s="43"/>
-      <c r="J192" s="43"/>
-      <c r="K192" s="43"/>
+      <c r="F192" s="41"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="41"/>
+      <c r="I192" s="41"/>
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
     </row>
     <row r="193" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C193" s="43"/>
-      <c r="D193" s="43"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="43" t="s">
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="G193" s="43"/>
-      <c r="H193" s="43"/>
-      <c r="I193" s="43"/>
-      <c r="J193" s="43"/>
-      <c r="K193" s="43"/>
+      <c r="G193" s="41"/>
+      <c r="H193" s="41"/>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="41"/>
     </row>
     <row r="194" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C194" s="43"/>
-      <c r="D194" s="43"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="43" t="s">
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="G194" s="43"/>
-      <c r="H194" s="43"/>
-      <c r="I194" s="43"/>
-      <c r="J194" s="43"/>
-      <c r="K194" s="43"/>
+      <c r="G194" s="41"/>
+      <c r="H194" s="41"/>
+      <c r="I194" s="41"/>
+      <c r="J194" s="41"/>
+      <c r="K194" s="41"/>
     </row>
     <row r="195" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C195" s="43"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="43" t="s">
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="G195" s="43"/>
-      <c r="H195" s="43"/>
-      <c r="I195" s="43"/>
-      <c r="J195" s="43"/>
-      <c r="K195" s="43"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="41"/>
+      <c r="I195" s="41"/>
+      <c r="J195" s="41"/>
+      <c r="K195" s="41"/>
     </row>
     <row r="196" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C196" s="43"/>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43" t="s">
+      <c r="C196" s="41"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="F196" s="43"/>
-      <c r="G196" s="43"/>
-      <c r="H196" s="43"/>
-      <c r="I196" s="43"/>
-      <c r="J196" s="43"/>
-      <c r="K196" s="43"/>
+      <c r="F196" s="41"/>
+      <c r="G196" s="41"/>
+      <c r="H196" s="41"/>
+      <c r="I196" s="41"/>
+      <c r="J196" s="41"/>
+      <c r="K196" s="41"/>
     </row>
     <row r="197" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C197" s="43"/>
-      <c r="D197" s="43"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="43" t="s">
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="G197" s="43"/>
-      <c r="H197" s="43"/>
-      <c r="I197" s="43"/>
-      <c r="J197" s="43"/>
-      <c r="K197" s="43"/>
+      <c r="G197" s="41"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="41"/>
+      <c r="J197" s="41"/>
+      <c r="K197" s="41"/>
     </row>
     <row r="198" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C198" s="43"/>
-      <c r="D198" s="43"/>
-      <c r="E198" s="43"/>
-      <c r="F198" s="43" t="s">
+      <c r="C198" s="41"/>
+      <c r="D198" s="41"/>
+      <c r="E198" s="41"/>
+      <c r="F198" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="G198" s="43"/>
-      <c r="H198" s="43"/>
-      <c r="I198" s="43"/>
-      <c r="J198" s="43"/>
-      <c r="K198" s="43"/>
+      <c r="G198" s="41"/>
+      <c r="H198" s="41"/>
+      <c r="I198" s="41"/>
+      <c r="J198" s="41"/>
+      <c r="K198" s="41"/>
     </row>
     <row r="199" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C199" s="43"/>
-      <c r="D199" s="43"/>
-      <c r="E199" s="43"/>
-      <c r="F199" s="43" t="s">
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="G199" s="43"/>
-      <c r="H199" s="43"/>
-      <c r="I199" s="43"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="43"/>
+      <c r="G199" s="41"/>
+      <c r="H199" s="41"/>
+      <c r="I199" s="41"/>
+      <c r="J199" s="41"/>
+      <c r="K199" s="41"/>
     </row>
     <row r="200" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C200" s="43"/>
-      <c r="D200" s="43" t="s">
+      <c r="C200" s="41"/>
+      <c r="D200" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="E200" s="43"/>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="43"/>
-      <c r="I200" s="43"/>
-      <c r="J200" s="43"/>
-      <c r="K200" s="43"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="41"/>
+      <c r="G200" s="41"/>
+      <c r="H200" s="41"/>
+      <c r="I200" s="41"/>
+      <c r="J200" s="41"/>
+      <c r="K200" s="41"/>
     </row>
     <row r="201" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C201" s="43"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="43" t="s">
+      <c r="C201" s="41"/>
+      <c r="D201" s="41"/>
+      <c r="E201" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="F201" s="43"/>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
-      <c r="I201" s="43"/>
-      <c r="J201" s="43"/>
-      <c r="K201" s="43"/>
+      <c r="F201" s="41"/>
+      <c r="G201" s="41"/>
+      <c r="H201" s="41"/>
+      <c r="I201" s="41"/>
+      <c r="J201" s="41"/>
+      <c r="K201" s="41"/>
     </row>
     <row r="202" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C202" s="43"/>
-      <c r="D202" s="43"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="43" t="s">
+      <c r="C202" s="41"/>
+      <c r="D202" s="41"/>
+      <c r="E202" s="41"/>
+      <c r="F202" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="G202" s="43"/>
-      <c r="H202" s="43"/>
-      <c r="I202" s="43"/>
-      <c r="J202" s="43"/>
-      <c r="K202" s="43"/>
-      <c r="L202" s="43"/>
-      <c r="M202" s="43"/>
+      <c r="G202" s="41"/>
+      <c r="H202" s="41"/>
+      <c r="I202" s="41"/>
+      <c r="J202" s="41"/>
+      <c r="K202" s="41"/>
+      <c r="L202" s="41"/>
+      <c r="M202" s="41"/>
     </row>
     <row r="203" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C203" s="43"/>
-      <c r="D203" s="43"/>
-      <c r="E203" s="43"/>
-      <c r="F203" s="43" t="s">
+      <c r="C203" s="41"/>
+      <c r="D203" s="41"/>
+      <c r="E203" s="41"/>
+      <c r="F203" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="G203" s="43"/>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="43"/>
-      <c r="L203" s="43"/>
-      <c r="M203" s="43"/>
+      <c r="G203" s="41"/>
+      <c r="H203" s="41"/>
+      <c r="I203" s="41"/>
+      <c r="J203" s="41"/>
+      <c r="K203" s="41"/>
+      <c r="L203" s="41"/>
+      <c r="M203" s="41"/>
     </row>
     <row r="204" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43" t="s">
+      <c r="C204" s="41"/>
+      <c r="D204" s="41"/>
+      <c r="E204" s="41"/>
+      <c r="F204" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
-      <c r="I204" s="43"/>
-      <c r="J204" s="43"/>
-      <c r="K204" s="43"/>
+      <c r="G204" s="41"/>
+      <c r="H204" s="41"/>
+      <c r="I204" s="41"/>
+      <c r="J204" s="41"/>
+      <c r="K204" s="41"/>
     </row>
     <row r="205" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C205" s="43"/>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43" t="s">
+      <c r="C205" s="41"/>
+      <c r="D205" s="41"/>
+      <c r="E205" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
-      <c r="I205" s="43"/>
-      <c r="J205" s="43"/>
-      <c r="K205" s="43"/>
+      <c r="F205" s="41"/>
+      <c r="G205" s="41"/>
+      <c r="H205" s="41"/>
+      <c r="I205" s="41"/>
+      <c r="J205" s="41"/>
+      <c r="K205" s="41"/>
     </row>
     <row r="206" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C206" s="43"/>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43" t="s">
+      <c r="C206" s="41"/>
+      <c r="D206" s="41"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="43"/>
+      <c r="G206" s="41"/>
+      <c r="H206" s="41"/>
+      <c r="I206" s="41"/>
+      <c r="J206" s="41"/>
+      <c r="K206" s="41"/>
     </row>
     <row r="207" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C207" s="43"/>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43" t="s">
+      <c r="C207" s="41"/>
+      <c r="D207" s="41"/>
+      <c r="E207" s="41"/>
+      <c r="F207" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="43"/>
-      <c r="J207" s="43"/>
-      <c r="K207" s="43"/>
+      <c r="G207" s="41"/>
+      <c r="H207" s="41"/>
+      <c r="I207" s="41"/>
+      <c r="J207" s="41"/>
+      <c r="K207" s="41"/>
     </row>
     <row r="208" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C208" s="43"/>
-      <c r="D208" s="43"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="43" t="s">
+      <c r="C208" s="41"/>
+      <c r="D208" s="41"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="G208" s="43"/>
-      <c r="H208" s="43"/>
-      <c r="I208" s="43"/>
-      <c r="J208" s="43"/>
-      <c r="K208" s="43"/>
+      <c r="G208" s="41"/>
+      <c r="H208" s="41"/>
+      <c r="I208" s="41"/>
+      <c r="J208" s="41"/>
+      <c r="K208" s="41"/>
     </row>
     <row r="209" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C209" s="43"/>
-      <c r="D209" s="43" t="s">
+      <c r="C209" s="41"/>
+      <c r="D209" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="E209" s="43"/>
-      <c r="F209" s="43"/>
-      <c r="G209" s="43"/>
-      <c r="H209" s="43"/>
-      <c r="I209" s="43"/>
-      <c r="J209" s="43"/>
-      <c r="K209" s="43"/>
+      <c r="E209" s="41"/>
+      <c r="F209" s="41"/>
+      <c r="G209" s="41"/>
+      <c r="H209" s="41"/>
+      <c r="I209" s="41"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
     </row>
     <row r="210" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C210" s="43"/>
-      <c r="D210" s="43"/>
-      <c r="E210" s="43" t="s">
+      <c r="C210" s="41"/>
+      <c r="D210" s="41"/>
+      <c r="E210" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="F210" s="43"/>
-      <c r="G210" s="43"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="43"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
+      <c r="F210" s="41"/>
+      <c r="G210" s="41"/>
+      <c r="H210" s="41"/>
+      <c r="I210" s="41"/>
+      <c r="J210" s="41"/>
+      <c r="K210" s="41"/>
     </row>
     <row r="211" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C211" s="43"/>
-      <c r="D211" s="43"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="43" t="s">
+      <c r="C211" s="41"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="G211" s="43"/>
-      <c r="H211" s="43"/>
-      <c r="I211" s="43"/>
-      <c r="J211" s="43"/>
-      <c r="K211" s="43"/>
+      <c r="G211" s="41"/>
+      <c r="H211" s="41"/>
+      <c r="I211" s="41"/>
+      <c r="J211" s="41"/>
+      <c r="K211" s="41"/>
     </row>
     <row r="212" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C212" s="43"/>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43" t="s">
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
+      <c r="E212" s="41"/>
+      <c r="F212" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
-      <c r="I212" s="43"/>
-      <c r="J212" s="43"/>
-      <c r="K212" s="43"/>
+      <c r="G212" s="41"/>
+      <c r="H212" s="41"/>
+      <c r="I212" s="41"/>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41"/>
     </row>
     <row r="213" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C213" s="43"/>
-      <c r="D213" s="43"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43" t="s">
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
-      <c r="I213" s="43"/>
-      <c r="J213" s="43"/>
-      <c r="K213" s="43"/>
+      <c r="G213" s="41"/>
+      <c r="H213" s="41"/>
+      <c r="I213" s="41"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="41"/>
     </row>
     <row r="214" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C214" s="43"/>
-      <c r="D214" s="43"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="43" t="s">
+      <c r="C214" s="41"/>
+      <c r="D214" s="41"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="G214" s="43"/>
-      <c r="H214" s="43"/>
-      <c r="I214" s="43"/>
-      <c r="J214" s="43"/>
-      <c r="K214" s="43"/>
+      <c r="G214" s="41"/>
+      <c r="H214" s="41"/>
+      <c r="I214" s="41"/>
+      <c r="J214" s="41"/>
+      <c r="K214" s="41"/>
     </row>
     <row r="215" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C215" s="43"/>
-      <c r="D215" s="43"/>
-      <c r="E215" s="43" t="s">
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="F215" s="43" t="s">
+      <c r="F215" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="G215" s="43"/>
-      <c r="H215" s="43"/>
-      <c r="I215" s="43"/>
-      <c r="J215" s="43"/>
-      <c r="K215" s="43"/>
+      <c r="G215" s="41"/>
+      <c r="H215" s="41"/>
+      <c r="I215" s="41"/>
+      <c r="J215" s="41"/>
+      <c r="K215" s="41"/>
     </row>
     <row r="216" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C216" s="43"/>
-      <c r="D216" s="43"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="43" t="s">
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="41"/>
+      <c r="F216" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="G216" s="43"/>
-      <c r="H216" s="43"/>
-      <c r="I216" s="43"/>
-      <c r="J216" s="43"/>
-      <c r="K216" s="43"/>
+      <c r="G216" s="41"/>
+      <c r="H216" s="41"/>
+      <c r="I216" s="41"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
     </row>
     <row r="217" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C217" s="43"/>
-      <c r="D217" s="43"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43" t="s">
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="41"/>
+      <c r="F217" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="G217" s="43"/>
-      <c r="H217" s="43"/>
-      <c r="I217" s="43"/>
-      <c r="J217" s="43"/>
-      <c r="K217" s="43"/>
+      <c r="G217" s="41"/>
+      <c r="H217" s="41"/>
+      <c r="I217" s="41"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
     </row>
     <row r="218" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C218" s="43"/>
-      <c r="D218" s="43"/>
-      <c r="E218" s="43" t="s">
+      <c r="C218" s="41"/>
+      <c r="D218" s="41"/>
+      <c r="E218" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43"/>
-      <c r="H218" s="43"/>
-      <c r="I218" s="43"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
+      <c r="F218" s="41"/>
+      <c r="G218" s="41"/>
+      <c r="H218" s="41"/>
+      <c r="I218" s="41"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C219" s="43"/>
-      <c r="D219" s="43" t="s">
+      <c r="C219" s="41"/>
+      <c r="D219" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="E219" s="43"/>
-      <c r="F219" s="43"/>
-      <c r="G219" s="43"/>
-      <c r="H219" s="43"/>
-      <c r="I219" s="43"/>
-      <c r="J219" s="43"/>
-      <c r="K219" s="43"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="41"/>
+      <c r="G219" s="41"/>
+      <c r="H219" s="41"/>
+      <c r="I219" s="41"/>
+      <c r="J219" s="41"/>
+      <c r="K219" s="41"/>
     </row>
     <row r="220" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C220" s="43"/>
-      <c r="D220" s="43"/>
-      <c r="E220" s="43" t="s">
+      <c r="C220" s="41"/>
+      <c r="D220" s="41"/>
+      <c r="E220" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="F220" s="43"/>
-      <c r="G220" s="43"/>
-      <c r="H220" s="43"/>
-      <c r="I220" s="43"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
+      <c r="F220" s="41"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="41"/>
+      <c r="J220" s="41"/>
+      <c r="K220" s="41"/>
     </row>
     <row r="221" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C221" s="43"/>
-      <c r="D221" s="43"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="43" t="s">
+      <c r="C221" s="41"/>
+      <c r="D221" s="41"/>
+      <c r="E221" s="41"/>
+      <c r="F221" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="G221" s="43"/>
-      <c r="H221" s="43"/>
-      <c r="I221" s="43"/>
-      <c r="J221" s="43"/>
-      <c r="K221" s="43"/>
+      <c r="G221" s="41"/>
+      <c r="H221" s="41"/>
+      <c r="I221" s="41"/>
+      <c r="J221" s="41"/>
+      <c r="K221" s="41"/>
     </row>
     <row r="222" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C222" s="43"/>
-      <c r="D222" s="43"/>
-      <c r="E222" s="43" t="s">
+      <c r="C222" s="41"/>
+      <c r="D222" s="41"/>
+      <c r="E222" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="F222" s="43"/>
-      <c r="G222" s="43"/>
-      <c r="H222" s="43"/>
-      <c r="I222" s="43"/>
-      <c r="J222" s="43"/>
-      <c r="K222" s="43"/>
+      <c r="F222" s="41"/>
+      <c r="G222" s="41"/>
+      <c r="H222" s="41"/>
+      <c r="I222" s="41"/>
+      <c r="J222" s="41"/>
+      <c r="K222" s="41"/>
     </row>
     <row r="223" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C223" s="43"/>
-      <c r="D223" s="43"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="43" t="s">
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="G223" s="43"/>
-      <c r="H223" s="43"/>
-      <c r="I223" s="43"/>
-      <c r="J223" s="43"/>
-      <c r="K223" s="43"/>
+      <c r="G223" s="41"/>
+      <c r="H223" s="41"/>
+      <c r="I223" s="41"/>
+      <c r="J223" s="41"/>
+      <c r="K223" s="41"/>
     </row>
     <row r="224" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C224" s="43"/>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43" t="s">
+      <c r="C224" s="41"/>
+      <c r="D224" s="41"/>
+      <c r="E224" s="41"/>
+      <c r="F224" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="G224" s="43"/>
-      <c r="H224" s="43"/>
-      <c r="I224" s="43"/>
-      <c r="J224" s="43"/>
-      <c r="K224" s="43"/>
+      <c r="G224" s="41"/>
+      <c r="H224" s="41"/>
+      <c r="I224" s="41"/>
+      <c r="J224" s="41"/>
+      <c r="K224" s="41"/>
     </row>
     <row r="225" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C225" s="43"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43" t="s">
+      <c r="C225" s="41"/>
+      <c r="D225" s="41"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="G225" s="43"/>
-      <c r="H225" s="43"/>
-      <c r="I225" s="43"/>
-      <c r="J225" s="43"/>
-      <c r="K225" s="43"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="41"/>
+      <c r="I225" s="41"/>
+      <c r="J225" s="41"/>
+      <c r="K225" s="41"/>
     </row>
     <row r="226" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C226" s="43"/>
-      <c r="D226" s="43"/>
-      <c r="E226" s="43"/>
-      <c r="F226" s="43" t="s">
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="G226" s="43"/>
-      <c r="H226" s="43"/>
-      <c r="I226" s="43"/>
-      <c r="J226" s="43"/>
-      <c r="K226" s="43"/>
+      <c r="G226" s="41"/>
+      <c r="H226" s="41"/>
+      <c r="I226" s="41"/>
+      <c r="J226" s="41"/>
+      <c r="K226" s="41"/>
     </row>
     <row r="227" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C227" s="43"/>
-      <c r="D227" s="43"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43" t="s">
+      <c r="C227" s="41"/>
+      <c r="D227" s="41"/>
+      <c r="E227" s="41"/>
+      <c r="F227" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="G227" s="43"/>
-      <c r="H227" s="43"/>
-      <c r="I227" s="43"/>
-      <c r="J227" s="43"/>
-      <c r="K227" s="43"/>
+      <c r="G227" s="41"/>
+      <c r="H227" s="41"/>
+      <c r="I227" s="41"/>
+      <c r="J227" s="41"/>
+      <c r="K227" s="41"/>
     </row>
     <row r="228" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C228" s="43"/>
-      <c r="D228" s="43"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43" t="s">
+      <c r="C228" s="41"/>
+      <c r="D228" s="41"/>
+      <c r="E228" s="41"/>
+      <c r="F228" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="G228" s="43"/>
-      <c r="H228" s="43"/>
-      <c r="I228" s="43"/>
-      <c r="J228" s="43"/>
-      <c r="K228" s="43"/>
+      <c r="G228" s="41"/>
+      <c r="H228" s="41"/>
+      <c r="I228" s="41"/>
+      <c r="J228" s="41"/>
+      <c r="K228" s="41"/>
     </row>
     <row r="229" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C229" s="43"/>
-      <c r="D229" s="43"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="43" t="s">
+      <c r="C229" s="41"/>
+      <c r="D229" s="41"/>
+      <c r="E229" s="41"/>
+      <c r="F229" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="G229" s="43"/>
-      <c r="H229" s="43"/>
-      <c r="I229" s="43"/>
-      <c r="J229" s="43"/>
-      <c r="K229" s="43"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="41"/>
+      <c r="J229" s="41"/>
+      <c r="K229" s="41"/>
     </row>
     <row r="230" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C230" s="43"/>
-      <c r="D230" s="43" t="s">
+      <c r="C230" s="41"/>
+      <c r="D230" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="E230" s="43"/>
-      <c r="F230" s="43"/>
-      <c r="G230" s="43"/>
-      <c r="H230" s="43"/>
-      <c r="I230" s="43"/>
-      <c r="J230" s="43"/>
-      <c r="K230" s="43"/>
+      <c r="E230" s="41"/>
+      <c r="F230" s="41"/>
+      <c r="G230" s="41"/>
+      <c r="H230" s="41"/>
+      <c r="I230" s="41"/>
+      <c r="J230" s="41"/>
+      <c r="K230" s="41"/>
     </row>
     <row r="231" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C231" s="43"/>
-      <c r="E231" s="41" t="s">
+      <c r="C231" s="41"/>
+      <c r="E231" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="F231" s="41" t="s">
+      <c r="F231" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="I231" s="43"/>
-      <c r="J231" s="43"/>
-      <c r="K231" s="43"/>
+      <c r="I231" s="41"/>
+      <c r="J231" s="41"/>
+      <c r="K231" s="41"/>
     </row>
     <row r="232" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C232" s="43"/>
-      <c r="E232" s="41">
+      <c r="C232" s="41"/>
+      <c r="E232" s="39">
         <v>1</v>
       </c>
-      <c r="F232" s="41" t="s">
+      <c r="F232" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="I232" s="43"/>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
+      <c r="I232" s="41"/>
+      <c r="J232" s="41"/>
+      <c r="K232" s="41"/>
     </row>
     <row r="233" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C233" s="43"/>
-      <c r="E233" s="41">
+      <c r="C233" s="41"/>
+      <c r="E233" s="39">
         <v>2</v>
       </c>
-      <c r="F233" s="41" t="s">
+      <c r="F233" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="I233" s="43"/>
-      <c r="J233" s="43"/>
-      <c r="K233" s="43"/>
+      <c r="I233" s="41"/>
+      <c r="J233" s="41"/>
+      <c r="K233" s="41"/>
     </row>
     <row r="234" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C234" s="43"/>
-      <c r="D234" s="43"/>
-      <c r="E234" s="41">
+      <c r="C234" s="41"/>
+      <c r="D234" s="41"/>
+      <c r="E234" s="39">
         <v>3</v>
       </c>
-      <c r="F234" s="41" t="s">
+      <c r="F234" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="G234" s="43"/>
-      <c r="H234" s="43"/>
-      <c r="I234" s="43"/>
-      <c r="J234" s="43"/>
-      <c r="K234" s="43"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="41"/>
+      <c r="I234" s="41"/>
+      <c r="J234" s="41"/>
+      <c r="K234" s="41"/>
     </row>
     <row r="235" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C235" s="43"/>
-      <c r="D235" s="43"/>
-      <c r="E235" s="41">
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
+      <c r="E235" s="39">
         <v>4</v>
       </c>
-      <c r="F235" s="41" t="s">
+      <c r="F235" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="G235" s="43"/>
-      <c r="H235" s="43"/>
-      <c r="I235" s="43"/>
-      <c r="J235" s="43"/>
-      <c r="K235" s="43"/>
+      <c r="G235" s="41"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="41"/>
+      <c r="J235" s="41"/>
+      <c r="K235" s="41"/>
     </row>
     <row r="236" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E236" s="41">
+      <c r="E236" s="39">
         <v>5</v>
       </c>
-      <c r="F236" s="41" t="s">
+      <c r="F236" s="39" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="237" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E237" s="41">
+      <c r="E237" s="39">
         <v>6</v>
       </c>
-      <c r="F237" s="41" t="s">
+      <c r="F237" s="39" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="238" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E238" s="41">
+      <c r="E238" s="39">
         <v>7</v>
       </c>
-      <c r="F238" s="41" t="s">
+      <c r="F238" s="39" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="239" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E239" s="41">
+      <c r="E239" s="39">
         <v>8</v>
       </c>
-      <c r="F239" s="41" t="s">
+      <c r="F239" s="39" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="240" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E240" s="41">
+      <c r="E240" s="39">
         <v>9</v>
       </c>
-      <c r="F240" s="41" t="s">
+      <c r="F240" s="39" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="241" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E241" s="41">
+      <c r="E241" s="39">
         <v>10</v>
       </c>
-      <c r="F241" s="41" t="s">
+      <c r="F241" s="39" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="242" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E242" s="41">
+      <c r="E242" s="39">
         <v>11</v>
       </c>
-      <c r="F242" s="41" t="s">
+      <c r="F242" s="39" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="243" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E243" s="41">
+      <c r="E243" s="39">
         <v>12</v>
       </c>
-      <c r="F243" s="41" t="s">
+      <c r="F243" s="39" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="244" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E244" s="41">
+      <c r="E244" s="39">
         <v>13</v>
       </c>
-      <c r="F244" s="41" t="s">
+      <c r="F244" s="39" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E245" s="41">
+      <c r="E245" s="39">
         <v>14</v>
       </c>
-      <c r="F245" s="43" t="s">
+      <c r="F245" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="G245" s="43"/>
-      <c r="H245" s="43"/>
-      <c r="I245" s="43"/>
-      <c r="J245" s="43"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="41"/>
+      <c r="I245" s="41"/>
+      <c r="J245" s="41"/>
     </row>
     <row r="246" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F246" s="43"/>
-      <c r="G246" s="43"/>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
     </row>
     <row r="247" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F247" s="43"/>
-      <c r="G247" s="43"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
     </row>
     <row r="248" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E248" s="41" t="s">
+      <c r="E248" s="39" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="249" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E249" s="41">
+      <c r="E249" s="39">
         <v>1</v>
       </c>
-      <c r="F249" s="41" t="s">
+      <c r="F249" s="39" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="250" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E250" s="41">
+      <c r="E250" s="39">
         <v>2</v>
       </c>
-      <c r="F250" s="41" t="s">
+      <c r="F250" s="39" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="251" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E251" s="41">
+      <c r="E251" s="39">
         <v>3</v>
       </c>
-      <c r="F251" s="41" t="s">
+      <c r="F251" s="39" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="252" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E252" s="41">
+      <c r="E252" s="39">
         <v>4</v>
       </c>
-      <c r="F252" s="41" t="s">
+      <c r="F252" s="39" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="253" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E253" s="41">
+      <c r="E253" s="39">
         <v>5</v>
       </c>
-      <c r="F253" s="41" t="s">
+      <c r="F253" s="39" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="254" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E254" s="41">
+      <c r="E254" s="39">
         <v>6</v>
       </c>
-      <c r="F254" s="41" t="s">
+      <c r="F254" s="39" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="255" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E255" s="41">
+      <c r="E255" s="39">
         <v>7</v>
       </c>
-      <c r="F255" s="41" t="s">
+      <c r="F255" s="39" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="256" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E256" s="41">
+      <c r="E256" s="39">
         <v>8</v>
       </c>
-      <c r="F256" s="41" t="s">
+      <c r="F256" s="39" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="257" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E257" s="41">
+      <c r="E257" s="39">
         <v>9</v>
       </c>
-      <c r="F257" s="41" t="s">
+      <c r="F257" s="39" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="258" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E258" s="43">
+      <c r="E258" s="41">
         <v>10</v>
       </c>
-      <c r="F258" s="43" t="s">
+      <c r="F258" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="G258" s="43"/>
-      <c r="H258" s="43"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="41"/>
     </row>
     <row r="259" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E259" s="43">
+      <c r="E259" s="41">
         <v>11</v>
       </c>
-      <c r="F259" s="43" t="s">
+      <c r="F259" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="G259" s="43"/>
-      <c r="H259" s="43"/>
+      <c r="G259" s="41"/>
+      <c r="H259" s="41"/>
     </row>
     <row r="260" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E260" s="41">
+      <c r="E260" s="39">
         <v>12</v>
       </c>
-      <c r="F260" s="41" t="s">
+      <c r="F260" s="39" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="261" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E261" s="41">
+      <c r="E261" s="39">
         <v>13</v>
       </c>
-      <c r="F261" s="41" t="s">
+      <c r="F261" s="39" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="262" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E262" s="41">
+      <c r="E262" s="39">
         <v>14</v>
       </c>
-      <c r="F262" s="41" t="s">
+      <c r="F262" s="39" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="263" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E263" s="41">
+      <c r="E263" s="39">
         <v>15</v>
       </c>
-      <c r="F263" s="41" t="s">
+      <c r="F263" s="39" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="264" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E264" s="41">
+      <c r="E264" s="39">
         <v>16</v>
       </c>
-      <c r="F264" s="41" t="s">
+      <c r="F264" s="39" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="265" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E265" s="41">
+      <c r="E265" s="39">
         <v>17</v>
       </c>
-      <c r="F265" s="41" t="s">
+      <c r="F265" s="39" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="266" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E266" s="41">
+      <c r="E266" s="39">
         <v>18</v>
       </c>
-      <c r="F266" s="41" t="s">
+      <c r="F266" s="39" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="270" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E270" s="41" t="s">
+      <c r="E270" s="39" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="271" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E271" s="43">
+      <c r="E271" s="41">
         <v>1</v>
       </c>
-      <c r="F271" s="43" t="s">
+      <c r="F271" s="41" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="272" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E272" s="43">
+      <c r="E272" s="41">
         <v>2</v>
       </c>
-      <c r="F272" s="43" t="s">
+      <c r="F272" s="41" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="273" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E273" s="43">
+      <c r="E273" s="41">
         <v>3</v>
       </c>
-      <c r="F273" s="43" t="s">
+      <c r="F273" s="41" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="274" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E274" s="43">
+      <c r="E274" s="41">
         <v>4</v>
       </c>
-      <c r="F274" s="43" t="s">
+      <c r="F274" s="41" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="275" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E275" s="43">
+      <c r="E275" s="41">
         <v>5</v>
       </c>
-      <c r="F275" s="43" t="s">
+      <c r="F275" s="41" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="276" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E276" s="43">
+      <c r="E276" s="41">
         <v>6</v>
       </c>
-      <c r="F276" s="43" t="s">
+      <c r="F276" s="41" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="277" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E277" s="43">
+      <c r="E277" s="41">
         <v>7</v>
       </c>
-      <c r="F277" s="43" t="s">
+      <c r="F277" s="41" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="278" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E278" s="43">
+      <c r="E278" s="41">
         <v>8</v>
       </c>
-      <c r="F278" s="43" t="s">
+      <c r="F278" s="41" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="279" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E279" s="43">
+      <c r="E279" s="41">
         <v>9</v>
       </c>
-      <c r="F279" s="43" t="s">
+      <c r="F279" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="G279" s="43"/>
-      <c r="H279" s="43"/>
-      <c r="I279" s="43"/>
-      <c r="J279" s="43"/>
-      <c r="K279" s="43"/>
-      <c r="L279" s="43"/>
-      <c r="M279" s="43"/>
+      <c r="G279" s="41"/>
+      <c r="H279" s="41"/>
+      <c r="I279" s="41"/>
+      <c r="J279" s="41"/>
+      <c r="K279" s="41"/>
+      <c r="L279" s="41"/>
+      <c r="M279" s="41"/>
     </row>
     <row r="280" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E280" s="43">
+      <c r="E280" s="41">
         <v>10</v>
       </c>
-      <c r="F280" s="43" t="s">
+      <c r="F280" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="G280" s="43"/>
-      <c r="H280" s="43"/>
-      <c r="I280" s="43"/>
-      <c r="J280" s="43"/>
-      <c r="K280" s="43"/>
-      <c r="L280" s="43"/>
-      <c r="M280" s="43"/>
+      <c r="G280" s="41"/>
+      <c r="H280" s="41"/>
+      <c r="I280" s="41"/>
+      <c r="J280" s="41"/>
+      <c r="K280" s="41"/>
+      <c r="L280" s="41"/>
+      <c r="M280" s="41"/>
     </row>
     <row r="281" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E281" s="43">
+      <c r="E281" s="41">
         <v>11</v>
       </c>
-      <c r="F281" s="43" t="s">
+      <c r="F281" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="G281" s="43"/>
-      <c r="H281" s="43"/>
-      <c r="I281" s="43"/>
+      <c r="G281" s="41"/>
+      <c r="H281" s="41"/>
+      <c r="I281" s="41"/>
     </row>
     <row r="282" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E282" s="43">
+      <c r="E282" s="41">
         <v>12</v>
       </c>
-      <c r="F282" s="43" t="s">
+      <c r="F282" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="G282" s="43"/>
-      <c r="H282" s="43"/>
-      <c r="I282" s="43"/>
+      <c r="G282" s="41"/>
+      <c r="H282" s="41"/>
+      <c r="I282" s="41"/>
     </row>
     <row r="283" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E283" s="43">
+      <c r="E283" s="41">
         <v>13</v>
       </c>
-      <c r="F283" s="43" t="s">
+      <c r="F283" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="G283" s="43"/>
-      <c r="H283" s="43"/>
-      <c r="I283" s="43"/>
+      <c r="G283" s="41"/>
+      <c r="H283" s="41"/>
+      <c r="I283" s="41"/>
     </row>
     <row r="284" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E284" s="43">
+      <c r="E284" s="41">
         <v>14</v>
       </c>
-      <c r="F284" s="43" t="s">
+      <c r="F284" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G284" s="43"/>
-      <c r="H284" s="43"/>
-      <c r="I284" s="43"/>
+      <c r="G284" s="41"/>
+      <c r="H284" s="41"/>
+      <c r="I284" s="41"/>
     </row>
     <row r="285" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E285" s="43">
+      <c r="E285" s="41">
         <v>15</v>
       </c>
-      <c r="F285" s="43" t="s">
+      <c r="F285" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="G285" s="43"/>
-      <c r="H285" s="43"/>
-      <c r="I285" s="43"/>
+      <c r="G285" s="41"/>
+      <c r="H285" s="41"/>
+      <c r="I285" s="41"/>
     </row>
     <row r="286" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E286" s="43"/>
-      <c r="F286" s="43"/>
-      <c r="G286" s="43"/>
-      <c r="H286" s="43"/>
-      <c r="I286" s="43"/>
+      <c r="E286" s="41"/>
+      <c r="F286" s="41"/>
+      <c r="G286" s="41"/>
+      <c r="H286" s="41"/>
+      <c r="I286" s="41"/>
     </row>
     <row r="288" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E288" s="41" t="s">
+      <c r="E288" s="39" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="289" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F289" s="41" t="s">
+      <c r="F289" s="39" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="290" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F290" s="41" t="s">
+      <c r="F290" s="39" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="292" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="293" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="294" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="295" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F295" s="50"/>
-      <c r="G295" s="50"/>
-      <c r="H295" s="50"/>
-      <c r="I295" s="50"/>
-    </row>
-    <row r="296" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="297" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="298" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="299" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="300" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="301" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="302" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="303" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="305" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="306" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="307" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="308" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="309" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="310" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="311" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F320" s="51"/>
-      <c r="G320" s="51"/>
-      <c r="H320" s="51"/>
-      <c r="I320" s="51"/>
-    </row>
-    <row r="321" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="322" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="323" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="324" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="325" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="326" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="327" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="328" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="329" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="330" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="331" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="332" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="333" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="334" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="335" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="336" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="337" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="338" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="339" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="340" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="341" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="342" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="343" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="344" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="345" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="346" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="347" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="348" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="349" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="350" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="351" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="352" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="353" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="354" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="355" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F355" s="50"/>
-      <c r="G355" s="50"/>
-      <c r="H355" s="50"/>
-      <c r="I355" s="50"/>
-    </row>
-    <row r="356" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="357" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="358" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="359" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="360" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="361" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="362" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="363" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="364" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="365" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="366" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="367" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="368" spans="6:9" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="369" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="370" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="371" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="372" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="373" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="374" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="375" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="376" spans="13:18" s="43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F295" s="86"/>
+      <c r="G295" s="86"/>
+      <c r="H295" s="86"/>
+      <c r="I295" s="86"/>
+    </row>
+    <row r="296" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F320" s="48"/>
+      <c r="G320" s="48"/>
+      <c r="H320" s="48"/>
+      <c r="I320" s="48"/>
+    </row>
+    <row r="321" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F355" s="86"/>
+      <c r="G355" s="86"/>
+      <c r="H355" s="86"/>
+      <c r="I355" s="86"/>
+    </row>
+    <row r="356" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="377" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M377" s="43"/>
-      <c r="N377" s="43"/>
-      <c r="O377" s="43"/>
-      <c r="P377" s="43"/>
-      <c r="Q377" s="43"/>
-      <c r="R377" s="43"/>
+      <c r="M377" s="41"/>
+      <c r="N377" s="41"/>
+      <c r="O377" s="41"/>
+      <c r="P377" s="41"/>
+      <c r="Q377" s="41"/>
+      <c r="R377" s="41"/>
     </row>
     <row r="378" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M378" s="43"/>
-      <c r="N378" s="43"/>
-      <c r="O378" s="43"/>
-      <c r="P378" s="43"/>
-      <c r="Q378" s="43"/>
-      <c r="R378" s="43"/>
+      <c r="M378" s="41"/>
+      <c r="N378" s="41"/>
+      <c r="O378" s="41"/>
+      <c r="P378" s="41"/>
+      <c r="Q378" s="41"/>
+      <c r="R378" s="41"/>
     </row>
     <row r="379" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M379" s="43"/>
-      <c r="N379" s="43"/>
-      <c r="O379" s="43"/>
-      <c r="P379" s="43"/>
-      <c r="Q379" s="43"/>
-      <c r="R379" s="43"/>
+      <c r="M379" s="41"/>
+      <c r="N379" s="41"/>
+      <c r="O379" s="41"/>
+      <c r="P379" s="41"/>
+      <c r="Q379" s="41"/>
+      <c r="R379" s="41"/>
     </row>
     <row r="380" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M380" s="43"/>
-      <c r="N380" s="43"/>
-      <c r="O380" s="43"/>
-      <c r="P380" s="43"/>
-      <c r="Q380" s="43"/>
-      <c r="R380" s="43"/>
+      <c r="M380" s="41"/>
+      <c r="N380" s="41"/>
+      <c r="O380" s="41"/>
+      <c r="P380" s="41"/>
+      <c r="Q380" s="41"/>
+      <c r="R380" s="41"/>
     </row>
     <row r="381" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M381" s="43"/>
-      <c r="N381" s="43"/>
-      <c r="O381" s="43"/>
-      <c r="P381" s="43"/>
-      <c r="Q381" s="43"/>
-      <c r="R381" s="43"/>
+      <c r="M381" s="41"/>
+      <c r="N381" s="41"/>
+      <c r="O381" s="41"/>
+      <c r="P381" s="41"/>
+      <c r="Q381" s="41"/>
+      <c r="R381" s="41"/>
     </row>
     <row r="382" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M382" s="43"/>
-      <c r="N382" s="43"/>
-      <c r="O382" s="43"/>
-      <c r="P382" s="43"/>
-      <c r="Q382" s="43"/>
-      <c r="R382" s="43"/>
+      <c r="M382" s="41"/>
+      <c r="N382" s="41"/>
+      <c r="O382" s="41"/>
+      <c r="P382" s="41"/>
+      <c r="Q382" s="41"/>
+      <c r="R382" s="41"/>
     </row>
     <row r="383" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M383" s="43"/>
-      <c r="N383" s="43"/>
-      <c r="O383" s="43"/>
-      <c r="P383" s="43"/>
-      <c r="Q383" s="43"/>
-      <c r="R383" s="43"/>
+      <c r="M383" s="41"/>
+      <c r="N383" s="41"/>
+      <c r="O383" s="41"/>
+      <c r="P383" s="41"/>
+      <c r="Q383" s="41"/>
+      <c r="R383" s="41"/>
     </row>
     <row r="384" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M384" s="43"/>
-      <c r="N384" s="43"/>
-      <c r="O384" s="43"/>
-      <c r="P384" s="43"/>
-      <c r="Q384" s="43"/>
-      <c r="R384" s="43"/>
+      <c r="M384" s="41"/>
+      <c r="N384" s="41"/>
+      <c r="O384" s="41"/>
+      <c r="P384" s="41"/>
+      <c r="Q384" s="41"/>
+      <c r="R384" s="41"/>
     </row>
     <row r="385" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M385" s="43"/>
-      <c r="N385" s="43"/>
-      <c r="O385" s="43"/>
-      <c r="P385" s="43"/>
-      <c r="Q385" s="43"/>
-      <c r="R385" s="43"/>
+      <c r="M385" s="41"/>
+      <c r="N385" s="41"/>
+      <c r="O385" s="41"/>
+      <c r="P385" s="41"/>
+      <c r="Q385" s="41"/>
+      <c r="R385" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13036,7 +14331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -13358,11 +14653,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -13643,7 +14938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N144"/>
   <sheetViews>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -28,7 +33,7 @@
     <author>mtong</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="636">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2441,6 +2446,44 @@
   </si>
   <si>
     <t>S的体力（关联职业模型1文档）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单回合损失血量（0的表示不损失）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss对局剩余血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪局消耗玩家生命百分比</t>
+  </si>
+  <si>
+    <t>T吸收</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2713,7 +2756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2975,6 +3018,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3124,13 +3170,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47743360"/>
-        <c:axId val="47744896"/>
+        <c:axId val="311545312"/>
+        <c:axId val="311545872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47743360"/>
+        <c:axId val="311545312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47744896"/>
+        <c:crossAx val="311545872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3180,7 +3225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47744896"/>
+        <c:axId val="311545872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47743360"/>
+        <c:crossAx val="311545312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,13 +3597,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47764992"/>
-        <c:axId val="47766528"/>
+        <c:axId val="311548112"/>
+        <c:axId val="311548672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47764992"/>
+        <c:axId val="311548112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47766528"/>
+        <c:crossAx val="311548672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47766528"/>
+        <c:axId val="311548672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47764992"/>
+        <c:crossAx val="311548112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,13 +3885,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48077440"/>
-        <c:axId val="48087424"/>
+        <c:axId val="234004096"/>
+        <c:axId val="234004656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48077440"/>
+        <c:axId val="234004096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +3932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48087424"/>
+        <c:crossAx val="234004656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +3940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48087424"/>
+        <c:axId val="234004656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3991,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48077440"/>
+        <c:crossAx val="234004096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5969,6 +6012,7 @@
       <sheetName val="装备拆分生成表"/>
       <sheetName val="装备拆分分析表"/>
       <sheetName val="镶嵌宝石"/>
+      <sheetName val="装备属性生成表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6231,13 +6275,14 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6279,7 +6324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6314,7 +6359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6525,7 +6570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
@@ -9703,10 +9748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10583,7 +10628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
         <v>44</v>
       </c>
@@ -10596,7 +10641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <v>45</v>
       </c>
@@ -10609,7 +10654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="1">
         <v>46</v>
       </c>
@@ -10622,7 +10667,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
         <v>47</v>
       </c>
@@ -10635,7 +10680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <v>48</v>
       </c>
@@ -10648,7 +10693,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <v>49</v>
       </c>
@@ -10661,7 +10706,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
         <v>50</v>
       </c>
@@ -10674,56 +10719,4460 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="122" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="123" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="124" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="125" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="126" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="127" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="128" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="129" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="130" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="131" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="132" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="133" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="134" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="135" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="136" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D89" s="17"/>
+      <c r="G89" s="87" t="s">
+        <v>629</v>
+      </c>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87" t="s">
+        <v>630</v>
+      </c>
+      <c r="K89" s="87"/>
+      <c r="L89" s="87"/>
+    </row>
+    <row r="90" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B91" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C91" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B91</f>
+        <v>0.18200000000000002</v>
+      </c>
+      <c r="D91" s="26">
+        <f>C91*职业定位属性配比!$C$40</f>
+        <v>0.15805263157894739</v>
+      </c>
+      <c r="E91" s="26">
+        <f>C91-D91</f>
+        <v>2.3947368421052634E-2</v>
+      </c>
+      <c r="F91" s="26">
+        <v>0</v>
+      </c>
+      <c r="G91" s="26">
+        <f>IF((D91/职业定位属性配比!$E$10-$E$5)&gt;0,D91/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="26">
+        <f>IF((E91/职业定位属性配比!$F$10-$E$5)&gt;0,(E91/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="26">
+        <f>F91</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="26">
+        <f>职业定位属性配比!$E$9-G91*$D$15</f>
+        <v>5</v>
+      </c>
+      <c r="K91" s="26">
+        <f>职业定位属性配比!$F$9-H91*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L91" s="26">
+        <f>职业定位属性配比!$G$9-I91*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B92" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C92" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B92</f>
+        <v>0.36400000000000005</v>
+      </c>
+      <c r="D92" s="26">
+        <f>C92*职业定位属性配比!$C$40</f>
+        <v>0.31610526315789478</v>
+      </c>
+      <c r="E92" s="26">
+        <f t="shared" ref="E92:E155" si="1">C92-D92</f>
+        <v>4.7894736842105268E-2</v>
+      </c>
+      <c r="F92" s="26">
+        <v>0</v>
+      </c>
+      <c r="G92" s="26">
+        <f>IF((D92/职业定位属性配比!$E$10-$E$5)&gt;0,D92/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="26">
+        <f>IF((E92/职业定位属性配比!$F$10-$E$5)&gt;0,(E92/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="26">
+        <f t="shared" ref="I92:I155" si="2">F92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="26">
+        <f>职业定位属性配比!$E$9-G92*$D$15</f>
+        <v>5</v>
+      </c>
+      <c r="K92" s="26">
+        <f>职业定位属性配比!$F$9-H92*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L92" s="26">
+        <f>职业定位属性配比!$G$9-I92*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B93" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="C93" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B93</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D93" s="26">
+        <f>C93*职业定位属性配比!$C$40</f>
+        <v>0.47415789473684217</v>
+      </c>
+      <c r="E93" s="26">
+        <f t="shared" si="1"/>
+        <v>7.1842105263157874E-2</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0</v>
+      </c>
+      <c r="G93" s="26">
+        <f>IF((D93/职业定位属性配比!$E$10-$E$5)&gt;0,D93/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="26">
+        <f>IF((E93/职业定位属性配比!$F$10-$E$5)&gt;0,(E93/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="26">
+        <f>职业定位属性配比!$E$9-G93*$D$15</f>
+        <v>5</v>
+      </c>
+      <c r="K93" s="26">
+        <f>职业定位属性配比!$F$9-H93*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L93" s="26">
+        <f>职业定位属性配比!$G$9-I93*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B94" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="C94" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B94</f>
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="D94" s="26">
+        <f>C94*职业定位属性配比!$C$40</f>
+        <v>0.63221052631578956</v>
+      </c>
+      <c r="E94" s="26">
+        <f t="shared" si="1"/>
+        <v>9.5789473684210535E-2</v>
+      </c>
+      <c r="F94" s="26">
+        <v>0</v>
+      </c>
+      <c r="G94" s="26">
+        <f>IF((D94/职业定位属性配比!$E$10-$E$5)&gt;0,D94/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="26">
+        <f>IF((E94/职业定位属性配比!$F$10-$E$5)&gt;0,(E94/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="26">
+        <f>职业定位属性配比!$E$9-G94*$D$15</f>
+        <v>5</v>
+      </c>
+      <c r="K94" s="26">
+        <f>职业定位属性配比!$F$9-H94*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L94" s="26">
+        <f>职业定位属性配比!$G$9-I94*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B95" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="C95" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B95</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="D95" s="26">
+        <f>C95*职业定位属性配比!$C$40</f>
+        <v>0.790263157894737</v>
+      </c>
+      <c r="E95" s="26">
+        <f t="shared" si="1"/>
+        <v>0.11973684210526314</v>
+      </c>
+      <c r="F95" s="26">
+        <v>0</v>
+      </c>
+      <c r="G95" s="26">
+        <f>IF((D95/职业定位属性配比!$E$10-$E$5)&gt;0,D95/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
+        <f>IF((E95/职业定位属性配比!$F$10-$E$5)&gt;0,(E95/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="26">
+        <f>职业定位属性配比!$E$9-G95*$D$15</f>
+        <v>5</v>
+      </c>
+      <c r="K95" s="26">
+        <f>职业定位属性配比!$F$9-H95*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L95" s="26">
+        <f>职业定位属性配比!$G$9-I95*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="C96" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B96</f>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="D96" s="26">
+        <f>C96*职业定位属性配比!$C$40</f>
+        <v>0.94831578947368433</v>
+      </c>
+      <c r="E96" s="26">
+        <f t="shared" si="1"/>
+        <v>0.14368421052631575</v>
+      </c>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" s="26">
+        <f>IF((D96/职业定位属性配比!$E$10-$E$5)&gt;0,D96/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.9210526315789491E-2</v>
+      </c>
+      <c r="H96" s="26">
+        <f>IF((E96/职业定位属性配比!$F$10-$E$5)&gt;0,(E96/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="26">
+        <f>职业定位属性配比!$E$9-G96*$D$15</f>
+        <v>4.8815789473684212</v>
+      </c>
+      <c r="K96" s="26">
+        <f>职业定位属性配比!$F$9-H96*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L96" s="26">
+        <f>职业定位属性配比!$G$9-I96*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C97" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B97</f>
+        <v>1.2740000000000002</v>
+      </c>
+      <c r="D97" s="26">
+        <f>C97*职业定位属性配比!$C$40</f>
+        <v>1.1063684210526319</v>
+      </c>
+      <c r="E97" s="26">
+        <f t="shared" si="1"/>
+        <v>0.16763157894736835</v>
+      </c>
+      <c r="F97" s="26">
+        <v>0</v>
+      </c>
+      <c r="G97" s="26">
+        <f>IF((D97/职业定位属性配比!$E$10-$E$5)&gt;0,D97/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.11907894736842117</v>
+      </c>
+      <c r="H97" s="26">
+        <f>IF((E97/职业定位属性配比!$F$10-$E$5)&gt;0,(E97/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="26">
+        <f>职业定位属性配比!$E$9-G97*$D$15</f>
+        <v>4.7618421052631579</v>
+      </c>
+      <c r="K97" s="26">
+        <f>职业定位属性配比!$F$9-H97*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L97" s="26">
+        <f>职业定位属性配比!$G$9-I97*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="C98" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B98</f>
+        <v>1.4560000000000002</v>
+      </c>
+      <c r="D98" s="26">
+        <f>C98*职业定位属性配比!$C$40</f>
+        <v>1.2644210526315791</v>
+      </c>
+      <c r="E98" s="26">
+        <f t="shared" si="1"/>
+        <v>0.19157894736842107</v>
+      </c>
+      <c r="F98" s="26">
+        <v>0</v>
+      </c>
+      <c r="G98" s="26">
+        <f>IF((D98/职业定位属性配比!$E$10-$E$5)&gt;0,D98/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.17894736842105269</v>
+      </c>
+      <c r="H98" s="26">
+        <f>IF((E98/职业定位属性配比!$F$10-$E$5)&gt;0,(E98/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="26">
+        <f>职业定位属性配比!$E$9-G98*$D$15</f>
+        <v>4.6421052631578945</v>
+      </c>
+      <c r="K98" s="26">
+        <f>职业定位属性配比!$F$9-H98*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L98" s="26">
+        <f>职业定位属性配比!$G$9-I98*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B99" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="C99" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B99</f>
+        <v>1.6380000000000001</v>
+      </c>
+      <c r="D99" s="26">
+        <f>C99*职业定位属性配比!$C$40</f>
+        <v>1.4224736842105266</v>
+      </c>
+      <c r="E99" s="26">
+        <f t="shared" si="1"/>
+        <v>0.21552631578947357</v>
+      </c>
+      <c r="F99" s="26">
+        <v>0</v>
+      </c>
+      <c r="G99" s="26">
+        <f>IF((D99/职业定位属性配比!$E$10-$E$5)&gt;0,D99/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.23881578947368426</v>
+      </c>
+      <c r="H99" s="26">
+        <f>IF((E99/职业定位属性配比!$F$10-$E$5)&gt;0,(E99/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="26">
+        <f>职业定位属性配比!$E$9-G99*$D$15</f>
+        <v>4.5223684210526311</v>
+      </c>
+      <c r="K99" s="26">
+        <f>职业定位属性配比!$F$9-H99*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L99" s="26">
+        <f>职业定位属性配比!$G$9-I99*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B100" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C100" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B100</f>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="D100" s="26">
+        <f>C100*职业定位属性配比!$C$40</f>
+        <v>1.580526315789474</v>
+      </c>
+      <c r="E100" s="26">
+        <f t="shared" si="1"/>
+        <v>0.23947368421052628</v>
+      </c>
+      <c r="F100" s="26">
+        <v>0</v>
+      </c>
+      <c r="G100" s="26">
+        <f>IF((D100/职业定位属性配比!$E$10-$E$5)&gt;0,D100/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.29868421052631594</v>
+      </c>
+      <c r="H100" s="26">
+        <f>IF((E100/职业定位属性配比!$F$10-$E$5)&gt;0,(E100/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="26">
+        <f>职业定位属性配比!$E$9-G100*$D$15</f>
+        <v>4.4026315789473678</v>
+      </c>
+      <c r="K100" s="26">
+        <f>职业定位属性配比!$F$9-H100*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L100" s="26">
+        <f>职业定位属性配比!$G$9-I100*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B101" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="C101" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B101</f>
+        <v>2.0020000000000002</v>
+      </c>
+      <c r="D101" s="26">
+        <f>C101*职业定位属性配比!$C$40</f>
+        <v>1.7385789473684212</v>
+      </c>
+      <c r="E101" s="26">
+        <f t="shared" si="1"/>
+        <v>0.263421052631579</v>
+      </c>
+      <c r="F101" s="26">
+        <v>0</v>
+      </c>
+      <c r="G101" s="26">
+        <f>IF((D101/职业定位属性配比!$E$10-$E$5)&gt;0,D101/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.3585526315789474</v>
+      </c>
+      <c r="H101" s="26">
+        <f>IF((E101/职业定位属性配比!$F$10-$E$5)&gt;0,(E101/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="26">
+        <f>职业定位属性配比!$E$9-G101*$D$15</f>
+        <v>4.2828947368421053</v>
+      </c>
+      <c r="K101" s="26">
+        <f>职业定位属性配比!$F$9-H101*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L101" s="26">
+        <f>职业定位属性配比!$G$9-I101*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="C102" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B102</f>
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="D102" s="26">
+        <f>C102*职业定位属性配比!$C$40</f>
+        <v>1.8966315789473687</v>
+      </c>
+      <c r="E102" s="26">
+        <f t="shared" si="1"/>
+        <v>0.2873684210526315</v>
+      </c>
+      <c r="F102" s="26">
+        <v>0</v>
+      </c>
+      <c r="G102" s="26">
+        <f>IF((D102/职业定位属性配比!$E$10-$E$5)&gt;0,D102/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.41842105263157897</v>
+      </c>
+      <c r="H102" s="26">
+        <f>IF((E102/职业定位属性配比!$F$10-$E$5)&gt;0,(E102/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="26">
+        <f>职业定位属性配比!$E$9-G102*$D$15</f>
+        <v>4.1631578947368419</v>
+      </c>
+      <c r="K102" s="26">
+        <f>职业定位属性配比!$F$9-H102*$D$15</f>
+        <v>2</v>
+      </c>
+      <c r="L102" s="26">
+        <f>职业定位属性配比!$G$9-I102*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="C103" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B103</f>
+        <v>2.3660000000000005</v>
+      </c>
+      <c r="D103" s="26">
+        <f>C103*职业定位属性配比!$C$40</f>
+        <v>2.0546842105263163</v>
+      </c>
+      <c r="E103" s="26">
+        <f t="shared" si="1"/>
+        <v>0.31131578947368421</v>
+      </c>
+      <c r="F103" s="26">
+        <v>0</v>
+      </c>
+      <c r="G103" s="26">
+        <f>IF((D103/职业定位属性配比!$E$10-$E$5)&gt;0,D103/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.47828947368421065</v>
+      </c>
+      <c r="H103" s="26">
+        <f>IF((E103/职业定位属性配比!$F$10-$E$5)&gt;0,(E103/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.1315789473684223E-2</v>
+      </c>
+      <c r="I103" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="26">
+        <f>职业定位属性配比!$E$9-G103*$D$15</f>
+        <v>4.0434210526315786</v>
+      </c>
+      <c r="K103" s="26">
+        <f>职业定位属性配比!$F$9-H103*$D$15</f>
+        <v>1.9773684210526317</v>
+      </c>
+      <c r="L103" s="26">
+        <f>职业定位属性配比!$G$9-I103*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C104" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B104</f>
+        <v>2.5480000000000005</v>
+      </c>
+      <c r="D104" s="26">
+        <f>C104*职业定位属性配比!$C$40</f>
+        <v>2.2127368421052638</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" si="1"/>
+        <v>0.33526315789473671</v>
+      </c>
+      <c r="F104" s="26">
+        <v>0</v>
+      </c>
+      <c r="G104" s="26">
+        <f>IF((D104/职业定位属性配比!$E$10-$E$5)&gt;0,D104/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.53815789473684239</v>
+      </c>
+      <c r="H104" s="26">
+        <f>IF((E104/职业定位属性配比!$F$10-$E$5)&gt;0,(E104/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>3.5263157894736719E-2</v>
+      </c>
+      <c r="I104" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="26">
+        <f>职业定位属性配比!$E$9-G104*$D$15</f>
+        <v>3.9236842105263152</v>
+      </c>
+      <c r="K104" s="26">
+        <f>职业定位属性配比!$F$9-H104*$D$15</f>
+        <v>1.9294736842105267</v>
+      </c>
+      <c r="L104" s="26">
+        <f>职业定位属性配比!$G$9-I104*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="C105" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B105</f>
+        <v>2.7300000000000004</v>
+      </c>
+      <c r="D105" s="26">
+        <f>C105*职业定位属性配比!$C$40</f>
+        <v>2.3707894736842108</v>
+      </c>
+      <c r="E105" s="26">
+        <f t="shared" si="1"/>
+        <v>0.35921052631578965</v>
+      </c>
+      <c r="F105" s="26">
+        <v>0</v>
+      </c>
+      <c r="G105" s="26">
+        <f>IF((D105/职业定位属性配比!$E$10-$E$5)&gt;0,D105/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.59802631578947385</v>
+      </c>
+      <c r="H105" s="26">
+        <f>IF((E105/职业定位属性配比!$F$10-$E$5)&gt;0,(E105/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>5.9210526315789658E-2</v>
+      </c>
+      <c r="I105" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="26">
+        <f>职业定位属性配比!$E$9-G105*$D$15</f>
+        <v>3.8039473684210523</v>
+      </c>
+      <c r="K105" s="26">
+        <f>职业定位属性配比!$F$9-H105*$D$15</f>
+        <v>1.8815789473684208</v>
+      </c>
+      <c r="L105" s="26">
+        <f>职业定位属性配比!$G$9-I105*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="C106" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B106</f>
+        <v>2.9120000000000004</v>
+      </c>
+      <c r="D106" s="26">
+        <f>C106*职业定位属性配比!$C$40</f>
+        <v>2.5288421052631582</v>
+      </c>
+      <c r="E106" s="26">
+        <f t="shared" si="1"/>
+        <v>0.38315789473684214</v>
+      </c>
+      <c r="F106" s="26">
+        <v>0</v>
+      </c>
+      <c r="G106" s="26">
+        <f>IF((D106/职业定位属性配比!$E$10-$E$5)&gt;0,D106/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="H106" s="26">
+        <f>IF((E106/职业定位属性配比!$F$10-$E$5)&gt;0,(E106/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>8.3157894736842153E-2</v>
+      </c>
+      <c r="I106" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="26">
+        <f>职业定位属性配比!$E$9-G106*$D$15</f>
+        <v>3.6842105263157894</v>
+      </c>
+      <c r="K106" s="26">
+        <f>职业定位属性配比!$F$9-H106*$D$15</f>
+        <v>1.8336842105263158</v>
+      </c>
+      <c r="L106" s="26">
+        <f>职业定位属性配比!$G$9-I106*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B107" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="C107" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B107</f>
+        <v>3.0940000000000007</v>
+      </c>
+      <c r="D107" s="26">
+        <f>C107*职业定位属性配比!$C$40</f>
+        <v>2.6868947368421061</v>
+      </c>
+      <c r="E107" s="26">
+        <f t="shared" si="1"/>
+        <v>0.40710526315789464</v>
+      </c>
+      <c r="F107" s="26">
+        <v>0</v>
+      </c>
+      <c r="G107" s="26">
+        <f>IF((D107/职业定位属性配比!$E$10-$E$5)&gt;0,D107/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.71776315789473699</v>
+      </c>
+      <c r="H107" s="26">
+        <f>IF((E107/职业定位属性配比!$F$10-$E$5)&gt;0,(E107/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.10710526315789465</v>
+      </c>
+      <c r="I107" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="26">
+        <f>职业定位属性配比!$E$9-G107*$D$15</f>
+        <v>3.564473684210526</v>
+      </c>
+      <c r="K107" s="26">
+        <f>职业定位属性配比!$F$9-H107*$D$15</f>
+        <v>1.7857894736842108</v>
+      </c>
+      <c r="L107" s="26">
+        <f>职业定位属性配比!$G$9-I107*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="C108" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B108</f>
+        <v>3.2760000000000002</v>
+      </c>
+      <c r="D108" s="26">
+        <f>C108*职业定位属性配比!$C$40</f>
+        <v>2.8449473684210531</v>
+      </c>
+      <c r="E108" s="26">
+        <f t="shared" si="1"/>
+        <v>0.43105263157894713</v>
+      </c>
+      <c r="F108" s="26">
+        <v>0</v>
+      </c>
+      <c r="G108" s="26">
+        <f>IF((D108/职业定位属性配比!$E$10-$E$5)&gt;0,D108/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.77763157894736845</v>
+      </c>
+      <c r="H108" s="26">
+        <f>IF((E108/职业定位属性配比!$F$10-$E$5)&gt;0,(E108/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.13105263157894714</v>
+      </c>
+      <c r="I108" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="26">
+        <f>职业定位属性配比!$E$9-G108*$D$15</f>
+        <v>3.4447368421052631</v>
+      </c>
+      <c r="K108" s="26">
+        <f>职业定位属性配比!$F$9-H108*$D$15</f>
+        <v>1.7378947368421058</v>
+      </c>
+      <c r="L108" s="26">
+        <f>职业定位属性配比!$G$9-I108*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="C109" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B109</f>
+        <v>3.4580000000000006</v>
+      </c>
+      <c r="D109" s="26">
+        <f>C109*职业定位属性配比!$C$40</f>
+        <v>3.0030000000000006</v>
+      </c>
+      <c r="E109" s="26">
+        <f t="shared" si="1"/>
+        <v>0.45500000000000007</v>
+      </c>
+      <c r="F109" s="26">
+        <v>0</v>
+      </c>
+      <c r="G109" s="26">
+        <f>IF((D109/职业定位属性配比!$E$10-$E$5)&gt;0,D109/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.83750000000000013</v>
+      </c>
+      <c r="H109" s="26">
+        <f>IF((E109/职业定位属性配比!$F$10-$E$5)&gt;0,(E109/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.15500000000000008</v>
+      </c>
+      <c r="I109" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="26">
+        <f>职业定位属性配比!$E$9-G109*$D$15</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="K109" s="26">
+        <f>职业定位属性配比!$F$9-H109*$D$15</f>
+        <v>1.69</v>
+      </c>
+      <c r="L109" s="26">
+        <f>职业定位属性配比!$G$9-I109*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="C110" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B110</f>
+        <v>3.6400000000000006</v>
+      </c>
+      <c r="D110" s="26">
+        <f>C110*职业定位属性配比!$C$40</f>
+        <v>3.161052631578948</v>
+      </c>
+      <c r="E110" s="26">
+        <f t="shared" si="1"/>
+        <v>0.47894736842105257</v>
+      </c>
+      <c r="F110" s="26">
+        <v>0</v>
+      </c>
+      <c r="G110" s="26">
+        <f>IF((D110/职业定位属性配比!$E$10-$E$5)&gt;0,D110/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.89736842105263182</v>
+      </c>
+      <c r="H110" s="26">
+        <f>IF((E110/职业定位属性配比!$F$10-$E$5)&gt;0,(E110/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.17894736842105258</v>
+      </c>
+      <c r="I110" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="26">
+        <f>职业定位属性配比!$E$9-G110*$D$15</f>
+        <v>3.2052631578947364</v>
+      </c>
+      <c r="K110" s="26">
+        <f>职业定位属性配比!$F$9-H110*$D$15</f>
+        <v>1.642105263157895</v>
+      </c>
+      <c r="L110" s="26">
+        <f>职业定位属性配比!$G$9-I110*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="C111" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B111</f>
+        <v>3.8220000000000005</v>
+      </c>
+      <c r="D111" s="26">
+        <f>C111*职业定位属性配比!$C$40</f>
+        <v>3.3191052631578954</v>
+      </c>
+      <c r="E111" s="26">
+        <f t="shared" si="1"/>
+        <v>0.50289473684210506</v>
+      </c>
+      <c r="F111" s="26">
+        <v>0</v>
+      </c>
+      <c r="G111" s="26">
+        <f>IF((D111/职业定位属性配比!$E$10-$E$5)&gt;0,D111/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>0.95723684210526327</v>
+      </c>
+      <c r="H111" s="26">
+        <f>IF((E111/职业定位属性配比!$F$10-$E$5)&gt;0,(E111/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.20289473684210507</v>
+      </c>
+      <c r="I111" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="26">
+        <f>职业定位属性配比!$E$9-G111*$D$15</f>
+        <v>3.0855263157894735</v>
+      </c>
+      <c r="K111" s="26">
+        <f>职业定位属性配比!$F$9-H111*$D$15</f>
+        <v>1.59421052631579</v>
+      </c>
+      <c r="L111" s="26">
+        <f>职业定位属性配比!$G$9-I111*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B112" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="C112" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B112</f>
+        <v>4.0040000000000004</v>
+      </c>
+      <c r="D112" s="26">
+        <f>C112*职业定位属性配比!$C$40</f>
+        <v>3.4771578947368424</v>
+      </c>
+      <c r="E112" s="26">
+        <f t="shared" si="1"/>
+        <v>0.526842105263158</v>
+      </c>
+      <c r="F112" s="26">
+        <v>0</v>
+      </c>
+      <c r="G112" s="26">
+        <f>IF((D112/职业定位属性配比!$E$10-$E$5)&gt;0,D112/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.0171052631578947</v>
+      </c>
+      <c r="H112" s="26">
+        <f>IF((E112/职业定位属性配比!$F$10-$E$5)&gt;0,(E112/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.22684210526315801</v>
+      </c>
+      <c r="I112" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="26">
+        <f>职业定位属性配比!$E$9-G112*$D$15</f>
+        <v>2.9657894736842105</v>
+      </c>
+      <c r="K112" s="26">
+        <f>职业定位属性配比!$F$9-H112*$D$15</f>
+        <v>1.5463157894736841</v>
+      </c>
+      <c r="L112" s="26">
+        <f>职业定位属性配比!$G$9-I112*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B113" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="C113" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B113</f>
+        <v>4.1860000000000008</v>
+      </c>
+      <c r="D113" s="26">
+        <f>C113*职业定位属性配比!$C$40</f>
+        <v>3.6352105263157903</v>
+      </c>
+      <c r="E113" s="26">
+        <f t="shared" si="1"/>
+        <v>0.5507894736842105</v>
+      </c>
+      <c r="F113" s="26">
+        <v>0</v>
+      </c>
+      <c r="G113" s="26">
+        <f>IF((D113/职业定位属性配比!$E$10-$E$5)&gt;0,D113/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.0769736842105266</v>
+      </c>
+      <c r="H113" s="26">
+        <f>IF((E113/职业定位属性配比!$F$10-$E$5)&gt;0,(E113/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.25078947368421051</v>
+      </c>
+      <c r="I113" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="26">
+        <f>职业定位属性配比!$E$9-G113*$D$15</f>
+        <v>2.8460526315789467</v>
+      </c>
+      <c r="K113" s="26">
+        <f>职业定位属性配比!$F$9-H113*$D$15</f>
+        <v>1.4984210526315791</v>
+      </c>
+      <c r="L113" s="26">
+        <f>职业定位属性配比!$G$9-I113*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B114" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="C114" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B114</f>
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="D114" s="26">
+        <f>C114*职业定位属性配比!$C$40</f>
+        <v>3.7932631578947373</v>
+      </c>
+      <c r="E114" s="26">
+        <f t="shared" si="1"/>
+        <v>0.57473684210526299</v>
+      </c>
+      <c r="F114" s="26">
+        <v>0</v>
+      </c>
+      <c r="G114" s="26">
+        <f>IF((D114/职业定位属性配比!$E$10-$E$5)&gt;0,D114/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.1368421052631579</v>
+      </c>
+      <c r="H114" s="26">
+        <f>IF((E114/职业定位属性配比!$F$10-$E$5)&gt;0,(E114/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.274736842105263</v>
+      </c>
+      <c r="I114" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="26">
+        <f>职业定位属性配比!$E$9-G114*$D$15</f>
+        <v>2.7263157894736842</v>
+      </c>
+      <c r="K114" s="26">
+        <f>职业定位属性配比!$F$9-H114*$D$15</f>
+        <v>1.4505263157894741</v>
+      </c>
+      <c r="L114" s="26">
+        <f>职业定位属性配比!$G$9-I114*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B115" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C115" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B115</f>
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="D115" s="26">
+        <f>C115*职业定位属性配比!$C$40</f>
+        <v>3.9513157894736848</v>
+      </c>
+      <c r="E115" s="26">
+        <f t="shared" si="1"/>
+        <v>0.59868421052631593</v>
+      </c>
+      <c r="F115" s="26">
+        <v>0</v>
+      </c>
+      <c r="G115" s="26">
+        <f>IF((D115/职业定位属性配比!$E$10-$E$5)&gt;0,D115/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.1967105263157896</v>
+      </c>
+      <c r="H115" s="26">
+        <f>IF((E115/职业定位属性配比!$F$10-$E$5)&gt;0,(E115/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.29868421052631594</v>
+      </c>
+      <c r="I115" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="26">
+        <f>职业定位属性配比!$E$9-G115*$D$15</f>
+        <v>2.6065789473684209</v>
+      </c>
+      <c r="K115" s="26">
+        <f>职业定位属性配比!$F$9-H115*$D$15</f>
+        <v>1.4026315789473682</v>
+      </c>
+      <c r="L115" s="26">
+        <f>职业定位属性配比!$G$9-I115*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B116" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="C116" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B116</f>
+        <v>4.7320000000000011</v>
+      </c>
+      <c r="D116" s="26">
+        <f>C116*职业定位属性配比!$C$40</f>
+        <v>4.1093684210526327</v>
+      </c>
+      <c r="E116" s="26">
+        <f t="shared" si="1"/>
+        <v>0.62263157894736842</v>
+      </c>
+      <c r="F116" s="26">
+        <v>0</v>
+      </c>
+      <c r="G116" s="26">
+        <f>IF((D116/职业定位属性配比!$E$10-$E$5)&gt;0,D116/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.2565789473684212</v>
+      </c>
+      <c r="H116" s="26">
+        <f>IF((E116/职业定位属性配比!$F$10-$E$5)&gt;0,(E116/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.32263157894736844</v>
+      </c>
+      <c r="I116" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="26">
+        <f>职业定位属性配比!$E$9-G116*$D$15</f>
+        <v>2.4868421052631575</v>
+      </c>
+      <c r="K116" s="26">
+        <f>职业定位属性配比!$F$9-H116*$D$15</f>
+        <v>1.3547368421052632</v>
+      </c>
+      <c r="L116" s="26">
+        <f>职业定位属性配比!$G$9-I116*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B117" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="C117" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B117</f>
+        <v>4.9140000000000015</v>
+      </c>
+      <c r="D117" s="26">
+        <f>C117*职业定位属性配比!$C$40</f>
+        <v>4.2674210526315806</v>
+      </c>
+      <c r="E117" s="26">
+        <f t="shared" si="1"/>
+        <v>0.64657894736842092</v>
+      </c>
+      <c r="F117" s="26">
+        <v>0</v>
+      </c>
+      <c r="G117" s="26">
+        <f>IF((D117/职业定位属性配比!$E$10-$E$5)&gt;0,D117/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.3164473684210531</v>
+      </c>
+      <c r="H117" s="26">
+        <f>IF((E117/职业定位属性配比!$F$10-$E$5)&gt;0,(E117/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.34657894736842093</v>
+      </c>
+      <c r="I117" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="26">
+        <f>职业定位属性配比!$E$9-G117*$D$15</f>
+        <v>2.3671052631578937</v>
+      </c>
+      <c r="K117" s="26">
+        <f>职业定位属性配比!$F$9-H117*$D$15</f>
+        <v>1.3068421052631582</v>
+      </c>
+      <c r="L117" s="26">
+        <f>职业定位属性配比!$G$9-I117*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B118" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C118" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B118</f>
+        <v>5.096000000000001</v>
+      </c>
+      <c r="D118" s="26">
+        <f>C118*职业定位属性配比!$C$40</f>
+        <v>4.4254736842105276</v>
+      </c>
+      <c r="E118" s="26">
+        <f t="shared" si="1"/>
+        <v>0.67052631578947341</v>
+      </c>
+      <c r="F118" s="26">
+        <v>0</v>
+      </c>
+      <c r="G118" s="26">
+        <f>IF((D118/职业定位属性配比!$E$10-$E$5)&gt;0,D118/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.3763157894736846</v>
+      </c>
+      <c r="H118" s="26">
+        <f>IF((E118/职业定位属性配比!$F$10-$E$5)&gt;0,(E118/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.37052631578947343</v>
+      </c>
+      <c r="I118" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="26">
+        <f>职业定位属性配比!$E$9-G118*$D$15</f>
+        <v>2.2473684210526308</v>
+      </c>
+      <c r="K118" s="26">
+        <f>职业定位属性配比!$F$9-H118*$D$15</f>
+        <v>1.2589473684210533</v>
+      </c>
+      <c r="L118" s="26">
+        <f>职业定位属性配比!$G$9-I118*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B119" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C119" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B119</f>
+        <v>5.2780000000000005</v>
+      </c>
+      <c r="D119" s="26">
+        <f>C119*职业定位属性配比!$C$40</f>
+        <v>4.5835263157894746</v>
+      </c>
+      <c r="E119" s="26">
+        <f t="shared" si="1"/>
+        <v>0.69447368421052591</v>
+      </c>
+      <c r="F119" s="26">
+        <v>0</v>
+      </c>
+      <c r="G119" s="26">
+        <f>IF((D119/职业定位属性配比!$E$10-$E$5)&gt;0,D119/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.4361842105263161</v>
+      </c>
+      <c r="H119" s="26">
+        <f>IF((E119/职业定位属性配比!$F$10-$E$5)&gt;0,(E119/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.39447368421052592</v>
+      </c>
+      <c r="I119" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="26">
+        <f>职业定位属性配比!$E$9-G119*$D$15</f>
+        <v>2.1276315789473679</v>
+      </c>
+      <c r="K119" s="26">
+        <f>职业定位属性配比!$F$9-H119*$D$15</f>
+        <v>1.2110526315789483</v>
+      </c>
+      <c r="L119" s="26">
+        <f>职业定位属性配比!$G$9-I119*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B120" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C120" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B120</f>
+        <v>5.4600000000000009</v>
+      </c>
+      <c r="D120" s="26">
+        <f>C120*职业定位属性配比!$C$40</f>
+        <v>4.7415789473684216</v>
+      </c>
+      <c r="E120" s="26">
+        <f t="shared" si="1"/>
+        <v>0.71842105263157929</v>
+      </c>
+      <c r="F120" s="26">
+        <v>0</v>
+      </c>
+      <c r="G120" s="26">
+        <f>IF((D120/职业定位属性配比!$E$10-$E$5)&gt;0,D120/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.4960526315789475</v>
+      </c>
+      <c r="H120" s="26">
+        <f>IF((E120/职业定位属性配比!$F$10-$E$5)&gt;0,(E120/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.4184210526315793</v>
+      </c>
+      <c r="I120" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="26">
+        <f>职业定位属性配比!$E$9-G120*$D$15</f>
+        <v>2.007894736842105</v>
+      </c>
+      <c r="K120" s="26">
+        <f>职业定位属性配比!$F$9-H120*$D$15</f>
+        <v>1.1631578947368415</v>
+      </c>
+      <c r="L120" s="26">
+        <f>职业定位属性配比!$G$9-I120*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B121" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="C121" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B121</f>
+        <v>5.6420000000000012</v>
+      </c>
+      <c r="D121" s="26">
+        <f>C121*职业定位属性配比!$C$40</f>
+        <v>4.8996315789473694</v>
+      </c>
+      <c r="E121" s="26">
+        <f t="shared" si="1"/>
+        <v>0.74236842105263179</v>
+      </c>
+      <c r="F121" s="26">
+        <v>0</v>
+      </c>
+      <c r="G121" s="26">
+        <f>IF((D121/职业定位属性配比!$E$10-$E$5)&gt;0,D121/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.5559210526315792</v>
+      </c>
+      <c r="H121" s="26">
+        <f>IF((E121/职业定位属性配比!$F$10-$E$5)&gt;0,(E121/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.4423684210526318</v>
+      </c>
+      <c r="I121" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="26">
+        <f>职业定位属性配比!$E$9-G121*$D$15</f>
+        <v>1.8881578947368416</v>
+      </c>
+      <c r="K121" s="26">
+        <f>职业定位属性配比!$F$9-H121*$D$15</f>
+        <v>1.1152631578947365</v>
+      </c>
+      <c r="L121" s="26">
+        <f>职业定位属性配比!$G$9-I121*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B122" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="C122" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B122</f>
+        <v>5.8240000000000007</v>
+      </c>
+      <c r="D122" s="26">
+        <f>C122*职业定位属性配比!$C$40</f>
+        <v>5.0576842105263164</v>
+      </c>
+      <c r="E122" s="26">
+        <f t="shared" si="1"/>
+        <v>0.76631578947368428</v>
+      </c>
+      <c r="F122" s="26">
+        <v>0</v>
+      </c>
+      <c r="G122" s="26">
+        <f>IF((D122/职业定位属性配比!$E$10-$E$5)&gt;0,D122/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.6157894736842107</v>
+      </c>
+      <c r="H122" s="26">
+        <f>IF((E122/职业定位属性配比!$F$10-$E$5)&gt;0,(E122/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.46631578947368429</v>
+      </c>
+      <c r="I122" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="26">
+        <f>职业定位属性配比!$E$9-G122*$D$15</f>
+        <v>1.7684210526315787</v>
+      </c>
+      <c r="K122" s="26">
+        <f>职业定位属性配比!$F$9-H122*$D$15</f>
+        <v>1.0673684210526315</v>
+      </c>
+      <c r="L122" s="26">
+        <f>职业定位属性配比!$G$9-I122*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B123" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="C123" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B123</f>
+        <v>6.0060000000000011</v>
+      </c>
+      <c r="D123" s="26">
+        <f>C123*职业定位属性配比!$C$40</f>
+        <v>5.2157368421052643</v>
+      </c>
+      <c r="E123" s="26">
+        <f t="shared" si="1"/>
+        <v>0.79026315789473678</v>
+      </c>
+      <c r="F123" s="26">
+        <v>0</v>
+      </c>
+      <c r="G123" s="26">
+        <f>IF((D123/职业定位属性配比!$E$10-$E$5)&gt;0,D123/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.6756578947368423</v>
+      </c>
+      <c r="H123" s="26">
+        <f>IF((E123/职业定位属性配比!$F$10-$E$5)&gt;0,(E123/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.49026315789473679</v>
+      </c>
+      <c r="I123" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="26">
+        <f>职业定位属性配比!$E$9-G123*$D$15</f>
+        <v>1.6486842105263153</v>
+      </c>
+      <c r="K123" s="26">
+        <f>职业定位属性配比!$F$9-H123*$D$15</f>
+        <v>1.0194736842105265</v>
+      </c>
+      <c r="L123" s="26">
+        <f>职业定位属性配比!$G$9-I123*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B124" s="22">
+        <v>0.34</v>
+      </c>
+      <c r="C124" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B124</f>
+        <v>6.1880000000000015</v>
+      </c>
+      <c r="D124" s="26">
+        <f>C124*职业定位属性配比!$C$40</f>
+        <v>5.3737894736842122</v>
+      </c>
+      <c r="E124" s="26">
+        <f t="shared" si="1"/>
+        <v>0.81421052631578927</v>
+      </c>
+      <c r="F124" s="26">
+        <v>0</v>
+      </c>
+      <c r="G124" s="26">
+        <f>IF((D124/职业定位属性配比!$E$10-$E$5)&gt;0,D124/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.735526315789474</v>
+      </c>
+      <c r="H124" s="26">
+        <f>IF((E124/职业定位属性配比!$F$10-$E$5)&gt;0,(E124/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.51421052631578923</v>
+      </c>
+      <c r="I124" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="26">
+        <f>职业定位属性配比!$E$9-G124*$D$15</f>
+        <v>1.5289473684210519</v>
+      </c>
+      <c r="K124" s="26">
+        <f>职业定位属性配比!$F$9-H124*$D$15</f>
+        <v>0.97157894736842154</v>
+      </c>
+      <c r="L124" s="26">
+        <f>职业定位属性配比!$G$9-I124*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B125" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="C125" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B125</f>
+        <v>6.370000000000001</v>
+      </c>
+      <c r="D125" s="26">
+        <f>C125*职业定位属性配比!$C$40</f>
+        <v>5.5318421052631592</v>
+      </c>
+      <c r="E125" s="26">
+        <f t="shared" si="1"/>
+        <v>0.83815789473684177</v>
+      </c>
+      <c r="F125" s="26">
+        <v>0</v>
+      </c>
+      <c r="G125" s="26">
+        <f>IF((D125/职业定位属性配比!$E$10-$E$5)&gt;0,D125/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.7953947368421057</v>
+      </c>
+      <c r="H125" s="26">
+        <f>IF((E125/职业定位属性配比!$F$10-$E$5)&gt;0,(E125/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.53815789473684172</v>
+      </c>
+      <c r="I125" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="26">
+        <f>职业定位属性配比!$E$9-G125*$D$15</f>
+        <v>1.4092105263157886</v>
+      </c>
+      <c r="K125" s="26">
+        <f>职业定位属性配比!$F$9-H125*$D$15</f>
+        <v>0.92368421052631655</v>
+      </c>
+      <c r="L125" s="26">
+        <f>职业定位属性配比!$G$9-I125*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B126" s="22">
+        <v>0.36</v>
+      </c>
+      <c r="C126" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B126</f>
+        <v>6.5520000000000005</v>
+      </c>
+      <c r="D126" s="26">
+        <f>C126*职业定位属性配比!$C$40</f>
+        <v>5.6898947368421062</v>
+      </c>
+      <c r="E126" s="26">
+        <f t="shared" si="1"/>
+        <v>0.86210526315789426</v>
+      </c>
+      <c r="F126" s="26">
+        <v>0</v>
+      </c>
+      <c r="G126" s="26">
+        <f>IF((D126/职业定位属性配比!$E$10-$E$5)&gt;0,D126/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.8552631578947369</v>
+      </c>
+      <c r="H126" s="26">
+        <f>IF((E126/职业定位属性配比!$F$10-$E$5)&gt;0,(E126/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.56210526315789422</v>
+      </c>
+      <c r="I126" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="26">
+        <f>职业定位属性配比!$E$9-G126*$D$15</f>
+        <v>1.2894736842105261</v>
+      </c>
+      <c r="K126" s="26">
+        <f>职业定位属性配比!$F$9-H126*$D$15</f>
+        <v>0.87578947368421156</v>
+      </c>
+      <c r="L126" s="26">
+        <f>职业定位属性配比!$G$9-I126*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B127" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="C127" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B127</f>
+        <v>6.7340000000000009</v>
+      </c>
+      <c r="D127" s="26">
+        <f>C127*职业定位属性配比!$C$40</f>
+        <v>5.8479473684210532</v>
+      </c>
+      <c r="E127" s="26">
+        <f t="shared" si="1"/>
+        <v>0.88605263157894765</v>
+      </c>
+      <c r="F127" s="26">
+        <v>0</v>
+      </c>
+      <c r="G127" s="26">
+        <f>IF((D127/职业定位属性配比!$E$10-$E$5)&gt;0,D127/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.9151315789473686</v>
+      </c>
+      <c r="H127" s="26">
+        <f>IF((E127/职业定位属性配比!$F$10-$E$5)&gt;0,(E127/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.5860526315789476</v>
+      </c>
+      <c r="I127" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="26">
+        <f>职业定位属性配比!$E$9-G127*$D$15</f>
+        <v>1.1697368421052627</v>
+      </c>
+      <c r="K127" s="26">
+        <f>职业定位属性配比!$F$9-H127*$D$15</f>
+        <v>0.82789473684210479</v>
+      </c>
+      <c r="L127" s="26">
+        <f>职业定位属性配比!$G$9-I127*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B128" s="22">
+        <v>0.38</v>
+      </c>
+      <c r="C128" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B128</f>
+        <v>6.9160000000000013</v>
+      </c>
+      <c r="D128" s="26">
+        <f>C128*职业定位属性配比!$C$40</f>
+        <v>6.0060000000000011</v>
+      </c>
+      <c r="E128" s="26">
+        <f t="shared" si="1"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="F128" s="26">
+        <v>0</v>
+      </c>
+      <c r="G128" s="26">
+        <f>IF((D128/职业定位属性配比!$E$10-$E$5)&gt;0,D128/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>1.9750000000000003</v>
+      </c>
+      <c r="H128" s="26">
+        <f>IF((E128/职业定位属性配比!$F$10-$E$5)&gt;0,(E128/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="I128" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="26">
+        <f>职业定位属性配比!$E$9-G128*$D$15</f>
+        <v>1.0499999999999994</v>
+      </c>
+      <c r="K128" s="26">
+        <f>职业定位属性配比!$F$9-H128*$D$15</f>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="L128" s="26">
+        <f>职业定位属性配比!$G$9-I128*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B129" s="22">
+        <v>0.39</v>
+      </c>
+      <c r="C129" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B129</f>
+        <v>7.0980000000000016</v>
+      </c>
+      <c r="D129" s="26">
+        <f>C129*职业定位属性配比!$C$40</f>
+        <v>6.164052631578949</v>
+      </c>
+      <c r="E129" s="26">
+        <f t="shared" si="1"/>
+        <v>0.93394736842105264</v>
+      </c>
+      <c r="F129" s="26">
+        <v>0</v>
+      </c>
+      <c r="G129" s="26">
+        <f>IF((D129/职业定位属性配比!$E$10-$E$5)&gt;0,D129/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.0348684210526322</v>
+      </c>
+      <c r="H129" s="26">
+        <f>IF((E129/职业定位属性配比!$F$10-$E$5)&gt;0,(E129/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.63394736842105259</v>
+      </c>
+      <c r="I129" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="26">
+        <f>职业定位属性配比!$E$9-G129*$D$15</f>
+        <v>0.93026315789473557</v>
+      </c>
+      <c r="K129" s="26">
+        <f>职业定位属性配比!$F$9-H129*$D$15</f>
+        <v>0.73210526315789481</v>
+      </c>
+      <c r="L129" s="26">
+        <f>职业定位属性配比!$G$9-I129*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B130" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="C130" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B130</f>
+        <v>7.2800000000000011</v>
+      </c>
+      <c r="D130" s="26">
+        <f>C130*职业定位属性配比!$C$40</f>
+        <v>6.322105263157896</v>
+      </c>
+      <c r="E130" s="26">
+        <f t="shared" si="1"/>
+        <v>0.95789473684210513</v>
+      </c>
+      <c r="F130" s="26">
+        <v>0</v>
+      </c>
+      <c r="G130" s="26">
+        <f>IF((D130/职业定位属性配比!$E$10-$E$5)&gt;0,D130/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.0947368421052639</v>
+      </c>
+      <c r="H130" s="26">
+        <f>IF((E130/职业定位属性配比!$F$10-$E$5)&gt;0,(E130/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.65789473684210509</v>
+      </c>
+      <c r="I130" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="26">
+        <f>职业定位属性配比!$E$9-G130*$D$15</f>
+        <v>0.81052631578947221</v>
+      </c>
+      <c r="K130" s="26">
+        <f>职业定位属性配比!$F$9-H130*$D$15</f>
+        <v>0.68421052631578982</v>
+      </c>
+      <c r="L130" s="26">
+        <f>职业定位属性配比!$G$9-I130*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B131" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="C131" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B131</f>
+        <v>7.4620000000000006</v>
+      </c>
+      <c r="D131" s="26">
+        <f>C131*职业定位属性配比!$C$40</f>
+        <v>6.480157894736843</v>
+      </c>
+      <c r="E131" s="26">
+        <f t="shared" si="1"/>
+        <v>0.98184210526315763</v>
+      </c>
+      <c r="F131" s="26">
+        <v>0</v>
+      </c>
+      <c r="G131" s="26">
+        <f>IF((D131/职业定位属性配比!$E$10-$E$5)&gt;0,D131/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.1546052631578951</v>
+      </c>
+      <c r="H131" s="26">
+        <f>IF((E131/职业定位属性配比!$F$10-$E$5)&gt;0,(E131/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.68184210526315758</v>
+      </c>
+      <c r="I131" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="26">
+        <f>职业定位属性配比!$E$9-G131*$D$15</f>
+        <v>0.69078947368420973</v>
+      </c>
+      <c r="K131" s="26">
+        <f>职业定位属性配比!$F$9-H131*$D$15</f>
+        <v>0.63631578947368483</v>
+      </c>
+      <c r="L131" s="26">
+        <f>职业定位属性配比!$G$9-I131*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B132" s="22">
+        <v>0.42</v>
+      </c>
+      <c r="C132" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B132</f>
+        <v>7.644000000000001</v>
+      </c>
+      <c r="D132" s="26">
+        <f>C132*职业定位属性配比!$C$40</f>
+        <v>6.6382105263157909</v>
+      </c>
+      <c r="E132" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0057894736842101</v>
+      </c>
+      <c r="F132" s="26">
+        <v>0</v>
+      </c>
+      <c r="G132" s="26">
+        <f>IF((D132/职业定位属性配比!$E$10-$E$5)&gt;0,D132/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.2144736842105268</v>
+      </c>
+      <c r="H132" s="26">
+        <f>IF((E132/职业定位属性配比!$F$10-$E$5)&gt;0,(E132/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.70578947368421008</v>
+      </c>
+      <c r="I132" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="26">
+        <f>职业定位属性配比!$E$9-G132*$D$15</f>
+        <v>0.57105263157894637</v>
+      </c>
+      <c r="K132" s="26">
+        <f>职业定位属性配比!$F$9-H132*$D$15</f>
+        <v>0.58842105263157984</v>
+      </c>
+      <c r="L132" s="26">
+        <f>职业定位属性配比!$G$9-I132*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B133" s="22">
+        <v>0.43</v>
+      </c>
+      <c r="C133" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B133</f>
+        <v>7.8260000000000014</v>
+      </c>
+      <c r="D133" s="26">
+        <f>C133*职业定位属性配比!$C$40</f>
+        <v>6.7962631578947379</v>
+      </c>
+      <c r="E133" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0297368421052635</v>
+      </c>
+      <c r="F133" s="26">
+        <v>0</v>
+      </c>
+      <c r="G133" s="26">
+        <f>IF((D133/职业定位属性配比!$E$10-$E$5)&gt;0,D133/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.2743421052631585</v>
+      </c>
+      <c r="H133" s="26">
+        <f>IF((E133/职业定位属性配比!$F$10-$E$5)&gt;0,(E133/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.72973684210526346</v>
+      </c>
+      <c r="I133" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="26">
+        <f>职业定位属性配比!$E$9-G133*$D$15</f>
+        <v>0.451315789473683</v>
+      </c>
+      <c r="K133" s="26">
+        <f>职业定位属性配比!$F$9-H133*$D$15</f>
+        <v>0.54052631578947308</v>
+      </c>
+      <c r="L133" s="26">
+        <f>职业定位属性配比!$G$9-I133*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B134" s="22">
+        <v>0.44</v>
+      </c>
+      <c r="C134" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B134</f>
+        <v>8.0080000000000009</v>
+      </c>
+      <c r="D134" s="26">
+        <f>C134*职业定位属性配比!$C$40</f>
+        <v>6.9543157894736849</v>
+      </c>
+      <c r="E134" s="26">
+        <f t="shared" si="1"/>
+        <v>1.053684210526316</v>
+      </c>
+      <c r="F134" s="26">
+        <v>0</v>
+      </c>
+      <c r="G134" s="26">
+        <f>IF((D134/职业定位属性配比!$E$10-$E$5)&gt;0,D134/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.3342105263157897</v>
+      </c>
+      <c r="H134" s="26">
+        <f>IF((E134/职业定位属性配比!$F$10-$E$5)&gt;0,(E134/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.75368421052631596</v>
+      </c>
+      <c r="I134" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="26">
+        <f>职业定位属性配比!$E$9-G134*$D$15</f>
+        <v>0.33157894736842053</v>
+      </c>
+      <c r="K134" s="26">
+        <f>职业定位属性配比!$F$9-H134*$D$15</f>
+        <v>0.49263157894736809</v>
+      </c>
+      <c r="L134" s="26">
+        <f>职业定位属性配比!$G$9-I134*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B135" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="C135" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B135</f>
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="D135" s="26">
+        <f>C135*职业定位属性配比!$C$40</f>
+        <v>7.1123684210526328</v>
+      </c>
+      <c r="E135" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0776315789473685</v>
+      </c>
+      <c r="F135" s="26">
+        <v>0</v>
+      </c>
+      <c r="G135" s="26">
+        <f>IF((D135/职业定位属性配比!$E$10-$E$5)&gt;0,D135/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.3940789473684214</v>
+      </c>
+      <c r="H135" s="26">
+        <f>IF((E135/职业定位属性配比!$F$10-$E$5)&gt;0,(E135/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.77763157894736845</v>
+      </c>
+      <c r="I135" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="26">
+        <f>职业定位属性配比!$E$9-G135*$D$15</f>
+        <v>0.21184210526315717</v>
+      </c>
+      <c r="K135" s="26">
+        <f>职业定位属性配比!$F$9-H135*$D$15</f>
+        <v>0.4447368421052631</v>
+      </c>
+      <c r="L135" s="26">
+        <f>职业定位属性配比!$G$9-I135*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B136" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="C136" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B136</f>
+        <v>8.3720000000000017</v>
+      </c>
+      <c r="D136" s="26">
+        <f>C136*职业定位属性配比!$C$40</f>
+        <v>7.2704210526315807</v>
+      </c>
+      <c r="E136" s="26">
+        <f t="shared" si="1"/>
+        <v>1.101578947368421</v>
+      </c>
+      <c r="F136" s="26">
+        <v>0</v>
+      </c>
+      <c r="G136" s="26">
+        <f>IF((D136/职业定位属性配比!$E$10-$E$5)&gt;0,D136/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.4539473684210535</v>
+      </c>
+      <c r="H136" s="26">
+        <f>IF((E136/职业定位属性配比!$F$10-$E$5)&gt;0,(E136/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.80157894736842095</v>
+      </c>
+      <c r="I136" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="26">
+        <f>职业定位属性配比!$E$9-G136*$D$15</f>
+        <v>9.2105263157892914E-2</v>
+      </c>
+      <c r="K136" s="26">
+        <f>职业定位属性配比!$F$9-H136*$D$15</f>
+        <v>0.39684210526315811</v>
+      </c>
+      <c r="L136" s="26">
+        <f>职业定位属性配比!$G$9-I136*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B137" s="22">
+        <v>0.47</v>
+      </c>
+      <c r="C137" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B137</f>
+        <v>8.5540000000000003</v>
+      </c>
+      <c r="D137" s="26">
+        <f>C137*职业定位属性配比!$C$40</f>
+        <v>7.4284736842105268</v>
+      </c>
+      <c r="E137" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1255263157894735</v>
+      </c>
+      <c r="F137" s="26">
+        <v>0</v>
+      </c>
+      <c r="G137" s="26">
+        <f>IF((D137/职业定位属性配比!$E$10-$E$5)&gt;0,D137/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.5138157894736843</v>
+      </c>
+      <c r="H137" s="26">
+        <f>IF((E137/职业定位属性配比!$F$10-$E$5)&gt;0,(E137/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.82552631578947344</v>
+      </c>
+      <c r="I137" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="26">
+        <f>职业定位属性配比!$E$9-G137*$D$15</f>
+        <v>-2.7631578947368673E-2</v>
+      </c>
+      <c r="K137" s="26">
+        <f>职业定位属性配比!$F$9-H137*$D$15</f>
+        <v>0.34894736842105312</v>
+      </c>
+      <c r="L137" s="26">
+        <f>职业定位属性配比!$G$9-I137*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B138" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="C138" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B138</f>
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="D138" s="26">
+        <f>C138*职业定位属性配比!$C$40</f>
+        <v>7.5865263157894747</v>
+      </c>
+      <c r="E138" s="26">
+        <f t="shared" si="1"/>
+        <v>1.149473684210526</v>
+      </c>
+      <c r="F138" s="26">
+        <v>0</v>
+      </c>
+      <c r="G138" s="26">
+        <f>IF((D138/职业定位属性配比!$E$10-$E$5)&gt;0,D138/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.573684210526316</v>
+      </c>
+      <c r="H138" s="26">
+        <f>IF((E138/职业定位属性配比!$F$10-$E$5)&gt;0,(E138/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.84947368421052594</v>
+      </c>
+      <c r="I138" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="26">
+        <f>职业定位属性配比!$E$9-G138*$D$15</f>
+        <v>-0.14736842105263204</v>
+      </c>
+      <c r="K138" s="26">
+        <f>职业定位属性配比!$F$9-H138*$D$15</f>
+        <v>0.30105263157894813</v>
+      </c>
+      <c r="L138" s="26">
+        <f>职业定位属性配比!$G$9-I138*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B139" s="22">
+        <v>0.49</v>
+      </c>
+      <c r="C139" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B139</f>
+        <v>8.918000000000001</v>
+      </c>
+      <c r="D139" s="26">
+        <f>C139*职业定位属性配比!$C$40</f>
+        <v>7.7445789473684226</v>
+      </c>
+      <c r="E139" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1734210526315785</v>
+      </c>
+      <c r="F139" s="26">
+        <v>0</v>
+      </c>
+      <c r="G139" s="26">
+        <f>IF((D139/职业定位属性配比!$E$10-$E$5)&gt;0,D139/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.6335526315789481</v>
+      </c>
+      <c r="H139" s="26">
+        <f>IF((E139/职业定位属性配比!$F$10-$E$5)&gt;0,(E139/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.87342105263157843</v>
+      </c>
+      <c r="I139" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="26">
+        <f>职业定位属性配比!$E$9-G139*$D$15</f>
+        <v>-0.26710526315789629</v>
+      </c>
+      <c r="K139" s="26">
+        <f>职业定位属性配比!$F$9-H139*$D$15</f>
+        <v>0.25315789473684314</v>
+      </c>
+      <c r="L139" s="26">
+        <f>职业定位属性配比!$G$9-I139*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B140" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C140" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B140</f>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="D140" s="26">
+        <f>C140*职业定位属性配比!$C$40</f>
+        <v>7.9026315789473696</v>
+      </c>
+      <c r="E140" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1973684210526319</v>
+      </c>
+      <c r="F140" s="26">
+        <v>0</v>
+      </c>
+      <c r="G140" s="26">
+        <f>IF((D140/职业定位属性配比!$E$10-$E$5)&gt;0,D140/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.6934210526315794</v>
+      </c>
+      <c r="H140" s="26">
+        <f>IF((E140/职业定位属性配比!$F$10-$E$5)&gt;0,(E140/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.89736842105263182</v>
+      </c>
+      <c r="I140" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="26">
+        <f>职业定位属性配比!$E$9-G140*$D$15</f>
+        <v>-0.38684210526315876</v>
+      </c>
+      <c r="K140" s="26">
+        <f>职业定位属性配比!$F$9-H140*$D$15</f>
+        <v>0.20526315789473637</v>
+      </c>
+      <c r="L140" s="26">
+        <f>职业定位属性配比!$G$9-I140*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B141" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="C141" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B141</f>
+        <v>9.2820000000000018</v>
+      </c>
+      <c r="D141" s="26">
+        <f>C141*职业定位属性配比!$C$40</f>
+        <v>8.0606842105263183</v>
+      </c>
+      <c r="E141" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2213157894736835</v>
+      </c>
+      <c r="F141" s="26">
+        <v>0</v>
+      </c>
+      <c r="G141" s="26">
+        <f>IF((D141/职业定位属性配比!$E$10-$E$5)&gt;0,D141/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.7532894736842115</v>
+      </c>
+      <c r="H141" s="26">
+        <f>IF((E141/职业定位属性配比!$F$10-$E$5)&gt;0,(E141/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.92131578947368342</v>
+      </c>
+      <c r="I141" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="26">
+        <f>职业定位属性配比!$E$9-G141*$D$15</f>
+        <v>-0.50657894736842302</v>
+      </c>
+      <c r="K141" s="26">
+        <f>职业定位属性配比!$F$9-H141*$D$15</f>
+        <v>0.15736842105263316</v>
+      </c>
+      <c r="L141" s="26">
+        <f>职业定位属性配比!$G$9-I141*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B142" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="C142" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B142</f>
+        <v>9.4640000000000022</v>
+      </c>
+      <c r="D142" s="26">
+        <f>C142*职业定位属性配比!$C$40</f>
+        <v>8.2187368421052653</v>
+      </c>
+      <c r="E142" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2452631578947368</v>
+      </c>
+      <c r="F142" s="26">
+        <v>0</v>
+      </c>
+      <c r="G142" s="26">
+        <f>IF((D142/职业定位属性配比!$E$10-$E$5)&gt;0,D142/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.8131578947368427</v>
+      </c>
+      <c r="H142" s="26">
+        <f>IF((E142/职业定位属性配比!$F$10-$E$5)&gt;0,(E142/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.94526315789473681</v>
+      </c>
+      <c r="I142" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="26">
+        <f>职业定位属性配比!$E$9-G142*$D$15</f>
+        <v>-0.62631578947368549</v>
+      </c>
+      <c r="K142" s="26">
+        <f>职业定位属性配比!$F$9-H142*$D$15</f>
+        <v>0.10947368421052639</v>
+      </c>
+      <c r="L142" s="26">
+        <f>职业定位属性配比!$G$9-I142*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B143" s="22">
+        <v>0.53</v>
+      </c>
+      <c r="C143" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B143</f>
+        <v>9.6460000000000026</v>
+      </c>
+      <c r="D143" s="26">
+        <f>C143*职业定位属性配比!$C$40</f>
+        <v>8.3767894736842123</v>
+      </c>
+      <c r="E143" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2692105263157902</v>
+      </c>
+      <c r="F143" s="26">
+        <v>0</v>
+      </c>
+      <c r="G143" s="26">
+        <f>IF((D143/职业定位属性配比!$E$10-$E$5)&gt;0,D143/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.8730263157894744</v>
+      </c>
+      <c r="H143" s="26">
+        <f>IF((E143/职业定位属性配比!$F$10-$E$5)&gt;0,(E143/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.96921052631579019</v>
+      </c>
+      <c r="I143" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="26">
+        <f>职业定位属性配比!$E$9-G143*$D$15</f>
+        <v>-0.74605263157894885</v>
+      </c>
+      <c r="K143" s="26">
+        <f>职业定位属性配比!$F$9-H143*$D$15</f>
+        <v>6.1578947368419623E-2</v>
+      </c>
+      <c r="L143" s="26">
+        <f>职业定位属性配比!$G$9-I143*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B144" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="C144" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B144</f>
+        <v>9.828000000000003</v>
+      </c>
+      <c r="D144" s="26">
+        <f>C144*职业定位属性配比!$C$40</f>
+        <v>8.5348421052631611</v>
+      </c>
+      <c r="E144" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2931578947368418</v>
+      </c>
+      <c r="F144" s="26">
+        <v>0</v>
+      </c>
+      <c r="G144" s="26">
+        <f>IF((D144/职业定位属性配比!$E$10-$E$5)&gt;0,D144/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.9328947368421066</v>
+      </c>
+      <c r="H144" s="26">
+        <f>IF((E144/职业定位属性配比!$F$10-$E$5)&gt;0,(E144/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>0.9931578947368418</v>
+      </c>
+      <c r="I144" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="26">
+        <f>职业定位属性配比!$E$9-G144*$D$15</f>
+        <v>-0.86578947368421311</v>
+      </c>
+      <c r="K144" s="26">
+        <f>职业定位属性配比!$F$9-H144*$D$15</f>
+        <v>1.3684210526316409E-2</v>
+      </c>
+      <c r="L144" s="26">
+        <f>职业定位属性配比!$G$9-I144*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B145" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C145" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B145</f>
+        <v>10.010000000000002</v>
+      </c>
+      <c r="D145" s="26">
+        <f>C145*职业定位属性配比!$C$40</f>
+        <v>8.6928947368421063</v>
+      </c>
+      <c r="E145" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3171052631578952</v>
+      </c>
+      <c r="F145" s="26">
+        <v>0</v>
+      </c>
+      <c r="G145" s="26">
+        <f>IF((D145/职业定位属性配比!$E$10-$E$5)&gt;0,D145/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>2.9927631578947373</v>
+      </c>
+      <c r="H145" s="26">
+        <f>IF((E145/职业定位属性配比!$F$10-$E$5)&gt;0,(E145/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.0171052631578952</v>
+      </c>
+      <c r="I145" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="26">
+        <f>职业定位属性配比!$E$9-G145*$D$15</f>
+        <v>-0.98552631578947469</v>
+      </c>
+      <c r="K145" s="26">
+        <f>职业定位属性配比!$F$9-H145*$D$15</f>
+        <v>-3.4210526315790357E-2</v>
+      </c>
+      <c r="L145" s="26">
+        <f>职业定位属性配比!$G$9-I145*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B146" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C146" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B146</f>
+        <v>10.192000000000002</v>
+      </c>
+      <c r="D146" s="26">
+        <f>C146*职业定位属性配比!$C$40</f>
+        <v>8.8509473684210551</v>
+      </c>
+      <c r="E146" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3410526315789468</v>
+      </c>
+      <c r="F146" s="26">
+        <v>0</v>
+      </c>
+      <c r="G146" s="26">
+        <f>IF((D146/职业定位属性配比!$E$10-$E$5)&gt;0,D146/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.0526315789473695</v>
+      </c>
+      <c r="H146" s="26">
+        <f>IF((E146/职业定位属性配比!$F$10-$E$5)&gt;0,(E146/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.0410526315789468</v>
+      </c>
+      <c r="I146" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="26">
+        <f>职业定位属性配比!$E$9-G146*$D$15</f>
+        <v>-1.1052631578947389</v>
+      </c>
+      <c r="K146" s="26">
+        <f>职业定位属性配比!$F$9-H146*$D$15</f>
+        <v>-8.2105263157893571E-2</v>
+      </c>
+      <c r="L146" s="26">
+        <f>职业定位属性配比!$G$9-I146*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B147" s="22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C147" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B147</f>
+        <v>10.374000000000001</v>
+      </c>
+      <c r="D147" s="26">
+        <f>C147*职业定位属性配比!$C$40</f>
+        <v>9.0090000000000003</v>
+      </c>
+      <c r="E147" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3650000000000002</v>
+      </c>
+      <c r="F147" s="26">
+        <v>0</v>
+      </c>
+      <c r="G147" s="26">
+        <f>IF((D147/职业定位属性配比!$E$10-$E$5)&gt;0,D147/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.1125000000000003</v>
+      </c>
+      <c r="H147" s="26">
+        <f>IF((E147/职业定位属性配比!$F$10-$E$5)&gt;0,(E147/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.0650000000000002</v>
+      </c>
+      <c r="I147" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="26">
+        <f>职业定位属性配比!$E$9-G147*$D$15</f>
+        <v>-1.2250000000000005</v>
+      </c>
+      <c r="K147" s="26">
+        <f>职业定位属性配比!$F$9-H147*$D$15</f>
+        <v>-0.13000000000000034</v>
+      </c>
+      <c r="L147" s="26">
+        <f>职业定位属性配比!$G$9-I147*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B148" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C148" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B148</f>
+        <v>10.556000000000001</v>
+      </c>
+      <c r="D148" s="26">
+        <f>C148*职业定位属性配比!$C$40</f>
+        <v>9.1670526315789491</v>
+      </c>
+      <c r="E148" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3889473684210518</v>
+      </c>
+      <c r="F148" s="26">
+        <v>0</v>
+      </c>
+      <c r="G148" s="26">
+        <f>IF((D148/职业定位属性配比!$E$10-$E$5)&gt;0,D148/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.1723684210526324</v>
+      </c>
+      <c r="H148" s="26">
+        <f>IF((E148/职业定位属性配比!$F$10-$E$5)&gt;0,(E148/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.0889473684210518</v>
+      </c>
+      <c r="I148" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="26">
+        <f>职业定位属性配比!$E$9-G148*$D$15</f>
+        <v>-1.3447368421052648</v>
+      </c>
+      <c r="K148" s="26">
+        <f>职业定位属性配比!$F$9-H148*$D$15</f>
+        <v>-0.17789473684210355</v>
+      </c>
+      <c r="L148" s="26">
+        <f>职业定位属性配比!$G$9-I148*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B149" s="22">
+        <v>0.59</v>
+      </c>
+      <c r="C149" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B149</f>
+        <v>10.738000000000001</v>
+      </c>
+      <c r="D149" s="26">
+        <f>C149*职业定位属性配比!$C$40</f>
+        <v>9.3251052631578961</v>
+      </c>
+      <c r="E149" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4128947368421052</v>
+      </c>
+      <c r="F149" s="26">
+        <v>0</v>
+      </c>
+      <c r="G149" s="26">
+        <f>IF((D149/职业定位属性配比!$E$10-$E$5)&gt;0,D149/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.2322368421052636</v>
+      </c>
+      <c r="H149" s="26">
+        <f>IF((E149/职业定位属性配比!$F$10-$E$5)&gt;0,(E149/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.1128947368421052</v>
+      </c>
+      <c r="I149" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="26">
+        <f>职业定位属性配比!$E$9-G149*$D$15</f>
+        <v>-1.4644736842105273</v>
+      </c>
+      <c r="K149" s="26">
+        <f>职业定位属性配比!$F$9-H149*$D$15</f>
+        <v>-0.22578947368421032</v>
+      </c>
+      <c r="L149" s="26">
+        <f>职业定位属性配比!$G$9-I149*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B150" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="C150" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B150</f>
+        <v>10.920000000000002</v>
+      </c>
+      <c r="D150" s="26">
+        <f>C150*职业定位属性配比!$C$40</f>
+        <v>9.4831578947368431</v>
+      </c>
+      <c r="E150" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4368421052631586</v>
+      </c>
+      <c r="F150" s="26">
+        <v>0</v>
+      </c>
+      <c r="G150" s="26">
+        <f>IF((D150/职业定位属性配比!$E$10-$E$5)&gt;0,D150/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.2921052631578953</v>
+      </c>
+      <c r="H150" s="26">
+        <f>IF((E150/职业定位属性配比!$F$10-$E$5)&gt;0,(E150/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.1368421052631585</v>
+      </c>
+      <c r="I150" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="26">
+        <f>职业定位属性配比!$E$9-G150*$D$15</f>
+        <v>-1.5842105263157906</v>
+      </c>
+      <c r="K150" s="26">
+        <f>职业定位属性配比!$F$9-H150*$D$15</f>
+        <v>-0.27368421052631708</v>
+      </c>
+      <c r="L150" s="26">
+        <f>职业定位属性配比!$G$9-I150*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B151" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="C151" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B151</f>
+        <v>11.102000000000002</v>
+      </c>
+      <c r="D151" s="26">
+        <f>C151*职业定位属性配比!$C$40</f>
+        <v>9.6412105263157919</v>
+      </c>
+      <c r="E151" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4607894736842102</v>
+      </c>
+      <c r="F151" s="26">
+        <v>0</v>
+      </c>
+      <c r="G151" s="26">
+        <f>IF((D151/职业定位属性配比!$E$10-$E$5)&gt;0,D151/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.3519736842105274</v>
+      </c>
+      <c r="H151" s="26">
+        <f>IF((E151/职业定位属性配比!$F$10-$E$5)&gt;0,(E151/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.1607894736842101</v>
+      </c>
+      <c r="I151" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="26">
+        <f>职业定位属性配比!$E$9-G151*$D$15</f>
+        <v>-1.7039473684210549</v>
+      </c>
+      <c r="K151" s="26">
+        <f>职业定位属性配比!$F$9-H151*$D$15</f>
+        <v>-0.3215789473684203</v>
+      </c>
+      <c r="L151" s="26">
+        <f>职业定位属性配比!$G$9-I151*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B152" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="C152" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B152</f>
+        <v>11.284000000000002</v>
+      </c>
+      <c r="D152" s="26">
+        <f>C152*职业定位属性配比!$C$40</f>
+        <v>9.7992631578947389</v>
+      </c>
+      <c r="E152" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4847368421052636</v>
+      </c>
+      <c r="F152" s="26">
+        <v>0</v>
+      </c>
+      <c r="G152" s="26">
+        <f>IF((D152/职业定位属性配比!$E$10-$E$5)&gt;0,D152/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.4118421052631587</v>
+      </c>
+      <c r="H152" s="26">
+        <f>IF((E152/职业定位属性配比!$F$10-$E$5)&gt;0,(E152/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.1847368421052635</v>
+      </c>
+      <c r="I152" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="26">
+        <f>职业定位属性配比!$E$9-G152*$D$15</f>
+        <v>-1.8236842105263174</v>
+      </c>
+      <c r="K152" s="26">
+        <f>职业定位属性配比!$F$9-H152*$D$15</f>
+        <v>-0.36947368421052706</v>
+      </c>
+      <c r="L152" s="26">
+        <f>职业定位属性配比!$G$9-I152*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B153" s="22">
+        <v>0.63</v>
+      </c>
+      <c r="C153" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B153</f>
+        <v>11.466000000000001</v>
+      </c>
+      <c r="D153" s="26">
+        <f>C153*职业定位属性配比!$C$40</f>
+        <v>9.9573157894736859</v>
+      </c>
+      <c r="E153" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5086842105263152</v>
+      </c>
+      <c r="F153" s="26">
+        <v>0</v>
+      </c>
+      <c r="G153" s="26">
+        <f>IF((D153/职业定位属性配比!$E$10-$E$5)&gt;0,D153/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.4717105263157899</v>
+      </c>
+      <c r="H153" s="26">
+        <f>IF((E153/职业定位属性配比!$F$10-$E$5)&gt;0,(E153/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.2086842105263151</v>
+      </c>
+      <c r="I153" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="26">
+        <f>职业定位属性配比!$E$9-G153*$D$15</f>
+        <v>-1.9434210526315798</v>
+      </c>
+      <c r="K153" s="26">
+        <f>职业定位属性配比!$F$9-H153*$D$15</f>
+        <v>-0.41736842105263028</v>
+      </c>
+      <c r="L153" s="26">
+        <f>职业定位属性配比!$G$9-I153*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B154" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="C154" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B154</f>
+        <v>11.648000000000001</v>
+      </c>
+      <c r="D154" s="26">
+        <f>C154*职业定位属性配比!$C$40</f>
+        <v>10.115368421052633</v>
+      </c>
+      <c r="E154" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5326315789473686</v>
+      </c>
+      <c r="F154" s="26">
+        <v>0</v>
+      </c>
+      <c r="G154" s="26">
+        <f>IF((D154/职业定位属性配比!$E$10-$E$5)&gt;0,D154/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.5315789473684216</v>
+      </c>
+      <c r="H154" s="26">
+        <f>IF((E154/职业定位属性配比!$F$10-$E$5)&gt;0,(E154/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.2326315789473685</v>
+      </c>
+      <c r="I154" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="26">
+        <f>职业定位属性配比!$E$9-G154*$D$15</f>
+        <v>-2.0631578947368432</v>
+      </c>
+      <c r="K154" s="26">
+        <f>职业定位属性配比!$F$9-H154*$D$15</f>
+        <v>-0.46526315789473704</v>
+      </c>
+      <c r="L154" s="26">
+        <f>职业定位属性配比!$G$9-I154*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B155" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="C155" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B155</f>
+        <v>11.830000000000002</v>
+      </c>
+      <c r="D155" s="26">
+        <f>C155*职业定位属性配比!$C$40</f>
+        <v>10.273421052631582</v>
+      </c>
+      <c r="E155" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5565789473684202</v>
+      </c>
+      <c r="F155" s="26">
+        <v>0</v>
+      </c>
+      <c r="G155" s="26">
+        <f>IF((D155/职业定位属性配比!$E$10-$E$5)&gt;0,D155/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.5914473684210537</v>
+      </c>
+      <c r="H155" s="26">
+        <f>IF((E155/职业定位属性配比!$F$10-$E$5)&gt;0,(E155/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.2565789473684201</v>
+      </c>
+      <c r="I155" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="26">
+        <f>职业定位属性配比!$E$9-G155*$D$15</f>
+        <v>-2.1828947368421074</v>
+      </c>
+      <c r="K155" s="26">
+        <f>职业定位属性配比!$F$9-H155*$D$15</f>
+        <v>-0.51315789473684026</v>
+      </c>
+      <c r="L155" s="26">
+        <f>职业定位属性配比!$G$9-I155*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B156" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="C156" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B156</f>
+        <v>12.012000000000002</v>
+      </c>
+      <c r="D156" s="26">
+        <f>C156*职业定位属性配比!$C$40</f>
+        <v>10.431473684210529</v>
+      </c>
+      <c r="E156" s="26">
+        <f t="shared" ref="E156:E190" si="3">C156-D156</f>
+        <v>1.5805263157894736</v>
+      </c>
+      <c r="F156" s="26">
+        <v>0</v>
+      </c>
+      <c r="G156" s="26">
+        <f>IF((D156/职业定位属性配比!$E$10-$E$5)&gt;0,D156/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.651315789473685</v>
+      </c>
+      <c r="H156" s="26">
+        <f>IF((E156/职业定位属性配比!$F$10-$E$5)&gt;0,(E156/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.2805263157894735</v>
+      </c>
+      <c r="I156" s="26">
+        <f t="shared" ref="I156:I190" si="4">F156</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="26">
+        <f>职业定位属性配比!$E$9-G156*$D$15</f>
+        <v>-2.3026315789473699</v>
+      </c>
+      <c r="K156" s="26">
+        <f>职业定位属性配比!$F$9-H156*$D$15</f>
+        <v>-0.56105263157894703</v>
+      </c>
+      <c r="L156" s="26">
+        <f>职业定位属性配比!$G$9-I156*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B157" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="C157" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B157</f>
+        <v>12.194000000000003</v>
+      </c>
+      <c r="D157" s="26">
+        <f>C157*职业定位属性配比!$C$40</f>
+        <v>10.589526315789476</v>
+      </c>
+      <c r="E157" s="26">
+        <f t="shared" si="3"/>
+        <v>1.6044736842105269</v>
+      </c>
+      <c r="F157" s="26">
+        <v>0</v>
+      </c>
+      <c r="G157" s="26">
+        <f>IF((D157/职业定位属性配比!$E$10-$E$5)&gt;0,D157/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.7111842105263166</v>
+      </c>
+      <c r="H157" s="26">
+        <f>IF((E157/职业定位属性配比!$F$10-$E$5)&gt;0,(E157/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.3044736842105269</v>
+      </c>
+      <c r="I157" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="26">
+        <f>职业定位属性配比!$E$9-G157*$D$15</f>
+        <v>-2.4223684210526333</v>
+      </c>
+      <c r="K157" s="26">
+        <f>职业定位属性配比!$F$9-H157*$D$15</f>
+        <v>-0.60894736842105379</v>
+      </c>
+      <c r="L157" s="26">
+        <f>职业定位属性配比!$G$9-I157*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B158" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="C158" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B158</f>
+        <v>12.376000000000003</v>
+      </c>
+      <c r="D158" s="26">
+        <f>C158*职业定位属性配比!$C$40</f>
+        <v>10.747578947368424</v>
+      </c>
+      <c r="E158" s="26">
+        <f t="shared" si="3"/>
+        <v>1.6284210526315785</v>
+      </c>
+      <c r="F158" s="26">
+        <v>0</v>
+      </c>
+      <c r="G158" s="26">
+        <f>IF((D158/职业定位属性配比!$E$10-$E$5)&gt;0,D158/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.7710526315789483</v>
+      </c>
+      <c r="H158" s="26">
+        <f>IF((E158/职业定位属性配比!$F$10-$E$5)&gt;0,(E158/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.3284210526315785</v>
+      </c>
+      <c r="I158" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="26">
+        <f>职业定位属性配比!$E$9-G158*$D$15</f>
+        <v>-2.5421052631578966</v>
+      </c>
+      <c r="K158" s="26">
+        <f>职业定位属性配比!$F$9-H158*$D$15</f>
+        <v>-0.65684210526315701</v>
+      </c>
+      <c r="L158" s="26">
+        <f>职业定位属性配比!$G$9-I158*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B159" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="C159" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B159</f>
+        <v>12.558000000000002</v>
+      </c>
+      <c r="D159" s="26">
+        <f>C159*职业定位属性配比!$C$40</f>
+        <v>10.90563157894737</v>
+      </c>
+      <c r="E159" s="26">
+        <f t="shared" si="3"/>
+        <v>1.6523684210526319</v>
+      </c>
+      <c r="F159" s="26">
+        <v>0</v>
+      </c>
+      <c r="G159" s="26">
+        <f>IF((D159/职业定位属性配比!$E$10-$E$5)&gt;0,D159/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.8309210526315791</v>
+      </c>
+      <c r="H159" s="26">
+        <f>IF((E159/职业定位属性配比!$F$10-$E$5)&gt;0,(E159/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.3523684210526319</v>
+      </c>
+      <c r="I159" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="26">
+        <f>职业定位属性配比!$E$9-G159*$D$15</f>
+        <v>-2.6618421052631582</v>
+      </c>
+      <c r="K159" s="26">
+        <f>职业定位属性配比!$F$9-H159*$D$15</f>
+        <v>-0.70473684210526377</v>
+      </c>
+      <c r="L159" s="26">
+        <f>职业定位属性配比!$G$9-I159*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B160" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C160" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B160</f>
+        <v>12.740000000000002</v>
+      </c>
+      <c r="D160" s="26">
+        <f>C160*职业定位属性配比!$C$40</f>
+        <v>11.063684210526318</v>
+      </c>
+      <c r="E160" s="26">
+        <f t="shared" si="3"/>
+        <v>1.6763157894736835</v>
+      </c>
+      <c r="F160" s="26">
+        <v>0</v>
+      </c>
+      <c r="G160" s="26">
+        <f>IF((D160/职业定位属性配比!$E$10-$E$5)&gt;0,D160/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.8907894736842117</v>
+      </c>
+      <c r="H160" s="26">
+        <f>IF((E160/职业定位属性配比!$F$10-$E$5)&gt;0,(E160/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.3763157894736835</v>
+      </c>
+      <c r="I160" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="26">
+        <f>职业定位属性配比!$E$9-G160*$D$15</f>
+        <v>-2.7815789473684234</v>
+      </c>
+      <c r="K160" s="26">
+        <f>职业定位属性配比!$F$9-H160*$D$15</f>
+        <v>-0.75263157894736699</v>
+      </c>
+      <c r="L160" s="26">
+        <f>职业定位属性配比!$G$9-I160*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B161" s="22">
+        <v>0.71</v>
+      </c>
+      <c r="C161" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B161</f>
+        <v>12.922000000000001</v>
+      </c>
+      <c r="D161" s="26">
+        <f>C161*职业定位属性配比!$C$40</f>
+        <v>11.221736842105264</v>
+      </c>
+      <c r="E161" s="26">
+        <f t="shared" si="3"/>
+        <v>1.7002631578947369</v>
+      </c>
+      <c r="F161" s="26">
+        <v>0</v>
+      </c>
+      <c r="G161" s="26">
+        <f>IF((D161/职业定位属性配比!$E$10-$E$5)&gt;0,D161/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>3.9506578947368425</v>
+      </c>
+      <c r="H161" s="26">
+        <f>IF((E161/职业定位属性配比!$F$10-$E$5)&gt;0,(E161/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.4002631578947369</v>
+      </c>
+      <c r="I161" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="26">
+        <f>职业定位属性配比!$E$9-G161*$D$15</f>
+        <v>-2.901315789473685</v>
+      </c>
+      <c r="K161" s="26">
+        <f>职业定位属性配比!$F$9-H161*$D$15</f>
+        <v>-0.80052631578947375</v>
+      </c>
+      <c r="L161" s="26">
+        <f>职业定位属性配比!$G$9-I161*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B162" s="22">
+        <v>0.72</v>
+      </c>
+      <c r="C162" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B162</f>
+        <v>13.104000000000001</v>
+      </c>
+      <c r="D162" s="26">
+        <f>C162*职业定位属性配比!$C$40</f>
+        <v>11.379789473684212</v>
+      </c>
+      <c r="E162" s="26">
+        <f t="shared" si="3"/>
+        <v>1.7242105263157885</v>
+      </c>
+      <c r="F162" s="26">
+        <v>0</v>
+      </c>
+      <c r="G162" s="26">
+        <f>IF((D162/职业定位属性配比!$E$10-$E$5)&gt;0,D162/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.0105263157894742</v>
+      </c>
+      <c r="H162" s="26">
+        <f>IF((E162/职业定位属性配比!$F$10-$E$5)&gt;0,(E162/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.4242105263157885</v>
+      </c>
+      <c r="I162" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="26">
+        <f>职业定位属性配比!$E$9-G162*$D$15</f>
+        <v>-3.0210526315789483</v>
+      </c>
+      <c r="K162" s="26">
+        <f>职业定位属性配比!$F$9-H162*$D$15</f>
+        <v>-0.84842105263157697</v>
+      </c>
+      <c r="L162" s="26">
+        <f>职业定位属性配比!$G$9-I162*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B163" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="C163" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B163</f>
+        <v>13.286000000000001</v>
+      </c>
+      <c r="D163" s="26">
+        <f>C163*职业定位属性配比!$C$40</f>
+        <v>11.537842105263159</v>
+      </c>
+      <c r="E163" s="26">
+        <f t="shared" si="3"/>
+        <v>1.7481578947368419</v>
+      </c>
+      <c r="F163" s="26">
+        <v>0</v>
+      </c>
+      <c r="G163" s="26">
+        <f>IF((D163/职业定位属性配比!$E$10-$E$5)&gt;0,D163/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.0703947368421058</v>
+      </c>
+      <c r="H163" s="26">
+        <f>IF((E163/职业定位属性配比!$F$10-$E$5)&gt;0,(E163/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.4481578947368419</v>
+      </c>
+      <c r="I163" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="26">
+        <f>职业定位属性配比!$E$9-G163*$D$15</f>
+        <v>-3.1407894736842117</v>
+      </c>
+      <c r="K163" s="26">
+        <f>职业定位属性配比!$F$9-H163*$D$15</f>
+        <v>-0.89631578947368373</v>
+      </c>
+      <c r="L163" s="26">
+        <f>职业定位属性配比!$G$9-I163*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B164" s="22">
+        <v>0.74</v>
+      </c>
+      <c r="C164" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B164</f>
+        <v>13.468000000000002</v>
+      </c>
+      <c r="D164" s="26">
+        <f>C164*职业定位属性配比!$C$40</f>
+        <v>11.695894736842106</v>
+      </c>
+      <c r="E164" s="26">
+        <f t="shared" si="3"/>
+        <v>1.7721052631578953</v>
+      </c>
+      <c r="F164" s="26">
+        <v>0</v>
+      </c>
+      <c r="G164" s="26">
+        <f>IF((D164/职业定位属性配比!$E$10-$E$5)&gt;0,D164/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.1302631578947375</v>
+      </c>
+      <c r="H164" s="26">
+        <f>IF((E164/职业定位属性配比!$F$10-$E$5)&gt;0,(E164/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.4721052631578952</v>
+      </c>
+      <c r="I164" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="26">
+        <f>职业定位属性配比!$E$9-G164*$D$15</f>
+        <v>-3.260526315789475</v>
+      </c>
+      <c r="K164" s="26">
+        <f>职业定位属性配比!$F$9-H164*$D$15</f>
+        <v>-0.9442105263157905</v>
+      </c>
+      <c r="L164" s="26">
+        <f>职业定位属性配比!$G$9-I164*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B165" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C165" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B165</f>
+        <v>13.650000000000002</v>
+      </c>
+      <c r="D165" s="26">
+        <f>C165*职业定位属性配比!$C$40</f>
+        <v>11.853947368421055</v>
+      </c>
+      <c r="E165" s="26">
+        <f t="shared" si="3"/>
+        <v>1.7960526315789469</v>
+      </c>
+      <c r="F165" s="26">
+        <v>0</v>
+      </c>
+      <c r="G165" s="26">
+        <f>IF((D165/职业定位属性配比!$E$10-$E$5)&gt;0,D165/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.1901315789473692</v>
+      </c>
+      <c r="H165" s="26">
+        <f>IF((E165/职业定位属性配比!$F$10-$E$5)&gt;0,(E165/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.4960526315789469</v>
+      </c>
+      <c r="I165" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="26">
+        <f>职业定位属性配比!$E$9-G165*$D$15</f>
+        <v>-3.3802631578947384</v>
+      </c>
+      <c r="K165" s="26">
+        <f>职业定位属性配比!$F$9-H165*$D$15</f>
+        <v>-0.99210526315789371</v>
+      </c>
+      <c r="L165" s="26">
+        <f>职业定位属性配比!$G$9-I165*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B166" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="C166" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B166</f>
+        <v>13.832000000000003</v>
+      </c>
+      <c r="D166" s="26">
+        <f>C166*职业定位属性配比!$C$40</f>
+        <v>12.012000000000002</v>
+      </c>
+      <c r="E166" s="26">
+        <f t="shared" si="3"/>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="F166" s="26">
+        <v>0</v>
+      </c>
+      <c r="G166" s="26">
+        <f>IF((D166/职业定位属性配比!$E$10-$E$5)&gt;0,D166/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.2500000000000009</v>
+      </c>
+      <c r="H166" s="26">
+        <f>IF((E166/职业定位属性配比!$F$10-$E$5)&gt;0,(E166/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.5200000000000002</v>
+      </c>
+      <c r="I166" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="26">
+        <f>职业定位属性配比!$E$9-G166*$D$15</f>
+        <v>-3.5000000000000018</v>
+      </c>
+      <c r="K166" s="26">
+        <f>职业定位属性配比!$F$9-H166*$D$15</f>
+        <v>-1.0400000000000005</v>
+      </c>
+      <c r="L166" s="26">
+        <f>职业定位属性配比!$G$9-I166*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B167" s="22">
+        <v>0.77</v>
+      </c>
+      <c r="C167" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B167</f>
+        <v>14.014000000000003</v>
+      </c>
+      <c r="D167" s="26">
+        <f>C167*职业定位属性配比!$C$40</f>
+        <v>12.170052631578951</v>
+      </c>
+      <c r="E167" s="26">
+        <f t="shared" si="3"/>
+        <v>1.8439473684210519</v>
+      </c>
+      <c r="F167" s="26">
+        <v>0</v>
+      </c>
+      <c r="G167" s="26">
+        <f>IF((D167/职业定位属性配比!$E$10-$E$5)&gt;0,D167/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.3098684210526326</v>
+      </c>
+      <c r="H167" s="26">
+        <f>IF((E167/职业定位属性配比!$F$10-$E$5)&gt;0,(E167/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.5439473684210518</v>
+      </c>
+      <c r="I167" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="26">
+        <f>职业定位属性配比!$E$9-G167*$D$15</f>
+        <v>-3.6197368421052651</v>
+      </c>
+      <c r="K167" s="26">
+        <f>职业定位属性配比!$F$9-H167*$D$15</f>
+        <v>-1.0878947368421037</v>
+      </c>
+      <c r="L167" s="26">
+        <f>职业定位属性配比!$G$9-I167*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B168" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="C168" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B168</f>
+        <v>14.196000000000003</v>
+      </c>
+      <c r="D168" s="26">
+        <f>C168*职业定位属性配比!$C$40</f>
+        <v>12.328105263157898</v>
+      </c>
+      <c r="E168" s="26">
+        <f t="shared" si="3"/>
+        <v>1.8678947368421053</v>
+      </c>
+      <c r="F168" s="26">
+        <v>0</v>
+      </c>
+      <c r="G168" s="26">
+        <f>IF((D168/职业定位属性配比!$E$10-$E$5)&gt;0,D168/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.3697368421052643</v>
+      </c>
+      <c r="H168" s="26">
+        <f>IF((E168/职业定位属性配比!$F$10-$E$5)&gt;0,(E168/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.5678947368421052</v>
+      </c>
+      <c r="I168" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="26">
+        <f>职业定位属性配比!$E$9-G168*$D$15</f>
+        <v>-3.7394736842105285</v>
+      </c>
+      <c r="K168" s="26">
+        <f>职业定位属性配比!$F$9-H168*$D$15</f>
+        <v>-1.1357894736842105</v>
+      </c>
+      <c r="L168" s="26">
+        <f>职业定位属性配比!$G$9-I168*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B169" s="22">
+        <v>0.79</v>
+      </c>
+      <c r="C169" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B169</f>
+        <v>14.378000000000004</v>
+      </c>
+      <c r="D169" s="26">
+        <f>C169*职业定位属性配比!$C$40</f>
+        <v>12.486157894736845</v>
+      </c>
+      <c r="E169" s="26">
+        <f t="shared" si="3"/>
+        <v>1.8918421052631587</v>
+      </c>
+      <c r="F169" s="26">
+        <v>0</v>
+      </c>
+      <c r="G169" s="26">
+        <f>IF((D169/职业定位属性配比!$E$10-$E$5)&gt;0,D169/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.4296052631578959</v>
+      </c>
+      <c r="H169" s="26">
+        <f>IF((E169/职业定位属性配比!$F$10-$E$5)&gt;0,(E169/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.5918421052631586</v>
+      </c>
+      <c r="I169" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="26">
+        <f>职业定位属性配比!$E$9-G169*$D$15</f>
+        <v>-3.8592105263157919</v>
+      </c>
+      <c r="K169" s="26">
+        <f>职业定位属性配比!$F$9-H169*$D$15</f>
+        <v>-1.1836842105263172</v>
+      </c>
+      <c r="L169" s="26">
+        <f>职业定位属性配比!$G$9-I169*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B170" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="C170" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B170</f>
+        <v>14.560000000000002</v>
+      </c>
+      <c r="D170" s="26">
+        <f>C170*职业定位属性配比!$C$40</f>
+        <v>12.644210526315792</v>
+      </c>
+      <c r="E170" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9157894736842103</v>
+      </c>
+      <c r="F170" s="26">
+        <v>0</v>
+      </c>
+      <c r="G170" s="26">
+        <f>IF((D170/职业定位属性配比!$E$10-$E$5)&gt;0,D170/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.4894736842105276</v>
+      </c>
+      <c r="H170" s="26">
+        <f>IF((E170/职业定位属性配比!$F$10-$E$5)&gt;0,(E170/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.6157894736842102</v>
+      </c>
+      <c r="I170" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="26">
+        <f>职业定位属性配比!$E$9-G170*$D$15</f>
+        <v>-3.9789473684210552</v>
+      </c>
+      <c r="K170" s="26">
+        <f>职业定位属性配比!$F$9-H170*$D$15</f>
+        <v>-1.2315789473684204</v>
+      </c>
+      <c r="L170" s="26">
+        <f>职业定位属性配比!$G$9-I170*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B171" s="22">
+        <v>0.81</v>
+      </c>
+      <c r="C171" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B171</f>
+        <v>14.742000000000003</v>
+      </c>
+      <c r="D171" s="26">
+        <f>C171*职业定位属性配比!$C$40</f>
+        <v>12.802263157894739</v>
+      </c>
+      <c r="E171" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9397368421052636</v>
+      </c>
+      <c r="F171" s="26">
+        <v>0</v>
+      </c>
+      <c r="G171" s="26">
+        <f>IF((D171/职业定位属性配比!$E$10-$E$5)&gt;0,D171/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.5493421052631584</v>
+      </c>
+      <c r="H171" s="26">
+        <f>IF((E171/职业定位属性配比!$F$10-$E$5)&gt;0,(E171/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.6397368421052636</v>
+      </c>
+      <c r="I171" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="26">
+        <f>职业定位属性配比!$E$9-G171*$D$15</f>
+        <v>-4.0986842105263168</v>
+      </c>
+      <c r="K171" s="26">
+        <f>职业定位属性配比!$F$9-H171*$D$15</f>
+        <v>-1.2794736842105272</v>
+      </c>
+      <c r="L171" s="26">
+        <f>职业定位属性配比!$G$9-I171*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B172" s="22">
+        <v>0.82</v>
+      </c>
+      <c r="C172" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B172</f>
+        <v>14.924000000000001</v>
+      </c>
+      <c r="D172" s="26">
+        <f>C172*职业定位属性配比!$C$40</f>
+        <v>12.960315789473686</v>
+      </c>
+      <c r="E172" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9636842105263153</v>
+      </c>
+      <c r="F172" s="26">
+        <v>0</v>
+      </c>
+      <c r="G172" s="26">
+        <f>IF((D172/职业定位属性配比!$E$10-$E$5)&gt;0,D172/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.6092105263157901</v>
+      </c>
+      <c r="H172" s="26">
+        <f>IF((E172/职业定位属性配比!$F$10-$E$5)&gt;0,(E172/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.6636842105263152</v>
+      </c>
+      <c r="I172" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="26">
+        <f>职业定位属性配比!$E$9-G172*$D$15</f>
+        <v>-4.2184210526315802</v>
+      </c>
+      <c r="K172" s="26">
+        <f>职业定位属性配比!$F$9-H172*$D$15</f>
+        <v>-1.3273684210526304</v>
+      </c>
+      <c r="L172" s="26">
+        <f>职业定位属性配比!$G$9-I172*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B173" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="C173" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B173</f>
+        <v>15.106000000000002</v>
+      </c>
+      <c r="D173" s="26">
+        <f>C173*职业定位属性配比!$C$40</f>
+        <v>13.118368421052633</v>
+      </c>
+      <c r="E173" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9876315789473686</v>
+      </c>
+      <c r="F173" s="26">
+        <v>0</v>
+      </c>
+      <c r="G173" s="26">
+        <f>IF((D173/职业定位属性配比!$E$10-$E$5)&gt;0,D173/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.6690789473684218</v>
+      </c>
+      <c r="H173" s="26">
+        <f>IF((E173/职业定位属性配比!$F$10-$E$5)&gt;0,(E173/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.6876315789473686</v>
+      </c>
+      <c r="I173" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="26">
+        <f>职业定位属性配比!$E$9-G173*$D$15</f>
+        <v>-4.3381578947368435</v>
+      </c>
+      <c r="K173" s="26">
+        <f>职业定位属性配比!$F$9-H173*$D$15</f>
+        <v>-1.3752631578947372</v>
+      </c>
+      <c r="L173" s="26">
+        <f>职业定位属性配比!$G$9-I173*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B174" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="C174" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B174</f>
+        <v>15.288000000000002</v>
+      </c>
+      <c r="D174" s="26">
+        <f>C174*职业定位属性配比!$C$40</f>
+        <v>13.276421052631582</v>
+      </c>
+      <c r="E174" s="26">
+        <f t="shared" si="3"/>
+        <v>2.0115789473684202</v>
+      </c>
+      <c r="F174" s="26">
+        <v>0</v>
+      </c>
+      <c r="G174" s="26">
+        <f>IF((D174/职业定位属性配比!$E$10-$E$5)&gt;0,D174/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.7289473684210535</v>
+      </c>
+      <c r="H174" s="26">
+        <f>IF((E174/职业定位属性配比!$F$10-$E$5)&gt;0,(E174/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.7115789473684202</v>
+      </c>
+      <c r="I174" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="26">
+        <f>职业定位属性配比!$E$9-G174*$D$15</f>
+        <v>-4.4578947368421069</v>
+      </c>
+      <c r="K174" s="26">
+        <f>职业定位属性配比!$F$9-H174*$D$15</f>
+        <v>-1.4231578947368404</v>
+      </c>
+      <c r="L174" s="26">
+        <f>职业定位属性配比!$G$9-I174*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B175" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="C175" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B175</f>
+        <v>15.470000000000002</v>
+      </c>
+      <c r="D175" s="26">
+        <f>C175*职业定位属性配比!$C$40</f>
+        <v>13.434473684210529</v>
+      </c>
+      <c r="E175" s="26">
+        <f t="shared" si="3"/>
+        <v>2.0355263157894736</v>
+      </c>
+      <c r="F175" s="26">
+        <v>0</v>
+      </c>
+      <c r="G175" s="26">
+        <f>IF((D175/职业定位属性配比!$E$10-$E$5)&gt;0,D175/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.7888157894736851</v>
+      </c>
+      <c r="H175" s="26">
+        <f>IF((E175/职业定位属性配比!$F$10-$E$5)&gt;0,(E175/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.7355263157894736</v>
+      </c>
+      <c r="I175" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="26">
+        <f>职业定位属性配比!$E$9-G175*$D$15</f>
+        <v>-4.5776315789473703</v>
+      </c>
+      <c r="K175" s="26">
+        <f>职业定位属性配比!$F$9-H175*$D$15</f>
+        <v>-1.4710526315789472</v>
+      </c>
+      <c r="L175" s="26">
+        <f>职业定位属性配比!$G$9-I175*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B176" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="C176" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B176</f>
+        <v>15.652000000000003</v>
+      </c>
+      <c r="D176" s="26">
+        <f>C176*职业定位属性配比!$C$40</f>
+        <v>13.592526315789476</v>
+      </c>
+      <c r="E176" s="26">
+        <f t="shared" si="3"/>
+        <v>2.059473684210527</v>
+      </c>
+      <c r="F176" s="26">
+        <v>0</v>
+      </c>
+      <c r="G176" s="26">
+        <f>IF((D176/职业定位属性配比!$E$10-$E$5)&gt;0,D176/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.8486842105263168</v>
+      </c>
+      <c r="H176" s="26">
+        <f>IF((E176/职业定位属性配比!$F$10-$E$5)&gt;0,(E176/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.759473684210527</v>
+      </c>
+      <c r="I176" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="26">
+        <f>职业定位属性配比!$E$9-G176*$D$15</f>
+        <v>-4.6973684210526336</v>
+      </c>
+      <c r="K176" s="26">
+        <f>职业定位属性配比!$F$9-H176*$D$15</f>
+        <v>-1.5189473684210539</v>
+      </c>
+      <c r="L176" s="26">
+        <f>职业定位属性配比!$G$9-I176*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B177" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="C177" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B177</f>
+        <v>15.834000000000003</v>
+      </c>
+      <c r="D177" s="26">
+        <f>C177*职业定位属性配比!$C$40</f>
+        <v>13.750578947368425</v>
+      </c>
+      <c r="E177" s="26">
+        <f t="shared" si="3"/>
+        <v>2.0834210526315786</v>
+      </c>
+      <c r="F177" s="26">
+        <v>0</v>
+      </c>
+      <c r="G177" s="26">
+        <f>IF((D177/职业定位属性配比!$E$10-$E$5)&gt;0,D177/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.9085526315789485</v>
+      </c>
+      <c r="H177" s="26">
+        <f>IF((E177/职业定位属性配比!$F$10-$E$5)&gt;0,(E177/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.7834210526315786</v>
+      </c>
+      <c r="I177" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="26">
+        <f>职业定位属性配比!$E$9-G177*$D$15</f>
+        <v>-4.817105263157897</v>
+      </c>
+      <c r="K177" s="26">
+        <f>职业定位属性配比!$F$9-H177*$D$15</f>
+        <v>-1.5668421052631571</v>
+      </c>
+      <c r="L177" s="26">
+        <f>职业定位属性配比!$G$9-I177*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B178" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="C178" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B178</f>
+        <v>16.016000000000002</v>
+      </c>
+      <c r="D178" s="26">
+        <f>C178*职业定位属性配比!$C$40</f>
+        <v>13.90863157894737</v>
+      </c>
+      <c r="E178" s="26">
+        <f t="shared" si="3"/>
+        <v>2.107368421052632</v>
+      </c>
+      <c r="F178" s="26">
+        <v>0</v>
+      </c>
+      <c r="G178" s="26">
+        <f>IF((D178/职业定位属性配比!$E$10-$E$5)&gt;0,D178/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>4.9684210526315793</v>
+      </c>
+      <c r="H178" s="26">
+        <f>IF((E178/职业定位属性配比!$F$10-$E$5)&gt;0,(E178/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.807368421052632</v>
+      </c>
+      <c r="I178" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="26">
+        <f>职业定位属性配比!$E$9-G178*$D$15</f>
+        <v>-4.9368421052631586</v>
+      </c>
+      <c r="K178" s="26">
+        <f>职业定位属性配比!$F$9-H178*$D$15</f>
+        <v>-1.6147368421052639</v>
+      </c>
+      <c r="L178" s="26">
+        <f>职业定位属性配比!$G$9-I178*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B179" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="C179" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B179</f>
+        <v>16.198000000000004</v>
+      </c>
+      <c r="D179" s="26">
+        <f>C179*职业定位属性配比!$C$40</f>
+        <v>14.06668421052632</v>
+      </c>
+      <c r="E179" s="26">
+        <f t="shared" si="3"/>
+        <v>2.1313157894736836</v>
+      </c>
+      <c r="F179" s="26">
+        <v>0</v>
+      </c>
+      <c r="G179" s="26">
+        <f>IF((D179/职业定位属性配比!$E$10-$E$5)&gt;0,D179/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.0282894736842119</v>
+      </c>
+      <c r="H179" s="26">
+        <f>IF((E179/职业定位属性配比!$F$10-$E$5)&gt;0,(E179/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.8313157894736836</v>
+      </c>
+      <c r="I179" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="26">
+        <f>职业定位属性配比!$E$9-G179*$D$15</f>
+        <v>-5.0565789473684237</v>
+      </c>
+      <c r="K179" s="26">
+        <f>职业定位属性配比!$F$9-H179*$D$15</f>
+        <v>-1.6626315789473671</v>
+      </c>
+      <c r="L179" s="26">
+        <f>职业定位属性配比!$G$9-I179*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B180" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="C180" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B180</f>
+        <v>16.380000000000003</v>
+      </c>
+      <c r="D180" s="26">
+        <f>C180*职业定位属性配比!$C$40</f>
+        <v>14.224736842105266</v>
+      </c>
+      <c r="E180" s="26">
+        <f t="shared" si="3"/>
+        <v>2.155263157894737</v>
+      </c>
+      <c r="F180" s="26">
+        <v>0</v>
+      </c>
+      <c r="G180" s="26">
+        <f>IF((D180/职业定位属性配比!$E$10-$E$5)&gt;0,D180/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.0881578947368427</v>
+      </c>
+      <c r="H180" s="26">
+        <f>IF((E180/职业定位属性配比!$F$10-$E$5)&gt;0,(E180/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.8552631578947369</v>
+      </c>
+      <c r="I180" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="26">
+        <f>职业定位属性配比!$E$9-G180*$D$15</f>
+        <v>-5.1763157894736853</v>
+      </c>
+      <c r="K180" s="26">
+        <f>职业定位属性配比!$F$9-H180*$D$15</f>
+        <v>-1.7105263157894739</v>
+      </c>
+      <c r="L180" s="26">
+        <f>职业定位属性配比!$G$9-I180*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B181" s="22">
+        <v>0.91</v>
+      </c>
+      <c r="C181" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B181</f>
+        <v>16.562000000000005</v>
+      </c>
+      <c r="D181" s="26">
+        <f>C181*职业定位属性配比!$C$40</f>
+        <v>14.382789473684214</v>
+      </c>
+      <c r="E181" s="26">
+        <f t="shared" si="3"/>
+        <v>2.1792105263157904</v>
+      </c>
+      <c r="F181" s="26">
+        <v>0</v>
+      </c>
+      <c r="G181" s="26">
+        <f>IF((D181/职业定位属性配比!$E$10-$E$5)&gt;0,D181/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.1480263157894752</v>
+      </c>
+      <c r="H181" s="26">
+        <f>IF((E181/职业定位属性配比!$F$10-$E$5)&gt;0,(E181/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.8792105263157903</v>
+      </c>
+      <c r="I181" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="26">
+        <f>职业定位属性配比!$E$9-G181*$D$15</f>
+        <v>-5.2960526315789505</v>
+      </c>
+      <c r="K181" s="26">
+        <f>职业定位属性配比!$F$9-H181*$D$15</f>
+        <v>-1.7584210526315807</v>
+      </c>
+      <c r="L181" s="26">
+        <f>职业定位属性配比!$G$9-I181*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B182" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="C182" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B182</f>
+        <v>16.744000000000003</v>
+      </c>
+      <c r="D182" s="26">
+        <f>C182*职业定位属性配比!$C$40</f>
+        <v>14.540842105263161</v>
+      </c>
+      <c r="E182" s="26">
+        <f t="shared" si="3"/>
+        <v>2.203157894736842</v>
+      </c>
+      <c r="F182" s="26">
+        <v>0</v>
+      </c>
+      <c r="G182" s="26">
+        <f>IF((D182/职业定位属性配比!$E$10-$E$5)&gt;0,D182/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.2078947368421069</v>
+      </c>
+      <c r="H182" s="26">
+        <f>IF((E182/职业定位属性配比!$F$10-$E$5)&gt;0,(E182/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.9031578947368419</v>
+      </c>
+      <c r="I182" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="26">
+        <f>职业定位属性配比!$E$9-G182*$D$15</f>
+        <v>-5.4157894736842138</v>
+      </c>
+      <c r="K182" s="26">
+        <f>职业定位属性配比!$F$9-H182*$D$15</f>
+        <v>-1.8063157894736839</v>
+      </c>
+      <c r="L182" s="26">
+        <f>职业定位属性配比!$G$9-I182*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B183" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="C183" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B183</f>
+        <v>16.926000000000002</v>
+      </c>
+      <c r="D183" s="26">
+        <f>C183*职业定位属性配比!$C$40</f>
+        <v>14.698894736842108</v>
+      </c>
+      <c r="E183" s="26">
+        <f t="shared" si="3"/>
+        <v>2.2271052631578936</v>
+      </c>
+      <c r="F183" s="26">
+        <v>0</v>
+      </c>
+      <c r="G183" s="26">
+        <f>IF((D183/职业定位属性配比!$E$10-$E$5)&gt;0,D183/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.2677631578947377</v>
+      </c>
+      <c r="H183" s="26">
+        <f>IF((E183/职业定位属性配比!$F$10-$E$5)&gt;0,(E183/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.9271052631578935</v>
+      </c>
+      <c r="I183" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="26">
+        <f>职业定位属性配比!$E$9-G183*$D$15</f>
+        <v>-5.5355263157894754</v>
+      </c>
+      <c r="K183" s="26">
+        <f>职业定位属性配比!$F$9-H183*$D$15</f>
+        <v>-1.8542105263157871</v>
+      </c>
+      <c r="L183" s="26">
+        <f>职业定位属性配比!$G$9-I183*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B184" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="C184" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B184</f>
+        <v>17.108000000000001</v>
+      </c>
+      <c r="D184" s="26">
+        <f>C184*职业定位属性配比!$C$40</f>
+        <v>14.856947368421054</v>
+      </c>
+      <c r="E184" s="26">
+        <f t="shared" si="3"/>
+        <v>2.251052631578947</v>
+      </c>
+      <c r="F184" s="26">
+        <v>0</v>
+      </c>
+      <c r="G184" s="26">
+        <f>IF((D184/职业定位属性配比!$E$10-$E$5)&gt;0,D184/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.3276315789473685</v>
+      </c>
+      <c r="H184" s="26">
+        <f>IF((E184/职业定位属性配比!$F$10-$E$5)&gt;0,(E184/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.9510526315789469</v>
+      </c>
+      <c r="I184" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="26">
+        <f>职业定位属性配比!$E$9-G184*$D$15</f>
+        <v>-5.655263157894737</v>
+      </c>
+      <c r="K184" s="26">
+        <f>职业定位属性配比!$F$9-H184*$D$15</f>
+        <v>-1.9021052631578939</v>
+      </c>
+      <c r="L184" s="26">
+        <f>职业定位属性配比!$G$9-I184*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B185" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="C185" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B185</f>
+        <v>17.290000000000003</v>
+      </c>
+      <c r="D185" s="26">
+        <f>C185*职业定位属性配比!$C$40</f>
+        <v>15.015000000000002</v>
+      </c>
+      <c r="E185" s="26">
+        <f t="shared" si="3"/>
+        <v>2.2750000000000004</v>
+      </c>
+      <c r="F185" s="26">
+        <v>0</v>
+      </c>
+      <c r="G185" s="26">
+        <f>IF((D185/职业定位属性配比!$E$10-$E$5)&gt;0,D185/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.3875000000000011</v>
+      </c>
+      <c r="H185" s="26">
+        <f>IF((E185/职业定位属性配比!$F$10-$E$5)&gt;0,(E185/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.9750000000000003</v>
+      </c>
+      <c r="I185" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="26">
+        <f>职业定位属性配比!$E$9-G185*$D$15</f>
+        <v>-5.7750000000000021</v>
+      </c>
+      <c r="K185" s="26">
+        <f>职业定位属性配比!$F$9-H185*$D$15</f>
+        <v>-1.9500000000000006</v>
+      </c>
+      <c r="L185" s="26">
+        <f>职业定位属性配比!$G$9-I185*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B186" s="22">
+        <v>0.96</v>
+      </c>
+      <c r="C186" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B186</f>
+        <v>17.472000000000001</v>
+      </c>
+      <c r="D186" s="26">
+        <f>C186*职业定位属性配比!$C$40</f>
+        <v>15.173052631578949</v>
+      </c>
+      <c r="E186" s="26">
+        <f t="shared" si="3"/>
+        <v>2.298947368421052</v>
+      </c>
+      <c r="F186" s="26">
+        <v>0</v>
+      </c>
+      <c r="G186" s="26">
+        <f>IF((D186/职业定位属性配比!$E$10-$E$5)&gt;0,D186/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.4473684210526319</v>
+      </c>
+      <c r="H186" s="26">
+        <f>IF((E186/职业定位属性配比!$F$10-$E$5)&gt;0,(E186/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>1.9989473684210519</v>
+      </c>
+      <c r="I186" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="26">
+        <f>职业定位属性配比!$E$9-G186*$D$15</f>
+        <v>-5.8947368421052637</v>
+      </c>
+      <c r="K186" s="26">
+        <f>职业定位属性配比!$F$9-H186*$D$15</f>
+        <v>-1.9978947368421038</v>
+      </c>
+      <c r="L186" s="26">
+        <f>职业定位属性配比!$G$9-I186*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B187" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="C187" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B187</f>
+        <v>17.654000000000003</v>
+      </c>
+      <c r="D187" s="26">
+        <f>C187*职业定位属性配比!$C$40</f>
+        <v>15.331105263157898</v>
+      </c>
+      <c r="E187" s="26">
+        <f t="shared" si="3"/>
+        <v>2.3228947368421053</v>
+      </c>
+      <c r="F187" s="26">
+        <v>0</v>
+      </c>
+      <c r="G187" s="26">
+        <f>IF((D187/职业定位属性配比!$E$10-$E$5)&gt;0,D187/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.5072368421052644</v>
+      </c>
+      <c r="H187" s="26">
+        <f>IF((E187/职业定位属性配比!$F$10-$E$5)&gt;0,(E187/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>2.0228947368421055</v>
+      </c>
+      <c r="I187" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="26">
+        <f>职业定位属性配比!$E$9-G187*$D$15</f>
+        <v>-6.0144736842105289</v>
+      </c>
+      <c r="K187" s="26">
+        <f>职业定位属性配比!$F$9-H187*$D$15</f>
+        <v>-2.045789473684211</v>
+      </c>
+      <c r="L187" s="26">
+        <f>职业定位属性配比!$G$9-I187*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B188" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="C188" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B188</f>
+        <v>17.836000000000002</v>
+      </c>
+      <c r="D188" s="26">
+        <f>C188*职业定位属性配比!$C$40</f>
+        <v>15.489157894736845</v>
+      </c>
+      <c r="E188" s="26">
+        <f t="shared" si="3"/>
+        <v>2.346842105263157</v>
+      </c>
+      <c r="F188" s="26">
+        <v>0</v>
+      </c>
+      <c r="G188" s="26">
+        <f>IF((D188/职业定位属性配比!$E$10-$E$5)&gt;0,D188/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.5671052631578961</v>
+      </c>
+      <c r="H188" s="26">
+        <f>IF((E188/职业定位属性配比!$F$10-$E$5)&gt;0,(E188/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>2.0468421052631571</v>
+      </c>
+      <c r="I188" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="26">
+        <f>职业定位属性配比!$E$9-G188*$D$15</f>
+        <v>-6.1342105263157922</v>
+      </c>
+      <c r="K188" s="26">
+        <f>职业定位属性配比!$F$9-H188*$D$15</f>
+        <v>-2.0936842105263143</v>
+      </c>
+      <c r="L188" s="26">
+        <f>职业定位属性配比!$G$9-I188*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B189" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="C189" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B189</f>
+        <v>18.018000000000004</v>
+      </c>
+      <c r="D189" s="26">
+        <f>C189*职业定位属性配比!$C$40</f>
+        <v>15.647210526315794</v>
+      </c>
+      <c r="E189" s="26">
+        <f t="shared" si="3"/>
+        <v>2.3707894736842103</v>
+      </c>
+      <c r="F189" s="26">
+        <v>0</v>
+      </c>
+      <c r="G189" s="26">
+        <f>IF((D189/职业定位属性配比!$E$10-$E$5)&gt;0,D189/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.6269736842105278</v>
+      </c>
+      <c r="H189" s="26">
+        <f>IF((E189/职业定位属性配比!$F$10-$E$5)&gt;0,(E189/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>2.0707894736842105</v>
+      </c>
+      <c r="I189" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="26">
+        <f>职业定位属性配比!$E$9-G189*$D$15</f>
+        <v>-6.2539473684210556</v>
+      </c>
+      <c r="K189" s="26">
+        <f>职业定位属性配比!$F$9-H189*$D$15</f>
+        <v>-2.141578947368421</v>
+      </c>
+      <c r="L189" s="26">
+        <f>职业定位属性配比!$G$9-I189*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B190" s="22">
+        <v>1</v>
+      </c>
+      <c r="C190" s="26">
+        <f>SUM(职业定位属性配比!$E$12:$G$12)*B190</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="D190" s="26">
+        <f>C190*职业定位属性配比!$C$40</f>
+        <v>15.805263157894739</v>
+      </c>
+      <c r="E190" s="26">
+        <f t="shared" si="3"/>
+        <v>2.3947368421052637</v>
+      </c>
+      <c r="F190" s="26">
+        <v>0</v>
+      </c>
+      <c r="G190" s="26">
+        <f>IF((D190/职业定位属性配比!$E$10-$E$5)&gt;0,D190/职业定位属性配比!$E$10-$E$5,0)</f>
+        <v>5.6868421052631586</v>
+      </c>
+      <c r="H190" s="26">
+        <f>IF((E190/职业定位属性配比!$F$10-$E$5)&gt;0,(E190/职业定位属性配比!$F$10-$E$5),0)</f>
+        <v>2.0947368421052639</v>
+      </c>
+      <c r="I190" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="26">
+        <f>职业定位属性配比!$E$9-G190*$D$15</f>
+        <v>-6.3736842105263172</v>
+      </c>
+      <c r="K190" s="26">
+        <f>职业定位属性配比!$F$9-H190*$D$15</f>
+        <v>-2.1894736842105278</v>
+      </c>
+      <c r="L190" s="26">
+        <f>职业定位属性配比!$G$9-I190*$D$15</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:L89"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10733,7 +15182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" tabRatio="610" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="75" windowWidth="28530" windowHeight="12600" tabRatio="610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -33,7 +28,7 @@
     <author>mtong</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="626">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2446,44 +2441,6 @@
   </si>
   <si>
     <t>S的体力（关联职业模型1文档）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D承担</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S承担</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单回合损失血量（0的表示不损失）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss对局剩余血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪局消耗玩家生命百分比</t>
-  </si>
-  <si>
-    <t>T吸收</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2756,7 +2713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3018,9 +2975,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3128,34 +3082,34 @@
                   <c:v>1.635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.66675</c:v>
+                  <c:v>1.6731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8467725000000002</c:v>
+                  <c:v>1.8548370000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9314497500000001</c:v>
+                  <c:v>1.9403207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1829411825</c:v>
+                  <c:v>2.1942072890000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.360382359875</c:v>
+                  <c:v>2.3733383823500001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7276855970412504</c:v>
+                  <c:v>2.7441397455845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0732227164495001</c:v>
+                  <c:v>3.1104090921572451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.632992849890865</c:v>
+                  <c:v>3.6802195470397012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2912410623635813</c:v>
+                  <c:v>4.4306810202108178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.179876149201748</c:v>
+                  <c:v>5.3569648956677387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,12 +3124,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="311545312"/>
-        <c:axId val="311545872"/>
+        <c:axId val="98167424"/>
+        <c:axId val="98173312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311545312"/>
+        <c:axId val="98167424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3172,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311545872"/>
+        <c:crossAx val="98173312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311545872"/>
+        <c:axId val="98173312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311545312"/>
+        <c:crossAx val="98167424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3435,154 +3390,154 @@
                   <c:v>0.63500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66675000000000006</c:v>
+                  <c:v>0.67310000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.6867525000000001</c:v>
+                  <c:v>0.69329300000000005</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.70675500000000013</c:v>
+                  <c:v>0.71348600000000006</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.72675750000000017</c:v>
+                  <c:v>0.73367900000000008</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.7467600000000002</c:v>
+                  <c:v>0.7538720000000001</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.76676250000000024</c:v>
+                  <c:v>0.77406500000000011</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.78676500000000027</c:v>
+                  <c:v>0.79425800000000013</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.8067675000000003</c:v>
+                  <c:v>0.81445100000000015</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.82677000000000034</c:v>
+                  <c:v>0.83464400000000016</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.84677250000000037</c:v>
+                  <c:v>0.85483700000000018</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.93144975000000008</c:v>
+                  <c:v>0.94032070000000012</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.95939324250000013</c:v>
+                  <c:v>0.96853032100000014</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.98733673500000019</c:v>
+                  <c:v>0.99673994200000016</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>1.0152802275000001</c:v>
+                  <c:v>1.0249495630000001</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>1.0432237200000001</c:v>
+                  <c:v>1.0531591840000001</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>1.0711672125</c:v>
+                  <c:v>1.0813688050000001</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>1.099110705</c:v>
+                  <c:v>1.1095784260000001</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>1.1270541974999999</c:v>
+                  <c:v>1.1377880470000001</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>1.1549976899999999</c:v>
+                  <c:v>1.1659976680000002</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>1.1829411824999998</c:v>
+                  <c:v>1.1942072890000002</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>1.360382359875</c:v>
+                  <c:v>1.3733383823500001</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>1.4011938306712499</c:v>
+                  <c:v>1.4145385338205001</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>1.4420053014674998</c:v>
+                  <c:v>1.4557386852910001</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>1.4828167722637497</c:v>
+                  <c:v>1.4969388367615002</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>1.5236282430599997</c:v>
+                  <c:v>1.5381389882320002</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>1.5644397138562496</c:v>
+                  <c:v>1.5793391397025003</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>1.6052511846524995</c:v>
+                  <c:v>1.6205392911730003</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>1.6460626554487494</c:v>
+                  <c:v>1.6617394426435004</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>1.6868741262449993</c:v>
+                  <c:v>1.7029395941140004</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>1.7276855970412492</c:v>
+                  <c:v>1.7441397455845005</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>2.0732227164495001</c:v>
+                  <c:v>2.1104090921572451</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>2.135419397942985</c:v>
+                  <c:v>2.1737213649219624</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>2.1976160794364699</c:v>
+                  <c:v>2.2370336376866797</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>2.2598127609299548</c:v>
+                  <c:v>2.300345910451397</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>2.3220094424234397</c:v>
+                  <c:v>2.3636581832161143</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>2.3842061239169245</c:v>
+                  <c:v>2.4269704559808316</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>2.4464028054104094</c:v>
+                  <c:v>2.4902827287455489</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>2.5085994869038943</c:v>
+                  <c:v>2.5535950015102662</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>2.5707961683973792</c:v>
+                  <c:v>2.6169072742749835</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>2.6329928498908641</c:v>
+                  <c:v>2.6802195470397008</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>3.2912410623635813</c:v>
+                  <c:v>3.4306810202108178</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>3.3899782942344889</c:v>
+                  <c:v>3.5336014508171423</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>3.4887155261053966</c:v>
+                  <c:v>3.6365218814234668</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>3.5874527579763043</c:v>
+                  <c:v>3.7394423120297913</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>3.6861899898472119</c:v>
+                  <c:v>3.8423627426361158</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>3.7849272217181196</c:v>
+                  <c:v>3.9452831732424403</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>3.8836644535890272</c:v>
+                  <c:v>4.0482036038487648</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>3.9824016854599349</c:v>
+                  <c:v>4.1511240344550897</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>4.0811389173308426</c:v>
+                  <c:v>4.2540444650614146</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>4.1798761492017498</c:v>
+                  <c:v>4.3569648956677396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3597,12 +3552,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="311548112"/>
-        <c:axId val="311548672"/>
+        <c:axId val="98189312"/>
+        <c:axId val="98190848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311548112"/>
+        <c:axId val="98189312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311548672"/>
+        <c:crossAx val="98190848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3652,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311548672"/>
+        <c:axId val="98190848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311548112"/>
+        <c:crossAx val="98189312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3885,12 +3841,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="234004096"/>
-        <c:axId val="234004656"/>
+        <c:axId val="98215040"/>
+        <c:axId val="98216576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234004096"/>
+        <c:axId val="98215040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,7 +3889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234004656"/>
+        <c:crossAx val="98216576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3940,7 +3897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234004656"/>
+        <c:axId val="98216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,7 +3948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234004096"/>
+        <c:crossAx val="98215040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5828,15 +5785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
+      <xdr:colOff>61912</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
+      <xdr:colOff>519112</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5858,15 +5815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6007,265 +5964,265 @@
       <sheetName val="职业调整模型"/>
       <sheetName val="属性拆分生成"/>
       <sheetName val="战斗验证"/>
+      <sheetName val="装备拆分生成表"/>
       <sheetName val="属性能力生成表"/>
+      <sheetName val="装备属性生成表"/>
       <sheetName val="宠物升阶生成表"/>
-      <sheetName val="装备拆分生成表"/>
       <sheetName val="装备拆分分析表"/>
       <sheetName val="镶嵌宝石"/>
-      <sheetName val="装备属性生成表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="23">
-          <cell r="C23">
-            <v>1178</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1196</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1215</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1233</v>
-          </cell>
-        </row>
         <row r="27">
           <cell r="C27">
-            <v>1251</v>
+            <v>776</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>1270</v>
+            <v>788</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>1288</v>
+            <v>800</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>1306</v>
+            <v>812</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>1325</v>
+            <v>824</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>1343</v>
+            <v>837</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>1360</v>
+            <v>849</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>1376</v>
+            <v>861</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>1393</v>
+            <v>873</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>1409</v>
+            <v>885</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>1426</v>
+            <v>896</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>1442</v>
+            <v>907</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>1459</v>
+            <v>917</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>1475</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>1492</v>
+            <v>939</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>1508</v>
+            <v>950</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
-            <v>1525</v>
+            <v>961</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44">
-            <v>1541</v>
+            <v>971</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45">
-            <v>1558</v>
+            <v>982</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46">
-            <v>1574</v>
+            <v>993</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47">
-            <v>1591</v>
+            <v>1004</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
-            <v>1607</v>
+            <v>1015</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49">
-            <v>1624</v>
+            <v>1026</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
-            <v>1640</v>
+            <v>1037</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51">
-            <v>1657</v>
+            <v>1048</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52">
-            <v>1673</v>
+            <v>1058</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53">
-            <v>1690</v>
+            <v>1069</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54">
-            <v>1706</v>
+            <v>1080</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55">
-            <v>1723</v>
+            <v>1091</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
-            <v>1739</v>
+            <v>1102</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
-            <v>1756</v>
+            <v>1113</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
-            <v>1772</v>
+            <v>1124</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
-            <v>1789</v>
+            <v>1135</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60">
-            <v>1805</v>
+            <v>1146</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61">
-            <v>1822</v>
+            <v>1157</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62">
-            <v>1838</v>
+            <v>1167</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63">
-            <v>1855</v>
+            <v>1178</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64">
-            <v>1871</v>
+            <v>1189</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65">
-            <v>1888</v>
+            <v>1200</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66">
-            <v>1904</v>
+            <v>1211</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67">
-            <v>1921</v>
+            <v>1222</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68">
-            <v>1937</v>
+            <v>1233</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69">
-            <v>1954</v>
+            <v>1243</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70">
-            <v>1970</v>
+            <v>1254</v>
           </cell>
         </row>
         <row r="71">
           <cell r="C71">
-            <v>1987</v>
+            <v>1265</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72">
-            <v>2003</v>
+            <v>1276</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>1287</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>1297</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>1308</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>1319</v>
           </cell>
         </row>
       </sheetData>
@@ -6282,7 +6239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6324,7 +6281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6359,7 +6316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6570,7 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
@@ -9748,10 +9705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10074,12 +10031,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="26">
-        <f>[1]属性拆分生成!C23</f>
-        <v>1178</v>
+        <f>[1]属性拆分生成!C27</f>
+        <v>776</v>
       </c>
       <c r="D38" s="26">
         <f>ROUNDDOWN(C38*$D$8,0)</f>
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10087,12 +10044,12 @@
         <v>2</v>
       </c>
       <c r="C39" s="26">
-        <f>[1]属性拆分生成!C24</f>
-        <v>1196</v>
+        <f>[1]属性拆分生成!C28</f>
+        <v>788</v>
       </c>
       <c r="D39" s="26">
         <f t="shared" ref="D39:D87" si="0">ROUNDDOWN(C39*$D$8,0)</f>
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10100,12 +10057,12 @@
         <v>3</v>
       </c>
       <c r="C40" s="26">
-        <f>[1]属性拆分生成!C25</f>
-        <v>1215</v>
+        <f>[1]属性拆分生成!C29</f>
+        <v>800</v>
       </c>
       <c r="D40" s="26">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10113,12 +10070,12 @@
         <v>4</v>
       </c>
       <c r="C41" s="26">
-        <f>[1]属性拆分生成!C26</f>
-        <v>1233</v>
+        <f>[1]属性拆分生成!C30</f>
+        <v>812</v>
       </c>
       <c r="D41" s="26">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10126,12 +10083,12 @@
         <v>5</v>
       </c>
       <c r="C42" s="26">
-        <f>[1]属性拆分生成!C27</f>
-        <v>1251</v>
+        <f>[1]属性拆分生成!C31</f>
+        <v>824</v>
       </c>
       <c r="D42" s="26">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10139,12 +10096,12 @@
         <v>6</v>
       </c>
       <c r="C43" s="26">
-        <f>[1]属性拆分生成!C28</f>
-        <v>1270</v>
+        <f>[1]属性拆分生成!C32</f>
+        <v>837</v>
       </c>
       <c r="D43" s="26">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10152,12 +10109,12 @@
         <v>7</v>
       </c>
       <c r="C44" s="26">
-        <f>[1]属性拆分生成!C29</f>
-        <v>1288</v>
+        <f>[1]属性拆分生成!C33</f>
+        <v>849</v>
       </c>
       <c r="D44" s="26">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10165,12 +10122,12 @@
         <v>8</v>
       </c>
       <c r="C45" s="26">
-        <f>[1]属性拆分生成!C30</f>
-        <v>1306</v>
+        <f>[1]属性拆分生成!C34</f>
+        <v>861</v>
       </c>
       <c r="D45" s="26">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10178,12 +10135,12 @@
         <v>9</v>
       </c>
       <c r="C46" s="26">
-        <f>[1]属性拆分生成!C31</f>
-        <v>1325</v>
+        <f>[1]属性拆分生成!C35</f>
+        <v>873</v>
       </c>
       <c r="D46" s="26">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10191,12 +10148,12 @@
         <v>10</v>
       </c>
       <c r="C47" s="26">
-        <f>[1]属性拆分生成!C32</f>
-        <v>1343</v>
+        <f>[1]属性拆分生成!C36</f>
+        <v>885</v>
       </c>
       <c r="D47" s="26">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10204,12 +10161,12 @@
         <v>11</v>
       </c>
       <c r="C48" s="26">
-        <f>[1]属性拆分生成!C33</f>
-        <v>1360</v>
+        <f>[1]属性拆分生成!C37</f>
+        <v>896</v>
       </c>
       <c r="D48" s="26">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10217,12 +10174,12 @@
         <v>12</v>
       </c>
       <c r="C49" s="26">
-        <f>[1]属性拆分生成!C34</f>
-        <v>1376</v>
+        <f>[1]属性拆分生成!C38</f>
+        <v>907</v>
       </c>
       <c r="D49" s="26">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10230,12 +10187,12 @@
         <v>13</v>
       </c>
       <c r="C50" s="26">
-        <f>[1]属性拆分生成!C35</f>
-        <v>1393</v>
+        <f>[1]属性拆分生成!C39</f>
+        <v>917</v>
       </c>
       <c r="D50" s="26">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10243,12 +10200,12 @@
         <v>14</v>
       </c>
       <c r="C51" s="26">
-        <f>[1]属性拆分生成!C36</f>
-        <v>1409</v>
+        <f>[1]属性拆分生成!C40</f>
+        <v>928</v>
       </c>
       <c r="D51" s="26">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10256,12 +10213,12 @@
         <v>15</v>
       </c>
       <c r="C52" s="26">
-        <f>[1]属性拆分生成!C37</f>
-        <v>1426</v>
+        <f>[1]属性拆分生成!C41</f>
+        <v>939</v>
       </c>
       <c r="D52" s="26">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10269,12 +10226,12 @@
         <v>16</v>
       </c>
       <c r="C53" s="26">
-        <f>[1]属性拆分生成!C38</f>
-        <v>1442</v>
+        <f>[1]属性拆分生成!C42</f>
+        <v>950</v>
       </c>
       <c r="D53" s="26">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10282,12 +10239,12 @@
         <v>17</v>
       </c>
       <c r="C54" s="26">
-        <f>[1]属性拆分生成!C39</f>
-        <v>1459</v>
+        <f>[1]属性拆分生成!C43</f>
+        <v>961</v>
       </c>
       <c r="D54" s="26">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10295,12 +10252,12 @@
         <v>18</v>
       </c>
       <c r="C55" s="26">
-        <f>[1]属性拆分生成!C40</f>
-        <v>1475</v>
+        <f>[1]属性拆分生成!C44</f>
+        <v>971</v>
       </c>
       <c r="D55" s="26">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10308,12 +10265,12 @@
         <v>19</v>
       </c>
       <c r="C56" s="26">
-        <f>[1]属性拆分生成!C41</f>
-        <v>1492</v>
+        <f>[1]属性拆分生成!C45</f>
+        <v>982</v>
       </c>
       <c r="D56" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10321,12 +10278,12 @@
         <v>20</v>
       </c>
       <c r="C57" s="26">
-        <f>[1]属性拆分生成!C42</f>
-        <v>1508</v>
+        <f>[1]属性拆分生成!C46</f>
+        <v>993</v>
       </c>
       <c r="D57" s="26">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10334,12 +10291,12 @@
         <v>21</v>
       </c>
       <c r="C58" s="26">
-        <f>[1]属性拆分生成!C43</f>
-        <v>1525</v>
+        <f>[1]属性拆分生成!C47</f>
+        <v>1004</v>
       </c>
       <c r="D58" s="26">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10347,12 +10304,12 @@
         <v>22</v>
       </c>
       <c r="C59" s="26">
-        <f>[1]属性拆分生成!C44</f>
-        <v>1541</v>
+        <f>[1]属性拆分生成!C48</f>
+        <v>1015</v>
       </c>
       <c r="D59" s="26">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10360,12 +10317,12 @@
         <v>23</v>
       </c>
       <c r="C60" s="26">
-        <f>[1]属性拆分生成!C45</f>
-        <v>1558</v>
+        <f>[1]属性拆分生成!C49</f>
+        <v>1026</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10373,12 +10330,12 @@
         <v>24</v>
       </c>
       <c r="C61" s="26">
-        <f>[1]属性拆分生成!C46</f>
-        <v>1574</v>
+        <f>[1]属性拆分生成!C50</f>
+        <v>1037</v>
       </c>
       <c r="D61" s="26">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10386,12 +10343,12 @@
         <v>25</v>
       </c>
       <c r="C62" s="26">
-        <f>[1]属性拆分生成!C47</f>
-        <v>1591</v>
+        <f>[1]属性拆分生成!C51</f>
+        <v>1048</v>
       </c>
       <c r="D62" s="26">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10399,12 +10356,12 @@
         <v>26</v>
       </c>
       <c r="C63" s="26">
-        <f>[1]属性拆分生成!C48</f>
-        <v>1607</v>
+        <f>[1]属性拆分生成!C52</f>
+        <v>1058</v>
       </c>
       <c r="D63" s="26">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10412,12 +10369,12 @@
         <v>27</v>
       </c>
       <c r="C64" s="26">
-        <f>[1]属性拆分生成!C49</f>
-        <v>1624</v>
+        <f>[1]属性拆分生成!C53</f>
+        <v>1069</v>
       </c>
       <c r="D64" s="26">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10425,12 +10382,12 @@
         <v>28</v>
       </c>
       <c r="C65" s="26">
-        <f>[1]属性拆分生成!C50</f>
-        <v>1640</v>
+        <f>[1]属性拆分生成!C54</f>
+        <v>1080</v>
       </c>
       <c r="D65" s="26">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10438,12 +10395,12 @@
         <v>29</v>
       </c>
       <c r="C66" s="26">
-        <f>[1]属性拆分生成!C51</f>
-        <v>1657</v>
+        <f>[1]属性拆分生成!C55</f>
+        <v>1091</v>
       </c>
       <c r="D66" s="26">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10451,12 +10408,12 @@
         <v>30</v>
       </c>
       <c r="C67" s="26">
-        <f>[1]属性拆分生成!C52</f>
-        <v>1673</v>
+        <f>[1]属性拆分生成!C56</f>
+        <v>1102</v>
       </c>
       <c r="D67" s="26">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10464,12 +10421,12 @@
         <v>31</v>
       </c>
       <c r="C68" s="26">
-        <f>[1]属性拆分生成!C53</f>
-        <v>1690</v>
+        <f>[1]属性拆分生成!C57</f>
+        <v>1113</v>
       </c>
       <c r="D68" s="26">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10477,12 +10434,12 @@
         <v>32</v>
       </c>
       <c r="C69" s="26">
-        <f>[1]属性拆分生成!C54</f>
-        <v>1706</v>
+        <f>[1]属性拆分生成!C58</f>
+        <v>1124</v>
       </c>
       <c r="D69" s="26">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10490,12 +10447,12 @@
         <v>33</v>
       </c>
       <c r="C70" s="26">
-        <f>[1]属性拆分生成!C55</f>
-        <v>1723</v>
+        <f>[1]属性拆分生成!C59</f>
+        <v>1135</v>
       </c>
       <c r="D70" s="26">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10503,12 +10460,12 @@
         <v>34</v>
       </c>
       <c r="C71" s="26">
-        <f>[1]属性拆分生成!C56</f>
-        <v>1739</v>
+        <f>[1]属性拆分生成!C60</f>
+        <v>1146</v>
       </c>
       <c r="D71" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10516,12 +10473,12 @@
         <v>35</v>
       </c>
       <c r="C72" s="26">
-        <f>[1]属性拆分生成!C57</f>
-        <v>1756</v>
+        <f>[1]属性拆分生成!C61</f>
+        <v>1157</v>
       </c>
       <c r="D72" s="26">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10529,12 +10486,12 @@
         <v>36</v>
       </c>
       <c r="C73" s="26">
-        <f>[1]属性拆分生成!C58</f>
-        <v>1772</v>
+        <f>[1]属性拆分生成!C62</f>
+        <v>1167</v>
       </c>
       <c r="D73" s="26">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10542,12 +10499,12 @@
         <v>37</v>
       </c>
       <c r="C74" s="26">
-        <f>[1]属性拆分生成!C59</f>
-        <v>1789</v>
+        <f>[1]属性拆分生成!C63</f>
+        <v>1178</v>
       </c>
       <c r="D74" s="26">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10555,12 +10512,12 @@
         <v>38</v>
       </c>
       <c r="C75" s="26">
-        <f>[1]属性拆分生成!C60</f>
-        <v>1805</v>
+        <f>[1]属性拆分生成!C64</f>
+        <v>1189</v>
       </c>
       <c r="D75" s="26">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10568,12 +10525,12 @@
         <v>39</v>
       </c>
       <c r="C76" s="26">
-        <f>[1]属性拆分生成!C61</f>
-        <v>1822</v>
+        <f>[1]属性拆分生成!C65</f>
+        <v>1200</v>
       </c>
       <c r="D76" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10581,12 +10538,12 @@
         <v>40</v>
       </c>
       <c r="C77" s="26">
-        <f>[1]属性拆分生成!C62</f>
-        <v>1838</v>
+        <f>[1]属性拆分生成!C66</f>
+        <v>1211</v>
       </c>
       <c r="D77" s="26">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10594,12 +10551,12 @@
         <v>41</v>
       </c>
       <c r="C78" s="26">
-        <f>[1]属性拆分生成!C63</f>
-        <v>1855</v>
+        <f>[1]属性拆分生成!C67</f>
+        <v>1222</v>
       </c>
       <c r="D78" s="26">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10607,12 +10564,12 @@
         <v>42</v>
       </c>
       <c r="C79" s="26">
-        <f>[1]属性拆分生成!C64</f>
-        <v>1871</v>
+        <f>[1]属性拆分生成!C68</f>
+        <v>1233</v>
       </c>
       <c r="D79" s="26">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10620,4559 +10577,155 @@
         <v>43</v>
       </c>
       <c r="C80" s="26">
-        <f>[1]属性拆分生成!C65</f>
-        <v>1888</v>
+        <f>[1]属性拆分生成!C69</f>
+        <v>1243</v>
       </c>
       <c r="D80" s="26">
         <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
         <v>44</v>
       </c>
       <c r="C81" s="26">
-        <f>[1]属性拆分生成!C66</f>
-        <v>1904</v>
+        <f>[1]属性拆分生成!C70</f>
+        <v>1254</v>
       </c>
       <c r="D81" s="26">
         <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <v>45</v>
       </c>
       <c r="C82" s="26">
-        <f>[1]属性拆分生成!C67</f>
-        <v>1921</v>
+        <f>[1]属性拆分生成!C71</f>
+        <v>1265</v>
       </c>
       <c r="D82" s="26">
         <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B83" s="1">
         <v>46</v>
       </c>
       <c r="C83" s="26">
-        <f>[1]属性拆分生成!C68</f>
-        <v>1937</v>
+        <f>[1]属性拆分生成!C72</f>
+        <v>1276</v>
       </c>
       <c r="D83" s="26">
         <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
         <v>47</v>
       </c>
       <c r="C84" s="26">
-        <f>[1]属性拆分生成!C69</f>
-        <v>1954</v>
+        <f>[1]属性拆分生成!C73</f>
+        <v>1287</v>
       </c>
       <c r="D84" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <v>48</v>
       </c>
       <c r="C85" s="26">
-        <f>[1]属性拆分生成!C70</f>
-        <v>1970</v>
+        <f>[1]属性拆分生成!C74</f>
+        <v>1297</v>
       </c>
       <c r="D85" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <v>49</v>
       </c>
       <c r="C86" s="26">
-        <f>[1]属性拆分生成!C71</f>
-        <v>1987</v>
+        <f>[1]属性拆分生成!C75</f>
+        <v>1308</v>
       </c>
       <c r="D86" s="26">
         <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
         <v>50</v>
       </c>
       <c r="C87" s="26">
-        <f>[1]属性拆分生成!C72</f>
-        <v>2003</v>
+        <f>[1]属性拆分生成!C76</f>
+        <v>1319</v>
       </c>
       <c r="D87" s="26">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D89" s="17"/>
-      <c r="G89" s="87" t="s">
-        <v>629</v>
-      </c>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87" t="s">
-        <v>630</v>
-      </c>
-      <c r="K89" s="87"/>
-      <c r="L89" s="87"/>
-    </row>
-    <row r="90" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B91" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="C91" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B91</f>
-        <v>0.18200000000000002</v>
-      </c>
-      <c r="D91" s="26">
-        <f>C91*职业定位属性配比!$C$40</f>
-        <v>0.15805263157894739</v>
-      </c>
-      <c r="E91" s="26">
-        <f>C91-D91</f>
-        <v>2.3947368421052634E-2</v>
-      </c>
-      <c r="F91" s="26">
-        <v>0</v>
-      </c>
-      <c r="G91" s="26">
-        <f>IF((D91/职业定位属性配比!$E$10-$E$5)&gt;0,D91/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="26">
-        <f>IF((E91/职业定位属性配比!$F$10-$E$5)&gt;0,(E91/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="26">
-        <f>F91</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="26">
-        <f>职业定位属性配比!$E$9-G91*$D$15</f>
-        <v>5</v>
-      </c>
-      <c r="K91" s="26">
-        <f>职业定位属性配比!$F$9-H91*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L91" s="26">
-        <f>职业定位属性配比!$G$9-I91*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B92" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="C92" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B92</f>
-        <v>0.36400000000000005</v>
-      </c>
-      <c r="D92" s="26">
-        <f>C92*职业定位属性配比!$C$40</f>
-        <v>0.31610526315789478</v>
-      </c>
-      <c r="E92" s="26">
-        <f t="shared" ref="E92:E155" si="1">C92-D92</f>
-        <v>4.7894736842105268E-2</v>
-      </c>
-      <c r="F92" s="26">
-        <v>0</v>
-      </c>
-      <c r="G92" s="26">
-        <f>IF((D92/职业定位属性配比!$E$10-$E$5)&gt;0,D92/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="26">
-        <f>IF((E92/职业定位属性配比!$F$10-$E$5)&gt;0,(E92/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="26">
-        <f t="shared" ref="I92:I155" si="2">F92</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="26">
-        <f>职业定位属性配比!$E$9-G92*$D$15</f>
-        <v>5</v>
-      </c>
-      <c r="K92" s="26">
-        <f>职业定位属性配比!$F$9-H92*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L92" s="26">
-        <f>职业定位属性配比!$G$9-I92*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B93" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="C93" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B93</f>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D93" s="26">
-        <f>C93*职业定位属性配比!$C$40</f>
-        <v>0.47415789473684217</v>
-      </c>
-      <c r="E93" s="26">
-        <f t="shared" si="1"/>
-        <v>7.1842105263157874E-2</v>
-      </c>
-      <c r="F93" s="26">
-        <v>0</v>
-      </c>
-      <c r="G93" s="26">
-        <f>IF((D93/职业定位属性配比!$E$10-$E$5)&gt;0,D93/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="26">
-        <f>IF((E93/职业定位属性配比!$F$10-$E$5)&gt;0,(E93/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="26">
-        <f>职业定位属性配比!$E$9-G93*$D$15</f>
-        <v>5</v>
-      </c>
-      <c r="K93" s="26">
-        <f>职业定位属性配比!$F$9-H93*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L93" s="26">
-        <f>职业定位属性配比!$G$9-I93*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B94" s="22">
-        <v>0.04</v>
-      </c>
-      <c r="C94" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B94</f>
-        <v>0.72800000000000009</v>
-      </c>
-      <c r="D94" s="26">
-        <f>C94*职业定位属性配比!$C$40</f>
-        <v>0.63221052631578956</v>
-      </c>
-      <c r="E94" s="26">
-        <f t="shared" si="1"/>
-        <v>9.5789473684210535E-2</v>
-      </c>
-      <c r="F94" s="26">
-        <v>0</v>
-      </c>
-      <c r="G94" s="26">
-        <f>IF((D94/职业定位属性配比!$E$10-$E$5)&gt;0,D94/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="26">
-        <f>IF((E94/职业定位属性配比!$F$10-$E$5)&gt;0,(E94/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="26">
-        <f>职业定位属性配比!$E$9-G94*$D$15</f>
-        <v>5</v>
-      </c>
-      <c r="K94" s="26">
-        <f>职业定位属性配比!$F$9-H94*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L94" s="26">
-        <f>职业定位属性配比!$G$9-I94*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B95" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="C95" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B95</f>
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="D95" s="26">
-        <f>C95*职业定位属性配比!$C$40</f>
-        <v>0.790263157894737</v>
-      </c>
-      <c r="E95" s="26">
-        <f t="shared" si="1"/>
-        <v>0.11973684210526314</v>
-      </c>
-      <c r="F95" s="26">
-        <v>0</v>
-      </c>
-      <c r="G95" s="26">
-        <f>IF((D95/职业定位属性配比!$E$10-$E$5)&gt;0,D95/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="26">
-        <f>IF((E95/职业定位属性配比!$F$10-$E$5)&gt;0,(E95/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="26">
-        <f>职业定位属性配比!$E$9-G95*$D$15</f>
-        <v>5</v>
-      </c>
-      <c r="K95" s="26">
-        <f>职业定位属性配比!$F$9-H95*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L95" s="26">
-        <f>职业定位属性配比!$G$9-I95*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="C96" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B96</f>
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D96" s="26">
-        <f>C96*职业定位属性配比!$C$40</f>
-        <v>0.94831578947368433</v>
-      </c>
-      <c r="E96" s="26">
-        <f t="shared" si="1"/>
-        <v>0.14368421052631575</v>
-      </c>
-      <c r="F96" s="26">
-        <v>0</v>
-      </c>
-      <c r="G96" s="26">
-        <f>IF((D96/职业定位属性配比!$E$10-$E$5)&gt;0,D96/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.9210526315789491E-2</v>
-      </c>
-      <c r="H96" s="26">
-        <f>IF((E96/职业定位属性配比!$F$10-$E$5)&gt;0,(E96/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="26">
-        <f>职业定位属性配比!$E$9-G96*$D$15</f>
-        <v>4.8815789473684212</v>
-      </c>
-      <c r="K96" s="26">
-        <f>职业定位属性配比!$F$9-H96*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L96" s="26">
-        <f>职业定位属性配比!$G$9-I96*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B97" s="22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C97" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B97</f>
-        <v>1.2740000000000002</v>
-      </c>
-      <c r="D97" s="26">
-        <f>C97*职业定位属性配比!$C$40</f>
-        <v>1.1063684210526319</v>
-      </c>
-      <c r="E97" s="26">
-        <f t="shared" si="1"/>
-        <v>0.16763157894736835</v>
-      </c>
-      <c r="F97" s="26">
-        <v>0</v>
-      </c>
-      <c r="G97" s="26">
-        <f>IF((D97/职业定位属性配比!$E$10-$E$5)&gt;0,D97/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.11907894736842117</v>
-      </c>
-      <c r="H97" s="26">
-        <f>IF((E97/职业定位属性配比!$F$10-$E$5)&gt;0,(E97/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="26">
-        <f>职业定位属性配比!$E$9-G97*$D$15</f>
-        <v>4.7618421052631579</v>
-      </c>
-      <c r="K97" s="26">
-        <f>职业定位属性配比!$F$9-H97*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L97" s="26">
-        <f>职业定位属性配比!$G$9-I97*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B98" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="C98" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B98</f>
-        <v>1.4560000000000002</v>
-      </c>
-      <c r="D98" s="26">
-        <f>C98*职业定位属性配比!$C$40</f>
-        <v>1.2644210526315791</v>
-      </c>
-      <c r="E98" s="26">
-        <f t="shared" si="1"/>
-        <v>0.19157894736842107</v>
-      </c>
-      <c r="F98" s="26">
-        <v>0</v>
-      </c>
-      <c r="G98" s="26">
-        <f>IF((D98/职业定位属性配比!$E$10-$E$5)&gt;0,D98/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.17894736842105269</v>
-      </c>
-      <c r="H98" s="26">
-        <f>IF((E98/职业定位属性配比!$F$10-$E$5)&gt;0,(E98/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="26">
-        <f>职业定位属性配比!$E$9-G98*$D$15</f>
-        <v>4.6421052631578945</v>
-      </c>
-      <c r="K98" s="26">
-        <f>职业定位属性配比!$F$9-H98*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L98" s="26">
-        <f>职业定位属性配比!$G$9-I98*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B99" s="22">
-        <v>0.09</v>
-      </c>
-      <c r="C99" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B99</f>
-        <v>1.6380000000000001</v>
-      </c>
-      <c r="D99" s="26">
-        <f>C99*职业定位属性配比!$C$40</f>
-        <v>1.4224736842105266</v>
-      </c>
-      <c r="E99" s="26">
-        <f t="shared" si="1"/>
-        <v>0.21552631578947357</v>
-      </c>
-      <c r="F99" s="26">
-        <v>0</v>
-      </c>
-      <c r="G99" s="26">
-        <f>IF((D99/职业定位属性配比!$E$10-$E$5)&gt;0,D99/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.23881578947368426</v>
-      </c>
-      <c r="H99" s="26">
-        <f>IF((E99/职业定位属性配比!$F$10-$E$5)&gt;0,(E99/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="26">
-        <f>职业定位属性配比!$E$9-G99*$D$15</f>
-        <v>4.5223684210526311</v>
-      </c>
-      <c r="K99" s="26">
-        <f>职业定位属性配比!$F$9-H99*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L99" s="26">
-        <f>职业定位属性配比!$G$9-I99*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C100" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B100</f>
-        <v>1.8200000000000003</v>
-      </c>
-      <c r="D100" s="26">
-        <f>C100*职业定位属性配比!$C$40</f>
-        <v>1.580526315789474</v>
-      </c>
-      <c r="E100" s="26">
-        <f t="shared" si="1"/>
-        <v>0.23947368421052628</v>
-      </c>
-      <c r="F100" s="26">
-        <v>0</v>
-      </c>
-      <c r="G100" s="26">
-        <f>IF((D100/职业定位属性配比!$E$10-$E$5)&gt;0,D100/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.29868421052631594</v>
-      </c>
-      <c r="H100" s="26">
-        <f>IF((E100/职业定位属性配比!$F$10-$E$5)&gt;0,(E100/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="26">
-        <f>职业定位属性配比!$E$9-G100*$D$15</f>
-        <v>4.4026315789473678</v>
-      </c>
-      <c r="K100" s="26">
-        <f>职业定位属性配比!$F$9-H100*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L100" s="26">
-        <f>职业定位属性配比!$G$9-I100*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B101" s="22">
-        <v>0.11</v>
-      </c>
-      <c r="C101" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B101</f>
-        <v>2.0020000000000002</v>
-      </c>
-      <c r="D101" s="26">
-        <f>C101*职业定位属性配比!$C$40</f>
-        <v>1.7385789473684212</v>
-      </c>
-      <c r="E101" s="26">
-        <f t="shared" si="1"/>
-        <v>0.263421052631579</v>
-      </c>
-      <c r="F101" s="26">
-        <v>0</v>
-      </c>
-      <c r="G101" s="26">
-        <f>IF((D101/职业定位属性配比!$E$10-$E$5)&gt;0,D101/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.3585526315789474</v>
-      </c>
-      <c r="H101" s="26">
-        <f>IF((E101/职业定位属性配比!$F$10-$E$5)&gt;0,(E101/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="26">
-        <f>职业定位属性配比!$E$9-G101*$D$15</f>
-        <v>4.2828947368421053</v>
-      </c>
-      <c r="K101" s="26">
-        <f>职业定位属性配比!$F$9-H101*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L101" s="26">
-        <f>职业定位属性配比!$G$9-I101*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="22">
-        <v>0.12</v>
-      </c>
-      <c r="C102" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B102</f>
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="D102" s="26">
-        <f>C102*职业定位属性配比!$C$40</f>
-        <v>1.8966315789473687</v>
-      </c>
-      <c r="E102" s="26">
-        <f t="shared" si="1"/>
-        <v>0.2873684210526315</v>
-      </c>
-      <c r="F102" s="26">
-        <v>0</v>
-      </c>
-      <c r="G102" s="26">
-        <f>IF((D102/职业定位属性配比!$E$10-$E$5)&gt;0,D102/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.41842105263157897</v>
-      </c>
-      <c r="H102" s="26">
-        <f>IF((E102/职业定位属性配比!$F$10-$E$5)&gt;0,(E102/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="26">
-        <f>职业定位属性配比!$E$9-G102*$D$15</f>
-        <v>4.1631578947368419</v>
-      </c>
-      <c r="K102" s="26">
-        <f>职业定位属性配比!$F$9-H102*$D$15</f>
-        <v>2</v>
-      </c>
-      <c r="L102" s="26">
-        <f>职业定位属性配比!$G$9-I102*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B103" s="22">
-        <v>0.13</v>
-      </c>
-      <c r="C103" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B103</f>
-        <v>2.3660000000000005</v>
-      </c>
-      <c r="D103" s="26">
-        <f>C103*职业定位属性配比!$C$40</f>
-        <v>2.0546842105263163</v>
-      </c>
-      <c r="E103" s="26">
-        <f t="shared" si="1"/>
-        <v>0.31131578947368421</v>
-      </c>
-      <c r="F103" s="26">
-        <v>0</v>
-      </c>
-      <c r="G103" s="26">
-        <f>IF((D103/职业定位属性配比!$E$10-$E$5)&gt;0,D103/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.47828947368421065</v>
-      </c>
-      <c r="H103" s="26">
-        <f>IF((E103/职业定位属性配比!$F$10-$E$5)&gt;0,(E103/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.1315789473684223E-2</v>
-      </c>
-      <c r="I103" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="26">
-        <f>职业定位属性配比!$E$9-G103*$D$15</f>
-        <v>4.0434210526315786</v>
-      </c>
-      <c r="K103" s="26">
-        <f>职业定位属性配比!$F$9-H103*$D$15</f>
-        <v>1.9773684210526317</v>
-      </c>
-      <c r="L103" s="26">
-        <f>职业定位属性配比!$G$9-I103*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="22">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C104" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B104</f>
-        <v>2.5480000000000005</v>
-      </c>
-      <c r="D104" s="26">
-        <f>C104*职业定位属性配比!$C$40</f>
-        <v>2.2127368421052638</v>
-      </c>
-      <c r="E104" s="26">
-        <f t="shared" si="1"/>
-        <v>0.33526315789473671</v>
-      </c>
-      <c r="F104" s="26">
-        <v>0</v>
-      </c>
-      <c r="G104" s="26">
-        <f>IF((D104/职业定位属性配比!$E$10-$E$5)&gt;0,D104/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.53815789473684239</v>
-      </c>
-      <c r="H104" s="26">
-        <f>IF((E104/职业定位属性配比!$F$10-$E$5)&gt;0,(E104/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>3.5263157894736719E-2</v>
-      </c>
-      <c r="I104" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="26">
-        <f>职业定位属性配比!$E$9-G104*$D$15</f>
-        <v>3.9236842105263152</v>
-      </c>
-      <c r="K104" s="26">
-        <f>职业定位属性配比!$F$9-H104*$D$15</f>
-        <v>1.9294736842105267</v>
-      </c>
-      <c r="L104" s="26">
-        <f>职业定位属性配比!$G$9-I104*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="C105" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B105</f>
-        <v>2.7300000000000004</v>
-      </c>
-      <c r="D105" s="26">
-        <f>C105*职业定位属性配比!$C$40</f>
-        <v>2.3707894736842108</v>
-      </c>
-      <c r="E105" s="26">
-        <f t="shared" si="1"/>
-        <v>0.35921052631578965</v>
-      </c>
-      <c r="F105" s="26">
-        <v>0</v>
-      </c>
-      <c r="G105" s="26">
-        <f>IF((D105/职业定位属性配比!$E$10-$E$5)&gt;0,D105/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.59802631578947385</v>
-      </c>
-      <c r="H105" s="26">
-        <f>IF((E105/职业定位属性配比!$F$10-$E$5)&gt;0,(E105/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>5.9210526315789658E-2</v>
-      </c>
-      <c r="I105" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="26">
-        <f>职业定位属性配比!$E$9-G105*$D$15</f>
-        <v>3.8039473684210523</v>
-      </c>
-      <c r="K105" s="26">
-        <f>职业定位属性配比!$F$9-H105*$D$15</f>
-        <v>1.8815789473684208</v>
-      </c>
-      <c r="L105" s="26">
-        <f>职业定位属性配比!$G$9-I105*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B106" s="22">
-        <v>0.16</v>
-      </c>
-      <c r="C106" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B106</f>
-        <v>2.9120000000000004</v>
-      </c>
-      <c r="D106" s="26">
-        <f>C106*职业定位属性配比!$C$40</f>
-        <v>2.5288421052631582</v>
-      </c>
-      <c r="E106" s="26">
-        <f t="shared" si="1"/>
-        <v>0.38315789473684214</v>
-      </c>
-      <c r="F106" s="26">
-        <v>0</v>
-      </c>
-      <c r="G106" s="26">
-        <f>IF((D106/职业定位属性配比!$E$10-$E$5)&gt;0,D106/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.65789473684210531</v>
-      </c>
-      <c r="H106" s="26">
-        <f>IF((E106/职业定位属性配比!$F$10-$E$5)&gt;0,(E106/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>8.3157894736842153E-2</v>
-      </c>
-      <c r="I106" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="26">
-        <f>职业定位属性配比!$E$9-G106*$D$15</f>
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="K106" s="26">
-        <f>职业定位属性配比!$F$9-H106*$D$15</f>
-        <v>1.8336842105263158</v>
-      </c>
-      <c r="L106" s="26">
-        <f>职业定位属性配比!$G$9-I106*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B107" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="C107" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B107</f>
-        <v>3.0940000000000007</v>
-      </c>
-      <c r="D107" s="26">
-        <f>C107*职业定位属性配比!$C$40</f>
-        <v>2.6868947368421061</v>
-      </c>
-      <c r="E107" s="26">
-        <f t="shared" si="1"/>
-        <v>0.40710526315789464</v>
-      </c>
-      <c r="F107" s="26">
-        <v>0</v>
-      </c>
-      <c r="G107" s="26">
-        <f>IF((D107/职业定位属性配比!$E$10-$E$5)&gt;0,D107/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.71776315789473699</v>
-      </c>
-      <c r="H107" s="26">
-        <f>IF((E107/职业定位属性配比!$F$10-$E$5)&gt;0,(E107/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.10710526315789465</v>
-      </c>
-      <c r="I107" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="26">
-        <f>职业定位属性配比!$E$9-G107*$D$15</f>
-        <v>3.564473684210526</v>
-      </c>
-      <c r="K107" s="26">
-        <f>职业定位属性配比!$F$9-H107*$D$15</f>
-        <v>1.7857894736842108</v>
-      </c>
-      <c r="L107" s="26">
-        <f>职业定位属性配比!$G$9-I107*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B108" s="22">
-        <v>0.18</v>
-      </c>
-      <c r="C108" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B108</f>
-        <v>3.2760000000000002</v>
-      </c>
-      <c r="D108" s="26">
-        <f>C108*职业定位属性配比!$C$40</f>
-        <v>2.8449473684210531</v>
-      </c>
-      <c r="E108" s="26">
-        <f t="shared" si="1"/>
-        <v>0.43105263157894713</v>
-      </c>
-      <c r="F108" s="26">
-        <v>0</v>
-      </c>
-      <c r="G108" s="26">
-        <f>IF((D108/职业定位属性配比!$E$10-$E$5)&gt;0,D108/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.77763157894736845</v>
-      </c>
-      <c r="H108" s="26">
-        <f>IF((E108/职业定位属性配比!$F$10-$E$5)&gt;0,(E108/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.13105263157894714</v>
-      </c>
-      <c r="I108" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="26">
-        <f>职业定位属性配比!$E$9-G108*$D$15</f>
-        <v>3.4447368421052631</v>
-      </c>
-      <c r="K108" s="26">
-        <f>职业定位属性配比!$F$9-H108*$D$15</f>
-        <v>1.7378947368421058</v>
-      </c>
-      <c r="L108" s="26">
-        <f>职业定位属性配比!$G$9-I108*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B109" s="22">
-        <v>0.19</v>
-      </c>
-      <c r="C109" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B109</f>
-        <v>3.4580000000000006</v>
-      </c>
-      <c r="D109" s="26">
-        <f>C109*职业定位属性配比!$C$40</f>
-        <v>3.0030000000000006</v>
-      </c>
-      <c r="E109" s="26">
-        <f t="shared" si="1"/>
-        <v>0.45500000000000007</v>
-      </c>
-      <c r="F109" s="26">
-        <v>0</v>
-      </c>
-      <c r="G109" s="26">
-        <f>IF((D109/职业定位属性配比!$E$10-$E$5)&gt;0,D109/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.83750000000000013</v>
-      </c>
-      <c r="H109" s="26">
-        <f>IF((E109/职业定位属性配比!$F$10-$E$5)&gt;0,(E109/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.15500000000000008</v>
-      </c>
-      <c r="I109" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="26">
-        <f>职业定位属性配比!$E$9-G109*$D$15</f>
-        <v>3.3249999999999997</v>
-      </c>
-      <c r="K109" s="26">
-        <f>职业定位属性配比!$F$9-H109*$D$15</f>
-        <v>1.69</v>
-      </c>
-      <c r="L109" s="26">
-        <f>职业定位属性配比!$G$9-I109*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B110" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="C110" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B110</f>
-        <v>3.6400000000000006</v>
-      </c>
-      <c r="D110" s="26">
-        <f>C110*职业定位属性配比!$C$40</f>
-        <v>3.161052631578948</v>
-      </c>
-      <c r="E110" s="26">
-        <f t="shared" si="1"/>
-        <v>0.47894736842105257</v>
-      </c>
-      <c r="F110" s="26">
-        <v>0</v>
-      </c>
-      <c r="G110" s="26">
-        <f>IF((D110/职业定位属性配比!$E$10-$E$5)&gt;0,D110/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.89736842105263182</v>
-      </c>
-      <c r="H110" s="26">
-        <f>IF((E110/职业定位属性配比!$F$10-$E$5)&gt;0,(E110/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.17894736842105258</v>
-      </c>
-      <c r="I110" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="26">
-        <f>职业定位属性配比!$E$9-G110*$D$15</f>
-        <v>3.2052631578947364</v>
-      </c>
-      <c r="K110" s="26">
-        <f>职业定位属性配比!$F$9-H110*$D$15</f>
-        <v>1.642105263157895</v>
-      </c>
-      <c r="L110" s="26">
-        <f>职业定位属性配比!$G$9-I110*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B111" s="22">
-        <v>0.21</v>
-      </c>
-      <c r="C111" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B111</f>
-        <v>3.8220000000000005</v>
-      </c>
-      <c r="D111" s="26">
-        <f>C111*职业定位属性配比!$C$40</f>
-        <v>3.3191052631578954</v>
-      </c>
-      <c r="E111" s="26">
-        <f t="shared" si="1"/>
-        <v>0.50289473684210506</v>
-      </c>
-      <c r="F111" s="26">
-        <v>0</v>
-      </c>
-      <c r="G111" s="26">
-        <f>IF((D111/职业定位属性配比!$E$10-$E$5)&gt;0,D111/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>0.95723684210526327</v>
-      </c>
-      <c r="H111" s="26">
-        <f>IF((E111/职业定位属性配比!$F$10-$E$5)&gt;0,(E111/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.20289473684210507</v>
-      </c>
-      <c r="I111" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="26">
-        <f>职业定位属性配比!$E$9-G111*$D$15</f>
-        <v>3.0855263157894735</v>
-      </c>
-      <c r="K111" s="26">
-        <f>职业定位属性配比!$F$9-H111*$D$15</f>
-        <v>1.59421052631579</v>
-      </c>
-      <c r="L111" s="26">
-        <f>职业定位属性配比!$G$9-I111*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B112" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="C112" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B112</f>
-        <v>4.0040000000000004</v>
-      </c>
-      <c r="D112" s="26">
-        <f>C112*职业定位属性配比!$C$40</f>
-        <v>3.4771578947368424</v>
-      </c>
-      <c r="E112" s="26">
-        <f t="shared" si="1"/>
-        <v>0.526842105263158</v>
-      </c>
-      <c r="F112" s="26">
-        <v>0</v>
-      </c>
-      <c r="G112" s="26">
-        <f>IF((D112/职业定位属性配比!$E$10-$E$5)&gt;0,D112/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.0171052631578947</v>
-      </c>
-      <c r="H112" s="26">
-        <f>IF((E112/职业定位属性配比!$F$10-$E$5)&gt;0,(E112/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.22684210526315801</v>
-      </c>
-      <c r="I112" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="26">
-        <f>职业定位属性配比!$E$9-G112*$D$15</f>
-        <v>2.9657894736842105</v>
-      </c>
-      <c r="K112" s="26">
-        <f>职业定位属性配比!$F$9-H112*$D$15</f>
-        <v>1.5463157894736841</v>
-      </c>
-      <c r="L112" s="26">
-        <f>职业定位属性配比!$G$9-I112*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B113" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="C113" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B113</f>
-        <v>4.1860000000000008</v>
-      </c>
-      <c r="D113" s="26">
-        <f>C113*职业定位属性配比!$C$40</f>
-        <v>3.6352105263157903</v>
-      </c>
-      <c r="E113" s="26">
-        <f t="shared" si="1"/>
-        <v>0.5507894736842105</v>
-      </c>
-      <c r="F113" s="26">
-        <v>0</v>
-      </c>
-      <c r="G113" s="26">
-        <f>IF((D113/职业定位属性配比!$E$10-$E$5)&gt;0,D113/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.0769736842105266</v>
-      </c>
-      <c r="H113" s="26">
-        <f>IF((E113/职业定位属性配比!$F$10-$E$5)&gt;0,(E113/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.25078947368421051</v>
-      </c>
-      <c r="I113" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="26">
-        <f>职业定位属性配比!$E$9-G113*$D$15</f>
-        <v>2.8460526315789467</v>
-      </c>
-      <c r="K113" s="26">
-        <f>职业定位属性配比!$F$9-H113*$D$15</f>
-        <v>1.4984210526315791</v>
-      </c>
-      <c r="L113" s="26">
-        <f>职业定位属性配比!$G$9-I113*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B114" s="22">
-        <v>0.24</v>
-      </c>
-      <c r="C114" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B114</f>
-        <v>4.3680000000000003</v>
-      </c>
-      <c r="D114" s="26">
-        <f>C114*职业定位属性配比!$C$40</f>
-        <v>3.7932631578947373</v>
-      </c>
-      <c r="E114" s="26">
-        <f t="shared" si="1"/>
-        <v>0.57473684210526299</v>
-      </c>
-      <c r="F114" s="26">
-        <v>0</v>
-      </c>
-      <c r="G114" s="26">
-        <f>IF((D114/职业定位属性配比!$E$10-$E$5)&gt;0,D114/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.1368421052631579</v>
-      </c>
-      <c r="H114" s="26">
-        <f>IF((E114/职业定位属性配比!$F$10-$E$5)&gt;0,(E114/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.274736842105263</v>
-      </c>
-      <c r="I114" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="26">
-        <f>职业定位属性配比!$E$9-G114*$D$15</f>
-        <v>2.7263157894736842</v>
-      </c>
-      <c r="K114" s="26">
-        <f>职业定位属性配比!$F$9-H114*$D$15</f>
-        <v>1.4505263157894741</v>
-      </c>
-      <c r="L114" s="26">
-        <f>职业定位属性配比!$G$9-I114*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B115" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="C115" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B115</f>
-        <v>4.5500000000000007</v>
-      </c>
-      <c r="D115" s="26">
-        <f>C115*职业定位属性配比!$C$40</f>
-        <v>3.9513157894736848</v>
-      </c>
-      <c r="E115" s="26">
-        <f t="shared" si="1"/>
-        <v>0.59868421052631593</v>
-      </c>
-      <c r="F115" s="26">
-        <v>0</v>
-      </c>
-      <c r="G115" s="26">
-        <f>IF((D115/职业定位属性配比!$E$10-$E$5)&gt;0,D115/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.1967105263157896</v>
-      </c>
-      <c r="H115" s="26">
-        <f>IF((E115/职业定位属性配比!$F$10-$E$5)&gt;0,(E115/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.29868421052631594</v>
-      </c>
-      <c r="I115" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="26">
-        <f>职业定位属性配比!$E$9-G115*$D$15</f>
-        <v>2.6065789473684209</v>
-      </c>
-      <c r="K115" s="26">
-        <f>职业定位属性配比!$F$9-H115*$D$15</f>
-        <v>1.4026315789473682</v>
-      </c>
-      <c r="L115" s="26">
-        <f>职业定位属性配比!$G$9-I115*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B116" s="22">
-        <v>0.26</v>
-      </c>
-      <c r="C116" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B116</f>
-        <v>4.7320000000000011</v>
-      </c>
-      <c r="D116" s="26">
-        <f>C116*职业定位属性配比!$C$40</f>
-        <v>4.1093684210526327</v>
-      </c>
-      <c r="E116" s="26">
-        <f t="shared" si="1"/>
-        <v>0.62263157894736842</v>
-      </c>
-      <c r="F116" s="26">
-        <v>0</v>
-      </c>
-      <c r="G116" s="26">
-        <f>IF((D116/职业定位属性配比!$E$10-$E$5)&gt;0,D116/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.2565789473684212</v>
-      </c>
-      <c r="H116" s="26">
-        <f>IF((E116/职业定位属性配比!$F$10-$E$5)&gt;0,(E116/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.32263157894736844</v>
-      </c>
-      <c r="I116" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="26">
-        <f>职业定位属性配比!$E$9-G116*$D$15</f>
-        <v>2.4868421052631575</v>
-      </c>
-      <c r="K116" s="26">
-        <f>职业定位属性配比!$F$9-H116*$D$15</f>
-        <v>1.3547368421052632</v>
-      </c>
-      <c r="L116" s="26">
-        <f>职业定位属性配比!$G$9-I116*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B117" s="22">
-        <v>0.27</v>
-      </c>
-      <c r="C117" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B117</f>
-        <v>4.9140000000000015</v>
-      </c>
-      <c r="D117" s="26">
-        <f>C117*职业定位属性配比!$C$40</f>
-        <v>4.2674210526315806</v>
-      </c>
-      <c r="E117" s="26">
-        <f t="shared" si="1"/>
-        <v>0.64657894736842092</v>
-      </c>
-      <c r="F117" s="26">
-        <v>0</v>
-      </c>
-      <c r="G117" s="26">
-        <f>IF((D117/职业定位属性配比!$E$10-$E$5)&gt;0,D117/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.3164473684210531</v>
-      </c>
-      <c r="H117" s="26">
-        <f>IF((E117/职业定位属性配比!$F$10-$E$5)&gt;0,(E117/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.34657894736842093</v>
-      </c>
-      <c r="I117" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="26">
-        <f>职业定位属性配比!$E$9-G117*$D$15</f>
-        <v>2.3671052631578937</v>
-      </c>
-      <c r="K117" s="26">
-        <f>职业定位属性配比!$F$9-H117*$D$15</f>
-        <v>1.3068421052631582</v>
-      </c>
-      <c r="L117" s="26">
-        <f>职业定位属性配比!$G$9-I117*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B118" s="22">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C118" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B118</f>
-        <v>5.096000000000001</v>
-      </c>
-      <c r="D118" s="26">
-        <f>C118*职业定位属性配比!$C$40</f>
-        <v>4.4254736842105276</v>
-      </c>
-      <c r="E118" s="26">
-        <f t="shared" si="1"/>
-        <v>0.67052631578947341</v>
-      </c>
-      <c r="F118" s="26">
-        <v>0</v>
-      </c>
-      <c r="G118" s="26">
-        <f>IF((D118/职业定位属性配比!$E$10-$E$5)&gt;0,D118/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.3763157894736846</v>
-      </c>
-      <c r="H118" s="26">
-        <f>IF((E118/职业定位属性配比!$F$10-$E$5)&gt;0,(E118/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.37052631578947343</v>
-      </c>
-      <c r="I118" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="26">
-        <f>职业定位属性配比!$E$9-G118*$D$15</f>
-        <v>2.2473684210526308</v>
-      </c>
-      <c r="K118" s="26">
-        <f>职业定位属性配比!$F$9-H118*$D$15</f>
-        <v>1.2589473684210533</v>
-      </c>
-      <c r="L118" s="26">
-        <f>职业定位属性配比!$G$9-I118*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B119" s="22">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C119" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B119</f>
-        <v>5.2780000000000005</v>
-      </c>
-      <c r="D119" s="26">
-        <f>C119*职业定位属性配比!$C$40</f>
-        <v>4.5835263157894746</v>
-      </c>
-      <c r="E119" s="26">
-        <f t="shared" si="1"/>
-        <v>0.69447368421052591</v>
-      </c>
-      <c r="F119" s="26">
-        <v>0</v>
-      </c>
-      <c r="G119" s="26">
-        <f>IF((D119/职业定位属性配比!$E$10-$E$5)&gt;0,D119/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.4361842105263161</v>
-      </c>
-      <c r="H119" s="26">
-        <f>IF((E119/职业定位属性配比!$F$10-$E$5)&gt;0,(E119/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.39447368421052592</v>
-      </c>
-      <c r="I119" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="26">
-        <f>职业定位属性配比!$E$9-G119*$D$15</f>
-        <v>2.1276315789473679</v>
-      </c>
-      <c r="K119" s="26">
-        <f>职业定位属性配比!$F$9-H119*$D$15</f>
-        <v>1.2110526315789483</v>
-      </c>
-      <c r="L119" s="26">
-        <f>职业定位属性配比!$G$9-I119*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B120" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="C120" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B120</f>
-        <v>5.4600000000000009</v>
-      </c>
-      <c r="D120" s="26">
-        <f>C120*职业定位属性配比!$C$40</f>
-        <v>4.7415789473684216</v>
-      </c>
-      <c r="E120" s="26">
-        <f t="shared" si="1"/>
-        <v>0.71842105263157929</v>
-      </c>
-      <c r="F120" s="26">
-        <v>0</v>
-      </c>
-      <c r="G120" s="26">
-        <f>IF((D120/职业定位属性配比!$E$10-$E$5)&gt;0,D120/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.4960526315789475</v>
-      </c>
-      <c r="H120" s="26">
-        <f>IF((E120/职业定位属性配比!$F$10-$E$5)&gt;0,(E120/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.4184210526315793</v>
-      </c>
-      <c r="I120" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="26">
-        <f>职业定位属性配比!$E$9-G120*$D$15</f>
-        <v>2.007894736842105</v>
-      </c>
-      <c r="K120" s="26">
-        <f>职业定位属性配比!$F$9-H120*$D$15</f>
-        <v>1.1631578947368415</v>
-      </c>
-      <c r="L120" s="26">
-        <f>职业定位属性配比!$G$9-I120*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B121" s="22">
-        <v>0.31</v>
-      </c>
-      <c r="C121" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B121</f>
-        <v>5.6420000000000012</v>
-      </c>
-      <c r="D121" s="26">
-        <f>C121*职业定位属性配比!$C$40</f>
-        <v>4.8996315789473694</v>
-      </c>
-      <c r="E121" s="26">
-        <f t="shared" si="1"/>
-        <v>0.74236842105263179</v>
-      </c>
-      <c r="F121" s="26">
-        <v>0</v>
-      </c>
-      <c r="G121" s="26">
-        <f>IF((D121/职业定位属性配比!$E$10-$E$5)&gt;0,D121/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.5559210526315792</v>
-      </c>
-      <c r="H121" s="26">
-        <f>IF((E121/职业定位属性配比!$F$10-$E$5)&gt;0,(E121/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.4423684210526318</v>
-      </c>
-      <c r="I121" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="26">
-        <f>职业定位属性配比!$E$9-G121*$D$15</f>
-        <v>1.8881578947368416</v>
-      </c>
-      <c r="K121" s="26">
-        <f>职业定位属性配比!$F$9-H121*$D$15</f>
-        <v>1.1152631578947365</v>
-      </c>
-      <c r="L121" s="26">
-        <f>职业定位属性配比!$G$9-I121*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B122" s="22">
-        <v>0.32</v>
-      </c>
-      <c r="C122" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B122</f>
-        <v>5.8240000000000007</v>
-      </c>
-      <c r="D122" s="26">
-        <f>C122*职业定位属性配比!$C$40</f>
-        <v>5.0576842105263164</v>
-      </c>
-      <c r="E122" s="26">
-        <f t="shared" si="1"/>
-        <v>0.76631578947368428</v>
-      </c>
-      <c r="F122" s="26">
-        <v>0</v>
-      </c>
-      <c r="G122" s="26">
-        <f>IF((D122/职业定位属性配比!$E$10-$E$5)&gt;0,D122/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.6157894736842107</v>
-      </c>
-      <c r="H122" s="26">
-        <f>IF((E122/职业定位属性配比!$F$10-$E$5)&gt;0,(E122/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.46631578947368429</v>
-      </c>
-      <c r="I122" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="26">
-        <f>职业定位属性配比!$E$9-G122*$D$15</f>
-        <v>1.7684210526315787</v>
-      </c>
-      <c r="K122" s="26">
-        <f>职业定位属性配比!$F$9-H122*$D$15</f>
-        <v>1.0673684210526315</v>
-      </c>
-      <c r="L122" s="26">
-        <f>职业定位属性配比!$G$9-I122*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B123" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="C123" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B123</f>
-        <v>6.0060000000000011</v>
-      </c>
-      <c r="D123" s="26">
-        <f>C123*职业定位属性配比!$C$40</f>
-        <v>5.2157368421052643</v>
-      </c>
-      <c r="E123" s="26">
-        <f t="shared" si="1"/>
-        <v>0.79026315789473678</v>
-      </c>
-      <c r="F123" s="26">
-        <v>0</v>
-      </c>
-      <c r="G123" s="26">
-        <f>IF((D123/职业定位属性配比!$E$10-$E$5)&gt;0,D123/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.6756578947368423</v>
-      </c>
-      <c r="H123" s="26">
-        <f>IF((E123/职业定位属性配比!$F$10-$E$5)&gt;0,(E123/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.49026315789473679</v>
-      </c>
-      <c r="I123" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="26">
-        <f>职业定位属性配比!$E$9-G123*$D$15</f>
-        <v>1.6486842105263153</v>
-      </c>
-      <c r="K123" s="26">
-        <f>职业定位属性配比!$F$9-H123*$D$15</f>
-        <v>1.0194736842105265</v>
-      </c>
-      <c r="L123" s="26">
-        <f>职业定位属性配比!$G$9-I123*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B124" s="22">
-        <v>0.34</v>
-      </c>
-      <c r="C124" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B124</f>
-        <v>6.1880000000000015</v>
-      </c>
-      <c r="D124" s="26">
-        <f>C124*职业定位属性配比!$C$40</f>
-        <v>5.3737894736842122</v>
-      </c>
-      <c r="E124" s="26">
-        <f t="shared" si="1"/>
-        <v>0.81421052631578927</v>
-      </c>
-      <c r="F124" s="26">
-        <v>0</v>
-      </c>
-      <c r="G124" s="26">
-        <f>IF((D124/职业定位属性配比!$E$10-$E$5)&gt;0,D124/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.735526315789474</v>
-      </c>
-      <c r="H124" s="26">
-        <f>IF((E124/职业定位属性配比!$F$10-$E$5)&gt;0,(E124/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.51421052631578923</v>
-      </c>
-      <c r="I124" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="26">
-        <f>职业定位属性配比!$E$9-G124*$D$15</f>
-        <v>1.5289473684210519</v>
-      </c>
-      <c r="K124" s="26">
-        <f>职业定位属性配比!$F$9-H124*$D$15</f>
-        <v>0.97157894736842154</v>
-      </c>
-      <c r="L124" s="26">
-        <f>职业定位属性配比!$G$9-I124*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B125" s="22">
-        <v>0.35</v>
-      </c>
-      <c r="C125" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B125</f>
-        <v>6.370000000000001</v>
-      </c>
-      <c r="D125" s="26">
-        <f>C125*职业定位属性配比!$C$40</f>
-        <v>5.5318421052631592</v>
-      </c>
-      <c r="E125" s="26">
-        <f t="shared" si="1"/>
-        <v>0.83815789473684177</v>
-      </c>
-      <c r="F125" s="26">
-        <v>0</v>
-      </c>
-      <c r="G125" s="26">
-        <f>IF((D125/职业定位属性配比!$E$10-$E$5)&gt;0,D125/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.7953947368421057</v>
-      </c>
-      <c r="H125" s="26">
-        <f>IF((E125/职业定位属性配比!$F$10-$E$5)&gt;0,(E125/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.53815789473684172</v>
-      </c>
-      <c r="I125" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="26">
-        <f>职业定位属性配比!$E$9-G125*$D$15</f>
-        <v>1.4092105263157886</v>
-      </c>
-      <c r="K125" s="26">
-        <f>职业定位属性配比!$F$9-H125*$D$15</f>
-        <v>0.92368421052631655</v>
-      </c>
-      <c r="L125" s="26">
-        <f>职业定位属性配比!$G$9-I125*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B126" s="22">
-        <v>0.36</v>
-      </c>
-      <c r="C126" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B126</f>
-        <v>6.5520000000000005</v>
-      </c>
-      <c r="D126" s="26">
-        <f>C126*职业定位属性配比!$C$40</f>
-        <v>5.6898947368421062</v>
-      </c>
-      <c r="E126" s="26">
-        <f t="shared" si="1"/>
-        <v>0.86210526315789426</v>
-      </c>
-      <c r="F126" s="26">
-        <v>0</v>
-      </c>
-      <c r="G126" s="26">
-        <f>IF((D126/职业定位属性配比!$E$10-$E$5)&gt;0,D126/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.8552631578947369</v>
-      </c>
-      <c r="H126" s="26">
-        <f>IF((E126/职业定位属性配比!$F$10-$E$5)&gt;0,(E126/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.56210526315789422</v>
-      </c>
-      <c r="I126" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="26">
-        <f>职业定位属性配比!$E$9-G126*$D$15</f>
-        <v>1.2894736842105261</v>
-      </c>
-      <c r="K126" s="26">
-        <f>职业定位属性配比!$F$9-H126*$D$15</f>
-        <v>0.87578947368421156</v>
-      </c>
-      <c r="L126" s="26">
-        <f>职业定位属性配比!$G$9-I126*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B127" s="22">
-        <v>0.37</v>
-      </c>
-      <c r="C127" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B127</f>
-        <v>6.7340000000000009</v>
-      </c>
-      <c r="D127" s="26">
-        <f>C127*职业定位属性配比!$C$40</f>
-        <v>5.8479473684210532</v>
-      </c>
-      <c r="E127" s="26">
-        <f t="shared" si="1"/>
-        <v>0.88605263157894765</v>
-      </c>
-      <c r="F127" s="26">
-        <v>0</v>
-      </c>
-      <c r="G127" s="26">
-        <f>IF((D127/职业定位属性配比!$E$10-$E$5)&gt;0,D127/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.9151315789473686</v>
-      </c>
-      <c r="H127" s="26">
-        <f>IF((E127/职业定位属性配比!$F$10-$E$5)&gt;0,(E127/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.5860526315789476</v>
-      </c>
-      <c r="I127" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="26">
-        <f>职业定位属性配比!$E$9-G127*$D$15</f>
-        <v>1.1697368421052627</v>
-      </c>
-      <c r="K127" s="26">
-        <f>职业定位属性配比!$F$9-H127*$D$15</f>
-        <v>0.82789473684210479</v>
-      </c>
-      <c r="L127" s="26">
-        <f>职业定位属性配比!$G$9-I127*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B128" s="22">
-        <v>0.38</v>
-      </c>
-      <c r="C128" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B128</f>
-        <v>6.9160000000000013</v>
-      </c>
-      <c r="D128" s="26">
-        <f>C128*职业定位属性配比!$C$40</f>
-        <v>6.0060000000000011</v>
-      </c>
-      <c r="E128" s="26">
-        <f t="shared" si="1"/>
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="F128" s="26">
-        <v>0</v>
-      </c>
-      <c r="G128" s="26">
-        <f>IF((D128/职业定位属性配比!$E$10-$E$5)&gt;0,D128/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>1.9750000000000003</v>
-      </c>
-      <c r="H128" s="26">
-        <f>IF((E128/职业定位属性配比!$F$10-$E$5)&gt;0,(E128/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="I128" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="26">
-        <f>职业定位属性配比!$E$9-G128*$D$15</f>
-        <v>1.0499999999999994</v>
-      </c>
-      <c r="K128" s="26">
-        <f>职业定位属性配比!$F$9-H128*$D$15</f>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="L128" s="26">
-        <f>职业定位属性配比!$G$9-I128*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B129" s="22">
-        <v>0.39</v>
-      </c>
-      <c r="C129" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B129</f>
-        <v>7.0980000000000016</v>
-      </c>
-      <c r="D129" s="26">
-        <f>C129*职业定位属性配比!$C$40</f>
-        <v>6.164052631578949</v>
-      </c>
-      <c r="E129" s="26">
-        <f t="shared" si="1"/>
-        <v>0.93394736842105264</v>
-      </c>
-      <c r="F129" s="26">
-        <v>0</v>
-      </c>
-      <c r="G129" s="26">
-        <f>IF((D129/职业定位属性配比!$E$10-$E$5)&gt;0,D129/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.0348684210526322</v>
-      </c>
-      <c r="H129" s="26">
-        <f>IF((E129/职业定位属性配比!$F$10-$E$5)&gt;0,(E129/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.63394736842105259</v>
-      </c>
-      <c r="I129" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="26">
-        <f>职业定位属性配比!$E$9-G129*$D$15</f>
-        <v>0.93026315789473557</v>
-      </c>
-      <c r="K129" s="26">
-        <f>职业定位属性配比!$F$9-H129*$D$15</f>
-        <v>0.73210526315789481</v>
-      </c>
-      <c r="L129" s="26">
-        <f>职业定位属性配比!$G$9-I129*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B130" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="C130" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B130</f>
-        <v>7.2800000000000011</v>
-      </c>
-      <c r="D130" s="26">
-        <f>C130*职业定位属性配比!$C$40</f>
-        <v>6.322105263157896</v>
-      </c>
-      <c r="E130" s="26">
-        <f t="shared" si="1"/>
-        <v>0.95789473684210513</v>
-      </c>
-      <c r="F130" s="26">
-        <v>0</v>
-      </c>
-      <c r="G130" s="26">
-        <f>IF((D130/职业定位属性配比!$E$10-$E$5)&gt;0,D130/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.0947368421052639</v>
-      </c>
-      <c r="H130" s="26">
-        <f>IF((E130/职业定位属性配比!$F$10-$E$5)&gt;0,(E130/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.65789473684210509</v>
-      </c>
-      <c r="I130" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="26">
-        <f>职业定位属性配比!$E$9-G130*$D$15</f>
-        <v>0.81052631578947221</v>
-      </c>
-      <c r="K130" s="26">
-        <f>职业定位属性配比!$F$9-H130*$D$15</f>
-        <v>0.68421052631578982</v>
-      </c>
-      <c r="L130" s="26">
-        <f>职业定位属性配比!$G$9-I130*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B131" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="C131" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B131</f>
-        <v>7.4620000000000006</v>
-      </c>
-      <c r="D131" s="26">
-        <f>C131*职业定位属性配比!$C$40</f>
-        <v>6.480157894736843</v>
-      </c>
-      <c r="E131" s="26">
-        <f t="shared" si="1"/>
-        <v>0.98184210526315763</v>
-      </c>
-      <c r="F131" s="26">
-        <v>0</v>
-      </c>
-      <c r="G131" s="26">
-        <f>IF((D131/职业定位属性配比!$E$10-$E$5)&gt;0,D131/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.1546052631578951</v>
-      </c>
-      <c r="H131" s="26">
-        <f>IF((E131/职业定位属性配比!$F$10-$E$5)&gt;0,(E131/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.68184210526315758</v>
-      </c>
-      <c r="I131" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="26">
-        <f>职业定位属性配比!$E$9-G131*$D$15</f>
-        <v>0.69078947368420973</v>
-      </c>
-      <c r="K131" s="26">
-        <f>职业定位属性配比!$F$9-H131*$D$15</f>
-        <v>0.63631578947368483</v>
-      </c>
-      <c r="L131" s="26">
-        <f>职业定位属性配比!$G$9-I131*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B132" s="22">
-        <v>0.42</v>
-      </c>
-      <c r="C132" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B132</f>
-        <v>7.644000000000001</v>
-      </c>
-      <c r="D132" s="26">
-        <f>C132*职业定位属性配比!$C$40</f>
-        <v>6.6382105263157909</v>
-      </c>
-      <c r="E132" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0057894736842101</v>
-      </c>
-      <c r="F132" s="26">
-        <v>0</v>
-      </c>
-      <c r="G132" s="26">
-        <f>IF((D132/职业定位属性配比!$E$10-$E$5)&gt;0,D132/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.2144736842105268</v>
-      </c>
-      <c r="H132" s="26">
-        <f>IF((E132/职业定位属性配比!$F$10-$E$5)&gt;0,(E132/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.70578947368421008</v>
-      </c>
-      <c r="I132" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="26">
-        <f>职业定位属性配比!$E$9-G132*$D$15</f>
-        <v>0.57105263157894637</v>
-      </c>
-      <c r="K132" s="26">
-        <f>职业定位属性配比!$F$9-H132*$D$15</f>
-        <v>0.58842105263157984</v>
-      </c>
-      <c r="L132" s="26">
-        <f>职业定位属性配比!$G$9-I132*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B133" s="22">
-        <v>0.43</v>
-      </c>
-      <c r="C133" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B133</f>
-        <v>7.8260000000000014</v>
-      </c>
-      <c r="D133" s="26">
-        <f>C133*职业定位属性配比!$C$40</f>
-        <v>6.7962631578947379</v>
-      </c>
-      <c r="E133" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0297368421052635</v>
-      </c>
-      <c r="F133" s="26">
-        <v>0</v>
-      </c>
-      <c r="G133" s="26">
-        <f>IF((D133/职业定位属性配比!$E$10-$E$5)&gt;0,D133/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.2743421052631585</v>
-      </c>
-      <c r="H133" s="26">
-        <f>IF((E133/职业定位属性配比!$F$10-$E$5)&gt;0,(E133/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.72973684210526346</v>
-      </c>
-      <c r="I133" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="26">
-        <f>职业定位属性配比!$E$9-G133*$D$15</f>
-        <v>0.451315789473683</v>
-      </c>
-      <c r="K133" s="26">
-        <f>职业定位属性配比!$F$9-H133*$D$15</f>
-        <v>0.54052631578947308</v>
-      </c>
-      <c r="L133" s="26">
-        <f>职业定位属性配比!$G$9-I133*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B134" s="22">
-        <v>0.44</v>
-      </c>
-      <c r="C134" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B134</f>
-        <v>8.0080000000000009</v>
-      </c>
-      <c r="D134" s="26">
-        <f>C134*职业定位属性配比!$C$40</f>
-        <v>6.9543157894736849</v>
-      </c>
-      <c r="E134" s="26">
-        <f t="shared" si="1"/>
-        <v>1.053684210526316</v>
-      </c>
-      <c r="F134" s="26">
-        <v>0</v>
-      </c>
-      <c r="G134" s="26">
-        <f>IF((D134/职业定位属性配比!$E$10-$E$5)&gt;0,D134/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.3342105263157897</v>
-      </c>
-      <c r="H134" s="26">
-        <f>IF((E134/职业定位属性配比!$F$10-$E$5)&gt;0,(E134/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.75368421052631596</v>
-      </c>
-      <c r="I134" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="26">
-        <f>职业定位属性配比!$E$9-G134*$D$15</f>
-        <v>0.33157894736842053</v>
-      </c>
-      <c r="K134" s="26">
-        <f>职业定位属性配比!$F$9-H134*$D$15</f>
-        <v>0.49263157894736809</v>
-      </c>
-      <c r="L134" s="26">
-        <f>职业定位属性配比!$G$9-I134*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B135" s="22">
-        <v>0.45</v>
-      </c>
-      <c r="C135" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B135</f>
-        <v>8.1900000000000013</v>
-      </c>
-      <c r="D135" s="26">
-        <f>C135*职业定位属性配比!$C$40</f>
-        <v>7.1123684210526328</v>
-      </c>
-      <c r="E135" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0776315789473685</v>
-      </c>
-      <c r="F135" s="26">
-        <v>0</v>
-      </c>
-      <c r="G135" s="26">
-        <f>IF((D135/职业定位属性配比!$E$10-$E$5)&gt;0,D135/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.3940789473684214</v>
-      </c>
-      <c r="H135" s="26">
-        <f>IF((E135/职业定位属性配比!$F$10-$E$5)&gt;0,(E135/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.77763157894736845</v>
-      </c>
-      <c r="I135" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="26">
-        <f>职业定位属性配比!$E$9-G135*$D$15</f>
-        <v>0.21184210526315717</v>
-      </c>
-      <c r="K135" s="26">
-        <f>职业定位属性配比!$F$9-H135*$D$15</f>
-        <v>0.4447368421052631</v>
-      </c>
-      <c r="L135" s="26">
-        <f>职业定位属性配比!$G$9-I135*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B136" s="22">
-        <v>0.46</v>
-      </c>
-      <c r="C136" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B136</f>
-        <v>8.3720000000000017</v>
-      </c>
-      <c r="D136" s="26">
-        <f>C136*职业定位属性配比!$C$40</f>
-        <v>7.2704210526315807</v>
-      </c>
-      <c r="E136" s="26">
-        <f t="shared" si="1"/>
-        <v>1.101578947368421</v>
-      </c>
-      <c r="F136" s="26">
-        <v>0</v>
-      </c>
-      <c r="G136" s="26">
-        <f>IF((D136/职业定位属性配比!$E$10-$E$5)&gt;0,D136/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.4539473684210535</v>
-      </c>
-      <c r="H136" s="26">
-        <f>IF((E136/职业定位属性配比!$F$10-$E$5)&gt;0,(E136/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.80157894736842095</v>
-      </c>
-      <c r="I136" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="26">
-        <f>职业定位属性配比!$E$9-G136*$D$15</f>
-        <v>9.2105263157892914E-2</v>
-      </c>
-      <c r="K136" s="26">
-        <f>职业定位属性配比!$F$9-H136*$D$15</f>
-        <v>0.39684210526315811</v>
-      </c>
-      <c r="L136" s="26">
-        <f>职业定位属性配比!$G$9-I136*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B137" s="22">
-        <v>0.47</v>
-      </c>
-      <c r="C137" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B137</f>
-        <v>8.5540000000000003</v>
-      </c>
-      <c r="D137" s="26">
-        <f>C137*职业定位属性配比!$C$40</f>
-        <v>7.4284736842105268</v>
-      </c>
-      <c r="E137" s="26">
-        <f t="shared" si="1"/>
-        <v>1.1255263157894735</v>
-      </c>
-      <c r="F137" s="26">
-        <v>0</v>
-      </c>
-      <c r="G137" s="26">
-        <f>IF((D137/职业定位属性配比!$E$10-$E$5)&gt;0,D137/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.5138157894736843</v>
-      </c>
-      <c r="H137" s="26">
-        <f>IF((E137/职业定位属性配比!$F$10-$E$5)&gt;0,(E137/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.82552631578947344</v>
-      </c>
-      <c r="I137" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="26">
-        <f>职业定位属性配比!$E$9-G137*$D$15</f>
-        <v>-2.7631578947368673E-2</v>
-      </c>
-      <c r="K137" s="26">
-        <f>职业定位属性配比!$F$9-H137*$D$15</f>
-        <v>0.34894736842105312</v>
-      </c>
-      <c r="L137" s="26">
-        <f>职业定位属性配比!$G$9-I137*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B138" s="22">
-        <v>0.48</v>
-      </c>
-      <c r="C138" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B138</f>
-        <v>8.7360000000000007</v>
-      </c>
-      <c r="D138" s="26">
-        <f>C138*职业定位属性配比!$C$40</f>
-        <v>7.5865263157894747</v>
-      </c>
-      <c r="E138" s="26">
-        <f t="shared" si="1"/>
-        <v>1.149473684210526</v>
-      </c>
-      <c r="F138" s="26">
-        <v>0</v>
-      </c>
-      <c r="G138" s="26">
-        <f>IF((D138/职业定位属性配比!$E$10-$E$5)&gt;0,D138/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.573684210526316</v>
-      </c>
-      <c r="H138" s="26">
-        <f>IF((E138/职业定位属性配比!$F$10-$E$5)&gt;0,(E138/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.84947368421052594</v>
-      </c>
-      <c r="I138" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="26">
-        <f>职业定位属性配比!$E$9-G138*$D$15</f>
-        <v>-0.14736842105263204</v>
-      </c>
-      <c r="K138" s="26">
-        <f>职业定位属性配比!$F$9-H138*$D$15</f>
-        <v>0.30105263157894813</v>
-      </c>
-      <c r="L138" s="26">
-        <f>职业定位属性配比!$G$9-I138*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B139" s="22">
-        <v>0.49</v>
-      </c>
-      <c r="C139" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B139</f>
-        <v>8.918000000000001</v>
-      </c>
-      <c r="D139" s="26">
-        <f>C139*职业定位属性配比!$C$40</f>
-        <v>7.7445789473684226</v>
-      </c>
-      <c r="E139" s="26">
-        <f t="shared" si="1"/>
-        <v>1.1734210526315785</v>
-      </c>
-      <c r="F139" s="26">
-        <v>0</v>
-      </c>
-      <c r="G139" s="26">
-        <f>IF((D139/职业定位属性配比!$E$10-$E$5)&gt;0,D139/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.6335526315789481</v>
-      </c>
-      <c r="H139" s="26">
-        <f>IF((E139/职业定位属性配比!$F$10-$E$5)&gt;0,(E139/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.87342105263157843</v>
-      </c>
-      <c r="I139" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="26">
-        <f>职业定位属性配比!$E$9-G139*$D$15</f>
-        <v>-0.26710526315789629</v>
-      </c>
-      <c r="K139" s="26">
-        <f>职业定位属性配比!$F$9-H139*$D$15</f>
-        <v>0.25315789473684314</v>
-      </c>
-      <c r="L139" s="26">
-        <f>职业定位属性配比!$G$9-I139*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B140" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C140" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B140</f>
-        <v>9.1000000000000014</v>
-      </c>
-      <c r="D140" s="26">
-        <f>C140*职业定位属性配比!$C$40</f>
-        <v>7.9026315789473696</v>
-      </c>
-      <c r="E140" s="26">
-        <f t="shared" si="1"/>
-        <v>1.1973684210526319</v>
-      </c>
-      <c r="F140" s="26">
-        <v>0</v>
-      </c>
-      <c r="G140" s="26">
-        <f>IF((D140/职业定位属性配比!$E$10-$E$5)&gt;0,D140/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.6934210526315794</v>
-      </c>
-      <c r="H140" s="26">
-        <f>IF((E140/职业定位属性配比!$F$10-$E$5)&gt;0,(E140/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.89736842105263182</v>
-      </c>
-      <c r="I140" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="26">
-        <f>职业定位属性配比!$E$9-G140*$D$15</f>
-        <v>-0.38684210526315876</v>
-      </c>
-      <c r="K140" s="26">
-        <f>职业定位属性配比!$F$9-H140*$D$15</f>
-        <v>0.20526315789473637</v>
-      </c>
-      <c r="L140" s="26">
-        <f>职业定位属性配比!$G$9-I140*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B141" s="22">
-        <v>0.51</v>
-      </c>
-      <c r="C141" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B141</f>
-        <v>9.2820000000000018</v>
-      </c>
-      <c r="D141" s="26">
-        <f>C141*职业定位属性配比!$C$40</f>
-        <v>8.0606842105263183</v>
-      </c>
-      <c r="E141" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2213157894736835</v>
-      </c>
-      <c r="F141" s="26">
-        <v>0</v>
-      </c>
-      <c r="G141" s="26">
-        <f>IF((D141/职业定位属性配比!$E$10-$E$5)&gt;0,D141/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.7532894736842115</v>
-      </c>
-      <c r="H141" s="26">
-        <f>IF((E141/职业定位属性配比!$F$10-$E$5)&gt;0,(E141/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.92131578947368342</v>
-      </c>
-      <c r="I141" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="26">
-        <f>职业定位属性配比!$E$9-G141*$D$15</f>
-        <v>-0.50657894736842302</v>
-      </c>
-      <c r="K141" s="26">
-        <f>职业定位属性配比!$F$9-H141*$D$15</f>
-        <v>0.15736842105263316</v>
-      </c>
-      <c r="L141" s="26">
-        <f>职业定位属性配比!$G$9-I141*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B142" s="22">
-        <v>0.52</v>
-      </c>
-      <c r="C142" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B142</f>
-        <v>9.4640000000000022</v>
-      </c>
-      <c r="D142" s="26">
-        <f>C142*职业定位属性配比!$C$40</f>
-        <v>8.2187368421052653</v>
-      </c>
-      <c r="E142" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2452631578947368</v>
-      </c>
-      <c r="F142" s="26">
-        <v>0</v>
-      </c>
-      <c r="G142" s="26">
-        <f>IF((D142/职业定位属性配比!$E$10-$E$5)&gt;0,D142/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.8131578947368427</v>
-      </c>
-      <c r="H142" s="26">
-        <f>IF((E142/职业定位属性配比!$F$10-$E$5)&gt;0,(E142/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.94526315789473681</v>
-      </c>
-      <c r="I142" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="26">
-        <f>职业定位属性配比!$E$9-G142*$D$15</f>
-        <v>-0.62631578947368549</v>
-      </c>
-      <c r="K142" s="26">
-        <f>职业定位属性配比!$F$9-H142*$D$15</f>
-        <v>0.10947368421052639</v>
-      </c>
-      <c r="L142" s="26">
-        <f>职业定位属性配比!$G$9-I142*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B143" s="22">
-        <v>0.53</v>
-      </c>
-      <c r="C143" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B143</f>
-        <v>9.6460000000000026</v>
-      </c>
-      <c r="D143" s="26">
-        <f>C143*职业定位属性配比!$C$40</f>
-        <v>8.3767894736842123</v>
-      </c>
-      <c r="E143" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2692105263157902</v>
-      </c>
-      <c r="F143" s="26">
-        <v>0</v>
-      </c>
-      <c r="G143" s="26">
-        <f>IF((D143/职业定位属性配比!$E$10-$E$5)&gt;0,D143/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.8730263157894744</v>
-      </c>
-      <c r="H143" s="26">
-        <f>IF((E143/职业定位属性配比!$F$10-$E$5)&gt;0,(E143/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.96921052631579019</v>
-      </c>
-      <c r="I143" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="26">
-        <f>职业定位属性配比!$E$9-G143*$D$15</f>
-        <v>-0.74605263157894885</v>
-      </c>
-      <c r="K143" s="26">
-        <f>职业定位属性配比!$F$9-H143*$D$15</f>
-        <v>6.1578947368419623E-2</v>
-      </c>
-      <c r="L143" s="26">
-        <f>职业定位属性配比!$G$9-I143*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B144" s="22">
-        <v>0.54</v>
-      </c>
-      <c r="C144" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B144</f>
-        <v>9.828000000000003</v>
-      </c>
-      <c r="D144" s="26">
-        <f>C144*职业定位属性配比!$C$40</f>
-        <v>8.5348421052631611</v>
-      </c>
-      <c r="E144" s="26">
-        <f t="shared" si="1"/>
-        <v>1.2931578947368418</v>
-      </c>
-      <c r="F144" s="26">
-        <v>0</v>
-      </c>
-      <c r="G144" s="26">
-        <f>IF((D144/职业定位属性配比!$E$10-$E$5)&gt;0,D144/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.9328947368421066</v>
-      </c>
-      <c r="H144" s="26">
-        <f>IF((E144/职业定位属性配比!$F$10-$E$5)&gt;0,(E144/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>0.9931578947368418</v>
-      </c>
-      <c r="I144" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="26">
-        <f>职业定位属性配比!$E$9-G144*$D$15</f>
-        <v>-0.86578947368421311</v>
-      </c>
-      <c r="K144" s="26">
-        <f>职业定位属性配比!$F$9-H144*$D$15</f>
-        <v>1.3684210526316409E-2</v>
-      </c>
-      <c r="L144" s="26">
-        <f>职业定位属性配比!$G$9-I144*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B145" s="22">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C145" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B145</f>
-        <v>10.010000000000002</v>
-      </c>
-      <c r="D145" s="26">
-        <f>C145*职业定位属性配比!$C$40</f>
-        <v>8.6928947368421063</v>
-      </c>
-      <c r="E145" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3171052631578952</v>
-      </c>
-      <c r="F145" s="26">
-        <v>0</v>
-      </c>
-      <c r="G145" s="26">
-        <f>IF((D145/职业定位属性配比!$E$10-$E$5)&gt;0,D145/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>2.9927631578947373</v>
-      </c>
-      <c r="H145" s="26">
-        <f>IF((E145/职业定位属性配比!$F$10-$E$5)&gt;0,(E145/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.0171052631578952</v>
-      </c>
-      <c r="I145" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="26">
-        <f>职业定位属性配比!$E$9-G145*$D$15</f>
-        <v>-0.98552631578947469</v>
-      </c>
-      <c r="K145" s="26">
-        <f>职业定位属性配比!$F$9-H145*$D$15</f>
-        <v>-3.4210526315790357E-2</v>
-      </c>
-      <c r="L145" s="26">
-        <f>职业定位属性配比!$G$9-I145*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B146" s="22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C146" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B146</f>
-        <v>10.192000000000002</v>
-      </c>
-      <c r="D146" s="26">
-        <f>C146*职业定位属性配比!$C$40</f>
-        <v>8.8509473684210551</v>
-      </c>
-      <c r="E146" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3410526315789468</v>
-      </c>
-      <c r="F146" s="26">
-        <v>0</v>
-      </c>
-      <c r="G146" s="26">
-        <f>IF((D146/职业定位属性配比!$E$10-$E$5)&gt;0,D146/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.0526315789473695</v>
-      </c>
-      <c r="H146" s="26">
-        <f>IF((E146/职业定位属性配比!$F$10-$E$5)&gt;0,(E146/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.0410526315789468</v>
-      </c>
-      <c r="I146" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="26">
-        <f>职业定位属性配比!$E$9-G146*$D$15</f>
-        <v>-1.1052631578947389</v>
-      </c>
-      <c r="K146" s="26">
-        <f>职业定位属性配比!$F$9-H146*$D$15</f>
-        <v>-8.2105263157893571E-2</v>
-      </c>
-      <c r="L146" s="26">
-        <f>职业定位属性配比!$G$9-I146*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B147" s="22">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C147" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B147</f>
-        <v>10.374000000000001</v>
-      </c>
-      <c r="D147" s="26">
-        <f>C147*职业定位属性配比!$C$40</f>
-        <v>9.0090000000000003</v>
-      </c>
-      <c r="E147" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3650000000000002</v>
-      </c>
-      <c r="F147" s="26">
-        <v>0</v>
-      </c>
-      <c r="G147" s="26">
-        <f>IF((D147/职业定位属性配比!$E$10-$E$5)&gt;0,D147/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.1125000000000003</v>
-      </c>
-      <c r="H147" s="26">
-        <f>IF((E147/职业定位属性配比!$F$10-$E$5)&gt;0,(E147/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.0650000000000002</v>
-      </c>
-      <c r="I147" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="26">
-        <f>职业定位属性配比!$E$9-G147*$D$15</f>
-        <v>-1.2250000000000005</v>
-      </c>
-      <c r="K147" s="26">
-        <f>职业定位属性配比!$F$9-H147*$D$15</f>
-        <v>-0.13000000000000034</v>
-      </c>
-      <c r="L147" s="26">
-        <f>职业定位属性配比!$G$9-I147*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B148" s="22">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C148" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B148</f>
-        <v>10.556000000000001</v>
-      </c>
-      <c r="D148" s="26">
-        <f>C148*职业定位属性配比!$C$40</f>
-        <v>9.1670526315789491</v>
-      </c>
-      <c r="E148" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3889473684210518</v>
-      </c>
-      <c r="F148" s="26">
-        <v>0</v>
-      </c>
-      <c r="G148" s="26">
-        <f>IF((D148/职业定位属性配比!$E$10-$E$5)&gt;0,D148/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.1723684210526324</v>
-      </c>
-      <c r="H148" s="26">
-        <f>IF((E148/职业定位属性配比!$F$10-$E$5)&gt;0,(E148/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.0889473684210518</v>
-      </c>
-      <c r="I148" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="26">
-        <f>职业定位属性配比!$E$9-G148*$D$15</f>
-        <v>-1.3447368421052648</v>
-      </c>
-      <c r="K148" s="26">
-        <f>职业定位属性配比!$F$9-H148*$D$15</f>
-        <v>-0.17789473684210355</v>
-      </c>
-      <c r="L148" s="26">
-        <f>职业定位属性配比!$G$9-I148*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B149" s="22">
-        <v>0.59</v>
-      </c>
-      <c r="C149" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B149</f>
-        <v>10.738000000000001</v>
-      </c>
-      <c r="D149" s="26">
-        <f>C149*职业定位属性配比!$C$40</f>
-        <v>9.3251052631578961</v>
-      </c>
-      <c r="E149" s="26">
-        <f t="shared" si="1"/>
-        <v>1.4128947368421052</v>
-      </c>
-      <c r="F149" s="26">
-        <v>0</v>
-      </c>
-      <c r="G149" s="26">
-        <f>IF((D149/职业定位属性配比!$E$10-$E$5)&gt;0,D149/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.2322368421052636</v>
-      </c>
-      <c r="H149" s="26">
-        <f>IF((E149/职业定位属性配比!$F$10-$E$5)&gt;0,(E149/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.1128947368421052</v>
-      </c>
-      <c r="I149" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="26">
-        <f>职业定位属性配比!$E$9-G149*$D$15</f>
-        <v>-1.4644736842105273</v>
-      </c>
-      <c r="K149" s="26">
-        <f>职业定位属性配比!$F$9-H149*$D$15</f>
-        <v>-0.22578947368421032</v>
-      </c>
-      <c r="L149" s="26">
-        <f>职业定位属性配比!$G$9-I149*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B150" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="C150" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B150</f>
-        <v>10.920000000000002</v>
-      </c>
-      <c r="D150" s="26">
-        <f>C150*职业定位属性配比!$C$40</f>
-        <v>9.4831578947368431</v>
-      </c>
-      <c r="E150" s="26">
-        <f t="shared" si="1"/>
-        <v>1.4368421052631586</v>
-      </c>
-      <c r="F150" s="26">
-        <v>0</v>
-      </c>
-      <c r="G150" s="26">
-        <f>IF((D150/职业定位属性配比!$E$10-$E$5)&gt;0,D150/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.2921052631578953</v>
-      </c>
-      <c r="H150" s="26">
-        <f>IF((E150/职业定位属性配比!$F$10-$E$5)&gt;0,(E150/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.1368421052631585</v>
-      </c>
-      <c r="I150" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="26">
-        <f>职业定位属性配比!$E$9-G150*$D$15</f>
-        <v>-1.5842105263157906</v>
-      </c>
-      <c r="K150" s="26">
-        <f>职业定位属性配比!$F$9-H150*$D$15</f>
-        <v>-0.27368421052631708</v>
-      </c>
-      <c r="L150" s="26">
-        <f>职业定位属性配比!$G$9-I150*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B151" s="22">
-        <v>0.61</v>
-      </c>
-      <c r="C151" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B151</f>
-        <v>11.102000000000002</v>
-      </c>
-      <c r="D151" s="26">
-        <f>C151*职业定位属性配比!$C$40</f>
-        <v>9.6412105263157919</v>
-      </c>
-      <c r="E151" s="26">
-        <f t="shared" si="1"/>
-        <v>1.4607894736842102</v>
-      </c>
-      <c r="F151" s="26">
-        <v>0</v>
-      </c>
-      <c r="G151" s="26">
-        <f>IF((D151/职业定位属性配比!$E$10-$E$5)&gt;0,D151/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.3519736842105274</v>
-      </c>
-      <c r="H151" s="26">
-        <f>IF((E151/职业定位属性配比!$F$10-$E$5)&gt;0,(E151/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.1607894736842101</v>
-      </c>
-      <c r="I151" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="26">
-        <f>职业定位属性配比!$E$9-G151*$D$15</f>
-        <v>-1.7039473684210549</v>
-      </c>
-      <c r="K151" s="26">
-        <f>职业定位属性配比!$F$9-H151*$D$15</f>
-        <v>-0.3215789473684203</v>
-      </c>
-      <c r="L151" s="26">
-        <f>职业定位属性配比!$G$9-I151*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B152" s="22">
-        <v>0.62</v>
-      </c>
-      <c r="C152" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B152</f>
-        <v>11.284000000000002</v>
-      </c>
-      <c r="D152" s="26">
-        <f>C152*职业定位属性配比!$C$40</f>
-        <v>9.7992631578947389</v>
-      </c>
-      <c r="E152" s="26">
-        <f t="shared" si="1"/>
-        <v>1.4847368421052636</v>
-      </c>
-      <c r="F152" s="26">
-        <v>0</v>
-      </c>
-      <c r="G152" s="26">
-        <f>IF((D152/职业定位属性配比!$E$10-$E$5)&gt;0,D152/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.4118421052631587</v>
-      </c>
-      <c r="H152" s="26">
-        <f>IF((E152/职业定位属性配比!$F$10-$E$5)&gt;0,(E152/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.1847368421052635</v>
-      </c>
-      <c r="I152" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="26">
-        <f>职业定位属性配比!$E$9-G152*$D$15</f>
-        <v>-1.8236842105263174</v>
-      </c>
-      <c r="K152" s="26">
-        <f>职业定位属性配比!$F$9-H152*$D$15</f>
-        <v>-0.36947368421052706</v>
-      </c>
-      <c r="L152" s="26">
-        <f>职业定位属性配比!$G$9-I152*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B153" s="22">
-        <v>0.63</v>
-      </c>
-      <c r="C153" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B153</f>
-        <v>11.466000000000001</v>
-      </c>
-      <c r="D153" s="26">
-        <f>C153*职业定位属性配比!$C$40</f>
-        <v>9.9573157894736859</v>
-      </c>
-      <c r="E153" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5086842105263152</v>
-      </c>
-      <c r="F153" s="26">
-        <v>0</v>
-      </c>
-      <c r="G153" s="26">
-        <f>IF((D153/职业定位属性配比!$E$10-$E$5)&gt;0,D153/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.4717105263157899</v>
-      </c>
-      <c r="H153" s="26">
-        <f>IF((E153/职业定位属性配比!$F$10-$E$5)&gt;0,(E153/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.2086842105263151</v>
-      </c>
-      <c r="I153" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="26">
-        <f>职业定位属性配比!$E$9-G153*$D$15</f>
-        <v>-1.9434210526315798</v>
-      </c>
-      <c r="K153" s="26">
-        <f>职业定位属性配比!$F$9-H153*$D$15</f>
-        <v>-0.41736842105263028</v>
-      </c>
-      <c r="L153" s="26">
-        <f>职业定位属性配比!$G$9-I153*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B154" s="22">
-        <v>0.64</v>
-      </c>
-      <c r="C154" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B154</f>
-        <v>11.648000000000001</v>
-      </c>
-      <c r="D154" s="26">
-        <f>C154*职业定位属性配比!$C$40</f>
-        <v>10.115368421052633</v>
-      </c>
-      <c r="E154" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5326315789473686</v>
-      </c>
-      <c r="F154" s="26">
-        <v>0</v>
-      </c>
-      <c r="G154" s="26">
-        <f>IF((D154/职业定位属性配比!$E$10-$E$5)&gt;0,D154/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.5315789473684216</v>
-      </c>
-      <c r="H154" s="26">
-        <f>IF((E154/职业定位属性配比!$F$10-$E$5)&gt;0,(E154/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.2326315789473685</v>
-      </c>
-      <c r="I154" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="26">
-        <f>职业定位属性配比!$E$9-G154*$D$15</f>
-        <v>-2.0631578947368432</v>
-      </c>
-      <c r="K154" s="26">
-        <f>职业定位属性配比!$F$9-H154*$D$15</f>
-        <v>-0.46526315789473704</v>
-      </c>
-      <c r="L154" s="26">
-        <f>职业定位属性配比!$G$9-I154*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B155" s="22">
-        <v>0.65</v>
-      </c>
-      <c r="C155" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B155</f>
-        <v>11.830000000000002</v>
-      </c>
-      <c r="D155" s="26">
-        <f>C155*职业定位属性配比!$C$40</f>
-        <v>10.273421052631582</v>
-      </c>
-      <c r="E155" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5565789473684202</v>
-      </c>
-      <c r="F155" s="26">
-        <v>0</v>
-      </c>
-      <c r="G155" s="26">
-        <f>IF((D155/职业定位属性配比!$E$10-$E$5)&gt;0,D155/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.5914473684210537</v>
-      </c>
-      <c r="H155" s="26">
-        <f>IF((E155/职业定位属性配比!$F$10-$E$5)&gt;0,(E155/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.2565789473684201</v>
-      </c>
-      <c r="I155" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="26">
-        <f>职业定位属性配比!$E$9-G155*$D$15</f>
-        <v>-2.1828947368421074</v>
-      </c>
-      <c r="K155" s="26">
-        <f>职业定位属性配比!$F$9-H155*$D$15</f>
-        <v>-0.51315789473684026</v>
-      </c>
-      <c r="L155" s="26">
-        <f>职业定位属性配比!$G$9-I155*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B156" s="22">
-        <v>0.66</v>
-      </c>
-      <c r="C156" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B156</f>
-        <v>12.012000000000002</v>
-      </c>
-      <c r="D156" s="26">
-        <f>C156*职业定位属性配比!$C$40</f>
-        <v>10.431473684210529</v>
-      </c>
-      <c r="E156" s="26">
-        <f t="shared" ref="E156:E190" si="3">C156-D156</f>
-        <v>1.5805263157894736</v>
-      </c>
-      <c r="F156" s="26">
-        <v>0</v>
-      </c>
-      <c r="G156" s="26">
-        <f>IF((D156/职业定位属性配比!$E$10-$E$5)&gt;0,D156/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.651315789473685</v>
-      </c>
-      <c r="H156" s="26">
-        <f>IF((E156/职业定位属性配比!$F$10-$E$5)&gt;0,(E156/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.2805263157894735</v>
-      </c>
-      <c r="I156" s="26">
-        <f t="shared" ref="I156:I190" si="4">F156</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="26">
-        <f>职业定位属性配比!$E$9-G156*$D$15</f>
-        <v>-2.3026315789473699</v>
-      </c>
-      <c r="K156" s="26">
-        <f>职业定位属性配比!$F$9-H156*$D$15</f>
-        <v>-0.56105263157894703</v>
-      </c>
-      <c r="L156" s="26">
-        <f>职业定位属性配比!$G$9-I156*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B157" s="22">
-        <v>0.67</v>
-      </c>
-      <c r="C157" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B157</f>
-        <v>12.194000000000003</v>
-      </c>
-      <c r="D157" s="26">
-        <f>C157*职业定位属性配比!$C$40</f>
-        <v>10.589526315789476</v>
-      </c>
-      <c r="E157" s="26">
-        <f t="shared" si="3"/>
-        <v>1.6044736842105269</v>
-      </c>
-      <c r="F157" s="26">
-        <v>0</v>
-      </c>
-      <c r="G157" s="26">
-        <f>IF((D157/职业定位属性配比!$E$10-$E$5)&gt;0,D157/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.7111842105263166</v>
-      </c>
-      <c r="H157" s="26">
-        <f>IF((E157/职业定位属性配比!$F$10-$E$5)&gt;0,(E157/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.3044736842105269</v>
-      </c>
-      <c r="I157" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="26">
-        <f>职业定位属性配比!$E$9-G157*$D$15</f>
-        <v>-2.4223684210526333</v>
-      </c>
-      <c r="K157" s="26">
-        <f>职业定位属性配比!$F$9-H157*$D$15</f>
-        <v>-0.60894736842105379</v>
-      </c>
-      <c r="L157" s="26">
-        <f>职业定位属性配比!$G$9-I157*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B158" s="22">
-        <v>0.68</v>
-      </c>
-      <c r="C158" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B158</f>
-        <v>12.376000000000003</v>
-      </c>
-      <c r="D158" s="26">
-        <f>C158*职业定位属性配比!$C$40</f>
-        <v>10.747578947368424</v>
-      </c>
-      <c r="E158" s="26">
-        <f t="shared" si="3"/>
-        <v>1.6284210526315785</v>
-      </c>
-      <c r="F158" s="26">
-        <v>0</v>
-      </c>
-      <c r="G158" s="26">
-        <f>IF((D158/职业定位属性配比!$E$10-$E$5)&gt;0,D158/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.7710526315789483</v>
-      </c>
-      <c r="H158" s="26">
-        <f>IF((E158/职业定位属性配比!$F$10-$E$5)&gt;0,(E158/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.3284210526315785</v>
-      </c>
-      <c r="I158" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="26">
-        <f>职业定位属性配比!$E$9-G158*$D$15</f>
-        <v>-2.5421052631578966</v>
-      </c>
-      <c r="K158" s="26">
-        <f>职业定位属性配比!$F$9-H158*$D$15</f>
-        <v>-0.65684210526315701</v>
-      </c>
-      <c r="L158" s="26">
-        <f>职业定位属性配比!$G$9-I158*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B159" s="22">
-        <v>0.69</v>
-      </c>
-      <c r="C159" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B159</f>
-        <v>12.558000000000002</v>
-      </c>
-      <c r="D159" s="26">
-        <f>C159*职业定位属性配比!$C$40</f>
-        <v>10.90563157894737</v>
-      </c>
-      <c r="E159" s="26">
-        <f t="shared" si="3"/>
-        <v>1.6523684210526319</v>
-      </c>
-      <c r="F159" s="26">
-        <v>0</v>
-      </c>
-      <c r="G159" s="26">
-        <f>IF((D159/职业定位属性配比!$E$10-$E$5)&gt;0,D159/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.8309210526315791</v>
-      </c>
-      <c r="H159" s="26">
-        <f>IF((E159/职业定位属性配比!$F$10-$E$5)&gt;0,(E159/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.3523684210526319</v>
-      </c>
-      <c r="I159" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="26">
-        <f>职业定位属性配比!$E$9-G159*$D$15</f>
-        <v>-2.6618421052631582</v>
-      </c>
-      <c r="K159" s="26">
-        <f>职业定位属性配比!$F$9-H159*$D$15</f>
-        <v>-0.70473684210526377</v>
-      </c>
-      <c r="L159" s="26">
-        <f>职业定位属性配比!$G$9-I159*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B160" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="C160" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B160</f>
-        <v>12.740000000000002</v>
-      </c>
-      <c r="D160" s="26">
-        <f>C160*职业定位属性配比!$C$40</f>
-        <v>11.063684210526318</v>
-      </c>
-      <c r="E160" s="26">
-        <f t="shared" si="3"/>
-        <v>1.6763157894736835</v>
-      </c>
-      <c r="F160" s="26">
-        <v>0</v>
-      </c>
-      <c r="G160" s="26">
-        <f>IF((D160/职业定位属性配比!$E$10-$E$5)&gt;0,D160/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.8907894736842117</v>
-      </c>
-      <c r="H160" s="26">
-        <f>IF((E160/职业定位属性配比!$F$10-$E$5)&gt;0,(E160/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.3763157894736835</v>
-      </c>
-      <c r="I160" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="26">
-        <f>职业定位属性配比!$E$9-G160*$D$15</f>
-        <v>-2.7815789473684234</v>
-      </c>
-      <c r="K160" s="26">
-        <f>职业定位属性配比!$F$9-H160*$D$15</f>
-        <v>-0.75263157894736699</v>
-      </c>
-      <c r="L160" s="26">
-        <f>职业定位属性配比!$G$9-I160*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B161" s="22">
-        <v>0.71</v>
-      </c>
-      <c r="C161" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B161</f>
-        <v>12.922000000000001</v>
-      </c>
-      <c r="D161" s="26">
-        <f>C161*职业定位属性配比!$C$40</f>
-        <v>11.221736842105264</v>
-      </c>
-      <c r="E161" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7002631578947369</v>
-      </c>
-      <c r="F161" s="26">
-        <v>0</v>
-      </c>
-      <c r="G161" s="26">
-        <f>IF((D161/职业定位属性配比!$E$10-$E$5)&gt;0,D161/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>3.9506578947368425</v>
-      </c>
-      <c r="H161" s="26">
-        <f>IF((E161/职业定位属性配比!$F$10-$E$5)&gt;0,(E161/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.4002631578947369</v>
-      </c>
-      <c r="I161" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="26">
-        <f>职业定位属性配比!$E$9-G161*$D$15</f>
-        <v>-2.901315789473685</v>
-      </c>
-      <c r="K161" s="26">
-        <f>职业定位属性配比!$F$9-H161*$D$15</f>
-        <v>-0.80052631578947375</v>
-      </c>
-      <c r="L161" s="26">
-        <f>职业定位属性配比!$G$9-I161*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B162" s="22">
-        <v>0.72</v>
-      </c>
-      <c r="C162" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B162</f>
-        <v>13.104000000000001</v>
-      </c>
-      <c r="D162" s="26">
-        <f>C162*职业定位属性配比!$C$40</f>
-        <v>11.379789473684212</v>
-      </c>
-      <c r="E162" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7242105263157885</v>
-      </c>
-      <c r="F162" s="26">
-        <v>0</v>
-      </c>
-      <c r="G162" s="26">
-        <f>IF((D162/职业定位属性配比!$E$10-$E$5)&gt;0,D162/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.0105263157894742</v>
-      </c>
-      <c r="H162" s="26">
-        <f>IF((E162/职业定位属性配比!$F$10-$E$5)&gt;0,(E162/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.4242105263157885</v>
-      </c>
-      <c r="I162" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="26">
-        <f>职业定位属性配比!$E$9-G162*$D$15</f>
-        <v>-3.0210526315789483</v>
-      </c>
-      <c r="K162" s="26">
-        <f>职业定位属性配比!$F$9-H162*$D$15</f>
-        <v>-0.84842105263157697</v>
-      </c>
-      <c r="L162" s="26">
-        <f>职业定位属性配比!$G$9-I162*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B163" s="22">
-        <v>0.73</v>
-      </c>
-      <c r="C163" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B163</f>
-        <v>13.286000000000001</v>
-      </c>
-      <c r="D163" s="26">
-        <f>C163*职业定位属性配比!$C$40</f>
-        <v>11.537842105263159</v>
-      </c>
-      <c r="E163" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7481578947368419</v>
-      </c>
-      <c r="F163" s="26">
-        <v>0</v>
-      </c>
-      <c r="G163" s="26">
-        <f>IF((D163/职业定位属性配比!$E$10-$E$5)&gt;0,D163/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.0703947368421058</v>
-      </c>
-      <c r="H163" s="26">
-        <f>IF((E163/职业定位属性配比!$F$10-$E$5)&gt;0,(E163/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.4481578947368419</v>
-      </c>
-      <c r="I163" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="26">
-        <f>职业定位属性配比!$E$9-G163*$D$15</f>
-        <v>-3.1407894736842117</v>
-      </c>
-      <c r="K163" s="26">
-        <f>职业定位属性配比!$F$9-H163*$D$15</f>
-        <v>-0.89631578947368373</v>
-      </c>
-      <c r="L163" s="26">
-        <f>职业定位属性配比!$G$9-I163*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B164" s="22">
-        <v>0.74</v>
-      </c>
-      <c r="C164" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B164</f>
-        <v>13.468000000000002</v>
-      </c>
-      <c r="D164" s="26">
-        <f>C164*职业定位属性配比!$C$40</f>
-        <v>11.695894736842106</v>
-      </c>
-      <c r="E164" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7721052631578953</v>
-      </c>
-      <c r="F164" s="26">
-        <v>0</v>
-      </c>
-      <c r="G164" s="26">
-        <f>IF((D164/职业定位属性配比!$E$10-$E$5)&gt;0,D164/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.1302631578947375</v>
-      </c>
-      <c r="H164" s="26">
-        <f>IF((E164/职业定位属性配比!$F$10-$E$5)&gt;0,(E164/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.4721052631578952</v>
-      </c>
-      <c r="I164" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="26">
-        <f>职业定位属性配比!$E$9-G164*$D$15</f>
-        <v>-3.260526315789475</v>
-      </c>
-      <c r="K164" s="26">
-        <f>职业定位属性配比!$F$9-H164*$D$15</f>
-        <v>-0.9442105263157905</v>
-      </c>
-      <c r="L164" s="26">
-        <f>职业定位属性配比!$G$9-I164*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B165" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="C165" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B165</f>
-        <v>13.650000000000002</v>
-      </c>
-      <c r="D165" s="26">
-        <f>C165*职业定位属性配比!$C$40</f>
-        <v>11.853947368421055</v>
-      </c>
-      <c r="E165" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7960526315789469</v>
-      </c>
-      <c r="F165" s="26">
-        <v>0</v>
-      </c>
-      <c r="G165" s="26">
-        <f>IF((D165/职业定位属性配比!$E$10-$E$5)&gt;0,D165/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.1901315789473692</v>
-      </c>
-      <c r="H165" s="26">
-        <f>IF((E165/职业定位属性配比!$F$10-$E$5)&gt;0,(E165/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.4960526315789469</v>
-      </c>
-      <c r="I165" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="26">
-        <f>职业定位属性配比!$E$9-G165*$D$15</f>
-        <v>-3.3802631578947384</v>
-      </c>
-      <c r="K165" s="26">
-        <f>职业定位属性配比!$F$9-H165*$D$15</f>
-        <v>-0.99210526315789371</v>
-      </c>
-      <c r="L165" s="26">
-        <f>职业定位属性配比!$G$9-I165*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B166" s="22">
-        <v>0.76</v>
-      </c>
-      <c r="C166" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B166</f>
-        <v>13.832000000000003</v>
-      </c>
-      <c r="D166" s="26">
-        <f>C166*职业定位属性配比!$C$40</f>
-        <v>12.012000000000002</v>
-      </c>
-      <c r="E166" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8200000000000003</v>
-      </c>
-      <c r="F166" s="26">
-        <v>0</v>
-      </c>
-      <c r="G166" s="26">
-        <f>IF((D166/职业定位属性配比!$E$10-$E$5)&gt;0,D166/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.2500000000000009</v>
-      </c>
-      <c r="H166" s="26">
-        <f>IF((E166/职业定位属性配比!$F$10-$E$5)&gt;0,(E166/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.5200000000000002</v>
-      </c>
-      <c r="I166" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="26">
-        <f>职业定位属性配比!$E$9-G166*$D$15</f>
-        <v>-3.5000000000000018</v>
-      </c>
-      <c r="K166" s="26">
-        <f>职业定位属性配比!$F$9-H166*$D$15</f>
-        <v>-1.0400000000000005</v>
-      </c>
-      <c r="L166" s="26">
-        <f>职业定位属性配比!$G$9-I166*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B167" s="22">
-        <v>0.77</v>
-      </c>
-      <c r="C167" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B167</f>
-        <v>14.014000000000003</v>
-      </c>
-      <c r="D167" s="26">
-        <f>C167*职业定位属性配比!$C$40</f>
-        <v>12.170052631578951</v>
-      </c>
-      <c r="E167" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8439473684210519</v>
-      </c>
-      <c r="F167" s="26">
-        <v>0</v>
-      </c>
-      <c r="G167" s="26">
-        <f>IF((D167/职业定位属性配比!$E$10-$E$5)&gt;0,D167/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.3098684210526326</v>
-      </c>
-      <c r="H167" s="26">
-        <f>IF((E167/职业定位属性配比!$F$10-$E$5)&gt;0,(E167/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.5439473684210518</v>
-      </c>
-      <c r="I167" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="26">
-        <f>职业定位属性配比!$E$9-G167*$D$15</f>
-        <v>-3.6197368421052651</v>
-      </c>
-      <c r="K167" s="26">
-        <f>职业定位属性配比!$F$9-H167*$D$15</f>
-        <v>-1.0878947368421037</v>
-      </c>
-      <c r="L167" s="26">
-        <f>职业定位属性配比!$G$9-I167*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B168" s="22">
-        <v>0.78</v>
-      </c>
-      <c r="C168" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B168</f>
-        <v>14.196000000000003</v>
-      </c>
-      <c r="D168" s="26">
-        <f>C168*职业定位属性配比!$C$40</f>
-        <v>12.328105263157898</v>
-      </c>
-      <c r="E168" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8678947368421053</v>
-      </c>
-      <c r="F168" s="26">
-        <v>0</v>
-      </c>
-      <c r="G168" s="26">
-        <f>IF((D168/职业定位属性配比!$E$10-$E$5)&gt;0,D168/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.3697368421052643</v>
-      </c>
-      <c r="H168" s="26">
-        <f>IF((E168/职业定位属性配比!$F$10-$E$5)&gt;0,(E168/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.5678947368421052</v>
-      </c>
-      <c r="I168" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="26">
-        <f>职业定位属性配比!$E$9-G168*$D$15</f>
-        <v>-3.7394736842105285</v>
-      </c>
-      <c r="K168" s="26">
-        <f>职业定位属性配比!$F$9-H168*$D$15</f>
-        <v>-1.1357894736842105</v>
-      </c>
-      <c r="L168" s="26">
-        <f>职业定位属性配比!$G$9-I168*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B169" s="22">
-        <v>0.79</v>
-      </c>
-      <c r="C169" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B169</f>
-        <v>14.378000000000004</v>
-      </c>
-      <c r="D169" s="26">
-        <f>C169*职业定位属性配比!$C$40</f>
-        <v>12.486157894736845</v>
-      </c>
-      <c r="E169" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8918421052631587</v>
-      </c>
-      <c r="F169" s="26">
-        <v>0</v>
-      </c>
-      <c r="G169" s="26">
-        <f>IF((D169/职业定位属性配比!$E$10-$E$5)&gt;0,D169/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.4296052631578959</v>
-      </c>
-      <c r="H169" s="26">
-        <f>IF((E169/职业定位属性配比!$F$10-$E$5)&gt;0,(E169/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.5918421052631586</v>
-      </c>
-      <c r="I169" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="26">
-        <f>职业定位属性配比!$E$9-G169*$D$15</f>
-        <v>-3.8592105263157919</v>
-      </c>
-      <c r="K169" s="26">
-        <f>职业定位属性配比!$F$9-H169*$D$15</f>
-        <v>-1.1836842105263172</v>
-      </c>
-      <c r="L169" s="26">
-        <f>职业定位属性配比!$G$9-I169*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B170" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="C170" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B170</f>
-        <v>14.560000000000002</v>
-      </c>
-      <c r="D170" s="26">
-        <f>C170*职业定位属性配比!$C$40</f>
-        <v>12.644210526315792</v>
-      </c>
-      <c r="E170" s="26">
-        <f t="shared" si="3"/>
-        <v>1.9157894736842103</v>
-      </c>
-      <c r="F170" s="26">
-        <v>0</v>
-      </c>
-      <c r="G170" s="26">
-        <f>IF((D170/职业定位属性配比!$E$10-$E$5)&gt;0,D170/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.4894736842105276</v>
-      </c>
-      <c r="H170" s="26">
-        <f>IF((E170/职业定位属性配比!$F$10-$E$5)&gt;0,(E170/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.6157894736842102</v>
-      </c>
-      <c r="I170" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="26">
-        <f>职业定位属性配比!$E$9-G170*$D$15</f>
-        <v>-3.9789473684210552</v>
-      </c>
-      <c r="K170" s="26">
-        <f>职业定位属性配比!$F$9-H170*$D$15</f>
-        <v>-1.2315789473684204</v>
-      </c>
-      <c r="L170" s="26">
-        <f>职业定位属性配比!$G$9-I170*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B171" s="22">
-        <v>0.81</v>
-      </c>
-      <c r="C171" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B171</f>
-        <v>14.742000000000003</v>
-      </c>
-      <c r="D171" s="26">
-        <f>C171*职业定位属性配比!$C$40</f>
-        <v>12.802263157894739</v>
-      </c>
-      <c r="E171" s="26">
-        <f t="shared" si="3"/>
-        <v>1.9397368421052636</v>
-      </c>
-      <c r="F171" s="26">
-        <v>0</v>
-      </c>
-      <c r="G171" s="26">
-        <f>IF((D171/职业定位属性配比!$E$10-$E$5)&gt;0,D171/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.5493421052631584</v>
-      </c>
-      <c r="H171" s="26">
-        <f>IF((E171/职业定位属性配比!$F$10-$E$5)&gt;0,(E171/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.6397368421052636</v>
-      </c>
-      <c r="I171" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="26">
-        <f>职业定位属性配比!$E$9-G171*$D$15</f>
-        <v>-4.0986842105263168</v>
-      </c>
-      <c r="K171" s="26">
-        <f>职业定位属性配比!$F$9-H171*$D$15</f>
-        <v>-1.2794736842105272</v>
-      </c>
-      <c r="L171" s="26">
-        <f>职业定位属性配比!$G$9-I171*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B172" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="C172" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B172</f>
-        <v>14.924000000000001</v>
-      </c>
-      <c r="D172" s="26">
-        <f>C172*职业定位属性配比!$C$40</f>
-        <v>12.960315789473686</v>
-      </c>
-      <c r="E172" s="26">
-        <f t="shared" si="3"/>
-        <v>1.9636842105263153</v>
-      </c>
-      <c r="F172" s="26">
-        <v>0</v>
-      </c>
-      <c r="G172" s="26">
-        <f>IF((D172/职业定位属性配比!$E$10-$E$5)&gt;0,D172/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.6092105263157901</v>
-      </c>
-      <c r="H172" s="26">
-        <f>IF((E172/职业定位属性配比!$F$10-$E$5)&gt;0,(E172/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.6636842105263152</v>
-      </c>
-      <c r="I172" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="26">
-        <f>职业定位属性配比!$E$9-G172*$D$15</f>
-        <v>-4.2184210526315802</v>
-      </c>
-      <c r="K172" s="26">
-        <f>职业定位属性配比!$F$9-H172*$D$15</f>
-        <v>-1.3273684210526304</v>
-      </c>
-      <c r="L172" s="26">
-        <f>职业定位属性配比!$G$9-I172*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B173" s="22">
-        <v>0.83</v>
-      </c>
-      <c r="C173" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B173</f>
-        <v>15.106000000000002</v>
-      </c>
-      <c r="D173" s="26">
-        <f>C173*职业定位属性配比!$C$40</f>
-        <v>13.118368421052633</v>
-      </c>
-      <c r="E173" s="26">
-        <f t="shared" si="3"/>
-        <v>1.9876315789473686</v>
-      </c>
-      <c r="F173" s="26">
-        <v>0</v>
-      </c>
-      <c r="G173" s="26">
-        <f>IF((D173/职业定位属性配比!$E$10-$E$5)&gt;0,D173/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.6690789473684218</v>
-      </c>
-      <c r="H173" s="26">
-        <f>IF((E173/职业定位属性配比!$F$10-$E$5)&gt;0,(E173/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.6876315789473686</v>
-      </c>
-      <c r="I173" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="26">
-        <f>职业定位属性配比!$E$9-G173*$D$15</f>
-        <v>-4.3381578947368435</v>
-      </c>
-      <c r="K173" s="26">
-        <f>职业定位属性配比!$F$9-H173*$D$15</f>
-        <v>-1.3752631578947372</v>
-      </c>
-      <c r="L173" s="26">
-        <f>职业定位属性配比!$G$9-I173*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B174" s="22">
-        <v>0.84</v>
-      </c>
-      <c r="C174" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B174</f>
-        <v>15.288000000000002</v>
-      </c>
-      <c r="D174" s="26">
-        <f>C174*职业定位属性配比!$C$40</f>
-        <v>13.276421052631582</v>
-      </c>
-      <c r="E174" s="26">
-        <f t="shared" si="3"/>
-        <v>2.0115789473684202</v>
-      </c>
-      <c r="F174" s="26">
-        <v>0</v>
-      </c>
-      <c r="G174" s="26">
-        <f>IF((D174/职业定位属性配比!$E$10-$E$5)&gt;0,D174/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.7289473684210535</v>
-      </c>
-      <c r="H174" s="26">
-        <f>IF((E174/职业定位属性配比!$F$10-$E$5)&gt;0,(E174/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.7115789473684202</v>
-      </c>
-      <c r="I174" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="26">
-        <f>职业定位属性配比!$E$9-G174*$D$15</f>
-        <v>-4.4578947368421069</v>
-      </c>
-      <c r="K174" s="26">
-        <f>职业定位属性配比!$F$9-H174*$D$15</f>
-        <v>-1.4231578947368404</v>
-      </c>
-      <c r="L174" s="26">
-        <f>职业定位属性配比!$G$9-I174*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B175" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="C175" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B175</f>
-        <v>15.470000000000002</v>
-      </c>
-      <c r="D175" s="26">
-        <f>C175*职业定位属性配比!$C$40</f>
-        <v>13.434473684210529</v>
-      </c>
-      <c r="E175" s="26">
-        <f t="shared" si="3"/>
-        <v>2.0355263157894736</v>
-      </c>
-      <c r="F175" s="26">
-        <v>0</v>
-      </c>
-      <c r="G175" s="26">
-        <f>IF((D175/职业定位属性配比!$E$10-$E$5)&gt;0,D175/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.7888157894736851</v>
-      </c>
-      <c r="H175" s="26">
-        <f>IF((E175/职业定位属性配比!$F$10-$E$5)&gt;0,(E175/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.7355263157894736</v>
-      </c>
-      <c r="I175" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="26">
-        <f>职业定位属性配比!$E$9-G175*$D$15</f>
-        <v>-4.5776315789473703</v>
-      </c>
-      <c r="K175" s="26">
-        <f>职业定位属性配比!$F$9-H175*$D$15</f>
-        <v>-1.4710526315789472</v>
-      </c>
-      <c r="L175" s="26">
-        <f>职业定位属性配比!$G$9-I175*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B176" s="22">
-        <v>0.86</v>
-      </c>
-      <c r="C176" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B176</f>
-        <v>15.652000000000003</v>
-      </c>
-      <c r="D176" s="26">
-        <f>C176*职业定位属性配比!$C$40</f>
-        <v>13.592526315789476</v>
-      </c>
-      <c r="E176" s="26">
-        <f t="shared" si="3"/>
-        <v>2.059473684210527</v>
-      </c>
-      <c r="F176" s="26">
-        <v>0</v>
-      </c>
-      <c r="G176" s="26">
-        <f>IF((D176/职业定位属性配比!$E$10-$E$5)&gt;0,D176/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.8486842105263168</v>
-      </c>
-      <c r="H176" s="26">
-        <f>IF((E176/职业定位属性配比!$F$10-$E$5)&gt;0,(E176/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.759473684210527</v>
-      </c>
-      <c r="I176" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="26">
-        <f>职业定位属性配比!$E$9-G176*$D$15</f>
-        <v>-4.6973684210526336</v>
-      </c>
-      <c r="K176" s="26">
-        <f>职业定位属性配比!$F$9-H176*$D$15</f>
-        <v>-1.5189473684210539</v>
-      </c>
-      <c r="L176" s="26">
-        <f>职业定位属性配比!$G$9-I176*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B177" s="22">
-        <v>0.87</v>
-      </c>
-      <c r="C177" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B177</f>
-        <v>15.834000000000003</v>
-      </c>
-      <c r="D177" s="26">
-        <f>C177*职业定位属性配比!$C$40</f>
-        <v>13.750578947368425</v>
-      </c>
-      <c r="E177" s="26">
-        <f t="shared" si="3"/>
-        <v>2.0834210526315786</v>
-      </c>
-      <c r="F177" s="26">
-        <v>0</v>
-      </c>
-      <c r="G177" s="26">
-        <f>IF((D177/职业定位属性配比!$E$10-$E$5)&gt;0,D177/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.9085526315789485</v>
-      </c>
-      <c r="H177" s="26">
-        <f>IF((E177/职业定位属性配比!$F$10-$E$5)&gt;0,(E177/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.7834210526315786</v>
-      </c>
-      <c r="I177" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="26">
-        <f>职业定位属性配比!$E$9-G177*$D$15</f>
-        <v>-4.817105263157897</v>
-      </c>
-      <c r="K177" s="26">
-        <f>职业定位属性配比!$F$9-H177*$D$15</f>
-        <v>-1.5668421052631571</v>
-      </c>
-      <c r="L177" s="26">
-        <f>职业定位属性配比!$G$9-I177*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B178" s="22">
-        <v>0.88</v>
-      </c>
-      <c r="C178" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B178</f>
-        <v>16.016000000000002</v>
-      </c>
-      <c r="D178" s="26">
-        <f>C178*职业定位属性配比!$C$40</f>
-        <v>13.90863157894737</v>
-      </c>
-      <c r="E178" s="26">
-        <f t="shared" si="3"/>
-        <v>2.107368421052632</v>
-      </c>
-      <c r="F178" s="26">
-        <v>0</v>
-      </c>
-      <c r="G178" s="26">
-        <f>IF((D178/职业定位属性配比!$E$10-$E$5)&gt;0,D178/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>4.9684210526315793</v>
-      </c>
-      <c r="H178" s="26">
-        <f>IF((E178/职业定位属性配比!$F$10-$E$5)&gt;0,(E178/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.807368421052632</v>
-      </c>
-      <c r="I178" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="26">
-        <f>职业定位属性配比!$E$9-G178*$D$15</f>
-        <v>-4.9368421052631586</v>
-      </c>
-      <c r="K178" s="26">
-        <f>职业定位属性配比!$F$9-H178*$D$15</f>
-        <v>-1.6147368421052639</v>
-      </c>
-      <c r="L178" s="26">
-        <f>职业定位属性配比!$G$9-I178*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B179" s="22">
-        <v>0.89</v>
-      </c>
-      <c r="C179" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B179</f>
-        <v>16.198000000000004</v>
-      </c>
-      <c r="D179" s="26">
-        <f>C179*职业定位属性配比!$C$40</f>
-        <v>14.06668421052632</v>
-      </c>
-      <c r="E179" s="26">
-        <f t="shared" si="3"/>
-        <v>2.1313157894736836</v>
-      </c>
-      <c r="F179" s="26">
-        <v>0</v>
-      </c>
-      <c r="G179" s="26">
-        <f>IF((D179/职业定位属性配比!$E$10-$E$5)&gt;0,D179/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.0282894736842119</v>
-      </c>
-      <c r="H179" s="26">
-        <f>IF((E179/职业定位属性配比!$F$10-$E$5)&gt;0,(E179/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.8313157894736836</v>
-      </c>
-      <c r="I179" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="26">
-        <f>职业定位属性配比!$E$9-G179*$D$15</f>
-        <v>-5.0565789473684237</v>
-      </c>
-      <c r="K179" s="26">
-        <f>职业定位属性配比!$F$9-H179*$D$15</f>
-        <v>-1.6626315789473671</v>
-      </c>
-      <c r="L179" s="26">
-        <f>职业定位属性配比!$G$9-I179*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B180" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="C180" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B180</f>
-        <v>16.380000000000003</v>
-      </c>
-      <c r="D180" s="26">
-        <f>C180*职业定位属性配比!$C$40</f>
-        <v>14.224736842105266</v>
-      </c>
-      <c r="E180" s="26">
-        <f t="shared" si="3"/>
-        <v>2.155263157894737</v>
-      </c>
-      <c r="F180" s="26">
-        <v>0</v>
-      </c>
-      <c r="G180" s="26">
-        <f>IF((D180/职业定位属性配比!$E$10-$E$5)&gt;0,D180/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.0881578947368427</v>
-      </c>
-      <c r="H180" s="26">
-        <f>IF((E180/职业定位属性配比!$F$10-$E$5)&gt;0,(E180/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.8552631578947369</v>
-      </c>
-      <c r="I180" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="26">
-        <f>职业定位属性配比!$E$9-G180*$D$15</f>
-        <v>-5.1763157894736853</v>
-      </c>
-      <c r="K180" s="26">
-        <f>职业定位属性配比!$F$9-H180*$D$15</f>
-        <v>-1.7105263157894739</v>
-      </c>
-      <c r="L180" s="26">
-        <f>职业定位属性配比!$G$9-I180*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B181" s="22">
-        <v>0.91</v>
-      </c>
-      <c r="C181" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B181</f>
-        <v>16.562000000000005</v>
-      </c>
-      <c r="D181" s="26">
-        <f>C181*职业定位属性配比!$C$40</f>
-        <v>14.382789473684214</v>
-      </c>
-      <c r="E181" s="26">
-        <f t="shared" si="3"/>
-        <v>2.1792105263157904</v>
-      </c>
-      <c r="F181" s="26">
-        <v>0</v>
-      </c>
-      <c r="G181" s="26">
-        <f>IF((D181/职业定位属性配比!$E$10-$E$5)&gt;0,D181/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.1480263157894752</v>
-      </c>
-      <c r="H181" s="26">
-        <f>IF((E181/职业定位属性配比!$F$10-$E$5)&gt;0,(E181/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.8792105263157903</v>
-      </c>
-      <c r="I181" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J181" s="26">
-        <f>职业定位属性配比!$E$9-G181*$D$15</f>
-        <v>-5.2960526315789505</v>
-      </c>
-      <c r="K181" s="26">
-        <f>职业定位属性配比!$F$9-H181*$D$15</f>
-        <v>-1.7584210526315807</v>
-      </c>
-      <c r="L181" s="26">
-        <f>职业定位属性配比!$G$9-I181*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B182" s="22">
-        <v>0.92</v>
-      </c>
-      <c r="C182" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B182</f>
-        <v>16.744000000000003</v>
-      </c>
-      <c r="D182" s="26">
-        <f>C182*职业定位属性配比!$C$40</f>
-        <v>14.540842105263161</v>
-      </c>
-      <c r="E182" s="26">
-        <f t="shared" si="3"/>
-        <v>2.203157894736842</v>
-      </c>
-      <c r="F182" s="26">
-        <v>0</v>
-      </c>
-      <c r="G182" s="26">
-        <f>IF((D182/职业定位属性配比!$E$10-$E$5)&gt;0,D182/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.2078947368421069</v>
-      </c>
-      <c r="H182" s="26">
-        <f>IF((E182/职业定位属性配比!$F$10-$E$5)&gt;0,(E182/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.9031578947368419</v>
-      </c>
-      <c r="I182" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="26">
-        <f>职业定位属性配比!$E$9-G182*$D$15</f>
-        <v>-5.4157894736842138</v>
-      </c>
-      <c r="K182" s="26">
-        <f>职业定位属性配比!$F$9-H182*$D$15</f>
-        <v>-1.8063157894736839</v>
-      </c>
-      <c r="L182" s="26">
-        <f>职业定位属性配比!$G$9-I182*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B183" s="22">
-        <v>0.93</v>
-      </c>
-      <c r="C183" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B183</f>
-        <v>16.926000000000002</v>
-      </c>
-      <c r="D183" s="26">
-        <f>C183*职业定位属性配比!$C$40</f>
-        <v>14.698894736842108</v>
-      </c>
-      <c r="E183" s="26">
-        <f t="shared" si="3"/>
-        <v>2.2271052631578936</v>
-      </c>
-      <c r="F183" s="26">
-        <v>0</v>
-      </c>
-      <c r="G183" s="26">
-        <f>IF((D183/职业定位属性配比!$E$10-$E$5)&gt;0,D183/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.2677631578947377</v>
-      </c>
-      <c r="H183" s="26">
-        <f>IF((E183/职业定位属性配比!$F$10-$E$5)&gt;0,(E183/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.9271052631578935</v>
-      </c>
-      <c r="I183" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J183" s="26">
-        <f>职业定位属性配比!$E$9-G183*$D$15</f>
-        <v>-5.5355263157894754</v>
-      </c>
-      <c r="K183" s="26">
-        <f>职业定位属性配比!$F$9-H183*$D$15</f>
-        <v>-1.8542105263157871</v>
-      </c>
-      <c r="L183" s="26">
-        <f>职业定位属性配比!$G$9-I183*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B184" s="22">
-        <v>0.94</v>
-      </c>
-      <c r="C184" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B184</f>
-        <v>17.108000000000001</v>
-      </c>
-      <c r="D184" s="26">
-        <f>C184*职业定位属性配比!$C$40</f>
-        <v>14.856947368421054</v>
-      </c>
-      <c r="E184" s="26">
-        <f t="shared" si="3"/>
-        <v>2.251052631578947</v>
-      </c>
-      <c r="F184" s="26">
-        <v>0</v>
-      </c>
-      <c r="G184" s="26">
-        <f>IF((D184/职业定位属性配比!$E$10-$E$5)&gt;0,D184/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.3276315789473685</v>
-      </c>
-      <c r="H184" s="26">
-        <f>IF((E184/职业定位属性配比!$F$10-$E$5)&gt;0,(E184/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.9510526315789469</v>
-      </c>
-      <c r="I184" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="26">
-        <f>职业定位属性配比!$E$9-G184*$D$15</f>
-        <v>-5.655263157894737</v>
-      </c>
-      <c r="K184" s="26">
-        <f>职业定位属性配比!$F$9-H184*$D$15</f>
-        <v>-1.9021052631578939</v>
-      </c>
-      <c r="L184" s="26">
-        <f>职业定位属性配比!$G$9-I184*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B185" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="C185" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B185</f>
-        <v>17.290000000000003</v>
-      </c>
-      <c r="D185" s="26">
-        <f>C185*职业定位属性配比!$C$40</f>
-        <v>15.015000000000002</v>
-      </c>
-      <c r="E185" s="26">
-        <f t="shared" si="3"/>
-        <v>2.2750000000000004</v>
-      </c>
-      <c r="F185" s="26">
-        <v>0</v>
-      </c>
-      <c r="G185" s="26">
-        <f>IF((D185/职业定位属性配比!$E$10-$E$5)&gt;0,D185/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.3875000000000011</v>
-      </c>
-      <c r="H185" s="26">
-        <f>IF((E185/职业定位属性配比!$F$10-$E$5)&gt;0,(E185/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.9750000000000003</v>
-      </c>
-      <c r="I185" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="26">
-        <f>职业定位属性配比!$E$9-G185*$D$15</f>
-        <v>-5.7750000000000021</v>
-      </c>
-      <c r="K185" s="26">
-        <f>职业定位属性配比!$F$9-H185*$D$15</f>
-        <v>-1.9500000000000006</v>
-      </c>
-      <c r="L185" s="26">
-        <f>职业定位属性配比!$G$9-I185*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B186" s="22">
-        <v>0.96</v>
-      </c>
-      <c r="C186" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B186</f>
-        <v>17.472000000000001</v>
-      </c>
-      <c r="D186" s="26">
-        <f>C186*职业定位属性配比!$C$40</f>
-        <v>15.173052631578949</v>
-      </c>
-      <c r="E186" s="26">
-        <f t="shared" si="3"/>
-        <v>2.298947368421052</v>
-      </c>
-      <c r="F186" s="26">
-        <v>0</v>
-      </c>
-      <c r="G186" s="26">
-        <f>IF((D186/职业定位属性配比!$E$10-$E$5)&gt;0,D186/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.4473684210526319</v>
-      </c>
-      <c r="H186" s="26">
-        <f>IF((E186/职业定位属性配比!$F$10-$E$5)&gt;0,(E186/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>1.9989473684210519</v>
-      </c>
-      <c r="I186" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="26">
-        <f>职业定位属性配比!$E$9-G186*$D$15</f>
-        <v>-5.8947368421052637</v>
-      </c>
-      <c r="K186" s="26">
-        <f>职业定位属性配比!$F$9-H186*$D$15</f>
-        <v>-1.9978947368421038</v>
-      </c>
-      <c r="L186" s="26">
-        <f>职业定位属性配比!$G$9-I186*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B187" s="22">
-        <v>0.97</v>
-      </c>
-      <c r="C187" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B187</f>
-        <v>17.654000000000003</v>
-      </c>
-      <c r="D187" s="26">
-        <f>C187*职业定位属性配比!$C$40</f>
-        <v>15.331105263157898</v>
-      </c>
-      <c r="E187" s="26">
-        <f t="shared" si="3"/>
-        <v>2.3228947368421053</v>
-      </c>
-      <c r="F187" s="26">
-        <v>0</v>
-      </c>
-      <c r="G187" s="26">
-        <f>IF((D187/职业定位属性配比!$E$10-$E$5)&gt;0,D187/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.5072368421052644</v>
-      </c>
-      <c r="H187" s="26">
-        <f>IF((E187/职业定位属性配比!$F$10-$E$5)&gt;0,(E187/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>2.0228947368421055</v>
-      </c>
-      <c r="I187" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J187" s="26">
-        <f>职业定位属性配比!$E$9-G187*$D$15</f>
-        <v>-6.0144736842105289</v>
-      </c>
-      <c r="K187" s="26">
-        <f>职业定位属性配比!$F$9-H187*$D$15</f>
-        <v>-2.045789473684211</v>
-      </c>
-      <c r="L187" s="26">
-        <f>职业定位属性配比!$G$9-I187*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B188" s="22">
-        <v>0.98</v>
-      </c>
-      <c r="C188" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B188</f>
-        <v>17.836000000000002</v>
-      </c>
-      <c r="D188" s="26">
-        <f>C188*职业定位属性配比!$C$40</f>
-        <v>15.489157894736845</v>
-      </c>
-      <c r="E188" s="26">
-        <f t="shared" si="3"/>
-        <v>2.346842105263157</v>
-      </c>
-      <c r="F188" s="26">
-        <v>0</v>
-      </c>
-      <c r="G188" s="26">
-        <f>IF((D188/职业定位属性配比!$E$10-$E$5)&gt;0,D188/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.5671052631578961</v>
-      </c>
-      <c r="H188" s="26">
-        <f>IF((E188/职业定位属性配比!$F$10-$E$5)&gt;0,(E188/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>2.0468421052631571</v>
-      </c>
-      <c r="I188" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J188" s="26">
-        <f>职业定位属性配比!$E$9-G188*$D$15</f>
-        <v>-6.1342105263157922</v>
-      </c>
-      <c r="K188" s="26">
-        <f>职业定位属性配比!$F$9-H188*$D$15</f>
-        <v>-2.0936842105263143</v>
-      </c>
-      <c r="L188" s="26">
-        <f>职业定位属性配比!$G$9-I188*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B189" s="22">
-        <v>0.99</v>
-      </c>
-      <c r="C189" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B189</f>
-        <v>18.018000000000004</v>
-      </c>
-      <c r="D189" s="26">
-        <f>C189*职业定位属性配比!$C$40</f>
-        <v>15.647210526315794</v>
-      </c>
-      <c r="E189" s="26">
-        <f t="shared" si="3"/>
-        <v>2.3707894736842103</v>
-      </c>
-      <c r="F189" s="26">
-        <v>0</v>
-      </c>
-      <c r="G189" s="26">
-        <f>IF((D189/职业定位属性配比!$E$10-$E$5)&gt;0,D189/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.6269736842105278</v>
-      </c>
-      <c r="H189" s="26">
-        <f>IF((E189/职业定位属性配比!$F$10-$E$5)&gt;0,(E189/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>2.0707894736842105</v>
-      </c>
-      <c r="I189" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J189" s="26">
-        <f>职业定位属性配比!$E$9-G189*$D$15</f>
-        <v>-6.2539473684210556</v>
-      </c>
-      <c r="K189" s="26">
-        <f>职业定位属性配比!$F$9-H189*$D$15</f>
-        <v>-2.141578947368421</v>
-      </c>
-      <c r="L189" s="26">
-        <f>职业定位属性配比!$G$9-I189*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B190" s="22">
-        <v>1</v>
-      </c>
-      <c r="C190" s="26">
-        <f>SUM(职业定位属性配比!$E$12:$G$12)*B190</f>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="D190" s="26">
-        <f>C190*职业定位属性配比!$C$40</f>
-        <v>15.805263157894739</v>
-      </c>
-      <c r="E190" s="26">
-        <f t="shared" si="3"/>
-        <v>2.3947368421052637</v>
-      </c>
-      <c r="F190" s="26">
-        <v>0</v>
-      </c>
-      <c r="G190" s="26">
-        <f>IF((D190/职业定位属性配比!$E$10-$E$5)&gt;0,D190/职业定位属性配比!$E$10-$E$5,0)</f>
-        <v>5.6868421052631586</v>
-      </c>
-      <c r="H190" s="26">
-        <f>IF((E190/职业定位属性配比!$F$10-$E$5)&gt;0,(E190/职业定位属性配比!$F$10-$E$5),0)</f>
-        <v>2.0947368421052639</v>
-      </c>
-      <c r="I190" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J190" s="26">
-        <f>职业定位属性配比!$E$9-G190*$D$15</f>
-        <v>-6.3736842105263172</v>
-      </c>
-      <c r="K190" s="26">
-        <f>职业定位属性配比!$F$9-H190*$D$15</f>
-        <v>-2.1894736842105278</v>
-      </c>
-      <c r="L190" s="26">
-        <f>职业定位属性配比!$G$9-I190*$D$15</f>
-        <v>3</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:L89"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15182,7 +10735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -15297,55 +10850,55 @@
       </c>
       <c r="G4" s="26">
         <f>F4*(1+E19)</f>
-        <v>0.66675000000000006</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="H4" s="51">
         <f>G4*(1+$N$15)</f>
-        <v>0.84677250000000004</v>
+        <v>0.85483700000000007</v>
       </c>
       <c r="I4" s="26">
         <f>H4*(1+F19)</f>
-        <v>0.93144975000000008</v>
+        <v>0.94032070000000012</v>
       </c>
       <c r="J4" s="51">
         <f>I4*(1+$N$15)</f>
-        <v>1.1829411825</v>
+        <v>1.1942072890000002</v>
       </c>
       <c r="K4" s="26">
         <f>J4*(1+G19)</f>
-        <v>1.360382359875</v>
+        <v>1.3733383823500001</v>
       </c>
       <c r="L4" s="51">
         <f>K4*(1+$N$15)</f>
-        <v>1.7276855970412501</v>
+        <v>1.7441397455845</v>
       </c>
       <c r="M4" s="26">
         <f>L4*(1+H19)</f>
-        <v>2.0732227164495001</v>
+        <v>2.1104090921572451</v>
       </c>
       <c r="N4" s="51">
         <f>M4*(1+$N$15)</f>
-        <v>2.632992849890865</v>
+        <v>2.6802195470397012</v>
       </c>
       <c r="O4" s="26">
         <f>N4*(1+I19)</f>
-        <v>3.2912410623635813</v>
+        <v>3.4306810202108178</v>
       </c>
       <c r="P4" s="51">
         <f>O4*(1+$N$15)</f>
-        <v>4.179876149201748</v>
+        <v>4.3569648956677387</v>
       </c>
       <c r="Q4" s="1">
         <f>K4*(1+I15)</f>
-        <v>1.5644397138562498</v>
+        <v>1.5793391397024998</v>
       </c>
       <c r="R4" s="1">
         <f>M4*(1+G15)</f>
-        <v>2.2598127609299552</v>
+        <v>2.3003459104513975</v>
       </c>
       <c r="S4" s="1">
         <f>M4*(1+I15)</f>
-        <v>2.384206123916925</v>
+        <v>2.4269704559808316</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -15362,55 +10915,55 @@
       </c>
       <c r="G5" s="52">
         <f t="shared" si="0"/>
-        <v>1.66675</v>
+        <v>1.6731</v>
       </c>
       <c r="H5" s="52">
         <f t="shared" si="0"/>
-        <v>1.8467725000000002</v>
+        <v>1.8548370000000001</v>
       </c>
       <c r="I5" s="52">
         <f t="shared" si="0"/>
-        <v>1.9314497500000001</v>
+        <v>1.9403207</v>
       </c>
       <c r="J5" s="52">
         <f t="shared" si="0"/>
-        <v>2.1829411825</v>
+        <v>2.1942072890000004</v>
       </c>
       <c r="K5" s="52">
         <f t="shared" si="0"/>
-        <v>2.360382359875</v>
+        <v>2.3733383823500001</v>
       </c>
       <c r="L5" s="52">
         <f t="shared" si="0"/>
-        <v>2.7276855970412504</v>
+        <v>2.7441397455845</v>
       </c>
       <c r="M5" s="52">
         <f t="shared" si="0"/>
-        <v>3.0732227164495001</v>
+        <v>3.1104090921572451</v>
       </c>
       <c r="N5" s="52">
         <f t="shared" si="0"/>
-        <v>3.632992849890865</v>
+        <v>3.6802195470397012</v>
       </c>
       <c r="O5" s="52">
         <f t="shared" si="0"/>
-        <v>4.2912410623635813</v>
+        <v>4.4306810202108178</v>
       </c>
       <c r="P5" s="52">
         <f t="shared" si="0"/>
-        <v>5.179876149201748</v>
+        <v>5.3569648956677387</v>
       </c>
       <c r="Q5" s="52">
         <f t="shared" ref="Q5:R5" si="1">Q3+Q4</f>
-        <v>2.5644397138562498</v>
+        <v>2.5793391397024998</v>
       </c>
       <c r="R5" s="52">
         <f t="shared" si="1"/>
-        <v>3.2598127609299552</v>
+        <v>3.3003459104513975</v>
       </c>
       <c r="S5" s="52">
         <f t="shared" ref="S5" si="2">S3+S4</f>
-        <v>3.384206123916925</v>
+        <v>3.4269704559808316</v>
       </c>
     </row>
     <row r="6" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -15427,55 +10980,55 @@
       </c>
       <c r="G6" s="26">
         <f t="shared" si="3"/>
-        <v>0.59997000149992497</v>
+        <v>0.59769290538521302</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="3"/>
-        <v>0.54148521271569716</v>
+        <v>0.53913093172068483</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="3"/>
-        <v>0.51774580208467758</v>
+        <v>0.51537872064138679</v>
       </c>
       <c r="J6" s="26">
         <f t="shared" si="3"/>
-        <v>0.45809754656548102</v>
+        <v>0.45574545532375171</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>0.42366017345298135</v>
+        <v>0.42134741823449279</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="3"/>
-        <v>0.3666111670218557</v>
+        <v>0.36441292817141158</v>
       </c>
       <c r="M6" s="26">
         <f t="shared" si="3"/>
-        <v>0.32539132118459085</v>
+        <v>0.32150111781805629</v>
       </c>
       <c r="N6" s="26">
         <f t="shared" si="3"/>
-        <v>0.27525515224453029</v>
+        <v>0.27172291957537725</v>
       </c>
       <c r="O6" s="26">
         <f t="shared" si="3"/>
-        <v>0.23303281858726621</v>
+        <v>0.22569893780176004</v>
       </c>
       <c r="P6" s="26">
         <f t="shared" si="3"/>
-        <v>0.19305480887880039</v>
+        <v>0.18667286784139944</v>
       </c>
       <c r="Q6" s="26">
         <f t="shared" ref="Q6:R6" si="4">Q3/Q5</f>
-        <v>0.38994872626436605</v>
+        <v>0.38769620660094339</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" si="4"/>
-        <v>0.30676608545906831</v>
+        <v>0.30299854231438039</v>
       </c>
       <c r="S6" s="26">
         <f t="shared" ref="S6" si="5">S3/S5</f>
-        <v>0.29549027552807178</v>
+        <v>0.29180292414099335</v>
       </c>
     </row>
     <row r="7" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -15492,55 +11045,55 @@
       </c>
       <c r="G7" s="26">
         <f t="shared" si="6"/>
-        <v>0.40002999850007503</v>
+        <v>0.40230709461478692</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="6"/>
-        <v>0.45851478728430273</v>
+        <v>0.46086906827931512</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="6"/>
-        <v>0.48225419791532242</v>
+        <v>0.48462127935861332</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="6"/>
-        <v>0.54190245343451893</v>
+        <v>0.54425454467624823</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="6"/>
-        <v>0.57633982654701865</v>
+        <v>0.57865258176550727</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="6"/>
-        <v>0.63338883297814419</v>
+        <v>0.63558707182858842</v>
       </c>
       <c r="M7" s="26">
         <f t="shared" si="6"/>
-        <v>0.6746086788154092</v>
+        <v>0.67849888218194365</v>
       </c>
       <c r="N7" s="26">
         <f t="shared" si="6"/>
-        <v>0.72474484775546977</v>
+        <v>0.7282770804246228</v>
       </c>
       <c r="O7" s="26">
         <f t="shared" si="6"/>
-        <v>0.76696718141273379</v>
+        <v>0.77430106219824002</v>
       </c>
       <c r="P7" s="26">
         <f t="shared" si="6"/>
-        <v>0.80694519112119956</v>
+        <v>0.81332713215860053</v>
       </c>
       <c r="Q7" s="26">
         <f t="shared" ref="Q7:R7" si="7">Q4/Q5</f>
-        <v>0.61005127373563395</v>
+        <v>0.61230379339905661</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" si="7"/>
-        <v>0.69323391454093175</v>
+        <v>0.69700145768561961</v>
       </c>
       <c r="S7" s="26">
         <f t="shared" ref="S7" si="8">S4/S5</f>
-        <v>0.70450972447192817</v>
+        <v>0.7081970758590066</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
@@ -15756,7 +11309,7 @@
         <v>561</v>
       </c>
       <c r="E19" s="62">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F19" s="62">
         <v>0.1</v>
@@ -15765,10 +11318,10 @@
         <v>0.15</v>
       </c>
       <c r="H19" s="62">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I19" s="62">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
@@ -16010,203 +11563,203 @@
       </c>
       <c r="O22" s="70">
         <f>G4</f>
-        <v>0.66675000000000006</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="P22" s="1">
         <f>O22+$O$22*$E$15</f>
-        <v>0.6867525000000001</v>
+        <v>0.69329300000000005</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ref="Q22:X22" si="11">P22+$O$22*$E$15</f>
-        <v>0.70675500000000013</v>
+        <v>0.71348600000000006</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="11"/>
-        <v>0.72675750000000017</v>
+        <v>0.73367900000000008</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="11"/>
-        <v>0.7467600000000002</v>
+        <v>0.7538720000000001</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="11"/>
-        <v>0.76676250000000024</v>
+        <v>0.77406500000000011</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="11"/>
-        <v>0.78676500000000027</v>
+        <v>0.79425800000000013</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="11"/>
-        <v>0.8067675000000003</v>
+        <v>0.81445100000000015</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="11"/>
-        <v>0.82677000000000034</v>
+        <v>0.83464400000000016</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="11"/>
-        <v>0.84677250000000037</v>
+        <v>0.85483700000000018</v>
       </c>
       <c r="Y22" s="1">
         <f>I4</f>
-        <v>0.93144975000000008</v>
+        <v>0.94032070000000012</v>
       </c>
       <c r="Z22" s="1">
         <f>Y22+$Y$22*$E$15</f>
-        <v>0.95939324250000013</v>
+        <v>0.96853032100000014</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ref="AA22:AH22" si="12">Z22+$Y$22*$E$15</f>
-        <v>0.98733673500000019</v>
+        <v>0.99673994200000016</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="12"/>
-        <v>1.0152802275000001</v>
+        <v>1.0249495630000001</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="12"/>
-        <v>1.0432237200000001</v>
+        <v>1.0531591840000001</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="12"/>
-        <v>1.0711672125</v>
+        <v>1.0813688050000001</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="12"/>
-        <v>1.099110705</v>
+        <v>1.1095784260000001</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="12"/>
-        <v>1.1270541974999999</v>
+        <v>1.1377880470000001</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="12"/>
-        <v>1.1549976899999999</v>
+        <v>1.1659976680000002</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="12"/>
-        <v>1.1829411824999998</v>
+        <v>1.1942072890000002</v>
       </c>
       <c r="AI22" s="1">
         <f>K4</f>
-        <v>1.360382359875</v>
+        <v>1.3733383823500001</v>
       </c>
       <c r="AJ22" s="1">
         <f>AI22+$AI$22*$E$15</f>
-        <v>1.4011938306712499</v>
+        <v>1.4145385338205001</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" ref="AK22:AR22" si="13">AJ22+$AI$22*$E$15</f>
-        <v>1.4420053014674998</v>
+        <v>1.4557386852910001</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="13"/>
-        <v>1.4828167722637497</v>
+        <v>1.4969388367615002</v>
       </c>
       <c r="AM22" s="1">
         <f t="shared" si="13"/>
-        <v>1.5236282430599997</v>
+        <v>1.5381389882320002</v>
       </c>
       <c r="AN22" s="1">
         <f t="shared" si="13"/>
-        <v>1.5644397138562496</v>
+        <v>1.5793391397025003</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="13"/>
-        <v>1.6052511846524995</v>
+        <v>1.6205392911730003</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="13"/>
-        <v>1.6460626554487494</v>
+        <v>1.6617394426435004</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="13"/>
-        <v>1.6868741262449993</v>
+        <v>1.7029395941140004</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="13"/>
-        <v>1.7276855970412492</v>
+        <v>1.7441397455845005</v>
       </c>
       <c r="AS22" s="1">
         <f>M4</f>
-        <v>2.0732227164495001</v>
+        <v>2.1104090921572451</v>
       </c>
       <c r="AT22" s="1">
         <f>AS22+$AS$22*$E$15</f>
-        <v>2.135419397942985</v>
+        <v>2.1737213649219624</v>
       </c>
       <c r="AU22" s="1">
         <f t="shared" ref="AU22:BB22" si="14">AT22+$AS$22*$E$15</f>
-        <v>2.1976160794364699</v>
+        <v>2.2370336376866797</v>
       </c>
       <c r="AV22" s="1">
         <f t="shared" si="14"/>
-        <v>2.2598127609299548</v>
+        <v>2.300345910451397</v>
       </c>
       <c r="AW22" s="1">
         <f t="shared" si="14"/>
-        <v>2.3220094424234397</v>
+        <v>2.3636581832161143</v>
       </c>
       <c r="AX22" s="1">
         <f t="shared" si="14"/>
-        <v>2.3842061239169245</v>
+        <v>2.4269704559808316</v>
       </c>
       <c r="AY22" s="1">
         <f t="shared" si="14"/>
-        <v>2.4464028054104094</v>
+        <v>2.4902827287455489</v>
       </c>
       <c r="AZ22" s="1">
         <f t="shared" si="14"/>
-        <v>2.5085994869038943</v>
+        <v>2.5535950015102662</v>
       </c>
       <c r="BA22" s="1">
         <f t="shared" si="14"/>
-        <v>2.5707961683973792</v>
+        <v>2.6169072742749835</v>
       </c>
       <c r="BB22" s="1">
         <f t="shared" si="14"/>
-        <v>2.6329928498908641</v>
+        <v>2.6802195470397008</v>
       </c>
       <c r="BC22" s="1">
         <f>O4</f>
-        <v>3.2912410623635813</v>
+        <v>3.4306810202108178</v>
       </c>
       <c r="BD22" s="1">
         <f>BC22+$BC$22*$E$15</f>
-        <v>3.3899782942344889</v>
+        <v>3.5336014508171423</v>
       </c>
       <c r="BE22" s="1">
         <f t="shared" ref="BE22:BL22" si="15">BD22+$BC$22*$E$15</f>
-        <v>3.4887155261053966</v>
+        <v>3.6365218814234668</v>
       </c>
       <c r="BF22" s="1">
         <f t="shared" si="15"/>
-        <v>3.5874527579763043</v>
+        <v>3.7394423120297913</v>
       </c>
       <c r="BG22" s="1">
         <f t="shared" si="15"/>
-        <v>3.6861899898472119</v>
+        <v>3.8423627426361158</v>
       </c>
       <c r="BH22" s="1">
         <f t="shared" si="15"/>
-        <v>3.7849272217181196</v>
+        <v>3.9452831732424403</v>
       </c>
       <c r="BI22" s="1">
         <f t="shared" si="15"/>
-        <v>3.8836644535890272</v>
+        <v>4.0482036038487648</v>
       </c>
       <c r="BJ22" s="1">
         <f t="shared" si="15"/>
-        <v>3.9824016854599349</v>
+        <v>4.1511240344550897</v>
       </c>
       <c r="BK22" s="1">
         <f t="shared" si="15"/>
-        <v>4.0811389173308426</v>
+        <v>4.2540444650614146</v>
       </c>
       <c r="BL22" s="1">
         <f t="shared" si="15"/>
-        <v>4.1798761492017498</v>
+        <v>4.3569648956677396</v>
       </c>
       <c r="BM22" s="70"/>
     </row>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="75" windowWidth="28530" windowHeight="12600" tabRatio="610" activeTab="2"/>
+    <workbookView xWindow="28665" yWindow="-105" windowWidth="28530" windowHeight="12600" tabRatio="610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
@@ -3126,11 +3126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98167424"/>
-        <c:axId val="98173312"/>
+        <c:axId val="273620352"/>
+        <c:axId val="273765504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98167424"/>
+        <c:axId val="273620352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3172,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98173312"/>
+        <c:crossAx val="273765504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3180,7 +3180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98173312"/>
+        <c:axId val="273765504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98167424"/>
+        <c:crossAx val="273620352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3554,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98189312"/>
-        <c:axId val="98190848"/>
+        <c:axId val="122335232"/>
+        <c:axId val="122336768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98189312"/>
+        <c:axId val="122335232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98190848"/>
+        <c:crossAx val="122336768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98190848"/>
+        <c:axId val="122336768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98189312"/>
+        <c:crossAx val="122335232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3784,49 +3784,49 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5555000000000001</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60550000000000015</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71961000000000019</c:v>
+                  <c:v>0.54570000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81961000000000017</c:v>
+                  <c:v>0.60570000000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91961000000000015</c:v>
+                  <c:v>0.66570000000000018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1016983000000002</c:v>
+                  <c:v>0.68567100000000025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2516983000000002</c:v>
+                  <c:v>0.77567100000000022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4016983000000001</c:v>
+                  <c:v>0.86567100000000019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6016983</c:v>
+                  <c:v>0.98567100000000019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8737662320000001</c:v>
+                  <c:v>1.0250978400000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0737662320000001</c:v>
+                  <c:v>1.14509784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2737662320000003</c:v>
+                  <c:v>1.2650978400000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4737662320000005</c:v>
+                  <c:v>1.3850978400000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6737662320000006</c:v>
+                  <c:v>1.5050978400000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0699545436000006</c:v>
+                  <c:v>1.5803527320000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,11 +3843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98215040"/>
-        <c:axId val="98216576"/>
+        <c:axId val="122352768"/>
+        <c:axId val="122354304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98215040"/>
+        <c:axId val="122352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +3889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98216576"/>
+        <c:crossAx val="122354304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +3897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98216576"/>
+        <c:axId val="122354304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98215040"/>
+        <c:crossAx val="122352768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5963,276 +5963,278 @@
       <sheetName val="文档说明"/>
       <sheetName val="职业调整模型"/>
       <sheetName val="属性拆分生成"/>
-      <sheetName val="战斗验证"/>
-      <sheetName val="装备拆分生成表"/>
       <sheetName val="属性能力生成表"/>
+      <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备能力拆分"/>
       <sheetName val="装备属性生成表"/>
-      <sheetName val="宠物升阶生成表"/>
-      <sheetName val="装备拆分分析表"/>
+      <sheetName val="装备拆分数值生成"/>
       <sheetName val="镶嵌宝石"/>
+      <sheetName val="人物成长等级"/>
+      <sheetName val="啊"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
-        <row r="27">
-          <cell r="C27">
-            <v>776</v>
-          </cell>
-        </row>
         <row r="28">
           <cell r="C28">
-            <v>788</v>
+            <v>862</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>800</v>
+            <v>897</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>812</v>
+            <v>932</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>824</v>
+            <v>967</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>837</v>
+            <v>1001</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>849</v>
+            <v>1036</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>861</v>
+            <v>1071</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>873</v>
+            <v>1106</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>885</v>
+            <v>1141</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>896</v>
+            <v>1176</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>907</v>
+            <v>1210</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>917</v>
+            <v>1245</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>928</v>
+            <v>1280</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>939</v>
+            <v>1315</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>950</v>
+            <v>1350</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
-            <v>961</v>
+            <v>1385</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44">
-            <v>971</v>
+            <v>1420</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45">
-            <v>982</v>
+            <v>1454</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46">
-            <v>993</v>
+            <v>1489</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47">
-            <v>1004</v>
+            <v>1524</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
-            <v>1015</v>
+            <v>1559</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49">
-            <v>1026</v>
+            <v>1594</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
-            <v>1037</v>
+            <v>1629</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51">
-            <v>1048</v>
+            <v>1664</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52">
-            <v>1058</v>
+            <v>1698</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53">
-            <v>1069</v>
+            <v>1733</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54">
-            <v>1080</v>
+            <v>1768</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55">
-            <v>1091</v>
+            <v>1803</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
-            <v>1102</v>
+            <v>1838</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
-            <v>1113</v>
+            <v>1873</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
-            <v>1124</v>
+            <v>1907</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
-            <v>1135</v>
+            <v>1942</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60">
-            <v>1146</v>
+            <v>1977</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61">
-            <v>1157</v>
+            <v>2012</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62">
-            <v>1167</v>
+            <v>2047</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63">
-            <v>1178</v>
+            <v>2082</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64">
-            <v>1189</v>
+            <v>2117</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65">
-            <v>1200</v>
+            <v>2151</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66">
-            <v>1211</v>
+            <v>2186</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67">
-            <v>1222</v>
+            <v>2221</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68">
-            <v>1233</v>
+            <v>2256</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69">
-            <v>1243</v>
+            <v>2291</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70">
-            <v>1254</v>
+            <v>2326</v>
           </cell>
         </row>
         <row r="71">
           <cell r="C71">
-            <v>1265</v>
+            <v>2360</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72">
-            <v>1276</v>
+            <v>2395</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
-            <v>1287</v>
+            <v>2430</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
-            <v>1297</v>
+            <v>2465</v>
           </cell>
         </row>
         <row r="75">
           <cell r="C75">
-            <v>1308</v>
+            <v>2500</v>
           </cell>
         </row>
         <row r="76">
           <cell r="C76">
-            <v>1319</v>
+            <v>2535</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>2570</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6527,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9707,7 +9709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -10031,12 +10033,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="26">
-        <f>[1]属性拆分生成!C27</f>
-        <v>776</v>
+        <f>[1]属性拆分生成!C28</f>
+        <v>862</v>
       </c>
       <c r="D38" s="26">
         <f>ROUNDDOWN(C38*$D$8,0)</f>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10044,12 +10046,12 @@
         <v>2</v>
       </c>
       <c r="C39" s="26">
-        <f>[1]属性拆分生成!C28</f>
-        <v>788</v>
+        <f>[1]属性拆分生成!C29</f>
+        <v>897</v>
       </c>
       <c r="D39" s="26">
         <f t="shared" ref="D39:D87" si="0">ROUNDDOWN(C39*$D$8,0)</f>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10057,12 +10059,12 @@
         <v>3</v>
       </c>
       <c r="C40" s="26">
-        <f>[1]属性拆分生成!C29</f>
-        <v>800</v>
+        <f>[1]属性拆分生成!C30</f>
+        <v>932</v>
       </c>
       <c r="D40" s="26">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10070,12 +10072,12 @@
         <v>4</v>
       </c>
       <c r="C41" s="26">
-        <f>[1]属性拆分生成!C30</f>
-        <v>812</v>
+        <f>[1]属性拆分生成!C31</f>
+        <v>967</v>
       </c>
       <c r="D41" s="26">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10083,12 +10085,12 @@
         <v>5</v>
       </c>
       <c r="C42" s="26">
-        <f>[1]属性拆分生成!C31</f>
-        <v>824</v>
+        <f>[1]属性拆分生成!C32</f>
+        <v>1001</v>
       </c>
       <c r="D42" s="26">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10096,12 +10098,12 @@
         <v>6</v>
       </c>
       <c r="C43" s="26">
-        <f>[1]属性拆分生成!C32</f>
-        <v>837</v>
+        <f>[1]属性拆分生成!C33</f>
+        <v>1036</v>
       </c>
       <c r="D43" s="26">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10109,12 +10111,12 @@
         <v>7</v>
       </c>
       <c r="C44" s="26">
-        <f>[1]属性拆分生成!C33</f>
-        <v>849</v>
+        <f>[1]属性拆分生成!C34</f>
+        <v>1071</v>
       </c>
       <c r="D44" s="26">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10122,12 +10124,12 @@
         <v>8</v>
       </c>
       <c r="C45" s="26">
-        <f>[1]属性拆分生成!C34</f>
-        <v>861</v>
+        <f>[1]属性拆分生成!C35</f>
+        <v>1106</v>
       </c>
       <c r="D45" s="26">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10135,12 +10137,12 @@
         <v>9</v>
       </c>
       <c r="C46" s="26">
-        <f>[1]属性拆分生成!C35</f>
-        <v>873</v>
+        <f>[1]属性拆分生成!C36</f>
+        <v>1141</v>
       </c>
       <c r="D46" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10148,12 +10150,12 @@
         <v>10</v>
       </c>
       <c r="C47" s="26">
-        <f>[1]属性拆分生成!C36</f>
-        <v>885</v>
+        <f>[1]属性拆分生成!C37</f>
+        <v>1176</v>
       </c>
       <c r="D47" s="26">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10161,12 +10163,12 @@
         <v>11</v>
       </c>
       <c r="C48" s="26">
-        <f>[1]属性拆分生成!C37</f>
-        <v>896</v>
+        <f>[1]属性拆分生成!C38</f>
+        <v>1210</v>
       </c>
       <c r="D48" s="26">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10174,12 +10176,12 @@
         <v>12</v>
       </c>
       <c r="C49" s="26">
-        <f>[1]属性拆分生成!C38</f>
-        <v>907</v>
+        <f>[1]属性拆分生成!C39</f>
+        <v>1245</v>
       </c>
       <c r="D49" s="26">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10187,12 +10189,12 @@
         <v>13</v>
       </c>
       <c r="C50" s="26">
-        <f>[1]属性拆分生成!C39</f>
-        <v>917</v>
+        <f>[1]属性拆分生成!C40</f>
+        <v>1280</v>
       </c>
       <c r="D50" s="26">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10200,12 +10202,12 @@
         <v>14</v>
       </c>
       <c r="C51" s="26">
-        <f>[1]属性拆分生成!C40</f>
-        <v>928</v>
+        <f>[1]属性拆分生成!C41</f>
+        <v>1315</v>
       </c>
       <c r="D51" s="26">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10213,12 +10215,12 @@
         <v>15</v>
       </c>
       <c r="C52" s="26">
-        <f>[1]属性拆分生成!C41</f>
-        <v>939</v>
+        <f>[1]属性拆分生成!C42</f>
+        <v>1350</v>
       </c>
       <c r="D52" s="26">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10226,12 +10228,12 @@
         <v>16</v>
       </c>
       <c r="C53" s="26">
-        <f>[1]属性拆分生成!C42</f>
-        <v>950</v>
+        <f>[1]属性拆分生成!C43</f>
+        <v>1385</v>
       </c>
       <c r="D53" s="26">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10239,12 +10241,12 @@
         <v>17</v>
       </c>
       <c r="C54" s="26">
-        <f>[1]属性拆分生成!C43</f>
-        <v>961</v>
+        <f>[1]属性拆分生成!C44</f>
+        <v>1420</v>
       </c>
       <c r="D54" s="26">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10252,12 +10254,12 @@
         <v>18</v>
       </c>
       <c r="C55" s="26">
-        <f>[1]属性拆分生成!C44</f>
-        <v>971</v>
+        <f>[1]属性拆分生成!C45</f>
+        <v>1454</v>
       </c>
       <c r="D55" s="26">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10265,12 +10267,12 @@
         <v>19</v>
       </c>
       <c r="C56" s="26">
-        <f>[1]属性拆分生成!C45</f>
-        <v>982</v>
+        <f>[1]属性拆分生成!C46</f>
+        <v>1489</v>
       </c>
       <c r="D56" s="26">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10278,12 +10280,12 @@
         <v>20</v>
       </c>
       <c r="C57" s="26">
-        <f>[1]属性拆分生成!C46</f>
-        <v>993</v>
+        <f>[1]属性拆分生成!C47</f>
+        <v>1524</v>
       </c>
       <c r="D57" s="26">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10291,12 +10293,12 @@
         <v>21</v>
       </c>
       <c r="C58" s="26">
-        <f>[1]属性拆分生成!C47</f>
-        <v>1004</v>
+        <f>[1]属性拆分生成!C48</f>
+        <v>1559</v>
       </c>
       <c r="D58" s="26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10304,12 +10306,12 @@
         <v>22</v>
       </c>
       <c r="C59" s="26">
-        <f>[1]属性拆分生成!C48</f>
-        <v>1015</v>
+        <f>[1]属性拆分生成!C49</f>
+        <v>1594</v>
       </c>
       <c r="D59" s="26">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10317,12 +10319,12 @@
         <v>23</v>
       </c>
       <c r="C60" s="26">
-        <f>[1]属性拆分生成!C49</f>
-        <v>1026</v>
+        <f>[1]属性拆分生成!C50</f>
+        <v>1629</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10330,12 +10332,12 @@
         <v>24</v>
       </c>
       <c r="C61" s="26">
-        <f>[1]属性拆分生成!C50</f>
-        <v>1037</v>
+        <f>[1]属性拆分生成!C51</f>
+        <v>1664</v>
       </c>
       <c r="D61" s="26">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10343,12 +10345,12 @@
         <v>25</v>
       </c>
       <c r="C62" s="26">
-        <f>[1]属性拆分生成!C51</f>
-        <v>1048</v>
+        <f>[1]属性拆分生成!C52</f>
+        <v>1698</v>
       </c>
       <c r="D62" s="26">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10356,12 +10358,12 @@
         <v>26</v>
       </c>
       <c r="C63" s="26">
-        <f>[1]属性拆分生成!C52</f>
-        <v>1058</v>
+        <f>[1]属性拆分生成!C53</f>
+        <v>1733</v>
       </c>
       <c r="D63" s="26">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10369,12 +10371,12 @@
         <v>27</v>
       </c>
       <c r="C64" s="26">
-        <f>[1]属性拆分生成!C53</f>
-        <v>1069</v>
+        <f>[1]属性拆分生成!C54</f>
+        <v>1768</v>
       </c>
       <c r="D64" s="26">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10382,12 +10384,12 @@
         <v>28</v>
       </c>
       <c r="C65" s="26">
-        <f>[1]属性拆分生成!C54</f>
-        <v>1080</v>
+        <f>[1]属性拆分生成!C55</f>
+        <v>1803</v>
       </c>
       <c r="D65" s="26">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10395,12 +10397,12 @@
         <v>29</v>
       </c>
       <c r="C66" s="26">
-        <f>[1]属性拆分生成!C55</f>
-        <v>1091</v>
+        <f>[1]属性拆分生成!C56</f>
+        <v>1838</v>
       </c>
       <c r="D66" s="26">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10408,12 +10410,12 @@
         <v>30</v>
       </c>
       <c r="C67" s="26">
-        <f>[1]属性拆分生成!C56</f>
-        <v>1102</v>
+        <f>[1]属性拆分生成!C57</f>
+        <v>1873</v>
       </c>
       <c r="D67" s="26">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10421,12 +10423,12 @@
         <v>31</v>
       </c>
       <c r="C68" s="26">
-        <f>[1]属性拆分生成!C57</f>
-        <v>1113</v>
+        <f>[1]属性拆分生成!C58</f>
+        <v>1907</v>
       </c>
       <c r="D68" s="26">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10434,12 +10436,12 @@
         <v>32</v>
       </c>
       <c r="C69" s="26">
-        <f>[1]属性拆分生成!C58</f>
-        <v>1124</v>
+        <f>[1]属性拆分生成!C59</f>
+        <v>1942</v>
       </c>
       <c r="D69" s="26">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10447,12 +10449,12 @@
         <v>33</v>
       </c>
       <c r="C70" s="26">
-        <f>[1]属性拆分生成!C59</f>
-        <v>1135</v>
+        <f>[1]属性拆分生成!C60</f>
+        <v>1977</v>
       </c>
       <c r="D70" s="26">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10460,12 +10462,12 @@
         <v>34</v>
       </c>
       <c r="C71" s="26">
-        <f>[1]属性拆分生成!C60</f>
-        <v>1146</v>
+        <f>[1]属性拆分生成!C61</f>
+        <v>2012</v>
       </c>
       <c r="D71" s="26">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10473,12 +10475,12 @@
         <v>35</v>
       </c>
       <c r="C72" s="26">
-        <f>[1]属性拆分生成!C61</f>
-        <v>1157</v>
+        <f>[1]属性拆分生成!C62</f>
+        <v>2047</v>
       </c>
       <c r="D72" s="26">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10486,12 +10488,12 @@
         <v>36</v>
       </c>
       <c r="C73" s="26">
-        <f>[1]属性拆分生成!C62</f>
-        <v>1167</v>
+        <f>[1]属性拆分生成!C63</f>
+        <v>2082</v>
       </c>
       <c r="D73" s="26">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10499,12 +10501,12 @@
         <v>37</v>
       </c>
       <c r="C74" s="26">
-        <f>[1]属性拆分生成!C63</f>
-        <v>1178</v>
+        <f>[1]属性拆分生成!C64</f>
+        <v>2117</v>
       </c>
       <c r="D74" s="26">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10512,12 +10514,12 @@
         <v>38</v>
       </c>
       <c r="C75" s="26">
-        <f>[1]属性拆分生成!C64</f>
-        <v>1189</v>
+        <f>[1]属性拆分生成!C65</f>
+        <v>2151</v>
       </c>
       <c r="D75" s="26">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10525,12 +10527,12 @@
         <v>39</v>
       </c>
       <c r="C76" s="26">
-        <f>[1]属性拆分生成!C65</f>
-        <v>1200</v>
+        <f>[1]属性拆分生成!C66</f>
+        <v>2186</v>
       </c>
       <c r="D76" s="26">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10538,12 +10540,12 @@
         <v>40</v>
       </c>
       <c r="C77" s="26">
-        <f>[1]属性拆分生成!C66</f>
-        <v>1211</v>
+        <f>[1]属性拆分生成!C67</f>
+        <v>2221</v>
       </c>
       <c r="D77" s="26">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10551,12 +10553,12 @@
         <v>41</v>
       </c>
       <c r="C78" s="26">
-        <f>[1]属性拆分生成!C67</f>
-        <v>1222</v>
+        <f>[1]属性拆分生成!C68</f>
+        <v>2256</v>
       </c>
       <c r="D78" s="26">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10564,12 +10566,12 @@
         <v>42</v>
       </c>
       <c r="C79" s="26">
-        <f>[1]属性拆分生成!C68</f>
-        <v>1233</v>
+        <f>[1]属性拆分生成!C69</f>
+        <v>2291</v>
       </c>
       <c r="D79" s="26">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10577,12 +10579,12 @@
         <v>43</v>
       </c>
       <c r="C80" s="26">
-        <f>[1]属性拆分生成!C69</f>
-        <v>1243</v>
+        <f>[1]属性拆分生成!C70</f>
+        <v>2326</v>
       </c>
       <c r="D80" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10590,12 +10592,12 @@
         <v>44</v>
       </c>
       <c r="C81" s="26">
-        <f>[1]属性拆分生成!C70</f>
-        <v>1254</v>
+        <f>[1]属性拆分生成!C71</f>
+        <v>2360</v>
       </c>
       <c r="D81" s="26">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10603,12 +10605,12 @@
         <v>45</v>
       </c>
       <c r="C82" s="26">
-        <f>[1]属性拆分生成!C71</f>
-        <v>1265</v>
+        <f>[1]属性拆分生成!C72</f>
+        <v>2395</v>
       </c>
       <c r="D82" s="26">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10616,12 +10618,12 @@
         <v>46</v>
       </c>
       <c r="C83" s="26">
-        <f>[1]属性拆分生成!C72</f>
-        <v>1276</v>
+        <f>[1]属性拆分生成!C73</f>
+        <v>2430</v>
       </c>
       <c r="D83" s="26">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10629,12 +10631,12 @@
         <v>47</v>
       </c>
       <c r="C84" s="26">
-        <f>[1]属性拆分生成!C73</f>
-        <v>1287</v>
+        <f>[1]属性拆分生成!C74</f>
+        <v>2465</v>
       </c>
       <c r="D84" s="26">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10642,12 +10644,12 @@
         <v>48</v>
       </c>
       <c r="C85" s="26">
-        <f>[1]属性拆分生成!C74</f>
-        <v>1297</v>
+        <f>[1]属性拆分生成!C75</f>
+        <v>2500</v>
       </c>
       <c r="D85" s="26">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10655,12 +10657,12 @@
         <v>49</v>
       </c>
       <c r="C86" s="26">
-        <f>[1]属性拆分生成!C75</f>
-        <v>1308</v>
+        <f>[1]属性拆分生成!C76</f>
+        <v>2535</v>
       </c>
       <c r="D86" s="26">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10668,12 +10670,12 @@
         <v>50</v>
       </c>
       <c r="C87" s="26">
-        <f>[1]属性拆分生成!C76</f>
-        <v>1319</v>
+        <f>[1]属性拆分生成!C77</f>
+        <v>2570</v>
       </c>
       <c r="D87" s="26">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
@@ -10735,8 +10737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11873,64 +11875,64 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="74">
-        <f>(D29+E32)*(E35+1)</f>
-        <v>0.5555000000000001</v>
+        <f>(D29)*(E35+1)</f>
+        <v>0.505</v>
       </c>
       <c r="F29" s="75">
         <f>E29+E32</f>
-        <v>0.60550000000000015</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="G29" s="76">
-        <f>(F29+F32)*(F35+1)</f>
-        <v>0.71961000000000019</v>
+        <f>F29*(F35+1)</f>
+        <v>0.54570000000000007</v>
       </c>
       <c r="H29" s="76">
         <f>G29+F32</f>
-        <v>0.81961000000000017</v>
+        <v>0.60570000000000013</v>
       </c>
       <c r="I29" s="76">
         <f>H29+F32</f>
-        <v>0.91961000000000015</v>
+        <v>0.66570000000000018</v>
       </c>
       <c r="J29" s="76">
-        <f>(I29+G32)*(G35+1)</f>
-        <v>1.1016983000000002</v>
+        <f>(I29)*(G35+1)</f>
+        <v>0.68567100000000025</v>
       </c>
       <c r="K29" s="74">
         <f>J29+G32</f>
-        <v>1.2516983000000002</v>
+        <v>0.77567100000000022</v>
       </c>
       <c r="L29" s="74">
         <f>K29+G32</f>
-        <v>1.4016983000000001</v>
+        <v>0.86567100000000019</v>
       </c>
       <c r="M29" s="74">
         <f>L29+H32</f>
-        <v>1.6016983</v>
+        <v>0.98567100000000019</v>
       </c>
       <c r="N29" s="74">
-        <f>(M29+H32)*(H35+1)</f>
-        <v>1.8737662320000001</v>
+        <f>(M29)*(H35+1)</f>
+        <v>1.0250978400000001</v>
       </c>
       <c r="O29" s="26">
         <f>N29+H32</f>
-        <v>2.0737662320000001</v>
+        <v>1.14509784</v>
       </c>
       <c r="P29" s="26">
         <f>O29+H32</f>
-        <v>2.2737662320000003</v>
+        <v>1.2650978400000001</v>
       </c>
       <c r="Q29" s="26">
         <f>P29+H32</f>
-        <v>2.4737662320000005</v>
+        <v>1.3850978400000002</v>
       </c>
       <c r="R29" s="26">
         <f>Q29+H32</f>
-        <v>2.6737662320000006</v>
+        <v>1.5050978400000004</v>
       </c>
       <c r="S29" s="26">
-        <f>(R29+I32)*(I35+1)</f>
-        <v>3.0699545436000006</v>
+        <f>(R29)*(I35+1)</f>
+        <v>1.5803527320000004</v>
       </c>
     </row>
     <row r="30" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -11980,19 +11982,19 @@
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="79">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F32" s="79">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G32" s="79">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="H32" s="79">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I32" s="79">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="J32" s="71"/>
       <c r="K32" s="71"/>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/数值规划/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-105" windowWidth="28530" windowHeight="12600" tabRatio="610" activeTab="2"/>
+    <workbookView xWindow="2020" yWindow="640" windowWidth="28540" windowHeight="19460" tabRatio="610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,12 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2449,23 +2459,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000000000000000%"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="167" formatCode="0_ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2665,31 +2675,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="thin">
         <color auto="1"/>
@@ -2700,7 +2710,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2807,7 +2817,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2816,7 +2826,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2825,7 +2835,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2867,10 +2877,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2885,7 +2895,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,10 +2910,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2918,19 +2928,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,7 +2967,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2977,7 +2987,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2996,7 +3006,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3034,7 +3044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3045,10 +3055,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2247594050743642E-2"/>
-          <c:y val="0.18611111111111112"/>
-          <c:w val="0.9155301837270341"/>
-          <c:h val="0.7157487605715952"/>
+          <c:x val="0.0622475940507437"/>
+          <c:y val="0.186111111111111"/>
+          <c:w val="0.915530183727034"/>
+          <c:h val="0.715748760571595"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3085,31 +3095,31 @@
                   <c:v>1.6731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8548370000000001</c:v>
+                  <c:v>1.854837</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.9403207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1942072890000004</c:v>
+                  <c:v>2.194207289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3733383823500001</c:v>
+                  <c:v>2.37333838235</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.7441397455845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1104090921572451</c:v>
+                  <c:v>3.110409092157245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6802195470397012</c:v>
+                  <c:v>3.680219547039701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4306810202108178</c:v>
+                  <c:v>4.430681020210817</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3569648956677387</c:v>
+                  <c:v>5.356964895667739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,13 +3134,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="273620352"/>
-        <c:axId val="273765504"/>
+        <c:axId val="-2007446384"/>
+        <c:axId val="-2007441744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273620352"/>
+        <c:axId val="-2007446384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,10 +3178,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273765504"/>
+        <c:crossAx val="-2007441744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3180,7 +3189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273765504"/>
+        <c:axId val="-2007441744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,10 +3237,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273620352"/>
+        <c:crossAx val="-2007446384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3269,7 +3278,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3283,7 +3292,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3299,8 +3308,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41666666666666674"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.416666666666667"/>
+          <c:y val="0.0416666666666667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3328,7 +3337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3363,181 +3372,181 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.515</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57500000000000007</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59000000000000008</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60500000000000009</c:v>
+                  <c:v>0.605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62000000000000011</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63500000000000012</c:v>
+                  <c:v>0.635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67310000000000003</c:v>
+                  <c:v>0.6731</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.69329300000000005</c:v>
+                  <c:v>0.693293</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.71348600000000006</c:v>
+                  <c:v>0.713486</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.73367900000000008</c:v>
+                  <c:v>0.733679</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.7538720000000001</c:v>
+                  <c:v>0.753872</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.77406500000000011</c:v>
+                  <c:v>0.774065</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.79425800000000013</c:v>
+                  <c:v>0.794258</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.81445100000000015</c:v>
+                  <c:v>0.814451</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.83464400000000016</c:v>
+                  <c:v>0.834644</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.85483700000000018</c:v>
+                  <c:v>0.854837</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.94032070000000012</c:v>
+                  <c:v>0.9403207</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.96853032100000014</c:v>
+                  <c:v>0.968530321</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.99673994200000016</c:v>
+                  <c:v>0.996739942</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>1.0249495630000001</c:v>
+                  <c:v>1.024949563</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>1.0531591840000001</c:v>
+                  <c:v>1.053159184</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>1.0813688050000001</c:v>
+                  <c:v>1.081368805</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>1.1095784260000001</c:v>
+                  <c:v>1.109578426</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>1.1377880470000001</c:v>
+                  <c:v>1.137788047</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>1.1659976680000002</c:v>
+                  <c:v>1.165997668</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>1.1942072890000002</c:v>
+                  <c:v>1.194207289</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>1.3733383823500001</c:v>
+                  <c:v>1.37333838235</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>1.4145385338205001</c:v>
+                  <c:v>1.4145385338205</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>1.4557386852910001</c:v>
+                  <c:v>1.455738685291</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>1.4969388367615002</c:v>
+                  <c:v>1.4969388367615</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>1.5381389882320002</c:v>
+                  <c:v>1.538138988232</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>1.5793391397025003</c:v>
+                  <c:v>1.5793391397025</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>1.6205392911730003</c:v>
+                  <c:v>1.620539291173</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>1.6617394426435004</c:v>
+                  <c:v>1.6617394426435</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>1.7029395941140004</c:v>
+                  <c:v>1.702939594114</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>1.7441397455845005</c:v>
+                  <c:v>1.7441397455845</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>2.1104090921572451</c:v>
+                  <c:v>2.110409092157245</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>2.1737213649219624</c:v>
+                  <c:v>2.173721364921962</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>2.2370336376866797</c:v>
+                  <c:v>2.23703363768668</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
                   <c:v>2.300345910451397</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>2.3636581832161143</c:v>
+                  <c:v>2.363658183216114</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>2.4269704559808316</c:v>
+                  <c:v>2.426970455980832</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>2.4902827287455489</c:v>
+                  <c:v>2.490282728745549</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>2.5535950015102662</c:v>
+                  <c:v>2.553595001510266</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>2.6169072742749835</c:v>
+                  <c:v>2.616907274274983</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>2.6802195470397008</c:v>
+                  <c:v>2.680219547039701</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>3.4306810202108178</c:v>
+                  <c:v>3.430681020210818</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>3.5336014508171423</c:v>
+                  <c:v>3.533601450817142</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>3.6365218814234668</c:v>
+                  <c:v>3.636521881423467</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>3.7394423120297913</c:v>
+                  <c:v>3.739442312029791</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>3.8423627426361158</c:v>
+                  <c:v>3.842362742636116</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>3.9452831732424403</c:v>
+                  <c:v>3.94528317324244</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>4.0482036038487648</c:v>
+                  <c:v>4.048203603848764</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>4.1511240344550897</c:v>
+                  <c:v>4.15112403445509</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>4.2540444650614146</c:v>
+                  <c:v>4.254044465061415</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>4.3569648956677396</c:v>
+                  <c:v>4.35696489566774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,13 +3561,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122335232"/>
-        <c:axId val="122336768"/>
+        <c:axId val="-2069397296"/>
+        <c:axId val="-2069386032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122335232"/>
+        <c:axId val="-2069397296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,10 +3605,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122336768"/>
+        <c:crossAx val="-2069386032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122336768"/>
+        <c:axId val="-2069386032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,10 +3664,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122335232"/>
+        <c:crossAx val="-2069397296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3697,7 +3705,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3711,7 +3719,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3749,7 +3757,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3787,46 +3795,46 @@
                   <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54570000000000007</c:v>
+                  <c:v>0.5457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60570000000000013</c:v>
+                  <c:v>0.6057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66570000000000018</c:v>
+                  <c:v>0.6657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68567100000000025</c:v>
+                  <c:v>0.685671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77567100000000022</c:v>
+                  <c:v>0.775671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86567100000000019</c:v>
+                  <c:v>0.865671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98567100000000019</c:v>
+                  <c:v>0.985671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0250978400000001</c:v>
+                  <c:v>1.02509784</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.14509784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2650978400000001</c:v>
+                  <c:v>1.26509784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3850978400000002</c:v>
+                  <c:v>1.38509784</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5050978400000004</c:v>
+                  <c:v>1.50509784</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5803527320000004</c:v>
+                  <c:v>1.580352732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,13 +3849,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122352768"/>
-        <c:axId val="122354304"/>
+        <c:axId val="-2069280560"/>
+        <c:axId val="-2069277344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122352768"/>
+        <c:axId val="-2069280560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,10 +3893,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122354304"/>
+        <c:crossAx val="-2069277344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +3904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122354304"/>
+        <c:axId val="-2069277344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,10 +3952,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122352768"/>
+        <c:crossAx val="-2069280560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3986,7 +3993,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6241,7 +6248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6283,7 +6290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6318,7 +6325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6529,35 +6536,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" style="1"/>
     <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="42" width="9" style="1"/>
-    <col min="43" max="43" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="9" style="1"/>
-    <col min="48" max="48" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="1"/>
+    <col min="23" max="28" width="8.83203125" style="1"/>
+    <col min="29" max="29" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="42" width="8.83203125" style="1"/>
+    <col min="43" max="43" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="8.83203125" style="1"/>
+    <col min="48" max="48" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6565,7 +6572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6577,7 +6584,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6597,7 @@
       </c>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
@@ -6604,11 +6611,11 @@
       </c>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.2">
       <c r="I6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.2">
       <c r="I7" s="84" t="s">
         <v>9</v>
       </c>
@@ -6663,7 +6670,7 @@
       <c r="AX7" s="84"/>
       <c r="AY7" s="84"/>
     </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
@@ -6756,7 +6763,7 @@
       </c>
       <c r="AU8" s="2"/>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
@@ -6899,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -7042,7 +7049,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -7185,7 +7192,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7325,7 +7332,7 @@
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
@@ -7483,7 +7490,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -7554,7 +7561,7 @@
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
     </row>
-    <row r="15" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="G15" s="4">
         <f>(E13-G13)/E13</f>
@@ -7581,7 +7588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="I16" s="8" t="s">
         <v>45</v>
@@ -7675,7 +7682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -7940,7 +7947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="5" t="s">
         <v>174</v>
       </c>
@@ -8038,7 +8045,7 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
     </row>
-    <row r="20" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
@@ -8154,7 +8161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="5" t="s">
         <v>54</v>
       </c>
@@ -8267,7 +8274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H22" s="5" t="s">
         <v>21</v>
       </c>
@@ -8336,7 +8343,7 @@
         <v>88.02272727272728</v>
       </c>
     </row>
-    <row r="23" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
@@ -8401,14 +8408,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AD24" s="9"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O25" s="5" t="s">
         <v>189</v>
       </c>
@@ -8419,7 +8426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
@@ -8485,7 +8492,7 @@
         <v>-0.43962101636520695</v>
       </c>
     </row>
-    <row r="27" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
@@ -8512,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F28" s="11" t="s">
         <v>59</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F29" s="11" t="s">
         <v>169</v>
       </c>
@@ -8560,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F30" s="29" t="s">
         <v>60</v>
       </c>
@@ -8581,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F31" s="29" t="s">
         <v>104</v>
       </c>
@@ -8605,31 +8612,31 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
@@ -8641,17 +8648,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
@@ -8659,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
         <v>99</v>
       </c>
@@ -8672,7 +8679,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>119</v>
       </c>
@@ -8702,7 +8709,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C49" s="16" t="s">
         <v>97</v>
       </c>
@@ -8727,7 +8734,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C50" s="16" t="s">
         <v>96</v>
       </c>
@@ -8740,7 +8747,7 @@
       <c r="F50" s="5"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C51" s="16"/>
       <c r="F51" s="5"/>
       <c r="H51" s="15"/>
@@ -8752,12 +8759,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="F52" s="5"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="F53" s="5"/>
       <c r="H53" s="15"/>
@@ -8769,12 +8776,12 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="F54" s="5"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="H55" s="15"/>
       <c r="M55" s="3" t="s">
@@ -8791,7 +8798,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
@@ -8827,7 +8834,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -8871,7 +8878,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8934,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>2</v>
       </c>
@@ -8977,7 +8984,7 @@
         <v>0.62228571428571433</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
@@ -9012,7 +9019,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>6</v>
       </c>
@@ -9029,7 +9036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>17</v>
       </c>
@@ -9046,7 +9053,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
       <c r="M63" s="1" t="s">
         <v>109</v>
@@ -9060,7 +9067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
       <c r="M64" s="1" t="s">
         <v>110</v>
@@ -9074,18 +9081,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="Q65" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>84</v>
       </c>
@@ -9114,7 +9121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="13">
         <v>6</v>
       </c>
@@ -9149,7 +9156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>83</v>
       </c>
@@ -9176,7 +9183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>83</v>
       </c>
@@ -9200,7 +9207,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
@@ -9224,7 +9231,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>87</v>
       </c>
@@ -9253,7 +9260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="13">
         <v>1</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>83</v>
       </c>
@@ -9313,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>88</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C78" s="13">
         <v>4</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>83</v>
       </c>
@@ -9402,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D80" s="1">
         <f>D78</f>
         <v>2</v>
@@ -9432,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D81" s="12">
         <f>D80/($D$80+$E$80+$G$80+$I$80)</f>
         <v>0.12765957446808512</v>
@@ -9456,12 +9463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C83" s="3" t="s">
         <v>84</v>
       </c>
@@ -9473,7 +9480,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +9497,7 @@
         <v>2.3354968324845689</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
@@ -9507,7 +9514,7 @@
         <v>0.77849894416152299</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>0.66287878787878796</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>92</v>
       </c>
@@ -9541,7 +9548,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>102</v>
       </c>
@@ -9558,12 +9565,12 @@
         <v>1.2052341597796143</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>193</v>
       </c>
@@ -9572,7 +9579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>194</v>
       </c>
@@ -9581,7 +9588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>201</v>
       </c>
@@ -9589,7 +9596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>200</v>
       </c>
@@ -9597,12 +9604,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
         <v>195</v>
       </c>
@@ -9616,7 +9623,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E98" s="1" t="s">
         <v>202</v>
       </c>
@@ -9625,7 +9632,7 @@
         <v>32.307692307692307</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E99" s="1" t="s">
         <v>205</v>
       </c>
@@ -9634,7 +9641,7 @@
         <v>96.92307692307692</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
         <v>206</v>
       </c>
@@ -9643,12 +9650,12 @@
         <v>0.55621301775147935</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D102" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E103" s="13" t="s">
         <v>197</v>
       </c>
@@ -9659,7 +9666,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E104" s="17">
         <v>3</v>
       </c>
@@ -9670,12 +9677,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
         <v>195</v>
       </c>
@@ -9683,7 +9690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
         <v>209</v>
       </c>
@@ -9709,18 +9716,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>624</v>
       </c>
@@ -9755,19 +9762,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E3" s="18"/>
       <c r="N3" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E4" s="18"/>
       <c r="N4" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>622</v>
       </c>
@@ -9778,7 +9785,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>601</v>
       </c>
@@ -9787,7 +9794,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>602</v>
       </c>
@@ -9796,7 +9803,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>603</v>
       </c>
@@ -9805,15 +9812,15 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>605</v>
       </c>
@@ -9822,7 +9829,7 @@
         <v>0.89736842105263182</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>602</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>0.17894736842105258</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>606</v>
       </c>
@@ -9840,11 +9847,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>607</v>
       </c>
@@ -9852,15 +9859,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>601</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>3.2052631578947364</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>609</v>
       </c>
@@ -9878,7 +9885,7 @@
         <v>1.642105263157895</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>610</v>
       </c>
@@ -9887,14 +9894,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
         <v>612</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>613</v>
       </c>
@@ -9922,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>614</v>
       </c>
@@ -9939,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>615</v>
       </c>
@@ -9956,7 +9963,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
@@ -9973,7 +9980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
@@ -9990,8 +9997,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>616</v>
       </c>
@@ -9999,25 +10006,25 @@
         <v>617</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C32" s="26">
         <f>SQRT(E2)</f>
         <v>0.44721359549995793</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>620</v>
       </c>
@@ -10028,7 +10035,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -10041,7 +10048,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -10054,7 +10061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -10067,7 +10074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -10080,7 +10087,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -10093,7 +10100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>6</v>
       </c>
@@ -10106,7 +10113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>7</v>
       </c>
@@ -10119,7 +10126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>8</v>
       </c>
@@ -10132,7 +10139,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -10145,7 +10152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>10</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>11</v>
       </c>
@@ -10171,7 +10178,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>12</v>
       </c>
@@ -10184,7 +10191,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>13</v>
       </c>
@@ -10197,7 +10204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>14</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>15</v>
       </c>
@@ -10223,7 +10230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>16</v>
       </c>
@@ -10236,7 +10243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>17</v>
       </c>
@@ -10249,7 +10256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>18</v>
       </c>
@@ -10262,7 +10269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>19</v>
       </c>
@@ -10275,7 +10282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>20</v>
       </c>
@@ -10288,7 +10295,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>21</v>
       </c>
@@ -10301,7 +10308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>22</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>23</v>
       </c>
@@ -10327,7 +10334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>24</v>
       </c>
@@ -10340,7 +10347,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>25</v>
       </c>
@@ -10353,7 +10360,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>26</v>
       </c>
@@ -10366,7 +10373,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>27</v>
       </c>
@@ -10379,7 +10386,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>28</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>29</v>
       </c>
@@ -10405,7 +10412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>30</v>
       </c>
@@ -10418,7 +10425,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>31</v>
       </c>
@@ -10431,7 +10438,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>32</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>33</v>
       </c>
@@ -10457,7 +10464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>34</v>
       </c>
@@ -10470,7 +10477,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>35</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>36</v>
       </c>
@@ -10496,7 +10503,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>37</v>
       </c>
@@ -10509,7 +10516,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>38</v>
       </c>
@@ -10522,7 +10529,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>39</v>
       </c>
@@ -10535,7 +10542,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>40</v>
       </c>
@@ -10548,7 +10555,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>41</v>
       </c>
@@ -10561,7 +10568,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>42</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>43</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>44</v>
       </c>
@@ -10600,7 +10607,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>45</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>46</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>47</v>
       </c>
@@ -10639,7 +10646,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>48</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>49</v>
       </c>
@@ -10665,7 +10672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>50</v>
       </c>
@@ -10678,55 +10685,55 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="122" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="123" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="124" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="125" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="126" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="127" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="128" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="129" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="130" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="131" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="132" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="133" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="134" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="135" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="136" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10737,18 +10744,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
         <v>534</v>
       </c>
@@ -10789,7 +10796,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>546</v>
       </c>
@@ -10839,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>547</v>
       </c>
@@ -10903,7 +10910,7 @@
         <v>2.4269704559808316</v>
       </c>
     </row>
-    <row r="5" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>548</v>
       </c>
@@ -10968,7 +10975,7 @@
         <v>3.4269704559808316</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>549</v>
       </c>
@@ -11033,7 +11040,7 @@
         <v>0.29180292414099335</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>550</v>
       </c>
@@ -11098,8 +11105,8 @@
         <v>0.7081970758590066</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
         <v>551</v>
       </c>
@@ -11115,7 +11122,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
@@ -11141,7 +11148,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
         <v>558</v>
@@ -11166,7 +11173,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="56"/>
@@ -11180,7 +11187,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="58" t="s">
         <v>559</v>
@@ -11196,7 +11203,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="60" t="s">
         <v>560</v>
@@ -11230,7 +11237,7 @@
       </c>
       <c r="N14" s="61"/>
     </row>
-    <row r="15" spans="2:19" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:19" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="60" t="s">
         <v>561</v>
@@ -11275,13 +11282,13 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="2:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="64" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="60" t="s">
         <v>563</v>
       </c>
@@ -11306,7 +11313,7 @@
       <c r="M18" s="67"/>
       <c r="N18" s="67"/>
     </row>
-    <row r="19" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D19" s="60" t="s">
         <v>561</v>
       </c>
@@ -11331,10 +11338,10 @@
       <c r="M19" s="68"/>
       <c r="N19" s="69"/>
     </row>
-    <row r="20" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
         <v>560</v>
       </c>
@@ -11519,7 +11526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>564</v>
       </c>
@@ -11765,14 +11772,14 @@
       </c>
       <c r="BM22" s="70"/>
     </row>
-    <row r="23" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>566</v>
       </c>
@@ -11793,7 +11800,7 @@
       <c r="R26" s="72"/>
       <c r="S26" s="72"/>
     </row>
-    <row r="27" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="71" t="s">
         <v>567</v>
@@ -11814,7 +11821,7 @@
       <c r="R27" s="72"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
         <v>568</v>
       </c>
@@ -11867,7 +11874,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>585</v>
       </c>
@@ -11935,7 +11942,7 @@
         <v>1.5803527320000004</v>
       </c>
     </row>
-    <row r="30" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="77"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
@@ -11951,7 +11958,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E31" s="78" t="s">
         <v>586</v>
       </c>
@@ -11976,7 +11983,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:65" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>591</v>
       </c>
@@ -12005,7 +12012,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="80"/>
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
@@ -12021,7 +12028,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="77"/>
       <c r="E34" s="78" t="s">
         <v>586</v>
@@ -12047,7 +12054,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>592</v>
       </c>
@@ -12087,27 +12094,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B239" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="39"/>
     <col min="3" max="3" width="12" style="39" customWidth="1"/>
     <col min="4" max="11" width="9" style="39"/>
-    <col min="12" max="12" width="10.875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="39" customWidth="1"/>
     <col min="13" max="16" width="9" style="39"/>
-    <col min="17" max="17" width="9.625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="39" customWidth="1"/>
     <col min="18" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>265</v>
       </c>
@@ -12121,7 +12128,7 @@
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>268</v>
       </c>
@@ -12135,174 +12142,174 @@
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
         <v>271</v>
       </c>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="41" t="s">
         <v>272</v>
       </c>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
         <v>273</v>
       </c>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="41" t="s">
         <v>274</v>
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="41" t="s">
         <v>275</v>
       </c>
       <c r="H10" s="43"/>
     </row>
-    <row r="11" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="41" t="s">
         <v>276</v>
       </c>
       <c r="H11" s="43"/>
     </row>
-    <row r="12" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="41" t="s">
         <v>277</v>
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="41" t="s">
         <v>278</v>
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="41" t="s">
         <v>279</v>
       </c>
       <c r="H14" s="43"/>
     </row>
-    <row r="15" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="41" t="s">
         <v>280</v>
       </c>
       <c r="H15" s="43"/>
     </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="41" t="s">
         <v>281</v>
       </c>
       <c r="H16" s="43"/>
     </row>
-    <row r="17" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="41" t="s">
         <v>282</v>
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="41" t="s">
         <v>283</v>
       </c>
       <c r="H18" s="43"/>
     </row>
-    <row r="19" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="41" t="s">
         <v>284</v>
       </c>
       <c r="H19" s="43"/>
     </row>
-    <row r="20" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="41" t="s">
         <v>285</v>
       </c>
       <c r="H20" s="43"/>
     </row>
-    <row r="21" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="41" t="s">
         <v>286</v>
       </c>
       <c r="H21" s="43"/>
     </row>
-    <row r="22" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="41" t="s">
         <v>287</v>
       </c>
       <c r="H22" s="43"/>
     </row>
-    <row r="23" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="41" t="s">
         <v>288</v>
       </c>
       <c r="H23" s="43"/>
     </row>
-    <row r="24" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C24" s="41" t="s">
         <v>289</v>
       </c>
       <c r="H24" s="43"/>
     </row>
-    <row r="25" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="41" t="s">
         <v>291</v>
       </c>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="41" t="s">
         <v>292</v>
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="41" t="s">
         <v>293</v>
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="41" t="s">
         <v>294</v>
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D31" s="41" t="s">
         <v>295</v>
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E32" s="41" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D33" s="41" t="s">
         <v>297</v>
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E34" s="41" t="s">
         <v>298</v>
       </c>
@@ -12311,83 +12318,83 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D35" s="41" t="s">
         <v>300</v>
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E36" s="41" t="s">
         <v>301</v>
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C38" s="41" t="s">
         <v>302</v>
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D40" s="41" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D41" s="41" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="39" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="39" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D47" s="39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E48" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E49" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F50" s="39" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F51" s="39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D52" s="39" t="s">
         <v>314</v>
       </c>
@@ -12395,187 +12402,187 @@
       <c r="R52" s="45"/>
       <c r="S52" s="45"/>
     </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E53" s="39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E54" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F55" s="39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F56" s="39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F57" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E59" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E60" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F61" s="39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D62" s="39" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E63" s="39" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E64" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F65" s="39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="46" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D68" s="39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E69" s="39" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F70" s="39" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="39" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D74" s="39" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E75" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F76" s="39" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F77" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D78" s="39" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E79" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F80" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F81" s="39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" s="39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D84" s="39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D85" s="39" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E86" s="39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F87" s="39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F88" s="39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E89" s="39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F90" s="39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F91" s="39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" s="39" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D94" s="39" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D95" s="47" t="s">
         <v>344</v>
       </c>
@@ -12587,127 +12594,127 @@
       </c>
       <c r="I95" s="47"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D99" s="39" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E100" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E101" s="39" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F102" s="39" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E104" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F105" s="39" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D108" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E109" s="39" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E110" s="39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F111" s="39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E113" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F114" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F115" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D117" s="39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E118" s="39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F119" s="39" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E121" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F122" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F123" s="39" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D125" s="39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E126" s="39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E127" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E128" s="39" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C130" s="41"/>
       <c r="D130" s="41"/>
       <c r="E130" s="41"/>
@@ -12718,7 +12725,7 @@
       <c r="J130" s="41"/>
       <c r="K130" s="41"/>
     </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C131" s="41" t="s">
         <v>367</v>
       </c>
@@ -12733,7 +12740,7 @@
       </c>
       <c r="K131" s="41"/>
     </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C132" s="41"/>
       <c r="D132" s="41"/>
       <c r="E132" s="41"/>
@@ -12755,7 +12762,7 @@
       </c>
       <c r="K132" s="41"/>
     </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
       <c r="E133" s="41"/>
@@ -12772,7 +12779,7 @@
       <c r="J133" s="41"/>
       <c r="K133" s="41"/>
     </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C134" s="41"/>
       <c r="D134" s="41"/>
       <c r="E134" s="41"/>
@@ -12785,7 +12792,7 @@
       <c r="J134" s="41"/>
       <c r="K134" s="41"/>
     </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C135" s="41"/>
       <c r="D135" s="41"/>
       <c r="E135" s="41"/>
@@ -12798,7 +12805,7 @@
       <c r="J135" s="41"/>
       <c r="K135" s="41"/>
     </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C136" s="41"/>
       <c r="D136" s="41"/>
       <c r="E136" s="41"/>
@@ -12809,7 +12816,7 @@
       <c r="J136" s="41"/>
       <c r="K136" s="41"/>
     </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C137" s="41"/>
       <c r="D137" s="41"/>
       <c r="E137" s="41"/>
@@ -12831,7 +12838,7 @@
       </c>
       <c r="K137" s="41"/>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C138" s="41"/>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
@@ -12848,7 +12855,7 @@
       <c r="J138" s="41"/>
       <c r="K138" s="41"/>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C139" s="41"/>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
@@ -12861,7 +12868,7 @@
       <c r="J139" s="41"/>
       <c r="K139" s="41"/>
     </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C140" s="41"/>
       <c r="D140" s="41"/>
       <c r="E140" s="41"/>
@@ -12874,7 +12881,7 @@
       <c r="J140" s="41"/>
       <c r="K140" s="41"/>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F142" s="41" t="s">
         <v>369</v>
       </c>
@@ -12892,7 +12899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F143" s="41" t="s">
         <v>373</v>
       </c>
@@ -12903,20 +12910,20 @@
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F144" s="41" t="s">
         <v>378</v>
       </c>
       <c r="G144" s="44"/>
     </row>
-    <row r="145" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F145" s="41" t="s">
         <v>379</v>
       </c>
       <c r="G145" s="44"/>
     </row>
-    <row r="146" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F147" s="41" t="s">
         <v>369</v>
       </c>
@@ -12934,7 +12941,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F148" s="41" t="s">
         <v>373</v>
       </c>
@@ -12946,7 +12953,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F149" s="41" t="s">
         <v>380</v>
       </c>
@@ -12955,178 +12962,178 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F150" s="41" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:10" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C152" s="39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D153" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E154" s="39" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E155" s="39" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:10" x14ac:dyDescent="0.2">
       <c r="F156" s="39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.2">
       <c r="G157" s="39" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.2">
       <c r="F158" s="39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.2">
       <c r="G159" s="39" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.2">
       <c r="F160" s="39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G161" s="39" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D163" s="39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E164" s="39" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E165" s="39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F166" s="39" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G167" s="39" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F168" s="39" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G169" s="39" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F170" s="39" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G171" s="39" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D173" s="39" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E174" s="39" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F175" s="39" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G176" s="39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H177" s="39" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G178" s="39" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H179" s="39" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G180" s="39" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
       <c r="H181" s="39" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E183" s="39" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F184" s="39" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G185" s="39" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G186" s="39" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G187" s="39" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C190" s="41" t="s">
         <v>412</v>
       </c>
@@ -13139,7 +13146,7 @@
       <c r="J190" s="41"/>
       <c r="K190" s="41"/>
     </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C191" s="41"/>
       <c r="D191" s="41" t="s">
         <v>122</v>
@@ -13152,7 +13159,7 @@
       <c r="J191" s="41"/>
       <c r="K191" s="41"/>
     </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C192" s="41"/>
       <c r="D192" s="41"/>
       <c r="E192" s="41" t="s">
@@ -13165,7 +13172,7 @@
       <c r="J192" s="41"/>
       <c r="K192" s="41"/>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C193" s="41"/>
       <c r="D193" s="41"/>
       <c r="E193" s="41"/>
@@ -13178,7 +13185,7 @@
       <c r="J193" s="41"/>
       <c r="K193" s="41"/>
     </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C194" s="41"/>
       <c r="D194" s="41"/>
       <c r="E194" s="41"/>
@@ -13191,7 +13198,7 @@
       <c r="J194" s="41"/>
       <c r="K194" s="41"/>
     </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C195" s="41"/>
       <c r="D195" s="41"/>
       <c r="E195" s="41"/>
@@ -13204,7 +13211,7 @@
       <c r="J195" s="41"/>
       <c r="K195" s="41"/>
     </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C196" s="41"/>
       <c r="D196" s="41"/>
       <c r="E196" s="41" t="s">
@@ -13217,7 +13224,7 @@
       <c r="J196" s="41"/>
       <c r="K196" s="41"/>
     </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C197" s="41"/>
       <c r="D197" s="41"/>
       <c r="E197" s="41"/>
@@ -13230,7 +13237,7 @@
       <c r="J197" s="41"/>
       <c r="K197" s="41"/>
     </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C198" s="41"/>
       <c r="D198" s="41"/>
       <c r="E198" s="41"/>
@@ -13243,7 +13250,7 @@
       <c r="J198" s="41"/>
       <c r="K198" s="41"/>
     </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C199" s="41"/>
       <c r="D199" s="41"/>
       <c r="E199" s="41"/>
@@ -13256,7 +13263,7 @@
       <c r="J199" s="41"/>
       <c r="K199" s="41"/>
     </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C200" s="41"/>
       <c r="D200" s="41" t="s">
         <v>417</v>
@@ -13269,7 +13276,7 @@
       <c r="J200" s="41"/>
       <c r="K200" s="41"/>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C201" s="41"/>
       <c r="D201" s="41"/>
       <c r="E201" s="41" t="s">
@@ -13282,7 +13289,7 @@
       <c r="J201" s="41"/>
       <c r="K201" s="41"/>
     </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C202" s="41"/>
       <c r="D202" s="41"/>
       <c r="E202" s="41"/>
@@ -13297,7 +13304,7 @@
       <c r="L202" s="41"/>
       <c r="M202" s="41"/>
     </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C203" s="41"/>
       <c r="D203" s="41"/>
       <c r="E203" s="41"/>
@@ -13312,7 +13319,7 @@
       <c r="L203" s="41"/>
       <c r="M203" s="41"/>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C204" s="41"/>
       <c r="D204" s="41"/>
       <c r="E204" s="41"/>
@@ -13325,7 +13332,7 @@
       <c r="J204" s="41"/>
       <c r="K204" s="41"/>
     </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C205" s="41"/>
       <c r="D205" s="41"/>
       <c r="E205" s="41" t="s">
@@ -13338,7 +13345,7 @@
       <c r="J205" s="41"/>
       <c r="K205" s="41"/>
     </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C206" s="41"/>
       <c r="D206" s="41"/>
       <c r="E206" s="41"/>
@@ -13351,7 +13358,7 @@
       <c r="J206" s="41"/>
       <c r="K206" s="41"/>
     </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C207" s="41"/>
       <c r="D207" s="41"/>
       <c r="E207" s="41"/>
@@ -13364,7 +13371,7 @@
       <c r="J207" s="41"/>
       <c r="K207" s="41"/>
     </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C208" s="41"/>
       <c r="D208" s="41"/>
       <c r="E208" s="41"/>
@@ -13377,7 +13384,7 @@
       <c r="J208" s="41"/>
       <c r="K208" s="41"/>
     </row>
-    <row r="209" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C209" s="41"/>
       <c r="D209" s="41" t="s">
         <v>420</v>
@@ -13390,7 +13397,7 @@
       <c r="J209" s="41"/>
       <c r="K209" s="41"/>
     </row>
-    <row r="210" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C210" s="41"/>
       <c r="D210" s="41"/>
       <c r="E210" s="41" t="s">
@@ -13403,7 +13410,7 @@
       <c r="J210" s="41"/>
       <c r="K210" s="41"/>
     </row>
-    <row r="211" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C211" s="41"/>
       <c r="D211" s="41"/>
       <c r="E211" s="41"/>
@@ -13416,7 +13423,7 @@
       <c r="J211" s="41"/>
       <c r="K211" s="41"/>
     </row>
-    <row r="212" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C212" s="41"/>
       <c r="D212" s="41"/>
       <c r="E212" s="41"/>
@@ -13429,7 +13436,7 @@
       <c r="J212" s="41"/>
       <c r="K212" s="41"/>
     </row>
-    <row r="213" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C213" s="41"/>
       <c r="D213" s="41"/>
       <c r="E213" s="41"/>
@@ -13442,7 +13449,7 @@
       <c r="J213" s="41"/>
       <c r="K213" s="41"/>
     </row>
-    <row r="214" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
       <c r="E214" s="41"/>
@@ -13455,7 +13462,7 @@
       <c r="J214" s="41"/>
       <c r="K214" s="41"/>
     </row>
-    <row r="215" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C215" s="41"/>
       <c r="D215" s="41"/>
       <c r="E215" s="41" t="s">
@@ -13470,7 +13477,7 @@
       <c r="J215" s="41"/>
       <c r="K215" s="41"/>
     </row>
-    <row r="216" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C216" s="41"/>
       <c r="D216" s="41"/>
       <c r="E216" s="41"/>
@@ -13483,7 +13490,7 @@
       <c r="J216" s="41"/>
       <c r="K216" s="41"/>
     </row>
-    <row r="217" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C217" s="41"/>
       <c r="D217" s="41"/>
       <c r="E217" s="41"/>
@@ -13496,7 +13503,7 @@
       <c r="J217" s="41"/>
       <c r="K217" s="41"/>
     </row>
-    <row r="218" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C218" s="41"/>
       <c r="D218" s="41"/>
       <c r="E218" s="41" t="s">
@@ -13509,7 +13516,7 @@
       <c r="J218" s="41"/>
       <c r="K218" s="41"/>
     </row>
-    <row r="219" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C219" s="41"/>
       <c r="D219" s="41" t="s">
         <v>333</v>
@@ -13522,7 +13529,7 @@
       <c r="J219" s="41"/>
       <c r="K219" s="41"/>
     </row>
-    <row r="220" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C220" s="41"/>
       <c r="D220" s="41"/>
       <c r="E220" s="41" t="s">
@@ -13535,7 +13542,7 @@
       <c r="J220" s="41"/>
       <c r="K220" s="41"/>
     </row>
-    <row r="221" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C221" s="41"/>
       <c r="D221" s="41"/>
       <c r="E221" s="41"/>
@@ -13548,7 +13555,7 @@
       <c r="J221" s="41"/>
       <c r="K221" s="41"/>
     </row>
-    <row r="222" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C222" s="41"/>
       <c r="D222" s="41"/>
       <c r="E222" s="41" t="s">
@@ -13561,7 +13568,7 @@
       <c r="J222" s="41"/>
       <c r="K222" s="41"/>
     </row>
-    <row r="223" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C223" s="41"/>
       <c r="D223" s="41"/>
       <c r="E223" s="41"/>
@@ -13574,7 +13581,7 @@
       <c r="J223" s="41"/>
       <c r="K223" s="41"/>
     </row>
-    <row r="224" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C224" s="41"/>
       <c r="D224" s="41"/>
       <c r="E224" s="41"/>
@@ -13587,7 +13594,7 @@
       <c r="J224" s="41"/>
       <c r="K224" s="41"/>
     </row>
-    <row r="225" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C225" s="41"/>
       <c r="D225" s="41"/>
       <c r="E225" s="41"/>
@@ -13600,7 +13607,7 @@
       <c r="J225" s="41"/>
       <c r="K225" s="41"/>
     </row>
-    <row r="226" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C226" s="41"/>
       <c r="D226" s="41"/>
       <c r="E226" s="41"/>
@@ -13613,7 +13620,7 @@
       <c r="J226" s="41"/>
       <c r="K226" s="41"/>
     </row>
-    <row r="227" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C227" s="41"/>
       <c r="D227" s="41"/>
       <c r="E227" s="41"/>
@@ -13626,7 +13633,7 @@
       <c r="J227" s="41"/>
       <c r="K227" s="41"/>
     </row>
-    <row r="228" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C228" s="41"/>
       <c r="D228" s="41"/>
       <c r="E228" s="41"/>
@@ -13639,7 +13646,7 @@
       <c r="J228" s="41"/>
       <c r="K228" s="41"/>
     </row>
-    <row r="229" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C229" s="41"/>
       <c r="D229" s="41"/>
       <c r="E229" s="41"/>
@@ -13652,7 +13659,7 @@
       <c r="J229" s="41"/>
       <c r="K229" s="41"/>
     </row>
-    <row r="230" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C230" s="41"/>
       <c r="D230" s="41" t="s">
         <v>434</v>
@@ -13665,7 +13672,7 @@
       <c r="J230" s="41"/>
       <c r="K230" s="41"/>
     </row>
-    <row r="231" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C231" s="41"/>
       <c r="E231" s="39" t="s">
         <v>435</v>
@@ -13677,7 +13684,7 @@
       <c r="J231" s="41"/>
       <c r="K231" s="41"/>
     </row>
-    <row r="232" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C232" s="41"/>
       <c r="E232" s="39">
         <v>1</v>
@@ -13689,7 +13696,7 @@
       <c r="J232" s="41"/>
       <c r="K232" s="41"/>
     </row>
-    <row r="233" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C233" s="41"/>
       <c r="E233" s="39">
         <v>2</v>
@@ -13701,7 +13708,7 @@
       <c r="J233" s="41"/>
       <c r="K233" s="41"/>
     </row>
-    <row r="234" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C234" s="41"/>
       <c r="D234" s="41"/>
       <c r="E234" s="39">
@@ -13716,7 +13723,7 @@
       <c r="J234" s="41"/>
       <c r="K234" s="41"/>
     </row>
-    <row r="235" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C235" s="41"/>
       <c r="D235" s="41"/>
       <c r="E235" s="39">
@@ -13731,7 +13738,7 @@
       <c r="J235" s="41"/>
       <c r="K235" s="41"/>
     </row>
-    <row r="236" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E236" s="39">
         <v>5</v>
       </c>
@@ -13739,7 +13746,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="237" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E237" s="39">
         <v>6</v>
       </c>
@@ -13747,7 +13754,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="238" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="238" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E238" s="39">
         <v>7</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="239" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="239" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E239" s="39">
         <v>8</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E240" s="39">
         <v>9</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="241" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E241" s="39">
         <v>10</v>
       </c>
@@ -13779,7 +13786,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="242" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E242" s="39">
         <v>11</v>
       </c>
@@ -13787,7 +13794,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="243" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E243" s="39">
         <v>12</v>
       </c>
@@ -13795,7 +13802,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E244" s="39">
         <v>13</v>
       </c>
@@ -13803,7 +13810,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E245" s="39">
         <v>14</v>
       </c>
@@ -13815,20 +13822,20 @@
       <c r="I245" s="41"/>
       <c r="J245" s="41"/>
     </row>
-    <row r="246" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F246" s="41"/>
       <c r="G246" s="41"/>
     </row>
-    <row r="247" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F247" s="41"/>
       <c r="G247" s="41"/>
     </row>
-    <row r="248" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="248" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E248" s="39" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="249" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E249" s="39">
         <v>1</v>
       </c>
@@ -13836,7 +13843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="250" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E250" s="39">
         <v>2</v>
       </c>
@@ -13844,7 +13851,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="251" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="251" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E251" s="39">
         <v>3</v>
       </c>
@@ -13852,7 +13859,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="252" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E252" s="39">
         <v>4</v>
       </c>
@@ -13860,7 +13867,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="253" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E253" s="39">
         <v>5</v>
       </c>
@@ -13868,7 +13875,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="254" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="254" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E254" s="39">
         <v>6</v>
       </c>
@@ -13876,7 +13883,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="255" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="255" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E255" s="39">
         <v>7</v>
       </c>
@@ -13884,7 +13891,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="256" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="256" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E256" s="39">
         <v>8</v>
       </c>
@@ -13892,7 +13899,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="257" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E257" s="39">
         <v>9</v>
       </c>
@@ -13900,7 +13907,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="258" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E258" s="41">
         <v>10</v>
       </c>
@@ -13910,7 +13917,7 @@
       <c r="G258" s="41"/>
       <c r="H258" s="41"/>
     </row>
-    <row r="259" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E259" s="41">
         <v>11</v>
       </c>
@@ -13920,7 +13927,7 @@
       <c r="G259" s="41"/>
       <c r="H259" s="41"/>
     </row>
-    <row r="260" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E260" s="39">
         <v>12</v>
       </c>
@@ -13928,7 +13935,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="261" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E261" s="39">
         <v>13</v>
       </c>
@@ -13936,7 +13943,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="262" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E262" s="39">
         <v>14</v>
       </c>
@@ -13944,7 +13951,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="263" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E263" s="39">
         <v>15</v>
       </c>
@@ -13952,7 +13959,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="264" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E264" s="39">
         <v>16</v>
       </c>
@@ -13960,7 +13967,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="265" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E265" s="39">
         <v>17</v>
       </c>
@@ -13968,7 +13975,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="266" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E266" s="39">
         <v>18</v>
       </c>
@@ -13976,12 +13983,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="270" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E270" s="39" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="271" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E271" s="41">
         <v>1</v>
       </c>
@@ -13989,7 +13996,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="272" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E272" s="41">
         <v>2</v>
       </c>
@@ -13997,7 +14004,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="273" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="273" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E273" s="41">
         <v>3</v>
       </c>
@@ -14005,7 +14012,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="274" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="274" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E274" s="41">
         <v>4</v>
       </c>
@@ -14013,7 +14020,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="275" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="275" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E275" s="41">
         <v>5</v>
       </c>
@@ -14021,7 +14028,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="276" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E276" s="41">
         <v>6</v>
       </c>
@@ -14029,7 +14036,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="277" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="277" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E277" s="41">
         <v>7</v>
       </c>
@@ -14037,7 +14044,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="278" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="278" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E278" s="41">
         <v>8</v>
       </c>
@@ -14045,7 +14052,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="279" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="279" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E279" s="41">
         <v>9</v>
       </c>
@@ -14060,7 +14067,7 @@
       <c r="L279" s="41"/>
       <c r="M279" s="41"/>
     </row>
-    <row r="280" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="280" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E280" s="41">
         <v>10</v>
       </c>
@@ -14075,7 +14082,7 @@
       <c r="L280" s="41"/>
       <c r="M280" s="41"/>
     </row>
-    <row r="281" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="281" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E281" s="41">
         <v>11</v>
       </c>
@@ -14086,7 +14093,7 @@
       <c r="H281" s="41"/>
       <c r="I281" s="41"/>
     </row>
-    <row r="282" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="282" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E282" s="41">
         <v>12</v>
       </c>
@@ -14097,7 +14104,7 @@
       <c r="H282" s="41"/>
       <c r="I282" s="41"/>
     </row>
-    <row r="283" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="283" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E283" s="41">
         <v>13</v>
       </c>
@@ -14108,7 +14115,7 @@
       <c r="H283" s="41"/>
       <c r="I283" s="41"/>
     </row>
-    <row r="284" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="284" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E284" s="41">
         <v>14</v>
       </c>
@@ -14119,7 +14126,7 @@
       <c r="H284" s="41"/>
       <c r="I284" s="41"/>
     </row>
-    <row r="285" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="285" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E285" s="41">
         <v>15</v>
       </c>
@@ -14130,130 +14137,130 @@
       <c r="H285" s="41"/>
       <c r="I285" s="41"/>
     </row>
-    <row r="286" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="286" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E286" s="41"/>
       <c r="F286" s="41"/>
       <c r="G286" s="41"/>
       <c r="H286" s="41"/>
       <c r="I286" s="41"/>
     </row>
-    <row r="288" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="288" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E288" s="39" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="289" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="289" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F289" s="39" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="290" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="290" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F290" s="39" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="292" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="293" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="294" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="295" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F295" s="86"/>
       <c r="G295" s="86"/>
       <c r="H295" s="86"/>
       <c r="I295" s="86"/>
     </row>
-    <row r="296" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="297" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="298" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="299" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="300" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="301" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="302" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="303" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="304" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="305" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="306" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="307" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="308" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="309" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="310" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="311" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F320" s="48"/>
       <c r="G320" s="48"/>
       <c r="H320" s="48"/>
       <c r="I320" s="48"/>
     </row>
-    <row r="321" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="322" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="323" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="324" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="325" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="326" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="327" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="328" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="329" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="330" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="331" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="332" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="333" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="334" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="335" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="336" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="337" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="338" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="339" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="340" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="341" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="342" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="343" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="344" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="345" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="346" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="347" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="348" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="349" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="350" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="351" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="352" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="353" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="354" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="355" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="321" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F355" s="86"/>
       <c r="G355" s="86"/>
       <c r="H355" s="86"/>
       <c r="I355" s="86"/>
     </row>
-    <row r="356" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="357" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="358" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="359" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="360" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="361" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="362" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="363" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="364" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="365" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="366" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="367" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="368" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="369" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="370" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="371" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="372" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="373" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="374" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="375" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="376" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="377" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="356" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="6:9" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="13:18" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M377" s="41"/>
       <c r="N377" s="41"/>
       <c r="O377" s="41"/>
@@ -14261,7 +14268,7 @@
       <c r="Q377" s="41"/>
       <c r="R377" s="41"/>
     </row>
-    <row r="378" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="378" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M378" s="41"/>
       <c r="N378" s="41"/>
       <c r="O378" s="41"/>
@@ -14269,7 +14276,7 @@
       <c r="Q378" s="41"/>
       <c r="R378" s="41"/>
     </row>
-    <row r="379" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="379" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M379" s="41"/>
       <c r="N379" s="41"/>
       <c r="O379" s="41"/>
@@ -14277,7 +14284,7 @@
       <c r="Q379" s="41"/>
       <c r="R379" s="41"/>
     </row>
-    <row r="380" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="380" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M380" s="41"/>
       <c r="N380" s="41"/>
       <c r="O380" s="41"/>
@@ -14285,7 +14292,7 @@
       <c r="Q380" s="41"/>
       <c r="R380" s="41"/>
     </row>
-    <row r="381" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="381" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M381" s="41"/>
       <c r="N381" s="41"/>
       <c r="O381" s="41"/>
@@ -14293,7 +14300,7 @@
       <c r="Q381" s="41"/>
       <c r="R381" s="41"/>
     </row>
-    <row r="382" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="382" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M382" s="41"/>
       <c r="N382" s="41"/>
       <c r="O382" s="41"/>
@@ -14301,7 +14308,7 @@
       <c r="Q382" s="41"/>
       <c r="R382" s="41"/>
     </row>
-    <row r="383" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="383" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M383" s="41"/>
       <c r="N383" s="41"/>
       <c r="O383" s="41"/>
@@ -14309,7 +14316,7 @@
       <c r="Q383" s="41"/>
       <c r="R383" s="41"/>
     </row>
-    <row r="384" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="384" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M384" s="41"/>
       <c r="N384" s="41"/>
       <c r="O384" s="41"/>
@@ -14317,7 +14324,7 @@
       <c r="Q384" s="41"/>
       <c r="R384" s="41"/>
     </row>
-    <row r="385" spans="13:18" x14ac:dyDescent="0.15">
+    <row r="385" spans="13:18" x14ac:dyDescent="0.2">
       <c r="M385" s="41"/>
       <c r="N385" s="41"/>
       <c r="O385" s="41"/>
@@ -14343,18 +14350,18 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>73</v>
       </c>
@@ -14386,7 +14393,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14430,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14474,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -14518,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14562,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -14606,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -14665,276 +14672,276 @@
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="32" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C39" s="25" t="s">
         <v>506</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C40" s="25"/>
       <c r="D40" s="25" t="s">
         <v>507</v>
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E46" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E49" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="59" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="3:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="67" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="5:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
-    <row r="84" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="5:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14950,22 +14957,22 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>125</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -14985,7 +14992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -14994,7 +15001,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>105</v>
       </c>
@@ -15003,12 +15010,12 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -15037,7 +15044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="13">
         <v>4</v>
       </c>
@@ -15070,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
@@ -15097,17 +15104,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>130</v>
       </c>
@@ -15121,7 +15128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -15142,7 +15149,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>133</v>
       </c>
@@ -15163,12 +15170,12 @@
         <v>1.2373333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>134</v>
       </c>
@@ -15185,7 +15192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>135</v>
       </c>
@@ -15206,12 +15213,12 @@
         <v>0.44228485044811566</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>137</v>
       </c>
@@ -15220,7 +15227,7 @@
         <v>1.5542857142857143</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
@@ -15229,12 +15236,12 @@
         <v>2.8281904761904753</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
         <v>123</v>
       </c>
@@ -15242,7 +15249,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
@@ -15255,7 +15262,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
@@ -15268,7 +15275,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>98</v>
       </c>
@@ -15281,12 +15288,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="25" t="s">
         <v>142</v>
       </c>
@@ -15300,7 +15307,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>96</v>
       </c>
@@ -15309,7 +15316,7 @@
         <v>1.2675000000000001</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>97</v>
       </c>
@@ -15318,7 +15325,7 @@
         <v>1.4624999999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>98</v>
       </c>
@@ -15327,17 +15334,17 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
         <v>145</v>
       </c>
@@ -15354,7 +15361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -15373,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E41" s="1">
         <v>2</v>
       </c>
@@ -15393,7 +15400,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E42" s="1">
         <v>3</v>
       </c>
@@ -15413,7 +15420,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <v>4</v>
       </c>
@@ -15433,7 +15440,7 @@
         <v>0.70300000000000007</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E44" s="1">
         <v>5</v>
       </c>
@@ -15453,7 +15460,7 @@
         <v>0.91089999999999993</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E45" s="1">
         <v>6</v>
       </c>
@@ -15473,13 +15480,13 @@
         <v>0.97326999999999986</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F46" s="17"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
         <v>96</v>
       </c>
@@ -15491,7 +15498,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>97</v>
       </c>
@@ -15500,7 +15507,7 @@
         <v>1.3782000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
         <v>98</v>
       </c>
@@ -15509,12 +15516,12 @@
         <v>1.6538400000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>151</v>
       </c>
@@ -15530,7 +15537,7 @@
       <c r="M52"/>
       <c r="N52"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C53"/>
       <c r="D53" s="3"/>
       <c r="E53" s="14" t="s">
@@ -15556,7 +15563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C54"/>
       <c r="D54" s="3" t="s">
         <v>158</v>
@@ -15586,7 +15593,7 @@
       <c r="M54"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C55"/>
       <c r="D55" s="1" t="s">
         <v>122</v>
@@ -15608,7 +15615,7 @@
       <c r="M55"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C56"/>
       <c r="D56" s="1" t="s">
         <v>162</v>
@@ -15640,7 +15647,7 @@
         <v>0.15555555555555556</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C57"/>
       <c r="D57" s="1" t="s">
         <v>163</v>
@@ -15672,7 +15679,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C58"/>
       <c r="D58" s="1" t="s">
         <v>164</v>
@@ -15708,7 +15715,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C59"/>
       <c r="D59" s="1" t="s">
         <v>165</v>
@@ -15744,7 +15751,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C60"/>
       <c r="D60" s="1" t="s">
         <v>166</v>
@@ -15780,7 +15787,7 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>167</v>
       </c>
@@ -15792,12 +15799,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C64" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D65" s="3" t="s">
         <v>96</v>
       </c>
@@ -15806,7 +15813,7 @@
         <v>1.2149532710280375</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D66" s="3" t="s">
         <v>97</v>
       </c>
@@ -15815,7 +15822,7 @@
         <v>1.4018691588785048</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D67" s="3" t="s">
         <v>98</v>
       </c>
@@ -15824,12 +15831,12 @@
         <v>1.6822429906542058</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>214</v>
       </c>
@@ -15838,7 +15845,7 @@
         <v>0.57934596832956098</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>212</v>
       </c>
@@ -15847,7 +15854,7 @@
         <v>0.5766181818181817</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>213</v>
       </c>
@@ -15859,12 +15866,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>218</v>
       </c>
@@ -15878,7 +15885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D76" s="17">
         <v>1.5</v>
       </c>
@@ -15894,18 +15901,18 @@
         <v>0.62147457353703595</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>218</v>
       </c>
@@ -15919,7 +15926,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D81" s="17">
         <v>1</v>
       </c>
@@ -15935,18 +15942,18 @@
         <v>0.93001466264101051</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>218</v>
       </c>
@@ -15960,7 +15967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D86" s="17">
         <v>1</v>
       </c>
@@ -15976,18 +15983,18 @@
         <v>0.49095718860096255</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>223</v>
       </c>
@@ -15996,7 +16003,7 @@
         <v>5.7934596832956098E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>224</v>
       </c>
@@ -16005,7 +16012,7 @@
         <v>5.7661818181818258E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>225</v>
       </c>
@@ -16017,12 +16024,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D95" s="1" t="s">
         <v>227</v>
       </c>
@@ -16030,7 +16037,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C96" s="3" t="s">
         <v>96</v>
       </c>
@@ -16042,7 +16049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="3" t="s">
         <v>97</v>
       </c>
@@ -16054,7 +16061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="3" t="s">
         <v>98</v>
       </c>
@@ -16066,12 +16073,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D102" s="1" t="s">
         <v>230</v>
       </c>
@@ -16097,7 +16104,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C103" s="3" t="s">
         <v>215</v>
       </c>
@@ -16130,7 +16137,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C104" s="3" t="s">
         <v>231</v>
       </c>
@@ -16160,7 +16167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C105" s="3" t="s">
         <v>232</v>
       </c>
@@ -16190,15 +16197,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C108" s="3" t="s">
         <v>215</v>
       </c>
@@ -16207,7 +16214,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C109" s="3" t="s">
         <v>231</v>
       </c>
@@ -16216,7 +16223,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C110" s="3" t="s">
         <v>232</v>
       </c>
@@ -16225,7 +16232,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
         <v>237</v>
       </c>
@@ -16234,7 +16241,7 @@
         <v>1.8690476190476193</v>
       </c>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
         <v>238</v>
       </c>
@@ -16243,12 +16250,12 @@
         <v>1.6230158730158732</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
         <v>245</v>
       </c>
@@ -16257,7 +16264,7 @@
         <v>0.86842105263157898</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
         <v>246</v>
       </c>
@@ -16266,12 +16273,12 @@
         <v>2.4242105263157896</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D117" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C118" s="3" t="s">
         <v>96</v>
       </c>
@@ -16280,7 +16287,7 @@
         <v>0.53625705601389495</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C119" s="3" t="s">
         <v>97</v>
       </c>
@@ -16289,7 +16296,7 @@
         <v>0.61875814155449416</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C120" s="3" t="s">
         <v>98</v>
       </c>
@@ -16298,7 +16305,7 @@
         <v>0.74250976986539297</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C122" s="3" t="s">
         <v>248</v>
       </c>
@@ -16309,7 +16316,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D123" s="12">
         <f>D119/E123</f>
         <v>0.20625271385149804</v>
@@ -16318,22 +16325,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E127" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
         <v>259</v>
       </c>
@@ -16345,12 +16352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D131" s="3" t="s">
         <v>262</v>
       </c>
@@ -16359,7 +16366,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C132" s="3" t="s">
         <v>253</v>
       </c>
@@ -16368,7 +16375,7 @@
         <v>0.62531645569620242</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C133" s="3" t="s">
         <v>254</v>
       </c>
@@ -16377,7 +16384,7 @@
         <v>0.965064659332175</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C134" s="3" t="s">
         <v>255</v>
       </c>
@@ -16386,7 +16393,7 @@
         <v>0.66287878787878796</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
         <v>257</v>
       </c>
@@ -16395,10 +16402,10 @@
         <v>0.75108663430238842</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
         <v>263</v>
       </c>
@@ -16406,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
         <v>261</v>
       </c>
@@ -16415,15 +16422,15 @@
         <v>0.75108663430238842</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
         <v>260</v>
       </c>
@@ -16434,7 +16441,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C142" s="17">
         <v>0.1</v>
       </c>
@@ -16446,10 +16453,10 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
     </row>
   </sheetData>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="637">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2459,15 +2459,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗己方大招，打断敌方大招。看玩家操作（或者塔特殊需求打断怪提升怪物价值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小招打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗己方大招，打断敌方大招。看玩家操作影响较大（或者塔特殊需求打断怪提升怪物价值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值同大招均等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>消耗一次攻击，增加小招概率打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现大招概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3005,6 +3033,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3013,9 +3044,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3167,11 +3195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="615753840"/>
-        <c:axId val="615754400"/>
+        <c:axId val="370997376"/>
+        <c:axId val="370999616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="615753840"/>
+        <c:axId val="370997376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615754400"/>
+        <c:crossAx val="370999616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3221,7 +3249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="615754400"/>
+        <c:axId val="370999616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3300,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615753840"/>
+        <c:crossAx val="370997376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,11 +3622,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="739063056"/>
-        <c:axId val="739063616"/>
+        <c:axId val="676690256"/>
+        <c:axId val="371368928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="739063056"/>
+        <c:axId val="676690256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739063616"/>
+        <c:crossAx val="371368928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="739063616"/>
+        <c:axId val="371368928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,7 +3727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739063056"/>
+        <c:crossAx val="676690256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3882,11 +3910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="370997376"/>
-        <c:axId val="370997936"/>
+        <c:axId val="370398624"/>
+        <c:axId val="370399184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370997376"/>
+        <c:axId val="370398624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370997936"/>
+        <c:crossAx val="370399184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,7 +3964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370997936"/>
+        <c:axId val="370399184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +4015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370997376"/>
+        <c:crossAx val="370398624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6570,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="G46" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6650,59 +6678,59 @@
       <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="89" t="s">
+      <c r="W7" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AD7" s="88" t="s">
+      <c r="AD7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="88" t="s">
+      <c r="AK7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="88"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
-      <c r="AR7" s="88" t="s">
+      <c r="AR7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AS7" s="88"/>
-      <c r="AT7" s="88"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
       <c r="AU7" s="6"/>
-      <c r="AW7" s="88" t="s">
+      <c r="AW7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="88"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
@@ -9750,7 +9778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -14202,10 +14230,10 @@
     <row r="293" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="294" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="295" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F295" s="90"/>
-      <c r="G295" s="90"/>
-      <c r="H295" s="90"/>
-      <c r="I295" s="90"/>
+      <c r="F295" s="91"/>
+      <c r="G295" s="91"/>
+      <c r="H295" s="91"/>
+      <c r="I295" s="91"/>
     </row>
     <row r="296" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="297" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -14272,10 +14300,10 @@
     <row r="353" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="354" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="355" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F355" s="90"/>
-      <c r="G355" s="90"/>
-      <c r="H355" s="90"/>
-      <c r="I355" s="90"/>
+      <c r="F355" s="91"/>
+      <c r="G355" s="91"/>
+      <c r="H355" s="91"/>
+      <c r="I355" s="91"/>
     </row>
     <row r="356" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="357" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -14989,10 +15017,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15289,7 +15317,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="C27" s="7">
         <f>职业定位属性配比!D48</f>
@@ -15315,7 +15343,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="C29" s="7">
         <f>职业定位属性配比!D50</f>
@@ -15347,7 +15375,7 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="E33" s="7">
         <f>C27/$D$62</f>
@@ -15365,7 +15393,7 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
@@ -15538,13 +15566,13 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D47" s="3" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="E47" s="7">
         <f>C27/$D$62</f>
         <v>1.2149532710280375</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="88">
         <f>E47/3</f>
         <v>0.40498442367601251</v>
       </c>
@@ -15557,20 +15585,20 @@
         <f t="shared" ref="E48:E49" si="2">C28/$D$62</f>
         <v>1.4018691588785048</v>
       </c>
-      <c r="F48" s="91">
+      <c r="F48" s="88">
         <f t="shared" ref="F48:F49" si="3">E48/3</f>
         <v>0.46728971962616828</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D49" s="3" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="2"/>
         <v>1.6822429906542058</v>
       </c>
-      <c r="F49" s="91">
+      <c r="F49" s="88">
         <f t="shared" si="3"/>
         <v>0.56074766355140193</v>
       </c>
@@ -15865,7 +15893,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="E65" s="7">
         <f>D27/$D$62</f>
@@ -15883,7 +15911,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
-        <v>98</v>
+        <v>635</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="4"/>
@@ -15946,18 +15974,18 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D76" s="17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E76" s="17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F76" s="4">
         <f>SQRT(E70/(D76*E76))*D76</f>
-        <v>0.93221186030555392</v>
+        <v>2.4069606734002966</v>
       </c>
       <c r="G76" s="4">
         <f>SQRT(E70/(D76*E76))*E76</f>
-        <v>0.62147457353703595</v>
+        <v>0.24069606734002968</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
@@ -15990,15 +16018,15 @@
         <v>1</v>
       </c>
       <c r="E81" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4">
         <f>SQRT(E71/(D81*E81))*D81</f>
-        <v>0.62000977509400701</v>
+        <v>0.53694421582608642</v>
       </c>
       <c r="G81" s="4">
         <f>SQRT(E71/(D81*E81))*E81</f>
-        <v>0.93001466264101051</v>
+        <v>1.0738884316521728</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
@@ -16411,6 +16439,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C129" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B130" s="3" t="s">
         <v>251</v>
@@ -16521,24 +16554,53 @@
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C145" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D146" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D147" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C149" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D149" s="1" t="s">
-        <v>629</v>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D150" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D151" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D152" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E152" s="26">
+        <f>1/5*3</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F152" s="26">
+        <f>SUM(F76+G76)*E152*D152</f>
+        <v>0.79429702222209808</v>
       </c>
     </row>
   </sheetData>

--- a/gd/数值规划/职业平衡.xlsx
+++ b/gd/数值规划/职业平衡.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="645" windowWidth="28545" windowHeight="19455" tabRatio="610" activeTab="6"/>
+    <workbookView xWindow="28935" yWindow="120" windowWidth="27495" windowHeight="12210" tabRatio="610" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="职业定位属性配比" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +33,7 @@
     <author>mtong</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2768,7 +2763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3003,9 +2998,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3194,12 +3186,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370997376"/>
-        <c:axId val="370999616"/>
+        <c:axId val="170108800"/>
+        <c:axId val="170148224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370997376"/>
+        <c:axId val="170108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,7 +3234,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370999616"/>
+        <c:crossAx val="170148224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3249,7 +3242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370999616"/>
+        <c:axId val="170148224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370997376"/>
+        <c:crossAx val="170108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3621,12 +3614,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="676690256"/>
-        <c:axId val="371368928"/>
+        <c:axId val="208364672"/>
+        <c:axId val="208366592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="676690256"/>
+        <c:axId val="208364672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371368928"/>
+        <c:crossAx val="208366592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3676,7 +3670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371368928"/>
+        <c:axId val="208366592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3727,7 +3721,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676690256"/>
+        <c:crossAx val="208364672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3852,49 +3846,49 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.505</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.72500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54570000000000007</c:v>
+                  <c:v>0.80475000000000019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60570000000000013</c:v>
+                  <c:v>1.0047500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66570000000000018</c:v>
+                  <c:v>1.2047500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68567100000000025</c:v>
+                  <c:v>1.4216050000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77567100000000022</c:v>
+                  <c:v>1.6216050000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86567100000000019</c:v>
+                  <c:v>1.8216050000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98567100000000019</c:v>
+                  <c:v>2.0216050000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0250978400000001</c:v>
+                  <c:v>2.5876544000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.14509784</c:v>
+                  <c:v>2.7876544000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2650978400000001</c:v>
+                  <c:v>2.9876544000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3850978400000002</c:v>
+                  <c:v>3.1876544000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5050978400000004</c:v>
+                  <c:v>3.3876544000000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5803527320000004</c:v>
+                  <c:v>4.7427161600000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3909,12 +3903,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370398624"/>
-        <c:axId val="370399184"/>
+        <c:axId val="382946688"/>
+        <c:axId val="131204224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="370398624"/>
+        <c:axId val="382946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3951,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370399184"/>
+        <c:crossAx val="131204224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +3959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370399184"/>
+        <c:axId val="131204224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370398624"/>
+        <c:crossAx val="382946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6037,8 +6032,10 @@
       <sheetName val="装备属性生成表"/>
       <sheetName val="装备拆分数值生成"/>
       <sheetName val="宝石产出"/>
+      <sheetName val="baseAttr"/>
       <sheetName val="自用草稿"/>
-      <sheetName val="人物成长等级"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="能力数值"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6046,252 +6043,252 @@
       <sheetData sheetId="2">
         <row r="28">
           <cell r="C28">
-            <v>862</v>
+            <v>1091</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>897</v>
+            <v>1135</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>932</v>
+            <v>1179</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>967</v>
+            <v>1223</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>1001</v>
+            <v>1267</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>1036</v>
+            <v>1311</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>1071</v>
+            <v>1355</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>1106</v>
+            <v>1399</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>1141</v>
+            <v>1443</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>1176</v>
+            <v>1488</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>1210</v>
+            <v>1532</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>1245</v>
+            <v>1576</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>1280</v>
+            <v>1620</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>1315</v>
+            <v>1664</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>1350</v>
+            <v>1708</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
-            <v>1385</v>
+            <v>1752</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44">
-            <v>1420</v>
+            <v>1796</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45">
-            <v>1454</v>
+            <v>1840</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46">
-            <v>1489</v>
+            <v>1884</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47">
-            <v>1524</v>
+            <v>1928</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
-            <v>1559</v>
+            <v>1972</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49">
-            <v>1594</v>
+            <v>2016</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
-            <v>1629</v>
+            <v>2060</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51">
-            <v>1664</v>
+            <v>2104</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52">
-            <v>1698</v>
+            <v>2148</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53">
-            <v>1733</v>
+            <v>2193</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54">
-            <v>1768</v>
+            <v>2237</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55">
-            <v>1803</v>
+            <v>2281</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
-            <v>1838</v>
+            <v>2325</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
-            <v>1873</v>
+            <v>2369</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
-            <v>1907</v>
+            <v>2413</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
-            <v>1942</v>
+            <v>2457</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60">
-            <v>1977</v>
+            <v>2501</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61">
-            <v>2012</v>
+            <v>2545</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62">
-            <v>2047</v>
+            <v>2589</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63">
-            <v>2082</v>
+            <v>2633</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64">
-            <v>2117</v>
+            <v>2677</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65">
-            <v>2151</v>
+            <v>2721</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66">
-            <v>2186</v>
+            <v>2765</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67">
-            <v>2221</v>
+            <v>2809</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68">
-            <v>2256</v>
+            <v>2853</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69">
-            <v>2291</v>
+            <v>2897</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70">
-            <v>2326</v>
+            <v>2942</v>
           </cell>
         </row>
         <row r="71">
           <cell r="C71">
-            <v>2360</v>
+            <v>2986</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72">
-            <v>2395</v>
+            <v>3030</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
-            <v>2430</v>
+            <v>3074</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
-            <v>2465</v>
+            <v>3118</v>
           </cell>
         </row>
         <row r="75">
           <cell r="C75">
-            <v>2500</v>
+            <v>3162</v>
           </cell>
         </row>
         <row r="76">
           <cell r="C76">
-            <v>2535</v>
+            <v>3206</v>
           </cell>
         </row>
         <row r="77">
           <cell r="C77">
-            <v>2570</v>
+            <v>3250</v>
           </cell>
         </row>
       </sheetData>
@@ -6303,7 +6300,9 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6598,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY108"/>
   <sheetViews>
-    <sheetView topLeftCell="G46" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -6678,59 +6677,59 @@
       <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="90" t="s">
+      <c r="W7" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AD7" s="89" t="s">
+      <c r="AD7" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="89" t="s">
+      <c r="AK7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
-      <c r="AR7" s="89" t="s">
+      <c r="AR7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
       <c r="AU7" s="6"/>
-      <c r="AW7" s="89" t="s">
+      <c r="AW7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
@@ -9840,7 +9839,7 @@
       <c r="B5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="80">
         <v>0.3</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -9851,7 +9850,7 @@
       <c r="C6" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>E5/职业定位属性配比!E9</f>
         <v>0.06</v>
       </c>
@@ -9860,7 +9859,7 @@
       <c r="C7" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="81">
         <f>E5/职业定位属性配比!F9</f>
         <v>0.15</v>
       </c>
@@ -9869,7 +9868,7 @@
       <c r="C8" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="81">
         <f>E5/职业定位属性配比!G9</f>
         <v>9.9999999999999992E-2</v>
       </c>
@@ -10103,11 +10102,11 @@
       </c>
       <c r="C38" s="26">
         <f>[1]属性拆分生成!C28</f>
-        <v>862</v>
+        <v>1091</v>
       </c>
       <c r="D38" s="26">
         <f>ROUNDDOWN(C38*$D$8,0)</f>
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10116,11 +10115,11 @@
       </c>
       <c r="C39" s="26">
         <f>[1]属性拆分生成!C29</f>
-        <v>897</v>
+        <v>1135</v>
       </c>
       <c r="D39" s="26">
         <f t="shared" ref="D39:D87" si="0">ROUNDDOWN(C39*$D$8,0)</f>
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10129,11 +10128,11 @@
       </c>
       <c r="C40" s="26">
         <f>[1]属性拆分生成!C30</f>
-        <v>932</v>
+        <v>1179</v>
       </c>
       <c r="D40" s="26">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10142,11 +10141,11 @@
       </c>
       <c r="C41" s="26">
         <f>[1]属性拆分生成!C31</f>
-        <v>967</v>
+        <v>1223</v>
       </c>
       <c r="D41" s="26">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10155,11 +10154,11 @@
       </c>
       <c r="C42" s="26">
         <f>[1]属性拆分生成!C32</f>
-        <v>1001</v>
+        <v>1267</v>
       </c>
       <c r="D42" s="26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10168,11 +10167,11 @@
       </c>
       <c r="C43" s="26">
         <f>[1]属性拆分生成!C33</f>
-        <v>1036</v>
+        <v>1311</v>
       </c>
       <c r="D43" s="26">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10181,11 +10180,11 @@
       </c>
       <c r="C44" s="26">
         <f>[1]属性拆分生成!C34</f>
-        <v>1071</v>
+        <v>1355</v>
       </c>
       <c r="D44" s="26">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10194,11 +10193,11 @@
       </c>
       <c r="C45" s="26">
         <f>[1]属性拆分生成!C35</f>
-        <v>1106</v>
+        <v>1399</v>
       </c>
       <c r="D45" s="26">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10207,11 +10206,11 @@
       </c>
       <c r="C46" s="26">
         <f>[1]属性拆分生成!C36</f>
-        <v>1141</v>
+        <v>1443</v>
       </c>
       <c r="D46" s="26">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10220,11 +10219,11 @@
       </c>
       <c r="C47" s="26">
         <f>[1]属性拆分生成!C37</f>
-        <v>1176</v>
+        <v>1488</v>
       </c>
       <c r="D47" s="26">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10233,11 +10232,11 @@
       </c>
       <c r="C48" s="26">
         <f>[1]属性拆分生成!C38</f>
-        <v>1210</v>
+        <v>1532</v>
       </c>
       <c r="D48" s="26">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10246,11 +10245,11 @@
       </c>
       <c r="C49" s="26">
         <f>[1]属性拆分生成!C39</f>
-        <v>1245</v>
+        <v>1576</v>
       </c>
       <c r="D49" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10259,11 +10258,11 @@
       </c>
       <c r="C50" s="26">
         <f>[1]属性拆分生成!C40</f>
-        <v>1280</v>
+        <v>1620</v>
       </c>
       <c r="D50" s="26">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10272,11 +10271,11 @@
       </c>
       <c r="C51" s="26">
         <f>[1]属性拆分生成!C41</f>
-        <v>1315</v>
+        <v>1664</v>
       </c>
       <c r="D51" s="26">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10285,11 +10284,11 @@
       </c>
       <c r="C52" s="26">
         <f>[1]属性拆分生成!C42</f>
-        <v>1350</v>
+        <v>1708</v>
       </c>
       <c r="D52" s="26">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10298,11 +10297,11 @@
       </c>
       <c r="C53" s="26">
         <f>[1]属性拆分生成!C43</f>
-        <v>1385</v>
+        <v>1752</v>
       </c>
       <c r="D53" s="26">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10311,11 +10310,11 @@
       </c>
       <c r="C54" s="26">
         <f>[1]属性拆分生成!C44</f>
-        <v>1420</v>
+        <v>1796</v>
       </c>
       <c r="D54" s="26">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10324,11 +10323,11 @@
       </c>
       <c r="C55" s="26">
         <f>[1]属性拆分生成!C45</f>
-        <v>1454</v>
+        <v>1840</v>
       </c>
       <c r="D55" s="26">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10337,11 +10336,11 @@
       </c>
       <c r="C56" s="26">
         <f>[1]属性拆分生成!C46</f>
-        <v>1489</v>
+        <v>1884</v>
       </c>
       <c r="D56" s="26">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10350,11 +10349,11 @@
       </c>
       <c r="C57" s="26">
         <f>[1]属性拆分生成!C47</f>
-        <v>1524</v>
+        <v>1928</v>
       </c>
       <c r="D57" s="26">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10363,11 +10362,11 @@
       </c>
       <c r="C58" s="26">
         <f>[1]属性拆分生成!C48</f>
-        <v>1559</v>
+        <v>1972</v>
       </c>
       <c r="D58" s="26">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10376,11 +10375,11 @@
       </c>
       <c r="C59" s="26">
         <f>[1]属性拆分生成!C49</f>
-        <v>1594</v>
+        <v>2016</v>
       </c>
       <c r="D59" s="26">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10389,11 +10388,11 @@
       </c>
       <c r="C60" s="26">
         <f>[1]属性拆分生成!C50</f>
-        <v>1629</v>
+        <v>2060</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10402,11 +10401,11 @@
       </c>
       <c r="C61" s="26">
         <f>[1]属性拆分生成!C51</f>
-        <v>1664</v>
+        <v>2104</v>
       </c>
       <c r="D61" s="26">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10415,11 +10414,11 @@
       </c>
       <c r="C62" s="26">
         <f>[1]属性拆分生成!C52</f>
-        <v>1698</v>
+        <v>2148</v>
       </c>
       <c r="D62" s="26">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10428,11 +10427,11 @@
       </c>
       <c r="C63" s="26">
         <f>[1]属性拆分生成!C53</f>
-        <v>1733</v>
+        <v>2193</v>
       </c>
       <c r="D63" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10441,11 +10440,11 @@
       </c>
       <c r="C64" s="26">
         <f>[1]属性拆分生成!C54</f>
-        <v>1768</v>
+        <v>2237</v>
       </c>
       <c r="D64" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10454,11 +10453,11 @@
       </c>
       <c r="C65" s="26">
         <f>[1]属性拆分生成!C55</f>
-        <v>1803</v>
+        <v>2281</v>
       </c>
       <c r="D65" s="26">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10467,11 +10466,11 @@
       </c>
       <c r="C66" s="26">
         <f>[1]属性拆分生成!C56</f>
-        <v>1838</v>
+        <v>2325</v>
       </c>
       <c r="D66" s="26">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10480,11 +10479,11 @@
       </c>
       <c r="C67" s="26">
         <f>[1]属性拆分生成!C57</f>
-        <v>1873</v>
+        <v>2369</v>
       </c>
       <c r="D67" s="26">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10493,11 +10492,11 @@
       </c>
       <c r="C68" s="26">
         <f>[1]属性拆分生成!C58</f>
-        <v>1907</v>
+        <v>2413</v>
       </c>
       <c r="D68" s="26">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10506,11 +10505,11 @@
       </c>
       <c r="C69" s="26">
         <f>[1]属性拆分生成!C59</f>
-        <v>1942</v>
+        <v>2457</v>
       </c>
       <c r="D69" s="26">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10519,11 +10518,11 @@
       </c>
       <c r="C70" s="26">
         <f>[1]属性拆分生成!C60</f>
-        <v>1977</v>
+        <v>2501</v>
       </c>
       <c r="D70" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10532,11 +10531,11 @@
       </c>
       <c r="C71" s="26">
         <f>[1]属性拆分生成!C61</f>
-        <v>2012</v>
+        <v>2545</v>
       </c>
       <c r="D71" s="26">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10545,11 +10544,11 @@
       </c>
       <c r="C72" s="26">
         <f>[1]属性拆分生成!C62</f>
-        <v>2047</v>
+        <v>2589</v>
       </c>
       <c r="D72" s="26">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10558,11 +10557,11 @@
       </c>
       <c r="C73" s="26">
         <f>[1]属性拆分生成!C63</f>
-        <v>2082</v>
+        <v>2633</v>
       </c>
       <c r="D73" s="26">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10571,11 +10570,11 @@
       </c>
       <c r="C74" s="26">
         <f>[1]属性拆分生成!C64</f>
-        <v>2117</v>
+        <v>2677</v>
       </c>
       <c r="D74" s="26">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10584,11 +10583,11 @@
       </c>
       <c r="C75" s="26">
         <f>[1]属性拆分生成!C65</f>
-        <v>2151</v>
+        <v>2721</v>
       </c>
       <c r="D75" s="26">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10597,11 +10596,11 @@
       </c>
       <c r="C76" s="26">
         <f>[1]属性拆分生成!C66</f>
-        <v>2186</v>
+        <v>2765</v>
       </c>
       <c r="D76" s="26">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10610,11 +10609,11 @@
       </c>
       <c r="C77" s="26">
         <f>[1]属性拆分生成!C67</f>
-        <v>2221</v>
+        <v>2809</v>
       </c>
       <c r="D77" s="26">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10623,11 +10622,11 @@
       </c>
       <c r="C78" s="26">
         <f>[1]属性拆分生成!C68</f>
-        <v>2256</v>
+        <v>2853</v>
       </c>
       <c r="D78" s="26">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10636,11 +10635,11 @@
       </c>
       <c r="C79" s="26">
         <f>[1]属性拆分生成!C69</f>
-        <v>2291</v>
+        <v>2897</v>
       </c>
       <c r="D79" s="26">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10649,11 +10648,11 @@
       </c>
       <c r="C80" s="26">
         <f>[1]属性拆分生成!C70</f>
-        <v>2326</v>
+        <v>2942</v>
       </c>
       <c r="D80" s="26">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10662,11 +10661,11 @@
       </c>
       <c r="C81" s="26">
         <f>[1]属性拆分生成!C71</f>
-        <v>2360</v>
+        <v>2986</v>
       </c>
       <c r="D81" s="26">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10675,11 +10674,11 @@
       </c>
       <c r="C82" s="26">
         <f>[1]属性拆分生成!C72</f>
-        <v>2395</v>
+        <v>3030</v>
       </c>
       <c r="D82" s="26">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10688,11 +10687,11 @@
       </c>
       <c r="C83" s="26">
         <f>[1]属性拆分生成!C73</f>
-        <v>2430</v>
+        <v>3074</v>
       </c>
       <c r="D83" s="26">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10701,11 +10700,11 @@
       </c>
       <c r="C84" s="26">
         <f>[1]属性拆分生成!C74</f>
-        <v>2465</v>
+        <v>3118</v>
       </c>
       <c r="D84" s="26">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10714,11 +10713,11 @@
       </c>
       <c r="C85" s="26">
         <f>[1]属性拆分生成!C75</f>
-        <v>2500</v>
+        <v>3162</v>
       </c>
       <c r="D85" s="26">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10727,11 +10726,11 @@
       </c>
       <c r="C86" s="26">
         <f>[1]属性拆分生成!C76</f>
-        <v>2535</v>
+        <v>3206</v>
       </c>
       <c r="D86" s="26">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -10740,11 +10739,11 @@
       </c>
       <c r="C87" s="26">
         <f>[1]属性拆分生成!C77</f>
-        <v>2570</v>
+        <v>3250</v>
       </c>
       <c r="D87" s="26">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
@@ -10806,8 +10805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BM35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11945,63 +11944,63 @@
       </c>
       <c r="E29" s="73">
         <f>(D29)*(E35+1)</f>
-        <v>0.505</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F29" s="74">
         <f>E29+E32</f>
-        <v>0.53500000000000003</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="G29" s="75">
         <f>F29*(F35+1)</f>
-        <v>0.54570000000000007</v>
+        <v>0.80475000000000019</v>
       </c>
       <c r="H29" s="75">
         <f>G29+F32</f>
-        <v>0.60570000000000013</v>
+        <v>1.0047500000000003</v>
       </c>
       <c r="I29" s="75">
         <f>H29+F32</f>
-        <v>0.66570000000000018</v>
+        <v>1.2047500000000002</v>
       </c>
       <c r="J29" s="75">
         <f>(I29)*(G35+1)</f>
-        <v>0.68567100000000025</v>
+        <v>1.4216050000000002</v>
       </c>
       <c r="K29" s="73">
         <f>J29+G32</f>
-        <v>0.77567100000000022</v>
+        <v>1.6216050000000002</v>
       </c>
       <c r="L29" s="73">
         <f>K29+G32</f>
-        <v>0.86567100000000019</v>
+        <v>1.8216050000000001</v>
       </c>
       <c r="M29" s="73">
         <f>L29+H32</f>
-        <v>0.98567100000000019</v>
+        <v>2.0216050000000001</v>
       </c>
       <c r="N29" s="73">
         <f>(M29)*(H35+1)</f>
-        <v>1.0250978400000001</v>
+        <v>2.5876544000000004</v>
       </c>
       <c r="O29" s="26">
         <f>N29+H32</f>
-        <v>1.14509784</v>
+        <v>2.7876544000000005</v>
       </c>
       <c r="P29" s="26">
         <f>O29+H32</f>
-        <v>1.2650978400000001</v>
+        <v>2.9876544000000007</v>
       </c>
       <c r="Q29" s="26">
         <f>P29+H32</f>
-        <v>1.3850978400000002</v>
+        <v>3.1876544000000009</v>
       </c>
       <c r="R29" s="26">
         <f>Q29+H32</f>
-        <v>1.5050978400000004</v>
+        <v>3.3876544000000011</v>
       </c>
       <c r="S29" s="26">
         <f>(R29)*(I35+1)</f>
-        <v>1.5803527320000004</v>
+        <v>4.7427161600000014</v>
       </c>
     </row>
     <row r="30" spans="2:65" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -12050,20 +12049,20 @@
         <v>589</v>
       </c>
       <c r="D32" s="70"/>
-      <c r="E32" s="78">
-        <v>0.03</v>
-      </c>
-      <c r="F32" s="78">
-        <v>0.06</v>
-      </c>
-      <c r="G32" s="78">
-        <v>0.09</v>
-      </c>
-      <c r="H32" s="78">
-        <v>0.12</v>
-      </c>
-      <c r="I32" s="78">
-        <v>0.16</v>
+      <c r="E32" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="79">
+        <v>0.2</v>
       </c>
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
@@ -12075,7 +12074,7 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D33" s="79"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
@@ -12121,20 +12120,20 @@
         <v>590</v>
       </c>
       <c r="D35" s="76"/>
-      <c r="E35" s="80">
-        <v>0.01</v>
-      </c>
-      <c r="F35" s="80">
-        <v>0.02</v>
-      </c>
-      <c r="G35" s="80">
-        <v>0.03</v>
-      </c>
-      <c r="H35" s="80">
-        <v>0.04</v>
-      </c>
-      <c r="I35" s="80">
+      <c r="E35" s="79">
         <v>0.05</v>
+      </c>
+      <c r="F35" s="79">
+        <v>0.11</v>
+      </c>
+      <c r="G35" s="79">
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="79">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I35" s="79">
+        <v>0.4</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
@@ -14230,10 +14229,10 @@
     <row r="293" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="294" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="295" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F295" s="91"/>
-      <c r="G295" s="91"/>
-      <c r="H295" s="91"/>
-      <c r="I295" s="91"/>
+      <c r="F295" s="90"/>
+      <c r="G295" s="90"/>
+      <c r="H295" s="90"/>
+      <c r="I295" s="90"/>
     </row>
     <row r="296" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="297" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -14300,10 +14299,10 @@
     <row r="353" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="354" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="355" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F355" s="91"/>
-      <c r="G355" s="91"/>
-      <c r="H355" s="91"/>
-      <c r="I355" s="91"/>
+      <c r="F355" s="90"/>
+      <c r="G355" s="90"/>
+      <c r="H355" s="90"/>
+      <c r="I355" s="90"/>
     </row>
     <row r="356" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="357" spans="6:9" s="40" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -15019,7 +15018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
@@ -15406,154 +15405,154 @@
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D39" s="84"/>
-      <c r="E39" s="83" t="s">
+      <c r="D39" s="83"/>
+      <c r="E39" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="85" t="s">
+      <c r="I39" s="84" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D40" s="84"/>
-      <c r="E40" s="84">
+      <c r="D40" s="83"/>
+      <c r="E40" s="83">
         <v>1</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="83">
         <v>0</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="83">
         <f>F40*(1-1/职业定位属性配比!$N$57)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="83">
         <f>SUM($G$40:G40)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D41" s="84"/>
-      <c r="E41" s="84">
+      <c r="D41" s="83"/>
+      <c r="E41" s="83">
         <v>2</v>
       </c>
-      <c r="F41" s="87">
+      <c r="F41" s="86">
         <v>0.1</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="83">
         <f>F41*(1-1/职业定位属性配比!$N$57)</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="83">
         <f>SUM($G$40:G41)*职业定位属性配比!$N$57</f>
         <v>1.9999999999999993E-2</v>
       </c>
-      <c r="I41" s="86">
+      <c r="I41" s="85">
         <f>H41/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D42" s="84"/>
-      <c r="E42" s="84">
+      <c r="D42" s="83"/>
+      <c r="E42" s="83">
         <v>3</v>
       </c>
-      <c r="F42" s="87">
+      <c r="F42" s="86">
         <v>0.34</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="83">
         <f>(1-F41)*F42*(1-1/职业定位属性配比!$N$57)</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="83">
         <f>SUM($G$40:G42)*职业定位属性配比!$N$57</f>
         <v>8.1199999999999981E-2</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="85">
         <f>H42/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D43" s="84"/>
-      <c r="E43" s="84">
+      <c r="D43" s="83"/>
+      <c r="E43" s="83">
         <v>4</v>
       </c>
-      <c r="F43" s="87">
+      <c r="F43" s="86">
         <v>0.5</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="83">
         <f>(1-F42)*(1-F41)*F43*(1-1/职业定位属性配比!$N$57)</f>
         <v>4.9499999999999988E-2</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="83">
         <f>SUM($G$40:G43)*职业定位属性配比!$N$57</f>
         <v>0.14059999999999997</v>
       </c>
-      <c r="I43" s="86">
+      <c r="I43" s="85">
         <f>H43/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.70300000000000007</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D44" s="84"/>
-      <c r="E44" s="84">
+      <c r="D44" s="83"/>
+      <c r="E44" s="83">
         <v>5</v>
       </c>
-      <c r="F44" s="87">
+      <c r="F44" s="86">
         <v>0.7</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="83">
         <f>(1-F42)*(1-F43)*(1-F41)*F44*(1-1/职业定位属性配比!$N$57)</f>
         <v>3.4649999999999986E-2</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="83">
         <f>SUM($G$40:G44)*职业定位属性配比!$N$57</f>
         <v>0.18217999999999995</v>
       </c>
-      <c r="I44" s="86">
+      <c r="I44" s="85">
         <f>H44/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.91089999999999993</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D45" s="84"/>
-      <c r="E45" s="84">
+      <c r="D45" s="83"/>
+      <c r="E45" s="83">
         <v>6</v>
       </c>
-      <c r="F45" s="87">
+      <c r="F45" s="86">
         <v>0.7</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="83">
         <f>(1-F42)*(1-F43)*(1-F44)*(1-F41)*F45*(1-1/职业定位属性配比!$N$57)</f>
         <v>1.0394999999999998E-2</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="83">
         <f>SUM($G$40:G45)*职业定位属性配比!$N$57</f>
         <v>0.19465399999999994</v>
       </c>
-      <c r="I45" s="86">
+      <c r="I45" s="85">
         <f>H45/职业定位属性配比!$N$57/(1-1/职业定位属性配比!$N$57)</f>
         <v>0.97326999999999986</v>
       </c>
@@ -15572,7 +15571,7 @@
         <f>C27/$D$62</f>
         <v>1.2149532710280375</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="87">
         <f>E47/3</f>
         <v>0.40498442367601251</v>
       </c>
@@ -15585,7 +15584,7 @@
         <f t="shared" ref="E48:E49" si="2">C28/$D$62</f>
         <v>1.4018691588785048</v>
       </c>
-      <c r="F48" s="88">
+      <c r="F48" s="87">
         <f t="shared" ref="F48:F49" si="3">E48/3</f>
         <v>0.46728971962616828</v>
       </c>
@@ -15598,7 +15597,7 @@
         <f t="shared" si="2"/>
         <v>1.6822429906542058</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="87">
         <f t="shared" si="3"/>
         <v>0.56074766355140193</v>
       </c>
